--- a/miracuse_kits.xlsx
+++ b/miracuse_kits.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="192">
   <si>
     <t xml:space="preserve">Class</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Attack</t>
   </si>
   <si>
-    <t xml:space="preserve">Venom applied to a weapon that turns flesh to stone, induces paralysis, or blinds the target. The user chooses which effect takes place.</t>
+    <t xml:space="preserve">Venom applied to a weapon that turns flesh to stone, induces paralysis, or causes significant pain. The user chooses which effect takes place.</t>
   </si>
   <si>
     <t xml:space="preserve">Beast’s Blood</t>
@@ -61,7 +61,16 @@
     <t xml:space="preserve">Utility</t>
   </si>
   <si>
-    <t xml:space="preserve">Potion that grants the user a dog’s sense of smell, a falcon’s sense of sight, or a bat’s sense of hearing. The user chooses which effect takes place.</t>
+    <t xml:space="preserve">Potion that grants the user a dog’s sense of smell, a falcon’s sense of sight, or a bat’s sense of hearing for a few hours. The user chooses which effect takes place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dead Nettle Dust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack, AoE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powder that does one of the following: induces uncontrollable sneezing, inflicts burns on exposed skin, or blinds. The user chooses which effect takes place. Can be applied to a weapon like a venom.</t>
   </si>
   <si>
     <t xml:space="preserve">Elixir</t>
@@ -73,55 +82,52 @@
     <t xml:space="preserve">Potion that recovers two Physical boxes or two Mental boxes. The user chooses which effect takes place.</t>
   </si>
   <si>
-    <t xml:space="preserve">Halcyon Vapor</t>
+    <t xml:space="preserve">Holy Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility, Attack, Defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potion that renders the user inert to magic, making them highly resistant to spells, clearing away any lingering curses, and preventing them from using magic for a few hours. Can be applied to a weapon like a venom. Harmful to the undead and similar creatures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyde’s Draught</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility, Defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potion that changes the user’s skin to one of the following: thin fireproof dragon scales, fish scales that let the user breathe underwater, or sticky scales that let the user climb with ease.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemical Grenades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hazard, AoE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenade that covers an area with a grease slick, a tangle of thick sticky webs, or a choking cloud of black smoke. The user chooses which effect takes place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elemental Grenades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack, Hazard, AoE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenade that covers an area with searing flames, a sheet of ice, or crackling electricity. The user chooses which effect takes place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flare Bullets</t>
   </si>
   <si>
     <t xml:space="preserve">Attack, Utility</t>
   </si>
   <si>
-    <t xml:space="preserve">Aerosol spray that induces vivid hallucinations. When used carefully, allows the user to see magic and spirits. When used offensively, induces paranoia and madness. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jekyll’s Draught</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potion that allows the user to take Advantage on Physique or Agility rolls for the next few hours, but inflicts one Mental damage when consumed. The user chooses which effect takes place.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandman's Dust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attack, Stealth, Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Powder that dazes and prevents new memories from being formed when breathed. When ingested, the user is compelled to speak truth and falls unconscious shortly after.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munitions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemical Grenades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hazard, AoE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenade that covers an area with a grease slick, a tangle of sticky webs, or a thick cloud of smoke. The user chooses which effect takes place.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flare Bullets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bullet that burns hot and bright, piercing through stone, metal, and magic. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storm Grenades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attack, Hazard, AoE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenade that covers an area with searing flames, freezing ice, or crackling electricity. The user chooses which effect takes place.</t>
+    <t xml:space="preserve">Ammo that burns hot and bright, piercing through stone, metal, and magic. </t>
   </si>
   <si>
     <t xml:space="preserve">Timed Charge</t>
@@ -133,16 +139,16 @@
     <t xml:space="preserve">Trenchsteel Grenades</t>
   </si>
   <si>
+    <t xml:space="preserve">Attack, Utility, AoE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grenade that covers an area with hot metal caltrops, a bale of barbed wire, or flashing lights and deafening bangs. The user chooses which effect takes place.</t>
   </si>
   <si>
     <t xml:space="preserve">Trick Bullets</t>
   </si>
   <si>
-    <t xml:space="preserve">Attack, Utility, AoE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elastic bullet that strikes with blunt force, knocking over targets and rebounding in closed spaces. Can change course mid-flight by detonating a second time.</t>
+    <t xml:space="preserve">Elastic ammo that strikes with blunt force, knocking over targets and rebounding in closed spaces. Can change course mid-flight by detonating a second time.</t>
   </si>
   <si>
     <t xml:space="preserve">Tools</t>
@@ -151,37 +157,37 @@
     <t xml:space="preserve">Bag of Holding</t>
   </si>
   <si>
-    <t xml:space="preserve">Bag that’s bigger on the inside than the outside. Items placed inside become weightless until withdrawn. </t>
+    <t xml:space="preserve">Bag that’s bigger on the inside than the outside. Items placed within become weightless until withdrawn. </t>
   </si>
   <si>
     <t xml:space="preserve">Boots of Traversing</t>
   </si>
   <si>
-    <t xml:space="preserve">A pair of boots that allow the wearer to walk on water, glide down when falling from great heights, and stick to walls.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clockwork Bird</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A mechanical bird that can fly, repeat spoken messages, stand watch, and carry out simple orders.</t>
+    <t xml:space="preserve">A pair of boots that allow the wearer to walk on water, glide down when falling from great heights, or stick to walls.</t>
   </si>
   <si>
     <t xml:space="preserve">Immovable Rod</t>
   </si>
   <si>
-    <t xml:space="preserve">Retractable pole that locks into place when activated, defying gravity and requiring immense force to move.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philosopher’s Stone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gemstone that can transmute a substance into a similar substance when activated, such as changing metals into other metals. Effects fade over several hours.</t>
+    <t xml:space="preserve">Retractable steel pole that locks into place when activated, floating in defiance of gravity. Requires immense force to move. </t>
   </si>
   <si>
     <t xml:space="preserve">Quicksilver Homunculus</t>
   </si>
   <si>
-    <t xml:space="preserve">Sentient metal ooze that can change shape, becoming a platform, a weapon, or other object.</t>
+    <t xml:space="preserve">Sentient metal ooze that can change shape and hardness. Can be transformed into various tools, weapons, and objects when activated. Can follow simple orders.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Transmutation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute substances into other, similar substances. You can spend this Kit’s uses to apply Knowledge or Perception instead of Aura when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A deck of cards, each painted to resemble a person that the owner knows. When focusing on one or more cards, the user can communicate telepathically with the person on the card, provided that the target is willing and able.</t>
   </si>
   <si>
     <t xml:space="preserve">Mage</t>
@@ -310,7 +316,7 @@
     <t xml:space="preserve">Spirit of Sound</t>
   </si>
   <si>
-    <t xml:space="preserve">Amplify and quiet. Used to create and manipulate acoustics.</t>
+    <t xml:space="preserve">Amplify and quiet. Used to create and manipulate sound.</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit of Thermos</t>
@@ -322,127 +328,103 @@
     <t xml:space="preserve">Scoundrel</t>
   </si>
   <si>
-    <t xml:space="preserve">Scout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility, Stealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use Cunning or Agility when scouting an area. You can use a Prep Point to learn an enemy’s weakness or find an alternative entrance to a location.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beastmaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility, Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have Advantage on all rolls against animals and monsters. You can spend a Prep Point to mesmerize animals and monsters, preventing them from acting for a short time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camouflage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stealth, Attack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Assume a Disguise” can be used to assume the appearance of an object or of terrain. You can use a Prep Point to make a ranged sneak attack without breaking your disguise.</t>
+    <t xml:space="preserve">Ranger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast Tamer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You enlist a local animal to assist you. The animal can track, warn you of danger, fight, and do anything a creature of its kind might. You can speak with and understand the animal. You can compel the animal to do something it doesn’t want to by spending a Prep Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lifesense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can sense the presence or absence of life nearby. You can spend a Prep Point to extend your range by a significant amount, or to sense the general emotional state of any creature in range.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piper’s Flute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a musical instrument that attracts and influences nearby creatures when played. You can spend a Prep Point to do one of the following: mesmerize an animal or animal-like creature, lull unwary creatures to sleep, or incite them to rampage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional two Prep Points. When you use a Prep Point to change Kits, you can change two Kits instead of one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows for control and limited manifestation of plant matter. You can spend a Prep Point to use Cunning or Agility instead of Aura when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tracker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use Cunning or Agility when scouting areas, tracking a target, or collecting information. You can spend a Prep Point to know an enemy’s weakness, find a secret entrance to a location, or find a lead in an investigation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assassinate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack, Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sneak attacks inflict an additional point of damage. You can spend a Prep Point to enter stealth, even from combat or while in plain sight.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social, Prep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Characters met through “I Know a Guy” owe you a favor, and tend to be highly placed in organizations. You can spend a Prep Point to declare that you have blackmail against a target provided that you could reasonably justify having prepared blackmail ahead of time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contingency Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility, Health, Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The items from “What You Needed” can be less plausible and more valuable, reflecting your ability to plan for all eventualities. You can spend a Prep Point to recover a Mental box and vice versa. Can be done once per action if used in combat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convincing Fake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility, Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a Skill you have no points in, and treat it as half the level of your highest Skill (rounded down). You can spend a Prep Point to change the chosen Skill, provided you have a few minutes to concentrate.</t>
   </si>
   <si>
     <t xml:space="preserve">Infiltration Team</t>
   </si>
   <si>
+    <t xml:space="preserve">Stealth, Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nearby allies can use your Cunning when moving in stealth. “Assume a Disguise” also produces disguises for your allies. You can use a Prep Point to prevent you or your allies from being revealed when they otherwise would be.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iocane Powder</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stealth</t>
   </si>
   <si>
-    <t xml:space="preserve">Nearby allies can use your Cunning when moving in stealth. You can use a Prep Point to prevent you or your allies from being revealed when they otherwise would be.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prepared</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional two Prep Points. When you use a Prep Point to change Kits, you can change two Kits instead of one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trapper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can spend a Prep Point to do one of the following without breaking stealth: restrain a target, inflict Physical damage to a target, or sound an alarm if a target crosses a threshold.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assassinate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attack, Stealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sneak attacks inflict an additional point of damage. You can spend a Prep Point to enter stealth, even from combat or while in plain sight.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social, Prep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Characters met through “I Know a Guy” owe you a favor, and tend to be highly placed in organizations. You can spend a Prep Point to declare that you have blackmail against a target provided that you could reasonably justify having prepared blackmail ahead of time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contingency Plan</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Spend a Mental box to recover a Prep Point or vice versa. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Can be done once per action if performed in combat.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Convincing Fake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility, Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a Skill you have no points in, and treat it as half the level of your highest Skill (rounded down). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entourage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stealth, Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Assume a Disguise” also provides disguises for all of your allies. They use your Cunning for the purposes of the disguise.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thespian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can use Cunning as though it were Aura, Bravery, or Knowledge for social purposes. You can spend a Prep Point to credibly impersonate a Mage, Soldier, or Alchemist while doing so, as though you had used “Assume a Disguise”.</t>
+    <t xml:space="preserve">You can put unwary targets to sleep with a pinch of this alchemic poison. You can expend a Prep Point to use a higher concentration version, which will additionally wipe away the target’s memory of the day. Unsuitable for use in combat.</t>
   </si>
   <si>
     <t xml:space="preserve">Swashbuckler</t>
@@ -454,7 +436,7 @@
     <t xml:space="preserve">Defense</t>
   </si>
   <si>
-    <t xml:space="preserve">When you successfully defend against a Physical attack you can do one of the following: inflict Physical damage on the attacker, redirect the attack to a nearby enemy, or disarm the attacker. You can spend a Prep Point to succeed at defending regardless of your roll.</t>
+    <t xml:space="preserve">When you successfully defend against a Physical attack you can also choose to do one of the following: inflict Physical damage on the attacker, redirect the attack to a nearby enemy, or disarm the attacker. You can spend a Prep Point to succeed at defending regardless of your roll.</t>
   </si>
   <si>
     <t xml:space="preserve">Arta Forteiza</t>
@@ -466,199 +448,157 @@
     <t xml:space="preserve">Gain an additional Physical box. You can spend a Prep Point to recover one Physical box. Requires an action when performed in combat.</t>
   </si>
   <si>
+    <t xml:space="preserve">Arta Loquit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use Cunning as though it were Aura, Bravery, or Knowledge for social purposes. When you do so you can “Adopt a Disguise” to assume an alias without spending a Prep Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arta Siva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility, Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use Cunning to provoke and intimidate in combat. When you succeed on provoking or intimidating an enemy in combat, you recover a Prep Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arta Tuco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you make an attack you can also choose to do one of the following: move, use an item, or grant Advantage to the next person attacking that enemy. You can spend a Prep Point to inflict a sneak attack regardless of stealth.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Arta Valar</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">When you make an attack you can do one of the following: target Mental health rather than Physical, steal something from your target, or delay the target’s next turn in combat. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">You can spend a Prep Point to take an action in combat when it isn’t your turn. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Bravo</t>
+    <t xml:space="preserve">When you make an attack you can also choose to do one of the following in addition to dealing damage: target Mental health rather than Physical, steal something from your target, or delay the target’s next turn in combat. You can spend a Prep Point to take an action in combat when it isn’t your turn. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soldier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discipline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Boundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack, Defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take a free attack against enemies that attempt to enter or leave your melee range. You can spend a Fortune Point to prevent enemies and attacks from moving past you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Guard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can defend against Physical attacks with Physique or Bravery. You can spend a Fortune Point to protect a nearby ally from harm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your rally recovers a Physical or Mental box for the target when used in combat. User chooses which effect takes place. You can spend a Fortune Point to revive an incapacitated ally using rally.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Sights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks, both melee and ranged, have a longer range than normal. You can spend a Fortune Point to make a nearly impossible shot with pinpoint accuracy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Vigil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Physique or Bravery when watching for danger or sensing motives. You can spend a Fortune Point at the beginning of combat to take one action before anyone else.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Will</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional Mental box. You can spend a Fortune Point to recover a Mental box and vice versa. Can be done once per action if used in combat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambler’s Fallacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You recover a Fortune Point when you roll a 1. You can spend a Fortune Point to guarantee a 10 on your next action without rolling.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jackpot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you roll a 10 you take a +3 instead of a +2 to the result. You can spend a Fortune Point to increase your roll number by 1 (i.e. a 1 would become a 2, a 2 would become a 3, and so on). The roll number cannot increase beyond 10.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional two Fortune Point boxes. When you use a Fortune Point to reroll, add a +1 to the reroll result.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near Miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you roll a 1 you take a +0 instead of a -2 to the result. You can spend a Fortune Point to avoid taking damage from an attack or hazard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Chance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bend probability in your favor or against others. You can spend a Fortune Point to use Physique or Bravery instead of Aura when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winning Charm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You make a good first impression, acquiring the respect or affection of people you meet. You can spend a Fortune Point to establish a reputation of your choice among those you meet for the first time, regardless of whether or not it’s deserved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hordebreaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When make an attack, you can also choose to damage a second enemy. You can spend a Fortune Point to damage all enemies in combat or hit several targets simultaneously outside of combat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mindbreaker</t>
   </si>
   <si>
     <t xml:space="preserve">Attack, Social</t>
   </si>
   <si>
-    <t xml:space="preserve">You can provoke and intimidate using Cunning. Enemies that you provoke/intimidate take Mental damage. You can use a Prep Point to provoke or intimidate all enemies in combat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honor Among Thieves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can use Teamwork regardless of whether or not you have the Skill required to assist. You can use a Prep Point to give an ally your action in combat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subtlety</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you make an attack you can do one of the following: move, use an item, or grant Advantage to the next person attacking that enemy. You can spend a Prep Point to inflict a sneak attack regardless of stealth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soldier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulletproof</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use Physique or Bravery when defending against Physical attacks. You can spend a Fortune Point to make a melee counterattack on a successful defense.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hold the Line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your rally recovers a Physical or Mental box for the target when used in combat. You can spend a Fortune Point to revive an incapacitated ally using rally.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Will</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health, Defense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional Mental box. You can spend a Fortune Point to avoid taking Mental damage from attacks and hazards.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Make Your Own Luck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spend a Mental box to recover a Fortune Point or vice versa. Can be done once per action if performed in combat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watchful and Ready</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use Physique or Bravery when watching for danger or sensing motives. You can spend a Fortune Point at the beginning of combat to take one action before anyone else.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone of Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attack, Defense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Take a free attack against enemies that attempt to enter or leave your melee range. You can spend a Fortune Point to protect a nearby ally from harm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fortune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balanced Karma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility, Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you roll a 1, recover a Fortune Point. You can spend a Fortune Point to guarantee a 10 on your next roll.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bringer of Misfortune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enemies that harm you are jinxed. The next attack against them has Advantage. You can spend a Fortune Point when provoking or intimidating to proclaim a curse, gaining Advantage on all rolls against the target for a few hours.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fortune’s Favorite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility, Defense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When rolling a 1, you take a +0 instead of a -2. You can spend a Fortune Point to avoid taking damage from an attack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional two Fortune Point boxes. When you use a Fortune Point to reroll, add a +1 to the reroll result.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate Probability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chance bends in your favor whenever something would otherwise be left up to luck. You can spend a Fortune Point to nudge probability more strongly, though never quite beyond the bounds of reason.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winning Charm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You make a good first impression, acquiring the respect or affection of people you meet. You can spend a Fortune Point to establish a reputation of your choice among a crowd, regardless of whether or not it’s deserved.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blitz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you attack you can also do one of the following: attack a second target near the first, provoke/intimidate an enemy, or rally an ally. You can spend a Fortune Point to attack all enemies in combat. Use one roll to determine attack outcomes for multiple attacks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Break the Line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks also do one of the following: force an enemy to move, knock an enemy over, or prevent an enemy from moving. You can spend a Fortune Point to send an appropriately-sized enemy or object flying through the air.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Called Shot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks also do one of the following: damage an enemy’s equipment, target a specific part of anatomy, or hit from a longer range than normal. You can spend a Fortune Point to attempt to destroy an object outright.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deadly Grace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use Physique or Bravery for the purposes of movement and determining turn order. You can spend a Fortune Point to make two attacks in one action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heroic Determination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you would otherwise be incapacitated, mark the relevant injury instead. Cannot be used when the injury is already marked. You can spend a Fortune Point to ignore the negative effects of an injury until your next rest.</t>
+    <t xml:space="preserve">When you provoke or intimidate a sentient enemy, they take Mental damage. You can spend a Fortune Point to demoralize someone you’ve provoked or intimidated, gaining Advantage on all rolls against them while they’re affected.</t>
   </si>
   <si>
     <t xml:space="preserve">Spellbreaker</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Take Advantage on all rolls to defend against magic. Your attacks can damage spells and spirits. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">You can spend a Fortune Point to deflect a spell back at its caster or clear away magical effects in the area.</t>
-    </r>
+    <t xml:space="preserve">Take Advantage on all rolls to defend against magic. Your attacks can damage spells and spirits. You can spend a Fortune Point to deflect a spell back at its caster or clear away magical effects in the area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stancebreaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you make an attack, you can also choose to knock your target over, pin them in place, or force them to reposition, in addition to dealing damage. You can spend a Fortune Point to make an attack that launches an appropriately-sized enemy or object into the air.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swordbreaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you make an attack, you can also choose to damage your target’s equipment or a specific part of their anatomy, in addition to dealing damage. You can spend a Fortune Point to make an attack that outright destroys an object or obstacle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willbreaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you make an attack, you can also choose to provoke or intimidate an enemy, in addition to dealing damage. You can spend a Fortune Point to provoke or intimidate all enemies in combat at the same time.</t>
   </si>
 </sst>
 </file>
@@ -669,7 +609,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -729,19 +669,6 @@
       <name val="Fira Sans"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Fira Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Fira Sans"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -868,7 +795,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -926,10 +853,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1077,11 +1000,11 @@
   </sheetPr>
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.27"/>
@@ -1186,10 +1109,10 @@
         <v>19</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1200,13 +1123,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1214,16 +1137,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1231,16 +1154,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1248,16 +1171,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1265,16 +1188,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1282,16 +1205,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1299,16 +1222,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1316,16 +1239,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1333,16 +1256,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1350,16 +1273,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1367,16 +1290,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1384,16 +1307,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1401,353 +1324,353 @@
         <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>105</v>
@@ -1755,169 +1678,169 @@
     </row>
     <row r="40" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>106</v>
       </c>
       <c r="D40" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C41" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="E41" s="14" t="s">
         <v>110</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C42" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B44" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="E44" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C45" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="14" t="s">
         <v>121</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C46" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C47" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="E47" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C48" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="E48" s="14" t="s">
         <v>130</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C49" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="13" t="s">
         <v>132</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="E49" s="14" t="s">
         <v>133</v>
@@ -1925,7 +1848,7 @@
     </row>
     <row r="50" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>134</v>
@@ -1942,12 +1865,12 @@
     </row>
     <row r="51" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="13" t="s">
         <v>138</v>
       </c>
       <c r="D51" s="13" t="s">
@@ -1959,7 +1882,7 @@
     </row>
     <row r="52" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>134</v>
@@ -1968,7 +1891,7 @@
         <v>141</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="E52" s="14" t="s">
         <v>142</v>
@@ -1976,7 +1899,7 @@
     </row>
     <row r="53" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>134</v>
@@ -1993,7 +1916,7 @@
     </row>
     <row r="54" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>134</v>
@@ -2002,7 +1925,7 @@
         <v>146</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>147</v>
@@ -2010,7 +1933,7 @@
     </row>
     <row r="55" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>134</v>
@@ -2026,309 +1949,309 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E56" s="19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="16" t="s">
+      <c r="E57" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B58" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C57" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="16" t="s">
+      <c r="C58" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B59" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C58" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="16" t="s">
+      <c r="C59" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B60" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C59" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="16" t="s">
+      <c r="C60" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B61" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C60" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="16" t="s">
+      <c r="C61" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B61" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="E61" s="19" t="s">
+      <c r="B62" s="16" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="16" t="s">
+      <c r="C62" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B62" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D62" s="18" t="s">
+      <c r="B63" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C63" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="D63" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="18" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="16" t="s">
+    <row r="64" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B63" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C63" s="18" t="s">
+      <c r="B64" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="D63" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E63" s="19" t="s">
+      <c r="D64" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E64" s="18" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="16" t="s">
+    <row r="65" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B64" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C64" s="18" t="s">
+      <c r="B65" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C65" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D65" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="E64" s="19" t="s">
+    </row>
+    <row r="66" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" s="17" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="16" t="s">
+      <c r="D66" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B65" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E65" s="19" t="s">
+      <c r="B67" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="17" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="16" t="s">
+      <c r="D67" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B66" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="19" t="s">
+      <c r="B68" s="16" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="16" t="s">
+      <c r="C68" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B67" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E67" s="19" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="16" t="s">
+      <c r="B69" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B68" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="D68" s="18" t="s">
+      <c r="B70" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D71" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E68" s="19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="16" t="s">
+      <c r="E71" s="18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B69" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="D69" s="18" t="s">
+      <c r="B72" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D73" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E69" s="19" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="E72" s="19" t="s">
+      <c r="E73" s="18" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E73" s="19" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/miracuse_kits.xlsx
+++ b/miracuse_kits.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="203">
   <si>
     <t xml:space="preserve">Class</t>
   </si>
@@ -46,559 +46,710 @@
     <t xml:space="preserve">Drugs</t>
   </si>
   <si>
-    <t xml:space="preserve">Basilisk Venom</t>
+    <t xml:space="preserve">Basilisk Tongue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack, Utility, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When used as a potion, gives the user stone-like skin for a few hours. When used as a venom, turns flesh to stone. Can be applied to stone to make it soft as clay for a few hours. Can be thrown as a grenade to turn stone to mud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast’s Blood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When used as a potion, grants the user an enhanced sense (sight, hearing, or smell) for several hours. When used as a venom, steals away senses (sight, hearing, or smell). Can be used to attract animals and monsters. Can be thrown as a grenade to bait animals and monsters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dead Nettle Dust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack, Utility, AoE, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When used as a potion, numbs the user to pain and mitigates the effects of Injuries. When used as a venom, causes severe pain and additional Physical damage. Induces violent coughing when breathed. Can be thrown as a grenade to inflict Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elixir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recovery, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When used as a potion, recovers two Physical boxes or two Mental boxes. When used as a venom, inflicts wounds that will not heal. Cleanses poisons, diseases, and rot. Not usable as a grenade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halcyon</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">When used as a potion, allows the user to see, speak with, and touch spirits. When used as a venom, induces violent hallucinations and Mental damage. Considered a worthy offering by many magical creatures. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Can be thrown as a grenade to inflict Mental damage.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Holy Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack, Defense, Utility, Alchemy</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">When used as a potion, clears away curses and renders the user highly resistant to magic. When used as a venom, prevents targets from using magic for a few hours. Harmful to the undead and corrosive to magic. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Can be thrown as a grenade to purge magical effects.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Golemcraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bronze Homunculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of bronze knives with blades on both ends of its hilt. When activated, it will seek out its owner’s enemies (or a nearby target of their choice) and attack as though it has a mind of its own. Only one knife can be thrown in an action, but multiple knives can be active at once.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloth Homunculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cloak that resists gravity, allowing the wearer to glide when falling. When activated, can be used as a flying carpet for a short period of time, or as a bag that renders objects inside weightless.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paper Homunculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A deck of cards painted to resemble people that the Alchemist knows. When focusing on one or more cards, the user can communicate telepathically with the person on the card, provided that the target is willing and able. You can spend a use to create a card of yourself that can be given to others. A card created this way will last seven days before crumbling to dust.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quicksilver Homunculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility, Defense, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A liquid metal bracer that can change shape on command, becoming a variety of tools or melee weapons. You can spend a use to have the bracer protect you from a Physical attack, such as an arrow or sword swing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Transmutation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility, Magic, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transform substances into other, similar substances. You can spend this Kit’s uses to apply Knowledge or Perception instead of Aura when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steel Homunculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A steel staff that can change size and weight on command, from pocket-sized to 10 feet long, and from a few pounds to a few hundred pounds. You can spend a use to lock the staff in place, strongly resisting any force that tries to move it and floating in defiance of gravity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemical Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hazard, AoE, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenade that covers an area with a grease slick, quick drying cement, or a choking cloud of black smoke. Can be used as a bullet to produce a smaller but more precise effect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnesium Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack, AoE, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenade that creates blinding light or a deafening whistle. When used as a bullet, can penetrate cover and deals additional Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storm Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack, Hazard, AoE, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenade that covers an area with crackling electricity or magnetizes an area, forcing metal objects in the vicinity to adhere to one another. Can be used as a bullet to produce a smaller but more precise effect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermal Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenade that covers an area with searing flames or a sheet of ice. Can be used as a bullet to produce a smaller but more precise effect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tranquilizer Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack, AoE, Stealth, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenade that covers an area in a fog of Iocane powder, knocking the unwary unconscious and dazing others. Can be used as a bullet to produce a smaller but more precise effect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trenchsteel Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenade that creates a swarm of bouncing metal ball bearings or a bale of barbed wire. When used as a bullet, can change course mid-flight by detonating a second time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celestial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Divination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility, Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seek and learn. Used to scry for hidden things and reveal new information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Heavens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack, Utility, Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smite and cleanse. Used to punish evil and dispel magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Hells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrupt and wrong. Used to raise the dead and subvert the natural order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social, Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speak and understand. Used to communicate with all manner of creatures, including animals and monsters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Restoration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recovery, Utility, Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore and repair. Used to heal wounds and mend broken objects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Warding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defense, Utility, Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal and repel. Used to create barriers and push targets away.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elemental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Aether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows for control and limited manifestation of electricity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows for control and limited manifestation of air.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows for control and limited manifestation of earth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Flame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows for control and limited manifestation of flame.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows for control and limited manifestation of water.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elemental </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows for control and limited manifestation of magnetism.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundamental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adhere and restrain. Used to lash things together with gravitational force.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Entropy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dissolve and decay. Used to unravel targets into their base elements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility, Social, Stealth, Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brighten and dim. Used to create and manipulate illusory images.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Locomotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accelerate and slow. Used to manipulate kinetic energy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amplify and quiet. Used to create and manipulate sound.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Thermos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat and cool. Used to manipulate thermal energy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scoundrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast Tamer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack, Utility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You enlist a local animal to assist you. The animal can track, warn you of danger, fight, and do anything a creature of its kind might. You can speak with and understand the animal. You can compel the animal to do something it doesn’t want to by spending a Prep Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lifesense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can sense the presence or absence of life nearby. You can spend a Prep Point to extend your range by a significant amount, or to sense the emotions of any creature in range. You have Advantage when sensing the motives of another person.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piper’s Flute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a musical instrument that attracts and influences nearby creatures when played. You can spend a Prep Point to do one of the following: mesmerize an animal or monster, lull unwary creatures to sleep, or incite them to rampage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional two Prep Points. When you use a Prep Point to change Kits, you can change two Kits instead of one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows for control and limited manifestation of plant matter. You can spend a Prep Point to use Cunning or Agility instead of Aura when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tracker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use Cunning or Agility when scouting areas, tracking a target, or collecting information. You can spend a Prep Point to learn an enemy’s weakness, find a secret entrance to a location, or find a clue in an investigation. You take Advantage against traps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assassinate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack, Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sneak attacks inflict an additional point of damage. You can spend a Prep Point to enter stealth, even from combat or while in plain sight. When your sneak attack incapacitates a target, you do not break stealth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social, Prep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Characters met through “I Know a Guy” owe you a favor, and tend to be highly placed in organizations. You can spend a Prep Point to declare that you have blackmail against a target provided that you could reasonably justify having prepared blackmail ahead of time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contingency Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility, Health, Recovery</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The items from “What You Needed” can be less plausible and more valuable, reflecting your ability to plan for all eventualities. You can convert a Prep Point to a Mental box or vice versa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, and can do so once per action while in combat.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Convincing Fake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility, Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a Skill you have no points in, and treat it as half the level of your highest Skill (rounded down). You can spend a Prep Point to change the chosen Skill, provided you have a few minutes to concentrate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infiltration Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stealth, Social</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Nearby allies can use your Cunning when moving in stealth. You can use a Prep Point to prevent you or your allies from being revealed when they otherwise would be. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">“Assume a Disguise” also produces disguises for your allies.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Iocane Powder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can put unwary targets to sleep with a pinch of an alchemic poison. You can expend a Prep Point to use a higher concentration version, which will additionally wipe away the target’s memory of the day. Unsuitable for use in combat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swashbuckler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arta Eres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can counterattack, use an item, or move after successfully defending against an attack. You can spend a Prep Point to succeed at defending against an attack regardless of your roll.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arta Forteiza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health, Recovery</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Gain an additional Physical box. You can convert a Prep Point into Physical box or vice versa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, and can do so once per action while in combat. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Arta Loquit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use Cunning as though it were Aura, Bravery, or Knowledge for social purposes. When you do so you can “Adopt a Disguise” to assume an alias without spending a Prep Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arta Siva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility, Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use Cunning or Agility to provoke and intimidate in combat. When you succeed on provoking or intimidating an enemy in combat, you recover a Prep Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arta Tuco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack, Defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can steal from a target on a successful attack or defense. You can spend a Prep Point to inflict a sneak attack regardless of stealth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arta Valar</t>
   </si>
   <si>
     <t xml:space="preserve">Attack</t>
   </si>
   <si>
-    <t xml:space="preserve">Venom applied to a weapon that turns flesh to stone, induces paralysis, or causes significant pain. The user chooses which effect takes place.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beast’s Blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potion that grants the user a dog’s sense of smell, a falcon’s sense of sight, or a bat’s sense of hearing for a few hours. The user chooses which effect takes place.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dead Nettle Dust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attack, AoE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Powder that does one of the following: induces uncontrollable sneezing, inflicts burns on exposed skin, or blinds. The user chooses which effect takes place. Can be applied to a weapon like a venom.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elixir</t>
+    <t xml:space="preserve">Your attacks can target Mental health instead of Physical. You can spend a Prep Point to take an action in combat when it isn’t your turn. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soldier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discipline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Blood</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">You are immune to most environmental hazards, including magical and alchemical hazards. You can spend a Fortune Point to weaponize an environmental hazard, such as sweeping a weapon through an open flame and sending flames at your enemies. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Poisons and similar afflictions have no effect on you. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Circle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take a free attack against enemies that attempt to enter or leave your melee range. You can spend a Fortune Point to prevent enemies and attacks from moving past you. You are immune to sneak attacks and take Advantage against traps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Stance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can defend against attacks and hazards using Bravery or Physique, and cannot be moved, knocked down, or otherwise repositioned by force. You can spend a Fortune Point to protect a nearby ally from harm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Star</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack, Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks also count as a rally for one ally. You can spend a Fortune Point to revive an incapacitated ally using a rally. When you recover Physical or Mental health, you recover one more box than you would otherwise.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks land with brutal force, dealing additional Physical damage when successful. You can spend a Fortune Point to perform a feat of incredible strength, such as bending metal bars or picking up a cart. You take Advantage on any roll that relies on brute strength.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Will</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional Mental box. You can convert a Fortune Point into a Mental box or vice versa, and can do so once per action while in combat. You are immune to Mental damage from exhaustion, fear, psychological attacks, or similar effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack, Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Those you provoke or intimidate are prone to bouts of misfortune. You can spend a Fortune Point to make such a curse into a lasting weakness. For example, cursing someone to suffer more from blades, fire, or heartbreak.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambler’s Fallacy</t>
   </si>
   <si>
     <t xml:space="preserve">Recovery</t>
   </si>
   <si>
-    <t xml:space="preserve">Potion that recovers two Physical boxes or two Mental boxes. The user chooses which effect takes place.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holy Water</t>
+    <t xml:space="preserve">You recover a Fortune Point when you roll a 1. You can spend a Fortune Point to guarantee a 10 on your next action without rolling.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional two Fortune Point boxes. When you use a Fortune Point to reroll, add a +1 to the reroll result.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near Miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you roll a 1 you take a +0 instead of a -2 to the result. You can spend a Fortune Point to avoid taking damage from an attack or hazard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Chance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bend probability in your favor or against others. You can spend a Fortune Point to use Physique or Bravery instead of Aura when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winning Charm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You make a good first impression, acquiring the respect or affection of people you meet. You can spend a Fortune Point to establish a reputation of your choice among those you meet for the first time, regardless of whether or not it’s deserved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hordebreaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack, AoE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks affect anyone or anything near your target. You can spend a Fortune Point to make an attack against every enemy in combat, or to strike one target twice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skybreaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks, both melee and ranged, have a much longer range than normal. You can spend a Fortune Point to make a nearly impossible shot with pinpoint accuracy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spellbreaker</t>
   </si>
   <si>
     <t xml:space="preserve">Utility, Attack, Defense</t>
   </si>
   <si>
-    <t xml:space="preserve">Potion that renders the user inert to magic, making them highly resistant to spells, clearing away any lingering curses, and preventing them from using magic for a few hours. Can be applied to a weapon like a venom. Harmful to the undead and similar creatures.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyde’s Draught</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility, Defense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potion that changes the user’s skin to one of the following: thin fireproof dragon scales, fish scales that let the user breathe underwater, or sticky scales that let the user climb with ease.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munitions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemical Grenades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hazard, AoE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenade that covers an area with a grease slick, a tangle of thick sticky webs, or a choking cloud of black smoke. The user chooses which effect takes place.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elemental Grenades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attack, Hazard, AoE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenade that covers an area with searing flames, a sheet of ice, or crackling electricity. The user chooses which effect takes place.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flare Bullets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attack, Utility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ammo that burns hot and bright, piercing through stone, metal, and magic. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timed Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bomb that must be carefully placed and primed. More potent than other explosives, but unusable in combat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trenchsteel Grenades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attack, Utility, AoE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenade that covers an area with hot metal caltrops, a bale of barbed wire, or flashing lights and deafening bangs. The user chooses which effect takes place.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trick Bullets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elastic ammo that strikes with blunt force, knocking over targets and rebounding in closed spaces. Can change course mid-flight by detonating a second time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bag of Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bag that’s bigger on the inside than the outside. Items placed within become weightless until withdrawn. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boots of Traversing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A pair of boots that allow the wearer to walk on water, glide down when falling from great heights, or stick to walls.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Immovable Rod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retractable steel pole that locks into place when activated, floating in defiance of gravity. Requires immense force to move. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quicksilver Homunculus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sentient metal ooze that can change shape and hardness. Can be transformed into various tools, weapons, and objects when activated. Can follow simple orders.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Transmutation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmute substances into other, similar substances. You can spend this Kit’s uses to apply Knowledge or Perception instead of Aura when using this spirit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A deck of cards, each painted to resemble a person that the owner knows. When focusing on one or more cards, the user can communicate telepathically with the person on the card, provided that the target is willing and able.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celestial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Divination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seek and learn. Used to search for hidden things and reveal new information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Heavens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disperse and dispel. Used to strike down enemies and purge magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Hells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corrupt and corrode. Used to destroy foes and subvert magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speak and understand. Used to communicate with all manner of creatures, including animals and monsters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recovery, Utility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restore and repair. Used to regenerate wounds and mend broken objects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Warding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defense, Utility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal and repel. Used to create barriers and push targets away.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elemental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Aether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of electricity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of air.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Earth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of earth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Flame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of flame.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of water.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elemental </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of magnetism.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fundamental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adhere and restrain. Used to lash things together with gravitational force.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Entropy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dissolve and decay. Used to unravel targets into their base elements.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility, Social, Stealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brighten and dim. Used to create and manipulate illusory images.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Locomotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accelerate and slow. Used to manipulate kinetic energy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Sound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amplify and quiet. Used to create and manipulate sound.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Thermos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat and cool. Used to manipulate thermal energy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scoundrel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beast Tamer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You enlist a local animal to assist you. The animal can track, warn you of danger, fight, and do anything a creature of its kind might. You can speak with and understand the animal. You can compel the animal to do something it doesn’t want to by spending a Prep Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lifesense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can sense the presence or absence of life nearby. You can spend a Prep Point to extend your range by a significant amount, or to sense the general emotional state of any creature in range.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piper’s Flute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a musical instrument that attracts and influences nearby creatures when played. You can spend a Prep Point to do one of the following: mesmerize an animal or animal-like creature, lull unwary creatures to sleep, or incite them to rampage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prepared</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional two Prep Points. When you use a Prep Point to change Kits, you can change two Kits instead of one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of plant matter. You can spend a Prep Point to use Cunning or Agility instead of Aura when using this spirit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can use Cunning or Agility when scouting areas, tracking a target, or collecting information. You can spend a Prep Point to know an enemy’s weakness, find a secret entrance to a location, or find a lead in an investigation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assassinate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attack, Stealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sneak attacks inflict an additional point of damage. You can spend a Prep Point to enter stealth, even from combat or while in plain sight.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social, Prep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Characters met through “I Know a Guy” owe you a favor, and tend to be highly placed in organizations. You can spend a Prep Point to declare that you have blackmail against a target provided that you could reasonably justify having prepared blackmail ahead of time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contingency Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility, Health, Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The items from “What You Needed” can be less plausible and more valuable, reflecting your ability to plan for all eventualities. You can spend a Prep Point to recover a Mental box and vice versa. Can be done once per action if used in combat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convincing Fake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility, Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a Skill you have no points in, and treat it as half the level of your highest Skill (rounded down). You can spend a Prep Point to change the chosen Skill, provided you have a few minutes to concentrate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infiltration Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stealth, Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nearby allies can use your Cunning when moving in stealth. “Assume a Disguise” also produces disguises for your allies. You can use a Prep Point to prevent you or your allies from being revealed when they otherwise would be.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iocane Powder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can put unwary targets to sleep with a pinch of this alchemic poison. You can expend a Prep Point to use a higher concentration version, which will additionally wipe away the target’s memory of the day. Unsuitable for use in combat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swashbuckler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arta Eres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you successfully defend against a Physical attack you can also choose to do one of the following: inflict Physical damage on the attacker, redirect the attack to a nearby enemy, or disarm the attacker. You can spend a Prep Point to succeed at defending regardless of your roll.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arta Forteiza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health, Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional Physical box. You can spend a Prep Point to recover one Physical box. Requires an action when performed in combat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arta Loquit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can use Cunning as though it were Aura, Bravery, or Knowledge for social purposes. When you do so you can “Adopt a Disguise” to assume an alias without spending a Prep Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arta Siva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility, Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can use Cunning to provoke and intimidate in combat. When you succeed on provoking or intimidating an enemy in combat, you recover a Prep Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arta Tuco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you make an attack you can also choose to do one of the following: move, use an item, or grant Advantage to the next person attacking that enemy. You can spend a Prep Point to inflict a sneak attack regardless of stealth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arta Valar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you make an attack you can also choose to do one of the following in addition to dealing damage: target Mental health rather than Physical, steal something from your target, or delay the target’s next turn in combat. You can spend a Prep Point to take an action in combat when it isn’t your turn. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soldier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Boundary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attack, Defense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Take a free attack against enemies that attempt to enter or leave your melee range. You can spend a Fortune Point to prevent enemies and attacks from moving past you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Guard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can defend against Physical attacks with Physique or Bravery. You can spend a Fortune Point to protect a nearby ally from harm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Knight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your rally recovers a Physical or Mental box for the target when used in combat. User chooses which effect takes place. You can spend a Fortune Point to revive an incapacitated ally using rally.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Sights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks, both melee and ranged, have a longer range than normal. You can spend a Fortune Point to make a nearly impossible shot with pinpoint accuracy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Vigil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use Physique or Bravery when watching for danger or sensing motives. You can spend a Fortune Point at the beginning of combat to take one action before anyone else.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Will</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional Mental box. You can spend a Fortune Point to recover a Mental box and vice versa. Can be done once per action if used in combat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fortune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambler’s Fallacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You recover a Fortune Point when you roll a 1. You can spend a Fortune Point to guarantee a 10 on your next action without rolling.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jackpot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you roll a 10 you take a +3 instead of a +2 to the result. You can spend a Fortune Point to increase your roll number by 1 (i.e. a 1 would become a 2, a 2 would become a 3, and so on). The roll number cannot increase beyond 10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional two Fortune Point boxes. When you use a Fortune Point to reroll, add a +1 to the reroll result.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near Miss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you roll a 1 you take a +0 instead of a -2 to the result. You can spend a Fortune Point to avoid taking damage from an attack or hazard.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Chance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bend probability in your favor or against others. You can spend a Fortune Point to use Physique or Bravery instead of Aura when using this spirit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winning Charm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You make a good first impression, acquiring the respect or affection of people you meet. You can spend a Fortune Point to establish a reputation of your choice among those you meet for the first time, regardless of whether or not it’s deserved.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hordebreaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When make an attack, you can also choose to damage a second enemy. You can spend a Fortune Point to damage all enemies in combat or hit several targets simultaneously outside of combat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mindbreaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attack, Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you provoke or intimidate a sentient enemy, they take Mental damage. You can spend a Fortune Point to demoralize someone you’ve provoked or intimidated, gaining Advantage on all rolls against them while they’re affected.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spellbreaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Take Advantage on all rolls to defend against magic. Your attacks can damage spells and spirits. You can spend a Fortune Point to deflect a spell back at its caster or clear away magical effects in the area.</t>
+    <t xml:space="preserve">Your attacks can damage spells and spirits. You can spend a Fortune Point to deflect a spell back at its caster or clear away magical effects in the area.</t>
   </si>
   <si>
     <t xml:space="preserve">Stancebreaker</t>
   </si>
   <si>
-    <t xml:space="preserve">When you make an attack, you can also choose to knock your target over, pin them in place, or force them to reposition, in addition to dealing damage. You can spend a Fortune Point to make an attack that launches an appropriately-sized enemy or object into the air.</t>
+    <t xml:space="preserve">Your attacks push targets back. You can spend a Fortune Point to forcefully reposition a target; knocking it down, pinning it in place, launching it into the air, or throwing it a great distance.</t>
   </si>
   <si>
     <t xml:space="preserve">Swordbreaker</t>
   </si>
   <si>
-    <t xml:space="preserve">When you make an attack, you can also choose to damage your target’s equipment or a specific part of their anatomy, in addition to dealing damage. You can spend a Fortune Point to make an attack that outright destroys an object or obstacle.</t>
+    <t xml:space="preserve">Your attacks can strike through stone and metal, damaging equipment as well as causing harm. You can spend a Fortune Point to outright destroy an object or obstacle.</t>
   </si>
   <si>
     <t xml:space="preserve">Willbreaker</t>
   </si>
   <si>
-    <t xml:space="preserve">When you make an attack, you can also choose to provoke or intimidate an enemy, in addition to dealing damage. You can spend a Fortune Point to provoke or intimidate all enemies in combat at the same time.</t>
+    <t xml:space="preserve">Your attacks also count as provoking or intimidating. You can spend a Fortune Point to exploit the weakness of anyone you’ve provoked or intimidated, taking Advantage on all rolls against them while they’re still influenced.</t>
   </si>
 </sst>
 </file>
@@ -609,7 +760,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -669,6 +820,12 @@
       <name val="Fira Sans"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Fira Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1000,11 +1157,11 @@
   </sheetPr>
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E48" activeCellId="0" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.27"/>
@@ -1058,10 +1215,10 @@
         <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1072,13 +1229,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1089,13 +1246,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1106,13 +1263,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1123,13 +1280,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1137,16 +1294,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1154,16 +1311,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1171,16 +1328,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1188,16 +1345,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1205,16 +1362,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1222,16 +1379,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1239,16 +1396,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1256,16 +1413,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1273,13 +1430,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>48</v>
@@ -1290,13 +1447,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>50</v>
@@ -1307,16 +1464,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1324,934 +1481,934 @@
         <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="15" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>153</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="15" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="15" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="15" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="15" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="15" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="15" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="15" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="15" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="15" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="15" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="15" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="15" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="15" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="15" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="15" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="15" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="15" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/miracuse_kits.xlsx
+++ b/miracuse_kits.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="202">
   <si>
     <t xml:space="preserve">Class</t>
   </si>
@@ -80,6 +80,318 @@
   </si>
   <si>
     <t xml:space="preserve">Halcyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When used as a potion, allows the user to see, speak with, and touch spirits. When used as a venom, induces violent hallucinations and Mental damage. Considered a worthy offering by many magical creatures. Can be thrown as a grenade to inflict Mental damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holy Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack, Defense, Utility, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When used as a potion, clears away curses and renders the user highly resistant to magic. When used as a venom, prevents targets from using magic for a few hours. Harmful to the undead and corrosive to magic. Can be thrown as a grenade to purge magical effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golemcraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bronze Homunculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of bronze knives with blades on both ends of its hilt. When activated, it will seek out its owner’s enemies (or a nearby target of their choice) and attack as though it has a mind of its own. Only one knife can be thrown in an action, but multiple knives can be active at once.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloth Homunculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cloak that resists gravity, allowing the wearer to glide when falling. When activated, can be used as a flying carpet for a short period of time, or as a bag that renders objects inside weightless.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paper Homunculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A deck of cards painted to resemble people that the Alchemist knows. When focusing on one or more cards, the user can communicate telepathically with the person on the card, provided that the target is willing and able. You can spend a use to create a card of yourself that can be given to others. A card created this way will last seven days before crumbling to dust.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quicksilver Homunculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility, Defense, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A liquid metal bracer that can change shape on command, becoming a variety of tools or melee weapons. You can spend a use to have the bracer protect you from a Physical attack, such as an arrow or sword swing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Transmutation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility, Magic, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transform substances into other, similar substances. You can spend this Kit’s uses to apply Knowledge or Perception instead of Aura when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steel Homunculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A steel staff that can change size and weight on command, from pocket-sized to 10 feet long, and from a few pounds to a few hundred pounds. You can spend a use to lock the staff in place, strongly resisting any force that tries to move it and floating in defiance of gravity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemical Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hazard, AoE, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenade that covers an area with a grease slick, quick drying cement, or a choking cloud of black smoke. Can be used as a bullet to produce a smaller but more precise effect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnesium Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack, AoE, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenade that creates blinding light or a deafening whistle. When used as a bullet, can penetrate cover and deals additional Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storm Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack, Hazard, AoE, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenade that covers an area with crackling electricity or magnetizes an area, forcing metal objects in the vicinity to adhere to one another. Can be used as a bullet to produce a smaller but more precise effect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermal Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenade that covers an area with searing flames or a sheet of ice. Can be used as a bullet to produce a smaller but more precise effect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tranquilizer Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack, AoE, Stealth, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenade that covers an area in a fog of sleeping powder, knocking the unwary unconscious and dazing others. Can be used as a bullet to produce a smaller but more precise effect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trenchsteel Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenade that creates a swarm of bouncing metal ball bearings or a bale of barbed wire. When used as a bullet, can change course mid-flight by detonating a second time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celestial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Divination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility, Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seek and learn. Used to scry for hidden things and reveal new information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Heavens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack, Utility, Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smite and cleanse. Used to punish evil and dispel magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Hells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrupt and wrong. Used to raise the dead and subvert the natural order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social, Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speak and understand. Used to communicate with all manner of creatures, including animals and monsters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Restoration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recovery, Utility, Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore and repair. Used to heal wounds and mend broken objects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Warding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defense, Utility, Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal and repel. Used to create barriers and push targets away.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elemental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Aether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows for control and limited manifestation of electricity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows for control and limited manifestation of air.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows for control and limited manifestation of earth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Flame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows for control and limited manifestation of flame.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows for control and limited manifestation of water.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elemental </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows for control and limited manifestation of magnetism.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundamental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adhere and restrain. Used to lash things together with gravitational force.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Entropy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dissolve and decay. Used to unravel targets into their base elements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility, Social, Stealth, Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brighten and dim. Used to create and manipulate illusory images.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Locomotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accelerate and slow. Used to manipulate kinetic energy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amplify and quiet. Used to create and manipulate sound.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Thermos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat and cool. Used to manipulate thermal energy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scoundrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast Tamer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack, Utility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You enlist a local animal to assist you. The animal can track, warn you of danger, fight, and do anything a creature of its kind might. You can speak with and understand the animal. You can compel the animal to do something it doesn’t want to by spending a Prep Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lifesense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can sense the presence or absence of life nearby. You can spend a Prep Point to extend your range by a significant amount, or to sense the emotions of any creature in range. You have Advantage when sensing the motives of another person.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piper’s Flute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a musical instrument that attracts and influences nearby creatures when played. You can spend a Prep Point to do one of the following: mesmerize an animal or monster, lull unwary creatures to sleep, or incite them to rampage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional two Prep Points. When you use a Prep Point to change Kits, you can change two Kits instead of one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows for control and limited manifestation of plant matter. You can spend a Prep Point to use Cunning or Agility instead of Aura when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tracker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use Cunning or Agility when scouting areas, tracking a target, or collecting information. You can spend a Prep Point to learn an enemy’s weakness, find a secret entrance to a location, or find a clue in an investigation. You take Advantage against traps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assassinate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack, Stealth</t>
   </si>
   <si>
     <r>
@@ -90,7 +402,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">When used as a potion, allows the user to see, speak with, and touch spirits. When used as a venom, induces violent hallucinations and Mental damage. Considered a worthy offering by many magical creatures. </t>
+      <t xml:space="preserve">Your sneak attacks deal additional damage, and do not break stealth when the target is incapacitated. </t>
     </r>
     <r>
       <rPr>
@@ -99,14 +411,23 @@
         <rFont val="Fira Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Can be thrown as a grenade to inflict Mental damage.</t>
+      <t xml:space="preserve">You can spend a Prep Point to enter stealth, even from combat or while in plain sight.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Holy Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attack, Defense, Utility, Alchemy</t>
+    <t xml:space="preserve">Convincing Fake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility, Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a Skill you have no points in, and treat it as half the level of your highest Skill (rounded down). You can spend a Prep Point to change the chosen Skill, provided you have a few minutes to concentrate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infiltration Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stealth, Social</t>
   </si>
   <si>
     <r>
@@ -117,7 +438,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">When used as a potion, clears away curses and renders the user highly resistant to magic. When used as a venom, prevents targets from using magic for a few hours. Harmful to the undead and corrosive to magic. </t>
+      <t xml:space="preserve">Nearby allies can use your Cunning when moving in stealth. </t>
     </r>
     <r>
       <rPr>
@@ -126,346 +447,7 @@
         <rFont val="Fira Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Can be thrown as a grenade to purge magical effects.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Golemcraft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bronze Homunculus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of bronze knives with blades on both ends of its hilt. When activated, it will seek out its owner’s enemies (or a nearby target of their choice) and attack as though it has a mind of its own. Only one knife can be thrown in an action, but multiple knives can be active at once.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloth Homunculus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility, Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A cloak that resists gravity, allowing the wearer to glide when falling. When activated, can be used as a flying carpet for a short period of time, or as a bag that renders objects inside weightless.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paper Homunculus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A deck of cards painted to resemble people that the Alchemist knows. When focusing on one or more cards, the user can communicate telepathically with the person on the card, provided that the target is willing and able. You can spend a use to create a card of yourself that can be given to others. A card created this way will last seven days before crumbling to dust.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quicksilver Homunculus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility, Defense, Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A liquid metal bracer that can change shape on command, becoming a variety of tools or melee weapons. You can spend a use to have the bracer protect you from a Physical attack, such as an arrow or sword swing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Transmutation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility, Magic, Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transform substances into other, similar substances. You can spend this Kit’s uses to apply Knowledge or Perception instead of Aura when using this spirit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steel Homunculus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A steel staff that can change size and weight on command, from pocket-sized to 10 feet long, and from a few pounds to a few hundred pounds. You can spend a use to lock the staff in place, strongly resisting any force that tries to move it and floating in defiance of gravity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munitions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemical Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hazard, AoE, Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenade that covers an area with a grease slick, quick drying cement, or a choking cloud of black smoke. Can be used as a bullet to produce a smaller but more precise effect.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magnesium Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attack, AoE, Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenade that creates blinding light or a deafening whistle. When used as a bullet, can penetrate cover and deals additional Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storm Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attack, Hazard, AoE, Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenade that covers an area with crackling electricity or magnetizes an area, forcing metal objects in the vicinity to adhere to one another. Can be used as a bullet to produce a smaller but more precise effect.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thermal Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenade that covers an area with searing flames or a sheet of ice. Can be used as a bullet to produce a smaller but more precise effect.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tranquilizer Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attack, AoE, Stealth, Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenade that covers an area in a fog of Iocane powder, knocking the unwary unconscious and dazing others. Can be used as a bullet to produce a smaller but more precise effect.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trenchsteel Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenade that creates a swarm of bouncing metal ball bearings or a bale of barbed wire. When used as a bullet, can change course mid-flight by detonating a second time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celestial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Divination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility, Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seek and learn. Used to scry for hidden things and reveal new information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Heavens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attack, Utility, Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smite and cleanse. Used to punish evil and dispel magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Hells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corrupt and wrong. Used to raise the dead and subvert the natural order.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social, Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speak and understand. Used to communicate with all manner of creatures, including animals and monsters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Restoration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recovery, Utility, Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restore and repair. Used to heal wounds and mend broken objects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Warding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defense, Utility, Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal and repel. Used to create barriers and push targets away.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elemental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Aether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of electricity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of air.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Earth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of earth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Flame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of flame.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of water.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elemental </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of magnetism.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fundamental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adhere and restrain. Used to lash things together with gravitational force.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Entropy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dissolve and decay. Used to unravel targets into their base elements.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility, Social, Stealth, Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brighten and dim. Used to create and manipulate illusory images.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Locomotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accelerate and slow. Used to manipulate kinetic energy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Sound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amplify and quiet. Used to create and manipulate sound.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Thermos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat and cool. Used to manipulate thermal energy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scoundrel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beast Tamer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attack, Utility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You enlist a local animal to assist you. The animal can track, warn you of danger, fight, and do anything a creature of its kind might. You can speak with and understand the animal. You can compel the animal to do something it doesn’t want to by spending a Prep Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lifesense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can sense the presence or absence of life nearby. You can spend a Prep Point to extend your range by a significant amount, or to sense the emotions of any creature in range. You have Advantage when sensing the motives of another person.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piper’s Flute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a musical instrument that attracts and influences nearby creatures when played. You can spend a Prep Point to do one of the following: mesmerize an animal or monster, lull unwary creatures to sleep, or incite them to rampage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prepared</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional two Prep Points. When you use a Prep Point to change Kits, you can change two Kits instead of one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of plant matter. You can spend a Prep Point to use Cunning or Agility instead of Aura when using this spirit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can use Cunning or Agility when scouting areas, tracking a target, or collecting information. You can spend a Prep Point to learn an enemy’s weakness, find a secret entrance to a location, or find a clue in an investigation. You take Advantage against traps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assassinate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attack, Stealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sneak attacks inflict an additional point of damage. You can spend a Prep Point to enter stealth, even from combat or while in plain sight. When your sneak attack incapacitates a target, you do not break stealth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social, Prep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Characters met through “I Know a Guy” owe you a favor, and tend to be highly placed in organizations. You can spend a Prep Point to declare that you have blackmail against a target provided that you could reasonably justify having prepared blackmail ahead of time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contingency Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility, Health, Recovery</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">The items from “What You Needed” can be less plausible and more valuable, reflecting your ability to plan for all eventualities. You can convert a Prep Point to a Mental box or vice versa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, and can do so once per action while in combat.</t>
+      <t xml:space="preserve">“Assume a Disguise” also produces disguises for your allies. </t>
     </r>
     <r>
       <rPr>
@@ -475,53 +457,32 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">You can use a Prep Point to prevent you or your allies from being revealed when they otherwise would be. </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Convincing Fake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility, Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a Skill you have no points in, and treat it as half the level of your highest Skill (rounded down). You can spend a Prep Point to change the chosen Skill, provided you have a few minutes to concentrate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infiltration Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stealth, Social</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Nearby allies can use your Cunning when moving in stealth. You can use a Prep Point to prevent you or your allies from being revealed when they otherwise would be. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">“Assume a Disguise” also produces disguises for your allies.</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Iocane Powder</t>
   </si>
   <si>
     <t xml:space="preserve">Stealth</t>
   </si>
   <si>
-    <t xml:space="preserve">You can put unwary targets to sleep with a pinch of an alchemic poison. You can expend a Prep Point to use a higher concentration version, which will additionally wipe away the target’s memory of the day. Unsuitable for use in combat.</t>
+    <t xml:space="preserve">Your sneak attacks can put targets to sleep and wipe away their memory instead of incapacitating them. You can spend a Prep Point to </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadowdancing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can move your shadow independently of your body. Your shadow can interact with physical objects, including moving objects and attacking enemies. You can spend a Prep Point to teleport from one shadowed area to another within sight. You can see perfectly in the dark.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spycraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility, Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Assume a Disguise” is nearly instantaneous, and includes an alias. “What You Needed” can produce forgeries of documents and symbols of authority. “I Know a Guy” can be used to produce blackmail on targets.</t>
   </si>
   <si>
     <t xml:space="preserve">Swashbuckler</t>
@@ -542,25 +503,7 @@
     <t xml:space="preserve">Health, Recovery</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Gain an additional Physical box. You can convert a Prep Point into Physical box or vice versa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, and can do so once per action while in combat. </t>
-    </r>
+    <t xml:space="preserve">Gain an additional Physical box. You can convert a Prep Point into Physical box or vice versa, and can do so once per action while in combat. </t>
   </si>
   <si>
     <t xml:space="preserve">Arta Loquit</t>
@@ -608,25 +551,7 @@
     <t xml:space="preserve">Iron Blood</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">You are immune to most environmental hazards, including magical and alchemical hazards. You can spend a Fortune Point to weaponize an environmental hazard, such as sweeping a weapon through an open flame and sending flames at your enemies. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Poisons and similar afflictions have no effect on you. </t>
-    </r>
+    <t xml:space="preserve">You are immune to most environmental hazards, including magical and alchemical hazards. You can spend a Fortune Point to weaponize an environmental hazard, such as sweeping a weapon through an open flame and sending flames at your enemies. Poisons and similar afflictions have no effect on you. </t>
   </si>
   <si>
     <t xml:space="preserve">Iron Circle</t>
@@ -1158,10 +1083,10 @@
   <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E48" activeCellId="0" sqref="E48"/>
+      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.27"/>
@@ -1980,10 +1905,10 @@
         <v>133</v>
       </c>
       <c r="D48" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1994,13 +1919,13 @@
         <v>120</v>
       </c>
       <c r="C49" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="E49" s="14" t="s">
         <v>137</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2008,16 +1933,16 @@
         <v>103</v>
       </c>
       <c r="B50" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="D50" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="E50" s="14" t="s">
         <v>141</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2025,16 +1950,16 @@
         <v>103</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C51" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="E51" s="14" t="s">
         <v>144</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2042,16 +1967,16 @@
         <v>103</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C52" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="E52" s="14" t="s">
         <v>147</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2059,16 +1984,16 @@
         <v>103</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C53" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="E53" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2076,16 +2001,16 @@
         <v>103</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C54" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="E54" s="14" t="s">
         <v>153</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2093,322 +2018,322 @@
         <v>103</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C55" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="E55" s="14" t="s">
         <v>156</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="C56" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="D56" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E56" s="18" t="s">
         <v>160</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="B57" s="16" t="s">
-        <v>159</v>
-      </c>
       <c r="C57" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E57" s="18" t="s">
         <v>162</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B58" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="B58" s="16" t="s">
-        <v>159</v>
-      </c>
       <c r="C58" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E58" s="18" t="s">
         <v>164</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="B59" s="16" t="s">
-        <v>159</v>
-      </c>
       <c r="C59" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="E59" s="18" t="s">
         <v>167</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="B60" s="16" t="s">
-        <v>159</v>
-      </c>
       <c r="C60" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>106</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="B61" s="16" t="s">
-        <v>159</v>
-      </c>
       <c r="C61" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61" s="18" t="s">
         <v>171</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E61" s="18" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B62" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="D62" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D62" s="17" t="s">
+      <c r="E62" s="18" t="s">
         <v>175</v>
-      </c>
-      <c r="E62" s="18" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C63" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D63" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D63" s="17" t="s">
+      <c r="E63" s="18" t="s">
         <v>178</v>
-      </c>
-      <c r="E63" s="18" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>114</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C65" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E65" s="18" t="s">
         <v>182</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E65" s="18" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D66" s="17" t="s">
         <v>59</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C67" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E67" s="18" t="s">
         <v>186</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="E67" s="18" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B68" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C68" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="D68" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="E68" s="18" t="s">
         <v>190</v>
-      </c>
-      <c r="E68" s="18" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C69" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E69" s="18" t="s">
         <v>192</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C70" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D70" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="E70" s="18" t="s">
         <v>195</v>
-      </c>
-      <c r="E70" s="18" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C71" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E71" s="18" t="s">
         <v>197</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D72" s="17" t="s">
         <v>106</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C73" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E73" s="18" t="s">
         <v>201</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/miracuse_kits.xlsx
+++ b/miracuse_kits.xlsx
@@ -109,7 +109,7 @@
     <t xml:space="preserve">Utility, Alchemy</t>
   </si>
   <si>
-    <t xml:space="preserve">A cloak that resists gravity, allowing the wearer to glide when falling. When activated, can be used as a flying carpet for a short period of time, or as a bag that renders objects inside weightless.</t>
+    <t xml:space="preserve">A cloak that resists gravity, allowing the wearer to glide when falling and run across water. When activated, can be used as a flying carpet for a short period of time, or as a bag that renders objects inside weightless.</t>
   </si>
   <si>
     <t xml:space="preserve">Paper Homunculus</t>
@@ -124,7 +124,7 @@
     <t xml:space="preserve">Utility, Defense, Alchemy</t>
   </si>
   <si>
-    <t xml:space="preserve">A liquid metal bracer that can change shape on command, becoming a variety of tools or melee weapons. You can spend a use to have the bracer protect you from a Physical attack, such as an arrow or sword swing.</t>
+    <t xml:space="preserve">A liquid metal bracer that can change shape on command, becoming a variety of tools or melee weapons. You can spend a use to have the bracer shield you from a Physical attack by expanding into a large metal disc.</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit of Transmutation</t>
@@ -361,7 +361,7 @@
     <t xml:space="preserve">Piper’s Flute</t>
   </si>
   <si>
-    <t xml:space="preserve">You have a musical instrument that attracts and influences nearby creatures when played. You can spend a Prep Point to do one of the following: mesmerize an animal or monster, lull unwary creatures to sleep, or incite them to rampage.</t>
+    <t xml:space="preserve">You have a musical instrument that attracts the attention of nearby creatures when played. You can spend a Prep Point to do one of the following: calm an animal or animal-like monster, or incite them to rampage. You have Advantage on all rolls against related creatures.</t>
   </si>
   <si>
     <t xml:space="preserve">Prepared</t>
@@ -392,6 +392,96 @@
   </si>
   <si>
     <t xml:space="preserve">Attack, Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your sneak attacks deal additional damage, and do not break stealth when the target is incapacitated. You can spend a Prep Point to enter stealth, even from combat or while in plain sight. Doing so takes an action in combat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convincing Fake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility, Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a Skill you have no points in, and treat it as half the level of your highest Skill (rounded down). You can spend a Prep Point to change the chosen Skill, provided you have a few minutes to concentrate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infiltration Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stealth, Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nearby allies can use your Cunning when moving in stealth. “Assume a Disguise” also produces disguises for your allies. You can use a Prep Point to prevent you or your allies from being revealed when they otherwise would be. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iocane Powder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stealth, Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your sneak attacks can put targets to sleep and wipe away their memory instead of incapacitating them. Successfully doing so recovers a Prep Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadowdancing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can move your shadow independently of your body. Your shadow can interact with physical objects, including moving objects and attacking enemies, but takes your action to do so. You can spend a Prep Point to switch places with your shadow. You can see perfectly in the dark.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spycraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility, Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Assume a Disguise” is nearly instantaneous, and allows you to adopt an alias with a legally documented background and history. “What You Needed” can produce forgeries of documents, symbols of authority, and similar items. “I Know a Guy” can be used to produce blackmail on targets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swashbuckler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arta Eres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can counterattack or move after successfully defending against an attack. You can spend a Prep Point to succeed at defending against an attack regardless of your roll. You can move before and after taking an action in combat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arta Forteiza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health, Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional Physical box. You can convert a Prep Point into Physical box or vice versa, and can do so once per action while in combat. You do not need to sleep, and cannot be rendered unconscious, though you may be incapacitated through other means.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arta Loquit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use Cunning as though it were Aura, Bravery, or Knowledge for social purposes. When you do so you can “Adopt a Disguise” without spending a Prep Point. You can spend a Prep Point to reroll any social action you take, up to one additional time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arta Siva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility, Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use Cunning or Agility to provoke and intimidate in combat. When you succeed on provoking or intimidating an enemy in combat, you recover a Prep Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arta Tuco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack, Defense</t>
   </si>
   <si>
     <r>
@@ -402,7 +492,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Your sneak attacks deal additional damage, and do not break stealth when the target is incapacitated. </t>
+      <t xml:space="preserve">You can steal from a target on a successful attack or defense. You can spend a Prep Point to inflict a sneak attack regardless of stealth. </t>
     </r>
     <r>
       <rPr>
@@ -411,135 +501,17 @@
         <rFont val="Fira Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">You can spend a Prep Point to enter stealth, even from combat or while in plain sight.</t>
+      <t xml:space="preserve">Using a single item as an action does not end your turn in combat, though subsequent uses will.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Convincing Fake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility, Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a Skill you have no points in, and treat it as half the level of your highest Skill (rounded down). You can spend a Prep Point to change the chosen Skill, provided you have a few minutes to concentrate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infiltration Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stealth, Social</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Nearby allies can use your Cunning when moving in stealth. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">“Assume a Disguise” also produces disguises for your allies. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">You can use a Prep Point to prevent you or your allies from being revealed when they otherwise would be. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Iocane Powder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your sneak attacks can put targets to sleep and wipe away their memory instead of incapacitating them. You can spend a Prep Point to </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shadowdancing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can move your shadow independently of your body. Your shadow can interact with physical objects, including moving objects and attacking enemies. You can spend a Prep Point to teleport from one shadowed area to another within sight. You can see perfectly in the dark.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spycraft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility, Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Assume a Disguise” is nearly instantaneous, and includes an alias. “What You Needed” can produce forgeries of documents and symbols of authority. “I Know a Guy” can be used to produce blackmail on targets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swashbuckler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arta Eres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can counterattack, use an item, or move after successfully defending against an attack. You can spend a Prep Point to succeed at defending against an attack regardless of your roll.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arta Forteiza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health, Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional Physical box. You can convert a Prep Point into Physical box or vice versa, and can do so once per action while in combat. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arta Loquit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can use Cunning as though it were Aura, Bravery, or Knowledge for social purposes. When you do so you can “Adopt a Disguise” to assume an alias without spending a Prep Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arta Siva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility, Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can use Cunning or Agility to provoke and intimidate in combat. When you succeed on provoking or intimidating an enemy in combat, you recover a Prep Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arta Tuco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attack, Defense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can steal from a target on a successful attack or defense. You can spend a Prep Point to inflict a sneak attack regardless of stealth.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Arta Valar</t>
   </si>
   <si>
     <t xml:space="preserve">Attack</t>
   </si>
   <si>
-    <t xml:space="preserve">Your attacks can target Mental health instead of Physical. You can spend a Prep Point to take an action in combat when it isn’t your turn. </t>
+    <t xml:space="preserve">Your attacks can target Mental health instead of Physical. You can spend a Prep Point to take an action before someone else, including taking actions outside of your turn in combat. You can use this ability a maximum of one time between your normal turns in combat. You always go first when turn order is declared. </t>
   </si>
   <si>
     <t xml:space="preserve">Soldier</t>
@@ -668,7 +640,7 @@
     <t xml:space="preserve">Swordbreaker</t>
   </si>
   <si>
-    <t xml:space="preserve">Your attacks can strike through stone and metal, damaging equipment as well as causing harm. You can spend a Fortune Point to outright destroy an object or obstacle.</t>
+    <t xml:space="preserve">Your attacks can strike through stone and metal, damaging equipment and piercing cover as well as causing harm. You can spend a Fortune Point to outright destroy an object or obstacle.</t>
   </si>
   <si>
     <t xml:space="preserve">Willbreaker</t>
@@ -1082,11 +1054,11 @@
   </sheetPr>
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.27"/>

--- a/miracuse_kits.xlsx
+++ b/miracuse_kits.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="193">
   <si>
     <t xml:space="preserve">Class</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Basilisk Tongue</t>
   </si>
   <si>
-    <t xml:space="preserve">Attack, Utility, Alchemy</t>
+    <t xml:space="preserve">Exploration, Alchemy</t>
   </si>
   <si>
     <t xml:space="preserve">When used as a potion, gives the user stone-like skin for a few hours. When used as a venom, turns flesh to stone. Can be applied to stone to make it soft as clay for a few hours. Can be thrown as a grenade to turn stone to mud.</t>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">Dead Nettle Dust</t>
   </si>
   <si>
-    <t xml:space="preserve">Attack, Utility, AoE, Alchemy</t>
+    <t xml:space="preserve">Combat, Recovery, Alchemy</t>
   </si>
   <si>
     <t xml:space="preserve">When used as a potion, numbs the user to pain and mitigates the effects of Injuries. When used as a venom, causes severe pain and additional Physical damage. Induces violent coughing when breathed. Can be thrown as a grenade to inflict Physical damage.</t>
@@ -82,15 +82,15 @@
     <t xml:space="preserve">Halcyon</t>
   </si>
   <si>
+    <t xml:space="preserve">Combat, Exploration, Alchemy</t>
+  </si>
+  <si>
     <t xml:space="preserve">When used as a potion, allows the user to see, speak with, and touch spirits. When used as a venom, induces violent hallucinations and Mental damage. Considered a worthy offering by many magical creatures. Can be thrown as a grenade to inflict Mental damage.</t>
   </si>
   <si>
     <t xml:space="preserve">Holy Water</t>
   </si>
   <si>
-    <t xml:space="preserve">Attack, Defense, Utility, Alchemy</t>
-  </si>
-  <si>
     <t xml:space="preserve">When used as a potion, clears away curses and renders the user highly resistant to magic. When used as a venom, prevents targets from using magic for a few hours. Harmful to the undead and corrosive to magic. Can be thrown as a grenade to purge magical effects.</t>
   </si>
   <si>
@@ -100,37 +100,37 @@
     <t xml:space="preserve">Bronze Homunculus</t>
   </si>
   <si>
+    <t xml:space="preserve">Combat, Alchemy</t>
+  </si>
+  <si>
     <t xml:space="preserve">A set of bronze knives with blades on both ends of its hilt. When activated, it will seek out its owner’s enemies (or a nearby target of their choice) and attack as though it has a mind of its own. Only one knife can be thrown in an action, but multiple knives can be active at once.</t>
   </si>
   <si>
     <t xml:space="preserve">Cloth Homunculus</t>
   </si>
   <si>
-    <t xml:space="preserve">Utility, Alchemy</t>
-  </si>
-  <si>
     <t xml:space="preserve">A cloak that resists gravity, allowing the wearer to glide when falling and run across water. When activated, can be used as a flying carpet for a short period of time, or as a bag that renders objects inside weightless.</t>
   </si>
   <si>
     <t xml:space="preserve">Paper Homunculus</t>
   </si>
   <si>
+    <t xml:space="preserve">Exploration, Social, Alchemy</t>
+  </si>
+  <si>
     <t xml:space="preserve">A deck of cards painted to resemble people that the Alchemist knows. When focusing on one or more cards, the user can communicate telepathically with the person on the card, provided that the target is willing and able. You can spend a use to create a card of yourself that can be given to others. A card created this way will last seven days before crumbling to dust.</t>
   </si>
   <si>
     <t xml:space="preserve">Quicksilver Homunculus</t>
   </si>
   <si>
-    <t xml:space="preserve">Utility, Defense, Alchemy</t>
-  </si>
-  <si>
     <t xml:space="preserve">A liquid metal bracer that can change shape on command, becoming a variety of tools or melee weapons. You can spend a use to have the bracer shield you from a Physical attack by expanding into a large metal disc.</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit of Transmutation</t>
   </si>
   <si>
-    <t xml:space="preserve">Utility, Magic, Alchemy</t>
+    <t xml:space="preserve">Magic, Alchemy</t>
   </si>
   <si>
     <t xml:space="preserve">Transform substances into other, similar substances. You can spend this Kit’s uses to apply Knowledge or Perception instead of Aura when using this spirit.</t>
@@ -148,27 +148,18 @@
     <t xml:space="preserve">Chemical Charges</t>
   </si>
   <si>
-    <t xml:space="preserve">Hazard, AoE, Alchemy</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grenade that covers an area with a grease slick, quick drying cement, or a choking cloud of black smoke. Can be used as a bullet to produce a smaller but more precise effect.</t>
   </si>
   <si>
     <t xml:space="preserve">Magnesium Charges</t>
   </si>
   <si>
-    <t xml:space="preserve">Attack, AoE, Alchemy</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grenade that creates blinding light or a deafening whistle. When used as a bullet, can penetrate cover and deals additional Physical damage.</t>
   </si>
   <si>
     <t xml:space="preserve">Storm Charges</t>
   </si>
   <si>
-    <t xml:space="preserve">Attack, Hazard, AoE, Alchemy</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grenade that covers an area with crackling electricity or magnetizes an area, forcing metal objects in the vicinity to adhere to one another. Can be used as a bullet to produce a smaller but more precise effect.</t>
   </si>
   <si>
@@ -181,9 +172,6 @@
     <t xml:space="preserve">Tranquilizer Charges</t>
   </si>
   <si>
-    <t xml:space="preserve">Attack, AoE, Stealth, Alchemy</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grenade that covers an area in a fog of sleeping powder, knocking the unwary unconscious and dazing others. Can be used as a bullet to produce a smaller but more precise effect.</t>
   </si>
   <si>
@@ -202,7 +190,7 @@
     <t xml:space="preserve">Spirit of Divination</t>
   </si>
   <si>
-    <t xml:space="preserve">Utility, Magic</t>
+    <t xml:space="preserve">Exploration, Magic</t>
   </si>
   <si>
     <t xml:space="preserve">Seek and learn. Used to scry for hidden things and reveal new information.</t>
@@ -211,7 +199,7 @@
     <t xml:space="preserve">Spirit of Heavens</t>
   </si>
   <si>
-    <t xml:space="preserve">Attack, Utility, Magic</t>
+    <t xml:space="preserve">Combat, Magic</t>
   </si>
   <si>
     <t xml:space="preserve">Smite and cleanse. Used to punish evil and dispel magic.</t>
@@ -220,6 +208,9 @@
     <t xml:space="preserve">Spirit of Hells</t>
   </si>
   <si>
+    <t xml:space="preserve">Magic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Corrupt and wrong. Used to raise the dead and subvert the natural order.</t>
   </si>
   <si>
@@ -235,7 +226,7 @@
     <t xml:space="preserve">Spirit of Restoration</t>
   </si>
   <si>
-    <t xml:space="preserve">Recovery, Utility, Magic</t>
+    <t xml:space="preserve">Recovery, Magic</t>
   </si>
   <si>
     <t xml:space="preserve">Restore and repair. Used to heal wounds and mend broken objects.</t>
@@ -244,9 +235,6 @@
     <t xml:space="preserve">Spirit of Warding</t>
   </si>
   <si>
-    <t xml:space="preserve">Defense, Utility, Magic</t>
-  </si>
-  <si>
     <t xml:space="preserve">Seal and repel. Used to create barriers and push targets away.</t>
   </si>
   <si>
@@ -256,6 +244,9 @@
     <t xml:space="preserve">Spirit of Aether</t>
   </si>
   <si>
+    <t xml:space="preserve">Combat, Exploration, Magic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Allows for control and limited manifestation of electricity.</t>
   </si>
   <si>
@@ -310,9 +301,6 @@
     <t xml:space="preserve">Spirit of Light</t>
   </si>
   <si>
-    <t xml:space="preserve">Utility, Social, Stealth, Magic</t>
-  </si>
-  <si>
     <t xml:space="preserve">Brighten and dim. Used to create and manipulate illusory images.</t>
   </si>
   <si>
@@ -343,7 +331,7 @@
     <t xml:space="preserve">Beast Tamer</t>
   </si>
   <si>
-    <t xml:space="preserve">Attack, Utility</t>
+    <t xml:space="preserve">Combat, Exploration</t>
   </si>
   <si>
     <t xml:space="preserve">You enlist a local animal to assist you. The animal can track, warn you of danger, fight, and do anything a creature of its kind might. You can speak with and understand the animal. You can compel the animal to do something it doesn’t want to by spending a Prep Point.</t>
@@ -352,16 +340,16 @@
     <t xml:space="preserve">Lifesense</t>
   </si>
   <si>
-    <t xml:space="preserve">Utility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can sense the presence or absence of life nearby. You can spend a Prep Point to extend your range by a significant amount, or to sense the emotions of any creature in range. You have Advantage when sensing the motives of another person.</t>
+    <t xml:space="preserve">Exploration, Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can sense the presence or absence of life nearby. You can spend a Prep Point to extend your range by a significant amount for a short time, or to read the emotions of any creature in range. You have Advantage when sensing the motives of another person.</t>
   </si>
   <si>
     <t xml:space="preserve">Piper’s Flute</t>
   </si>
   <si>
-    <t xml:space="preserve">You have a musical instrument that attracts the attention of nearby creatures when played. You can spend a Prep Point to do one of the following: calm an animal or animal-like monster, or incite them to rampage. You have Advantage on all rolls against related creatures.</t>
+    <t xml:space="preserve">You have a musical instrument that attracts the attention of nearby animal-like creatures and spirits when played. You can spend a Prep Point to either calm them or stir them into a frenzy. You have Advantage on all rolls against related creatures.</t>
   </si>
   <si>
     <t xml:space="preserve">Prepared</t>
@@ -379,10 +367,13 @@
     <t xml:space="preserve">Allows for control and limited manifestation of plant matter. You can spend a Prep Point to use Cunning or Agility instead of Aura when using this spirit.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tracker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can use Cunning or Agility when scouting areas, tracking a target, or collecting information. You can spend a Prep Point to learn an enemy’s weakness, find a secret entrance to a location, or find a clue in an investigation. You take Advantage against traps.</t>
+    <t xml:space="preserve">Tracker’s Trade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social, Exploration, Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use Cunning or Agility when actively collecting information, and can disguise yourself as terrain via “Assume a Disguise” without expending a Prep Point. You can spend a Prep Point to learn an enemy’s weakness, uncover a secret entrance to a location, or find a clue in an investigation. You take Advantage against traps.</t>
   </si>
   <si>
     <t xml:space="preserve">Spy</t>
@@ -391,97 +382,22 @@
     <t xml:space="preserve">Assassinate</t>
   </si>
   <si>
-    <t xml:space="preserve">Attack, Stealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your sneak attacks deal additional damage, and do not break stealth when the target is incapacitated. You can spend a Prep Point to enter stealth, even from combat or while in plain sight. Doing so takes an action in combat.</t>
+    <t xml:space="preserve">Combat, Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your sneak attacks deal additional damage. You can spend a Prep Point to enter stealth, even from combat or while in plain sight. Doing so takes an action in combat. Sneak attacks that incapacitate an enemy do not break stealth.</t>
   </si>
   <si>
     <t xml:space="preserve">Convincing Fake</t>
   </si>
   <si>
-    <t xml:space="preserve">Utility, Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a Skill you have no points in, and treat it as half the level of your highest Skill (rounded down). You can spend a Prep Point to change the chosen Skill, provided you have a few minutes to concentrate.</t>
+    <t xml:space="preserve">Choose a Skill you have no points in, and raise it to half the level of your highest Skill (rounded down). You can spend a Prep Point to change the chosen Skill, provided you have a few minutes to concentrate.</t>
   </si>
   <si>
     <t xml:space="preserve">Infiltration Team</t>
   </si>
   <si>
-    <t xml:space="preserve">Stealth, Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nearby allies can use your Cunning when moving in stealth. “Assume a Disguise” also produces disguises for your allies. You can use a Prep Point to prevent you or your allies from being revealed when they otherwise would be. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iocane Powder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stealth, Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your sneak attacks can put targets to sleep and wipe away their memory instead of incapacitating them. Successfully doing so recovers a Prep Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shadowdancing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can move your shadow independently of your body. Your shadow can interact with physical objects, including moving objects and attacking enemies, but takes your action to do so. You can spend a Prep Point to switch places with your shadow. You can see perfectly in the dark.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spycraft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility, Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Assume a Disguise” is nearly instantaneous, and allows you to adopt an alias with a legally documented background and history. “What You Needed” can produce forgeries of documents, symbols of authority, and similar items. “I Know a Guy” can be used to produce blackmail on targets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swashbuckler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arta Eres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can counterattack or move after successfully defending against an attack. You can spend a Prep Point to succeed at defending against an attack regardless of your roll. You can move before and after taking an action in combat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arta Forteiza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health, Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional Physical box. You can convert a Prep Point into Physical box or vice versa, and can do so once per action while in combat. You do not need to sleep, and cannot be rendered unconscious, though you may be incapacitated through other means.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arta Loquit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can use Cunning as though it were Aura, Bravery, or Knowledge for social purposes. When you do so you can “Adopt a Disguise” without spending a Prep Point. You can spend a Prep Point to reroll any social action you take, up to one additional time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arta Siva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility, Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can use Cunning or Agility to provoke and intimidate in combat. When you succeed on provoking or intimidating an enemy in combat, you recover a Prep Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arta Tuco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attack, Defense</t>
+    <t xml:space="preserve">Social, Stealth</t>
   </si>
   <si>
     <r>
@@ -492,7 +408,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">You can steal from a target on a successful attack or defense. You can spend a Prep Point to inflict a sneak attack regardless of stealth. </t>
+      <t xml:space="preserve">Nearby allies can use your Cunning when moving in stealth. You can use a Prep Point to prevent you or your allies from being revealed when they otherwise would be. </t>
     </r>
     <r>
       <rPr>
@@ -501,16 +417,76 @@
         <rFont val="Fira Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Using a single item as an action does not end your turn in combat, though subsequent uses will.</t>
+      <t xml:space="preserve">“Assume a Disguise” also produces disguises for your allies.</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Iocane Powder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Stealth, Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your sneak attacks can put targets to sleep and wipe away their short-term memory instead of incapacitating them. Successfully doing so recovers a Prep Point. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadowdancing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration, Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can move your shadow independently of your body. Your shadow can interact with physical objects, including moving objects and attacking enemies, but takes your action to do so. You can spend a Prep Point to switch places with your shadow. You can see perfectly in the dark.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spycraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Assume a Disguise” is nearly instantaneous, and allows you to adopt an alias with a legally documented background and history. “What You Needed” can produce forgeries of documents, symbols of authority, and similar items. “I Know a Guy” can be used to produce blackmail on targets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swashbuckler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arta Eres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can counterattack or move after successfully defending against an attack. You can spend a Prep Point to succeed at defending against an attack regardless of your roll. You can move before and after taking an action in combat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arta Forteiza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional Physical box. You can convert a Prep Point into Physical box or vice versa, and can do so once per action while in combat. You do not need to sleep, and cannot be rendered unconscious, though you may be incapacitated through other means.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arta Loquit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use Cunning as though it were Aura, Bravery, or Knowledge for social purposes. When you do so you can “Adopt a Disguise” without spending a Prep Point. You can spend a Prep Point to reroll any social action you take, up to one additional time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arta Siva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use Cunning or Agility to provoke and intimidate in combat. When you succeed on provoking or intimidating an enemy in combat, you recover a Prep Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arta Tuco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can steal from a target on a successful attack or defense. You can spend a Prep Point to inflict a sneak attack regardless of stealth. Using a single item as an action does not end your turn in combat, though subsequent uses will.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Arta Valar</t>
   </si>
   <si>
-    <t xml:space="preserve">Attack</t>
-  </si>
-  <si>
     <t xml:space="preserve">Your attacks can target Mental health instead of Physical. You can spend a Prep Point to take an action before someone else, including taking actions outside of your turn in combat. You can use this ability a maximum of one time between your normal turns in combat. You always go first when turn order is declared. </t>
   </si>
   <si>
@@ -523,13 +499,16 @@
     <t xml:space="preserve">Iron Blood</t>
   </si>
   <si>
-    <t xml:space="preserve">You are immune to most environmental hazards, including magical and alchemical hazards. You can spend a Fortune Point to weaponize an environmental hazard, such as sweeping a weapon through an open flame and sending flames at your enemies. Poisons and similar afflictions have no effect on you. </t>
+    <t xml:space="preserve">Exploration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are immune to most environmental hazards, including magical and alchemical hazards. You can spend a Fortune Point to weaponize an environmental hazard, such as sweeping a weapon through an open flame and sending fire at your enemies. Poisons and similar afflictions have no effect on you. </t>
   </si>
   <si>
     <t xml:space="preserve">Iron Circle</t>
   </si>
   <si>
-    <t xml:space="preserve">Take a free attack against enemies that attempt to enter or leave your melee range. You can spend a Fortune Point to prevent enemies and attacks from moving past you. You are immune to sneak attacks and take Advantage against traps.</t>
+    <t xml:space="preserve">Take a free attack against enemies that attempt to enter or leave your melee range. You can spend a Fortune Point to prevent enemies and attacks from moving past you. You are immune to sneak attacks and similar effects.</t>
   </si>
   <si>
     <t xml:space="preserve">Iron Stance</t>
@@ -541,10 +520,10 @@
     <t xml:space="preserve">Iron Star</t>
   </si>
   <si>
-    <t xml:space="preserve">Attack, Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks also count as a rally for one ally. You can spend a Fortune Point to revive an incapacitated ally using a rally. When you recover Physical or Mental health, you recover one more box than you would otherwise.</t>
+    <t xml:space="preserve">Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks rally an ally, requiring no additional rolls when successful. You can spend a Fortune Point to revive an incapacitated ally using a rally. When you recover Physical or Mental health, you recover one more box than you would otherwise.</t>
   </si>
   <si>
     <t xml:space="preserve">Iron Strength</t>
@@ -565,18 +544,15 @@
     <t xml:space="preserve">Curse</t>
   </si>
   <si>
-    <t xml:space="preserve">Attack, Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Those you provoke or intimidate are prone to bouts of misfortune. You can spend a Fortune Point to make such a curse into a lasting weakness. For example, cursing someone to suffer more from blades, fire, or heartbreak.</t>
+    <t xml:space="preserve">Combat, Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Those you provoke or intimidate are prone to bouts of misfortune. The next roll against them, from you or your allies, has Advantage. You can spend a Fortune Point to change this effect into a lasting weakness affiliated with a specific threat (fire, blades, poverty, etc.) Rolls related to this threat have Advantage against the target.</t>
   </si>
   <si>
     <t xml:space="preserve">Gambler’s Fallacy</t>
   </si>
   <si>
-    <t xml:space="preserve">Recovery</t>
-  </si>
-  <si>
     <t xml:space="preserve">You recover a Fortune Point when you roll a 1. You can spend a Fortune Point to guarantee a 10 on your next action without rolling.</t>
   </si>
   <si>
@@ -601,7 +577,10 @@
     <t xml:space="preserve">Winning Charm</t>
   </si>
   <si>
-    <t xml:space="preserve">You make a good first impression, acquiring the respect or affection of people you meet. You can spend a Fortune Point to establish a reputation of your choice among those you meet for the first time, regardless of whether or not it’s deserved.</t>
+    <t xml:space="preserve">Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You make a good first impression, acquiring the respect or affection of people you meet. You can spend a Fortune Point to establish a reputation of your choice among those you meet for the first time, regardless of whether or not it’s deserved. You have Advantage when using Bravery or Physique to impress others.</t>
   </si>
   <si>
     <t xml:space="preserve">Valor</t>
@@ -610,43 +589,37 @@
     <t xml:space="preserve">Hordebreaker</t>
   </si>
   <si>
-    <t xml:space="preserve">Attack, AoE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks affect anyone or anything near your target. You can spend a Fortune Point to make an attack against every enemy in combat, or to strike one target twice.</t>
+    <t xml:space="preserve">Your attacks affect anyone or anything near your target, becoming area-of-effect. You can spend a Fortune Point to make an attack against every enemy in combat, or to strike one target twice. Take Advantage when attacking groups of enemies.</t>
   </si>
   <si>
     <t xml:space="preserve">Skybreaker</t>
   </si>
   <si>
-    <t xml:space="preserve">Your attacks, both melee and ranged, have a much longer range than normal. You can spend a Fortune Point to make a nearly impossible shot with pinpoint accuracy.</t>
+    <t xml:space="preserve">Your attacks, both melee and ranged, have a much longer range than normal. You can spend a Fortune Point to make a nearly impossible shot with pinpoint accuracy. When you tie attacking an enemy, you succeed instead of the defender.</t>
   </si>
   <si>
     <t xml:space="preserve">Spellbreaker</t>
   </si>
   <si>
-    <t xml:space="preserve">Utility, Attack, Defense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks can damage spells and spirits. You can spend a Fortune Point to deflect a spell back at its caster or clear away magical effects in the area.</t>
+    <t xml:space="preserve">Your attacks can damage spells and spirits. You can spend a Fortune Point to deflect a spell back at its caster or clear away magical effects in the area. Take Advantage when attacking mages or spirits.</t>
   </si>
   <si>
     <t xml:space="preserve">Stancebreaker</t>
   </si>
   <si>
-    <t xml:space="preserve">Your attacks push targets back. You can spend a Fortune Point to forcefully reposition a target; knocking it down, pinning it in place, launching it into the air, or throwing it a great distance.</t>
+    <t xml:space="preserve">Your attacks force enemies to reposition and volley objects into the air. You can spend a Fortune Point to manipulate a target’s placement; knocking it down, pinning it in place, launching it into the air, or throwing it a great distance. Enemies that you hit have reduced movement throughout combat.</t>
   </si>
   <si>
     <t xml:space="preserve">Swordbreaker</t>
   </si>
   <si>
-    <t xml:space="preserve">Your attacks can strike through stone and metal, damaging equipment and piercing cover as well as causing harm. You can spend a Fortune Point to outright destroy an object or obstacle.</t>
+    <t xml:space="preserve">Your attacks can strike through stone and metal, damaging equipment and piercing cover as well as causing harm. You can spend a Fortune Point to outright destroy an object or obstacle. Take Advantage when attacking armored enemies.</t>
   </si>
   <si>
     <t xml:space="preserve">Willbreaker</t>
   </si>
   <si>
-    <t xml:space="preserve">Your attacks also count as provoking or intimidating. You can spend a Fortune Point to exploit the weakness of anyone you’ve provoked or intimidated, taking Advantage on all rolls against them while they’re still influenced.</t>
+    <t xml:space="preserve">Your attacks provoke or intimidate, requiring no additional rolls to produce either effect when successful. You can spend a Fortune Point to succeed in getting your target’s full attention. Take Advantage when attacking enemies influenced by your provocation or intimidation.</t>
   </si>
 </sst>
 </file>
@@ -1054,11 +1027,11 @@
   </sheetPr>
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D44" activeCellId="0" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.27"/>
@@ -1163,10 +1136,10 @@
         <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1177,10 +1150,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>22</v>
@@ -1197,10 +1170,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1211,10 +1184,10 @@
         <v>23</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>28</v>
@@ -1231,10 +1204,10 @@
         <v>29</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1245,10 +1218,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>33</v>
@@ -1282,7 +1255,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>38</v>
@@ -1299,10 +1272,10 @@
         <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1313,13 +1286,13 @@
         <v>39</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1330,13 +1303,13 @@
         <v>39</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1347,13 +1320,13 @@
         <v>39</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1364,13 +1337,13 @@
         <v>39</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1381,931 +1354,931 @@
         <v>39</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="D21" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="D27" s="9" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="D33" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B39" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>108</v>
-      </c>
       <c r="D39" s="13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B44" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B51" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>142</v>
-      </c>
       <c r="D51" s="13" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>152</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58" s="18" t="s">
         <v>157</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B59" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C59" s="17" t="s">
-        <v>165</v>
-      </c>
       <c r="D59" s="17" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B64" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E64" s="18" t="s">
         <v>172</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E64" s="18" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B71" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C71" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="C71" s="17" t="s">
-        <v>196</v>
-      </c>
       <c r="D71" s="17" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/miracuse_kits.xlsx
+++ b/miracuse_kits.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="196">
   <si>
     <t xml:space="preserve">Class</t>
   </si>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">Recovery, Alchemy</t>
   </si>
   <si>
-    <t xml:space="preserve">When used as a potion, recovers two Physical boxes or two Mental boxes. When used as a venom, inflicts wounds that will not heal. Cleanses poisons, diseases, and rot. Not usable as a grenade.</t>
+    <t xml:space="preserve">When used as a potion, recovers two Physical boxes or two Mental boxes. When used as a venom, inflicts cursed wounds that resist healing. Cleanses poisons, diseases, and rot. Not usable as a grenade.</t>
   </si>
   <si>
     <t xml:space="preserve">Halcyon</t>
@@ -97,88 +97,88 @@
     <t xml:space="preserve">Golemcraft</t>
   </si>
   <si>
-    <t xml:space="preserve">Bronze Homunculus</t>
+    <t xml:space="preserve">Clay Homunculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of polished quartz stones. Planting one in dirt or mud creates a small clay golem, roughly three feet tall. The golem will follow its creator’s orders for one hour or until it is destroyed, whichever comes first. It has little intelligence, feels no pain, and is able to fight.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloth Homunculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cloak that resists gravity, allowing the wearer to glide when falling and run across water. When activated, can be used as a flying carpet for a short period of time, or as a bag that renders objects inside weightless.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paper Homunculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration, Social, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A deck of cards painted to resemble people that the Alchemist knows. When focusing on one or more cards, the user can communicate telepathically with the person on the card, provided that the target is willing and able. You can spend a use to create a card of yourself that can be given to others. A card created this way will last seven days before crumbling to dust.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quicksilver Homunculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A liquid metal bracer that can change shape on command, becoming a variety of tools or melee weapons. You can spend a use to have the bracer shield you from a Physical attack by expanding into a large metal disc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Transmutation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transform substances into other, similar substances. You can spend this Kit’s uses to apply Knowledge or Perception instead of Aura when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steel Homunculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A steel staff that can change size and weight on command, from pocket-sized to 10 feet long, and from a few pounds to a few hundred pounds. You can spend a use to lock the staff in place, strongly resisting any force that tries to move it and floating in defiance of gravity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concussive Charges</t>
   </si>
   <si>
     <t xml:space="preserve">Combat, Alchemy</t>
   </si>
   <si>
-    <t xml:space="preserve">A set of bronze knives with blades on both ends of its hilt. When activated, it will seek out its owner’s enemies (or a nearby target of their choice) and attack as though it has a mind of its own. Only one knife can be thrown in an action, but multiple knives can be active at once.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloth Homunculus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A cloak that resists gravity, allowing the wearer to glide when falling and run across water. When activated, can be used as a flying carpet for a short period of time, or as a bag that renders objects inside weightless.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paper Homunculus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration, Social, Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A deck of cards painted to resemble people that the Alchemist knows. When focusing on one or more cards, the user can communicate telepathically with the person on the card, provided that the target is willing and able. You can spend a use to create a card of yourself that can be given to others. A card created this way will last seven days before crumbling to dust.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quicksilver Homunculus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A liquid metal bracer that can change shape on command, becoming a variety of tools or melee weapons. You can spend a use to have the bracer shield you from a Physical attack by expanding into a large metal disc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Transmutation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic, Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transform substances into other, similar substances. You can spend this Kit’s uses to apply Knowledge or Perception instead of Aura when using this spirit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steel Homunculus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A steel staff that can change size and weight on command, from pocket-sized to 10 feet long, and from a few pounds to a few hundred pounds. You can spend a use to lock the staff in place, strongly resisting any force that tries to move it and floating in defiance of gravity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munitions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemical Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenade that covers an area with a grease slick, quick drying cement, or a choking cloud of black smoke. Can be used as a bullet to produce a smaller but more precise effect.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magnesium Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenade that creates blinding light or a deafening whistle. When used as a bullet, can penetrate cover and deals additional Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storm Charges</t>
+    <t xml:space="preserve">Grenade that ruptures the ground or stuns those in area with bright light and deafening sound. When used as a bullet, can penetrate cover and deal additional Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electromagnetic Charges</t>
   </si>
   <si>
     <t xml:space="preserve">Grenade that covers an area with crackling electricity or magnetizes an area, forcing metal objects in the vicinity to adhere to one another. Can be used as a bullet to produce a smaller but more precise effect.</t>
   </si>
   <si>
-    <t xml:space="preserve">Thermal Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenade that covers an area with searing flames or a sheet of ice. Can be used as a bullet to produce a smaller but more precise effect.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tranquilizer Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenade that covers an area in a fog of sleeping powder, knocking the unwary unconscious and dazing others. Can be used as a bullet to produce a smaller but more precise effect.</t>
+    <t xml:space="preserve">Friction Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenade that covers an area with a grease slick or quick-drying adhesive. Can be used as a bullet to produce a smaller but more precise effect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermic Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenade that covers an area with roaring flames or a layer of ice. Can be used as a bullet to produce a smaller but more precise effect.</t>
   </si>
   <si>
     <t xml:space="preserve">Trenchsteel Charges</t>
   </si>
   <si>
-    <t xml:space="preserve">Grenade that creates a swarm of bouncing metal ball bearings or a bale of barbed wire. When used as a bullet, can change course mid-flight by detonating a second time.</t>
+    <t xml:space="preserve">Grenade that covers an area with metal ball bearings or a sprawl of barbed wire. When used as a bullet, can change course mid-flight by detonating a second time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vapor Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenade that covers an area in scalding steam or a billowing cloud of fog. When used as a bullet, can instantly rust metals.</t>
   </si>
   <si>
     <t xml:space="preserve">Mage</t>
@@ -313,6 +313,9 @@
     <t xml:space="preserve">Spirit of Sound</t>
   </si>
   <si>
+    <t xml:space="preserve">Combat, Social, Magic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amplify and quiet. Used to create and manipulate sound.</t>
   </si>
   <si>
@@ -349,7 +352,10 @@
     <t xml:space="preserve">Piper’s Flute</t>
   </si>
   <si>
-    <t xml:space="preserve">You have a musical instrument that attracts the attention of nearby animal-like creatures and spirits when played. You can spend a Prep Point to either calm them or stir them into a frenzy. You have Advantage on all rolls against related creatures.</t>
+    <t xml:space="preserve">Combat, Exploration, Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a musical instrument that attracts the attention of nearby animals, monsters, and spirits when played. You can spend a Prep Point to either calm them or stir them into a frenzy. You have Advantage on all rolls against related creatures.</t>
   </si>
   <si>
     <t xml:space="preserve">Prepared</t>
@@ -358,7 +364,7 @@
     <t xml:space="preserve">Health</t>
   </si>
   <si>
-    <t xml:space="preserve">Gain an additional two Prep Points. When you use a Prep Point to change Kits, you can change two Kits instead of one.</t>
+    <t xml:space="preserve">Gain an additional two Prep Points. When you use a Prep Point to change Kits, you can change two Kits instead of one. You can use “What You Needed” without spending Prep Points.</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit of Wood</t>
@@ -373,7 +379,7 @@
     <t xml:space="preserve">Social, Exploration, Stealth</t>
   </si>
   <si>
-    <t xml:space="preserve">You can use Cunning or Agility when actively collecting information, and can disguise yourself as terrain via “Assume a Disguise” without expending a Prep Point. You can spend a Prep Point to learn an enemy’s weakness, uncover a secret entrance to a location, or find a clue in an investigation. You take Advantage against traps.</t>
+    <t xml:space="preserve">You can use Cunning or Agility when actively collecting information, and can disguise yourself as terrain via “Assume a Disguise”. You can spend a Prep Point to learn an enemy’s weakness, uncover a secret entrance to a location, or find a clue in an investigation. You have Advantage against traps.</t>
   </si>
   <si>
     <t xml:space="preserve">Spy</t>
@@ -385,19 +391,13 @@
     <t xml:space="preserve">Combat, Stealth</t>
   </si>
   <si>
-    <t xml:space="preserve">Your sneak attacks deal additional damage. You can spend a Prep Point to enter stealth, even from combat or while in plain sight. Doing so takes an action in combat. Sneak attacks that incapacitate an enemy do not break stealth.</t>
+    <t xml:space="preserve">Your sneak attacks deal additional damage. You can spend a Prep Point to enter stealth, even from combat or while in plain sight, and can do so outside your turn in combat. Sneak attacks that incapacitate an enemy do not break stealth.</t>
   </si>
   <si>
     <t xml:space="preserve">Convincing Fake</t>
   </si>
   <si>
-    <t xml:space="preserve">Choose a Skill you have no points in, and raise it to half the level of your highest Skill (rounded down). You can spend a Prep Point to change the chosen Skill, provided you have a few minutes to concentrate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infiltration Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social, Stealth</t>
+    <t xml:space="preserve">Exploration, Health</t>
   </si>
   <si>
     <r>
@@ -408,7 +408,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Nearby allies can use your Cunning when moving in stealth. You can use a Prep Point to prevent you or your allies from being revealed when they otherwise would be. </t>
+      <t xml:space="preserve">Choose a Skill you have no points in, and raise it to half the level of your highest Skill (rounded down). You can spend a Prep Point to change the chosen Skill, provided you have a few minutes to concentrate. </t>
     </r>
     <r>
       <rPr>
@@ -417,17 +417,26 @@
         <rFont val="Fira Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">“Assume a Disguise” also produces disguises for your allies.</t>
+      <t xml:space="preserve">You can use “Assume a Disguise” without spending Prep Points.</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Infiltration Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social, Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nearby allies can use your Cunning when moving in stealth. You can use a Prep Point to prevent you or your allies from being revealed when they otherwise would be. “Assume a Disguise” also produces disguises for your allies.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Iocane Powder</t>
   </si>
   <si>
     <t xml:space="preserve">Combat, Stealth, Recovery</t>
   </si>
   <si>
-    <t xml:space="preserve">Your sneak attacks can put targets to sleep and wipe away their short-term memory instead of incapacitating them. Successfully doing so recovers a Prep Point. </t>
+    <t xml:space="preserve">Your sneak attacks can put targets to sleep and wipe away their short-term memory when they would otherwise incapacitate. Successfully taking out a target in this way recovers a Prep Point. </t>
   </si>
   <si>
     <t xml:space="preserve">Shadowdancing</t>
@@ -436,7 +445,7 @@
     <t xml:space="preserve">Exploration, Stealth</t>
   </si>
   <si>
-    <t xml:space="preserve">You can move your shadow independently of your body. Your shadow can interact with physical objects, including moving objects and attacking enemies, but takes your action to do so. You can spend a Prep Point to switch places with your shadow. You can see perfectly in the dark.</t>
+    <t xml:space="preserve">You can move your shadow independently of your body. Your shadow can interact with physical objects, including moving objects and attacking enemies, but takes your action to do so. It can move roughly as far as you can see, but cannot enter brightly lit areas. You can spend a Prep Point to switch places with your shadow. You see perfectly in the dark.</t>
   </si>
   <si>
     <t xml:space="preserve">Spycraft</t>
@@ -466,7 +475,7 @@
     <t xml:space="preserve">Arta Loquit</t>
   </si>
   <si>
-    <t xml:space="preserve">You can use Cunning as though it were Aura, Bravery, or Knowledge for social purposes. When you do so you can “Adopt a Disguise” without spending a Prep Point. You can spend a Prep Point to reroll any social action you take, up to one additional time.</t>
+    <t xml:space="preserve">You can use Cunning as though it were Aura, Bravery, or Knowledge for social purposes. You can spend a Prep Point to reroll any social action you take, up to one additional time. You can use “I Know A Guy” without spending Prep Points.</t>
   </si>
   <si>
     <t xml:space="preserve">Arta Siva</t>
@@ -481,7 +490,7 @@
     <t xml:space="preserve">Arta Tuco</t>
   </si>
   <si>
-    <t xml:space="preserve">You can steal from a target on a successful attack or defense. You can spend a Prep Point to inflict a sneak attack regardless of stealth. Using a single item as an action does not end your turn in combat, though subsequent uses will.</t>
+    <t xml:space="preserve">You can steal from, or disarm, a target on a successful attack or defense. You can spend a Prep Point to inflict a sneak attack regardless of stealth. Using an item as an action does not end your turn in combat, though subsequent uses will.</t>
   </si>
   <si>
     <t xml:space="preserve">Arta Valar</t>
@@ -508,13 +517,13 @@
     <t xml:space="preserve">Iron Circle</t>
   </si>
   <si>
-    <t xml:space="preserve">Take a free attack against enemies that attempt to enter or leave your melee range. You can spend a Fortune Point to prevent enemies and attacks from moving past you. You are immune to sneak attacks and similar effects.</t>
+    <t xml:space="preserve">Take a free attack against enemies that attempt to enter or leave your melee range. You can spend a Fortune Point to prevent nearly anything from moving past you. You are immune to sneak attacks and similar effects.</t>
   </si>
   <si>
     <t xml:space="preserve">Iron Stance</t>
   </si>
   <si>
-    <t xml:space="preserve">You can defend against attacks and hazards using Bravery or Physique, and cannot be moved, knocked down, or otherwise repositioned by force. You can spend a Fortune Point to protect a nearby ally from harm.</t>
+    <t xml:space="preserve">You can defend against Physical attacks and hazards using Bravery or Physique. You can spend a Fortune Point to negate an attack against a nearby ally. You cannot be moved, knocked down, or otherwise repositioned against your will.</t>
   </si>
   <si>
     <t xml:space="preserve">Iron Star</t>
@@ -523,13 +532,13 @@
     <t xml:space="preserve">Recovery</t>
   </si>
   <si>
-    <t xml:space="preserve">Your attacks rally an ally, requiring no additional rolls when successful. You can spend a Fortune Point to revive an incapacitated ally using a rally. When you recover Physical or Mental health, you recover one more box than you would otherwise.</t>
+    <t xml:space="preserve">Your attacks also count as a rally for one ally of your choice, requiring no additional rolls when the attack is successful. You can spend a Fortune Point to revive an incapacitated ally using a rally. When you recover Physical or Mental health, you recover one more box than you would otherwise.</t>
   </si>
   <si>
     <t xml:space="preserve">Iron Strength</t>
   </si>
   <si>
-    <t xml:space="preserve">Your attacks land with brutal force, dealing additional Physical damage when successful. You can spend a Fortune Point to perform a feat of incredible strength, such as bending metal bars or picking up a cart. You take Advantage on any roll that relies on brute strength.</t>
+    <t xml:space="preserve">Your attacks land with brutal force, dealing additional Physical damage when the attack is successful. You can spend a Fortune Point to perform a feat of incredible strength, such as bending metal bars or picking up a cart. You take Advantage on any roll that relies on brute strength.</t>
   </si>
   <si>
     <t xml:space="preserve">Iron Will</t>
@@ -547,25 +556,25 @@
     <t xml:space="preserve">Combat, Social</t>
   </si>
   <si>
-    <t xml:space="preserve">Those you provoke or intimidate are prone to bouts of misfortune. The next roll against them, from you or your allies, has Advantage. You can spend a Fortune Point to change this effect into a lasting weakness affiliated with a specific threat (fire, blades, poverty, etc.) Rolls related to this threat have Advantage against the target.</t>
+    <t xml:space="preserve">Those you provoke or intimidate are prone to bouts of misfortune. The next roll against them, from you or your allies, has Advantage. You can spend a Fortune Point to change this effect into a lasting weakness affiliated with a specific threat (fire, blades, heartbreak, poverty, etc.) Rolls related to this threat have Advantage against the target.</t>
   </si>
   <si>
     <t xml:space="preserve">Gambler’s Fallacy</t>
   </si>
   <si>
-    <t xml:space="preserve">You recover a Fortune Point when you roll a 1. You can spend a Fortune Point to guarantee a 10 on your next action without rolling.</t>
+    <t xml:space="preserve">You recover a Fortune Point when you roll a 1. You can spend a Fortune Point to guarantee a 10 on your next action without rolling. You win all games of chance as though by divine intervention.</t>
   </si>
   <si>
     <t xml:space="preserve">Lucky</t>
   </si>
   <si>
-    <t xml:space="preserve">Gain an additional two Fortune Point boxes. When you use a Fortune Point to reroll, add a +1 to the reroll result.</t>
+    <t xml:space="preserve">Gain an additional two Fortune Point boxes. When you use a Fortune Point to reroll, add a +1 to the reroll result. When a roll for luck is called, you can add your Physique or Bravery to the result.</t>
   </si>
   <si>
     <t xml:space="preserve">Near Miss</t>
   </si>
   <si>
-    <t xml:space="preserve">When you roll a 1 you take a +0 instead of a -2 to the result. You can spend a Fortune Point to avoid taking damage from an attack or hazard.</t>
+    <t xml:space="preserve">When you roll a 1 you take a +0 instead of a -2 to the result. You can spend a Fortune Point to avoid taking damage from an attack or hazard. When you would otherwise be taken out, you can roll a dice. On a 9 or higher, you miraculously avoid being incapacitated.</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit of Chance</t>
@@ -589,13 +598,13 @@
     <t xml:space="preserve">Hordebreaker</t>
   </si>
   <si>
-    <t xml:space="preserve">Your attacks affect anyone or anything near your target, becoming area-of-effect. You can spend a Fortune Point to make an attack against every enemy in combat, or to strike one target twice. Take Advantage when attacking groups of enemies.</t>
+    <t xml:space="preserve">Your attacks affect anyone or anything near your target, becoming area-of-effect. You can spend a Fortune Point to make an attack against every enemy in combat, or to strike one target twice in a single action. Take Advantage when attacking a group of similar enemies (i.e. a pack of wolves).</t>
   </si>
   <si>
     <t xml:space="preserve">Skybreaker</t>
   </si>
   <si>
-    <t xml:space="preserve">Your attacks, both melee and ranged, have a much longer range than normal. You can spend a Fortune Point to make a nearly impossible shot with pinpoint accuracy. When you tie attacking an enemy, you succeed instead of the defender.</t>
+    <t xml:space="preserve">Your attacks, both melee and ranged, have a much longer range than normal. You can spend a Fortune Point to make a difficult shot with pinpoint accuracy. When you tie attacking an enemy, you succeed instead of the defender.</t>
   </si>
   <si>
     <t xml:space="preserve">Spellbreaker</t>
@@ -613,13 +622,13 @@
     <t xml:space="preserve">Swordbreaker</t>
   </si>
   <si>
-    <t xml:space="preserve">Your attacks can strike through stone and metal, damaging equipment and piercing cover as well as causing harm. You can spend a Fortune Point to outright destroy an object or obstacle. Take Advantage when attacking armored enemies.</t>
+    <t xml:space="preserve">Your attacks can strike through stone and metal, damaging equipment and piercing cover as well as causing harm. You can spend a Fortune Point to outright destroy an object or obstacle. Take Advantage when attacking armored or very large enemies.</t>
   </si>
   <si>
     <t xml:space="preserve">Willbreaker</t>
   </si>
   <si>
-    <t xml:space="preserve">Your attacks provoke or intimidate, requiring no additional rolls to produce either effect when successful. You can spend a Fortune Point to succeed in getting your target’s full attention. Take Advantage when attacking enemies influenced by your provocation or intimidation.</t>
+    <t xml:space="preserve">Your attacks also count as a provoke or intimidation for one enemy, requiring no additional rolls to produce either effect when successful. You can spend a Fortune Point to acquire a target’s full attention, even outside of your turn in combat. Take Advantage when attacking enemies influenced by your provoke or intimidation.</t>
   </si>
 </sst>
 </file>
@@ -1027,11 +1036,11 @@
   </sheetPr>
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D44" activeCellId="0" sqref="D44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E43" activeCellId="0" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.27"/>
@@ -1170,10 +1179,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1184,13 +1193,13 @@
         <v>23</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1201,13 +1210,13 @@
         <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1218,13 +1227,13 @@
         <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1235,13 +1244,13 @@
         <v>23</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1252,13 +1261,13 @@
         <v>23</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1266,13 +1275,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>41</v>
@@ -1283,13 +1292,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>43</v>
@@ -1300,13 +1309,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>45</v>
@@ -1317,13 +1326,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>47</v>
@@ -1334,13 +1343,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>49</v>
@@ -1351,13 +1360,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>51</v>
@@ -1646,10 +1655,10 @@
         <v>95</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1660,625 +1669,625 @@
         <v>86</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>55</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>61</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B49" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>115</v>
-      </c>
       <c r="E49" s="14" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D66" s="17" t="s">
         <v>61</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/miracuse_kits.xlsx
+++ b/miracuse_kits.xlsx
@@ -100,7 +100,7 @@
     <t xml:space="preserve">Clay Homunculus</t>
   </si>
   <si>
-    <t xml:space="preserve">A set of polished quartz stones. Planting one in dirt or mud creates a small clay golem, roughly three feet tall. The golem will follow its creator’s orders for one hour or until it is destroyed, whichever comes first. It has little intelligence, feels no pain, and is able to fight.</t>
+    <t xml:space="preserve">A set of polished quartz stones. Planting one in dirt or mud creates a small clay golem, roughly three feet tall. The golem will follow its creator’s orders for one hour or until it is destroyed, whichever comes first. It has little intelligence and is able to fight.</t>
   </si>
   <si>
     <t xml:space="preserve">Cloth Homunculus</t>
@@ -136,7 +136,7 @@
     <t xml:space="preserve">Steel Homunculus</t>
   </si>
   <si>
-    <t xml:space="preserve">A steel staff that can change size and weight on command, from pocket-sized to 10 feet long, and from a few pounds to a few hundred pounds. You can spend a use to lock the staff in place, strongly resisting any force that tries to move it and floating in defiance of gravity.</t>
+    <t xml:space="preserve">A steel staff that can change size and weight on command, from pocket-sized to 10 feet long, and from a featherweight to a few hundred pounds. You can spend a use to lock the staff in place, strongly resisting any force that tries to move it and floating in defiance of gravity.</t>
   </si>
   <si>
     <t xml:space="preserve">Munitions</t>
@@ -334,247 +334,229 @@
     <t xml:space="preserve">Beast Tamer</t>
   </si>
   <si>
+    <t xml:space="preserve">Combat, Exploration, Social, Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can communicate with animals, and use “I Know a Guy” to enlist a local animal to assist you. The animal can track, warn you of danger, fight, and do anything a creature of its kind might. You can compel the animal to do something it doesn’t want to by spending a Prep Point. You recover a Prep Point when you defeat an animal or animal-like monster.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social, Exploration, Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use Cunning or Agility when actively collecting information, and can disguise yourself as terrain via “Assume a Disguise”. You can spend a Prep Point to uncover a secret entrance, find another exit, or find a clue in an investigation. You have Advantage against traps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lifesense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration, Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use Cunning or Agility when interacting with spirits, and can sense the presence or absence of life nearby. You can spend a Prep Point to greatly extend your range, or to sense the emotions of those in range. You have Advantage when sensing motives and know when others lie.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional two Prep Points. When you use a Prep Point to change Kits, you can change two Kits instead of one. You can use “What You Needed” without spending Prep Points.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use “What You Needed” to produce a weapon or ammunition that target a specific enemy’s weakness, provided that you know what the weakness is. Attacks made with the item deal additional damage. You can spend a Prep Point to discover an enemy’s weakness. You recover a Prep Point anytime you or your allies defeat an enemy with its weakness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows for control and limited manifestation of plant matter. You can spend a Prep Point to use Cunning or Agility instead of Aura when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assassinate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your sneak attacks deal additional damage. You can spend a Prep Point to enter stealth, even from combat or while in plain sight, and can do so outside your turn in combat. Sneak attacks that incapacitate an enemy do not break stealth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convincing Fake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration, Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a Skill you have no points in, and raise it to half the level of your highest Skill (rounded down). You can spend a Prep Point to change the chosen Skill, provided you have a few minutes to concentrate. You can use “Assume a Disguise” without spending Prep Points.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infiltration Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social, Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nearby allies can use your Cunning when moving in stealth. You can use a Prep Point to prevent you or your allies from being revealed when they otherwise would be. “Assume a Disguise” also produces disguises for your allies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iocane Powder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Stealth, Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your sneak attacks can put targets to sleep and wipe away their short-term memory when they would otherwise incapacitate. Successfully taking out a target in this way recovers a Prep Point. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadowdancing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration, Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can move your shadow independently of your body. Your shadow can interact with physical objects, including moving objects and attacking enemies, but takes your action to do so. It can move roughly as far as you can see, but cannot enter brightly lit areas. You can spend a Prep Point to switch places with your shadow. You see perfectly in the dark.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spycraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Assume a Disguise” is nearly instantaneous, and allows you to adopt an alias with a legally documented background and history. “What You Needed” can produce forgeries of documents, symbols of authority, and similar items. “I Know a Guy” can be used to produce blackmail on targets. You can open any non-magical lock.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swashbuckler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arta Eres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can counterattack or move after successfully defending against an attack. You can spend a Prep Point to succeed at defending against an attack regardless of your roll. You can move before and after taking an action in combat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arta Forteiza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional Physical box. You can convert a Prep Point into Physical box or vice versa, and can do so once per action while in combat. You do not need to sleep, and cannot be rendered unconscious, though you may be incapacitated through other means.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arta Loquit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use Cunning as though it were Aura, Bravery, or Knowledge for social purposes. You can spend a Prep Point to reroll any social action you take, up to one additional time. You can use “I Know A Guy” without spending Prep Points.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arta Siva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use Cunning or Agility to provoke and intimidate in combat. When you succeed on provoking or intimidating an enemy in combat, you recover a Prep Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arta Tuco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can steal from, or disarm, a target on a successful attack or defense. You can spend a Prep Point to inflict a sneak attack regardless of stealth. Using an item as an action does not end your turn in combat, though subsequent uses will.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arta Valar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks can target Mental health instead of Physical. You can spend a Prep Point to take an action before someone else, including taking actions outside of your turn in combat. You can use this ability a maximum of one time between your normal turns in combat. Whenever there’s a question of who goes first, the answer is you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soldier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discipline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Blood</t>
+  </si>
+  <si>
     <t xml:space="preserve">Combat, Exploration</t>
   </si>
   <si>
-    <t xml:space="preserve">You enlist a local animal to assist you. The animal can track, warn you of danger, fight, and do anything a creature of its kind might. You can speak with and understand the animal. You can compel the animal to do something it doesn’t want to by spending a Prep Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lifesense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration, Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can sense the presence or absence of life nearby. You can spend a Prep Point to extend your range by a significant amount for a short time, or to read the emotions of any creature in range. You have Advantage when sensing the motives of another person.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piper’s Flute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Exploration, Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a musical instrument that attracts the attention of nearby animals, monsters, and spirits when played. You can spend a Prep Point to either calm them or stir them into a frenzy. You have Advantage on all rolls against related creatures.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prepared</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional two Prep Points. When you use a Prep Point to change Kits, you can change two Kits instead of one. You can use “What You Needed” without spending Prep Points.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of plant matter. You can spend a Prep Point to use Cunning or Agility instead of Aura when using this spirit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracker’s Trade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social, Exploration, Stealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can use Cunning or Agility when actively collecting information, and can disguise yourself as terrain via “Assume a Disguise”. You can spend a Prep Point to learn an enemy’s weakness, uncover a secret entrance to a location, or find a clue in an investigation. You have Advantage against traps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assassinate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Stealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your sneak attacks deal additional damage. You can spend a Prep Point to enter stealth, even from combat or while in plain sight, and can do so outside your turn in combat. Sneak attacks that incapacitate an enemy do not break stealth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convincing Fake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration, Health</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Choose a Skill you have no points in, and raise it to half the level of your highest Skill (rounded down). You can spend a Prep Point to change the chosen Skill, provided you have a few minutes to concentrate. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">You can use “Assume a Disguise” without spending Prep Points.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Infiltration Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social, Stealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nearby allies can use your Cunning when moving in stealth. You can use a Prep Point to prevent you or your allies from being revealed when they otherwise would be. “Assume a Disguise” also produces disguises for your allies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iocane Powder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Stealth, Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your sneak attacks can put targets to sleep and wipe away their short-term memory when they would otherwise incapacitate. Successfully taking out a target in this way recovers a Prep Point. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shadowdancing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration, Stealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can move your shadow independently of your body. Your shadow can interact with physical objects, including moving objects and attacking enemies, but takes your action to do so. It can move roughly as far as you can see, but cannot enter brightly lit areas. You can spend a Prep Point to switch places with your shadow. You see perfectly in the dark.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spycraft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Assume a Disguise” is nearly instantaneous, and allows you to adopt an alias with a legally documented background and history. “What You Needed” can produce forgeries of documents, symbols of authority, and similar items. “I Know a Guy” can be used to produce blackmail on targets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swashbuckler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arta Eres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can counterattack or move after successfully defending against an attack. You can spend a Prep Point to succeed at defending against an attack regardless of your roll. You can move before and after taking an action in combat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arta Forteiza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional Physical box. You can convert a Prep Point into Physical box or vice versa, and can do so once per action while in combat. You do not need to sleep, and cannot be rendered unconscious, though you may be incapacitated through other means.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arta Loquit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can use Cunning as though it were Aura, Bravery, or Knowledge for social purposes. You can spend a Prep Point to reroll any social action you take, up to one additional time. You can use “I Know A Guy” without spending Prep Points.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arta Siva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can use Cunning or Agility to provoke and intimidate in combat. When you succeed on provoking or intimidating an enemy in combat, you recover a Prep Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arta Tuco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can steal from, or disarm, a target on a successful attack or defense. You can spend a Prep Point to inflict a sneak attack regardless of stealth. Using an item as an action does not end your turn in combat, though subsequent uses will.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arta Valar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks can target Mental health instead of Physical. You can spend a Prep Point to take an action before someone else, including taking actions outside of your turn in combat. You can use this ability a maximum of one time between your normal turns in combat. You always go first when turn order is declared. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soldier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Blood</t>
+    <t xml:space="preserve">You are immune to most environmental hazards, including magical and alchemical hazards. You can spend a Fortune Point to weaponize an environmental hazard, such as sweeping a weapon through an open flame and sending fire at your enemies. Poisons, diseases, and similar afflictions have no effect on you. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Circle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take a free attack against enemies that attempt to enter or leave your melee range. You can spend a Fortune Point to prevent nearly anything from moving past you. You are immune to sneak attacks and similar effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Stance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can defend against Physical attacks and hazards using Bravery or Physique. You can spend a Fortune Point to negate an attack against a nearby ally. You cannot be moved, knocked down, or otherwise repositioned against your will.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Star</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks also count as a rally for one ally of your choice, requiring no additional rolls when the attack is successful. You can spend a Fortune Point to revive an incapacitated ally using a rally. When you recover Physical or Mental health, you recover one more box than you would otherwise.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks land with brutal force, dealing additional Physical damage when the attack is successful. You can spend a Fortune Point to perform a feat of incredible strength, such as bending metal bars or picking up a cart. You take Advantage on any roll that relies on brute strength.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Will</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional Mental box. You can convert a Fortune Point into a Mental box or vice versa, and can do so once per action while in combat. You are immune to Mental damage from exhaustion, fear, psychological attacks, or similar effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Those you provoke or intimidate are prone to bouts of misfortune. The next roll against them, from you or your allies, has Advantage. You can spend a Fortune Point to change this effect into a lasting weakness affiliated with a specific threat (fire, blades, heartbreak, poverty, etc.) Rolls related to this threat have Advantage against the target.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambler’s Fallacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You recover a Fortune Point when you roll a 1. You can spend a Fortune Point to guarantee a 10 on your next action without rolling. You win all games of chance as though by divine intervention.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional two Fortune Point boxes. When you use a Fortune Point to reroll, add a +1 to the reroll result. When a roll for luck is called, the result is always favorable for you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near Miss</t>
   </si>
   <si>
     <t xml:space="preserve">Exploration</t>
   </si>
   <si>
-    <t xml:space="preserve">You are immune to most environmental hazards, including magical and alchemical hazards. You can spend a Fortune Point to weaponize an environmental hazard, such as sweeping a weapon through an open flame and sending fire at your enemies. Poisons and similar afflictions have no effect on you. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Circle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Take a free attack against enemies that attempt to enter or leave your melee range. You can spend a Fortune Point to prevent nearly anything from moving past you. You are immune to sneak attacks and similar effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Stance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can defend against Physical attacks and hazards using Bravery or Physique. You can spend a Fortune Point to negate an attack against a nearby ally. You cannot be moved, knocked down, or otherwise repositioned against your will.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Star</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks also count as a rally for one ally of your choice, requiring no additional rolls when the attack is successful. You can spend a Fortune Point to revive an incapacitated ally using a rally. When you recover Physical or Mental health, you recover one more box than you would otherwise.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Strength</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks land with brutal force, dealing additional Physical damage when the attack is successful. You can spend a Fortune Point to perform a feat of incredible strength, such as bending metal bars or picking up a cart. You take Advantage on any roll that relies on brute strength.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Will</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional Mental box. You can convert a Fortune Point into a Mental box or vice versa, and can do so once per action while in combat. You are immune to Mental damage from exhaustion, fear, psychological attacks, or similar effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fortune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Those you provoke or intimidate are prone to bouts of misfortune. The next roll against them, from you or your allies, has Advantage. You can spend a Fortune Point to change this effect into a lasting weakness affiliated with a specific threat (fire, blades, heartbreak, poverty, etc.) Rolls related to this threat have Advantage against the target.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambler’s Fallacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You recover a Fortune Point when you roll a 1. You can spend a Fortune Point to guarantee a 10 on your next action without rolling. You win all games of chance as though by divine intervention.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional two Fortune Point boxes. When you use a Fortune Point to reroll, add a +1 to the reroll result. When a roll for luck is called, you can add your Physique or Bravery to the result.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near Miss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you roll a 1 you take a +0 instead of a -2 to the result. You can spend a Fortune Point to avoid taking damage from an attack or hazard. When you would otherwise be taken out, you can roll a dice. On a 9 or higher, you miraculously avoid being incapacitated.</t>
+    <t xml:space="preserve">When you roll a 1 you take a +0 instead of a -2 to the result. You can spend a Fortune Point to avoid taking damage from an attack or hazard. When you would otherwise be taken out, you can roll. On a 9 or higher, you miraculously avoid being incapacitated.</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit of Chance</t>
@@ -628,7 +610,7 @@
     <t xml:space="preserve">Willbreaker</t>
   </si>
   <si>
-    <t xml:space="preserve">Your attacks also count as a provoke or intimidation for one enemy, requiring no additional rolls to produce either effect when successful. You can spend a Fortune Point to acquire a target’s full attention, even outside of your turn in combat. Take Advantage when attacking enemies influenced by your provoke or intimidation.</t>
+    <t xml:space="preserve">Your attacks also count as a provocation or intimidation for one enemy, requiring no additional rolls to produce either effect when successful and dealing additional Mental damage. You can spend a Fortune Point to provoke or intimidate all enemies in combat. Recover a Fortune Point when you incapacitate an enemy that you’ve previously provoked or intimidated.</t>
   </si>
 </sst>
 </file>
@@ -639,7 +621,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -699,12 +681,6 @@
       <name val="Fira Sans"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Fira Sans"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1036,11 +1012,11 @@
   </sheetPr>
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E43" activeCellId="0" sqref="E43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D61" activeCellId="0" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.27"/>
@@ -1757,10 +1733,10 @@
         <v>114</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1771,10 +1747,10 @@
         <v>101</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>118</v>
@@ -1876,7 +1852,7 @@
         <v>135</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E49" s="14" t="s">
         <v>136</v>
@@ -1944,10 +1920,10 @@
         <v>145</v>
       </c>
       <c r="D53" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53" s="14" t="s">
         <v>146</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1958,13 +1934,13 @@
         <v>137</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D54" s="13" t="s">
         <v>139</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1975,180 +1951,180 @@
         <v>137</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>139</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B56" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="C56" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="D56" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="E56" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B57" s="16" t="s">
-        <v>153</v>
-      </c>
       <c r="C57" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>139</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B58" s="16" t="s">
-        <v>153</v>
-      </c>
       <c r="C58" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D58" s="17" t="s">
         <v>139</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B59" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B59" s="16" t="s">
-        <v>153</v>
-      </c>
       <c r="C59" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D59" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="E59" s="18" t="s">
         <v>162</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B60" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B60" s="16" t="s">
-        <v>153</v>
-      </c>
       <c r="C60" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E60" s="18" t="s">
         <v>164</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E60" s="18" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B61" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B61" s="16" t="s">
-        <v>153</v>
-      </c>
       <c r="C61" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D61" s="17" t="s">
         <v>112</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B62" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C62" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="D62" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D62" s="17" t="s">
+      <c r="E62" s="18" t="s">
         <v>170</v>
-      </c>
-      <c r="E62" s="18" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C63" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E63" s="18" t="s">
         <v>172</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="E63" s="18" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>112</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C65" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" s="17" t="s">
         <v>176</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>155</v>
       </c>
       <c r="E65" s="18" t="s">
         <v>177</v>
@@ -2156,10 +2132,10 @@
     </row>
     <row r="66" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C66" s="17" t="s">
         <v>178</v>
@@ -2173,10 +2149,10 @@
     </row>
     <row r="67" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C67" s="17" t="s">
         <v>180</v>
@@ -2190,7 +2166,7 @@
     </row>
     <row r="68" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B68" s="16" t="s">
         <v>183</v>
@@ -2207,7 +2183,7 @@
     </row>
     <row r="69" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B69" s="16" t="s">
         <v>183</v>
@@ -2224,7 +2200,7 @@
     </row>
     <row r="70" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B70" s="16" t="s">
         <v>183</v>
@@ -2241,7 +2217,7 @@
     </row>
     <row r="71" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B71" s="16" t="s">
         <v>183</v>
@@ -2258,7 +2234,7 @@
     </row>
     <row r="72" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B72" s="16" t="s">
         <v>183</v>
@@ -2267,7 +2243,7 @@
         <v>192</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="E72" s="18" t="s">
         <v>193</v>
@@ -2275,7 +2251,7 @@
     </row>
     <row r="73" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B73" s="16" t="s">
         <v>183</v>
@@ -2284,7 +2260,7 @@
         <v>194</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E73" s="18" t="s">
         <v>195</v>

--- a/miracuse_kits.xlsx
+++ b/miracuse_kits.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="197">
   <si>
     <t xml:space="preserve">Class</t>
   </si>
@@ -43,31 +43,16 @@
     <t xml:space="preserve">Alchemist</t>
   </si>
   <si>
-    <t xml:space="preserve">Drugs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basilisk Tongue</t>
+    <t xml:space="preserve">Chemist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast’s Blood</t>
   </si>
   <si>
     <t xml:space="preserve">Exploration, Alchemy</t>
   </si>
   <si>
-    <t xml:space="preserve">When used as a potion, gives the user stone-like skin for a few hours. When used as a venom, turns flesh to stone. Can be applied to stone to make it soft as clay for a few hours. Can be thrown as a grenade to turn stone to mud.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beast’s Blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When used as a potion, grants the user an enhanced sense (sight, hearing, or smell) for several hours. When used as a venom, steals away senses (sight, hearing, or smell). Can be used to attract animals and monsters. Can be thrown as a grenade to bait animals and monsters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dead Nettle Dust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Recovery, Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When used as a potion, numbs the user to pain and mitigates the effects of Injuries. When used as a venom, causes severe pain and additional Physical damage. Induces violent coughing when breathed. Can be thrown as a grenade to inflict Physical damage.</t>
+    <t xml:space="preserve">Adopt an animal-like adaption for a short period of time by drinking a potion. Example of effects could include a cat’s night vision, a bat’s sense of hearing, or a gecko’s skin.</t>
   </si>
   <si>
     <t xml:space="preserve">Elixir</t>
@@ -76,37 +61,49 @@
     <t xml:space="preserve">Recovery, Alchemy</t>
   </si>
   <si>
-    <t xml:space="preserve">When used as a potion, recovers two Physical boxes or two Mental boxes. When used as a venom, inflicts cursed wounds that resist healing. Cleanses poisons, diseases, and rot. Not usable as a grenade.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halcyon</t>
+    <t xml:space="preserve">Recover from harm and illness by drinking a potion. This can include recovering two boxes of Physical damage, recovering two boxes of Mental damage, treating an Injury, or curing various natural afflictions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faerie Fire</t>
   </si>
   <si>
     <t xml:space="preserve">Combat, Exploration, Alchemy</t>
   </si>
   <si>
-    <t xml:space="preserve">When used as a potion, allows the user to see, speak with, and touch spirits. When used as a venom, induces violent hallucinations and Mental damage. Considered a worthy offering by many magical creatures. Can be thrown as a grenade to inflict Mental damage.</t>
+    <t xml:space="preserve">Cause burning pain and violent coughing by throwing a highly volatile dust. Capable of creating dazzling fireworks displays, conducting electricity, and producing abundant colorful smoke when exposed to fire. Can be used as a grenade to inflict Physical damage.</t>
   </si>
   <si>
     <t xml:space="preserve">Holy Water</t>
   </si>
   <si>
-    <t xml:space="preserve">When used as a potion, clears away curses and renders the user highly resistant to magic. When used as a venom, prevents targets from using magic for a few hours. Harmful to the undead and corrosive to magic. Can be thrown as a grenade to purge magical effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golemcraft</t>
+    <t xml:space="preserve">Neutralize magic by spraying specially treated water. Can be used to negate spells, ward away monsters, create light, or produce anti-magic effects. Can be used as a grenade to dampen magical effects over a wide area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manifold Venom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cause additional harm and effects by applying poisons to weapon. These might include additional Physical damage, temporary blindness, or gradual petrification.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaper’s Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reshape stone and metal by rubbing an ointment into them. Possible applications might include creating a shelter in rock, opening an entry to a brick building, or bending metal bars. Can be used as a grenade to turn areas of solid dirt or rock into quicksand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enchanter</t>
   </si>
   <si>
     <t xml:space="preserve">Clay Homunculus</t>
   </si>
   <si>
-    <t xml:space="preserve">A set of polished quartz stones. Planting one in dirt or mud creates a small clay golem, roughly three feet tall. The golem will follow its creator’s orders for one hour or until it is destroyed, whichever comes first. It has little intelligence and is able to fight.</t>
+    <t xml:space="preserve">Create a clay golem from mud or dirt. The golem is roughly three feet tall, will follow your orders, and is capable of fighting on your behalf. It will fall apart one hour after its creation.</t>
   </si>
   <si>
     <t xml:space="preserve">Cloth Homunculus</t>
   </si>
   <si>
-    <t xml:space="preserve">A cloak that resists gravity, allowing the wearer to glide when falling and run across water. When activated, can be used as a flying carpet for a short period of time, or as a bag that renders objects inside weightless.</t>
+    <t xml:space="preserve">Create a cloak out of living cloth. The cloak lightens the weight of its user, allowing them to fall from great distances without harm. On command the cloak can also become 200 ft. of sturdy rope, a bag that reduces the weight of its contents, or another object made of thread. The cloak remains active so long as this Kit is equipped.</t>
   </si>
   <si>
     <t xml:space="preserve">Paper Homunculus</t>
@@ -115,31 +112,31 @@
     <t xml:space="preserve">Exploration, Social, Alchemy</t>
   </si>
   <si>
-    <t xml:space="preserve">A deck of cards painted to resemble people that the Alchemist knows. When focusing on one or more cards, the user can communicate telepathically with the person on the card, provided that the target is willing and able. You can spend a use to create a card of yourself that can be given to others. A card created this way will last seven days before crumbling to dust.</t>
+    <t xml:space="preserve">Create a shikigami, a flying talisman made of paper. The talisman can carry messages, eavesdrop, and scout. It has Cunning equal to half your Knowledge rounded down. The talisman will fall apart one hour after its creation.</t>
   </si>
   <si>
     <t xml:space="preserve">Quicksilver Homunculus</t>
   </si>
   <si>
-    <t xml:space="preserve">A liquid metal bracer that can change shape on command, becoming a variety of tools or melee weapons. You can spend a use to have the bracer shield you from a Physical attack by expanding into a large metal disc.</t>
+    <t xml:space="preserve">Create a shapeshifting metal familiar, generally worn as a bracelet when not in use. Without expending any of this Kit’s uses, the familiar can change into simple metal objects like tools and weapons. The creator can expend a use to perform more complex or fast-paced transformations. Examples might include a shield to deflect an incoming attack, a musical instrument, or a bear trap. The familiar remains active so long as this Kit is equipped.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Animation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awaken and imbue with purpose. Used to compel objects to move with a life of their own. You can spend this Kit’s uses to use Knowledge or Perception when using this spirit.</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit of Transmutation</t>
   </si>
   <si>
-    <t xml:space="preserve">Magic, Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transform substances into other, similar substances. You can spend this Kit’s uses to apply Knowledge or Perception instead of Aura when using this spirit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steel Homunculus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A steel staff that can change size and weight on command, from pocket-sized to 10 feet long, and from a featherweight to a few hundred pounds. You can spend a use to lock the staff in place, strongly resisting any force that tries to move it and floating in defiance of gravity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munitions</t>
+    <t xml:space="preserve">Transform and alter. Used to change the properties of a substance, such as shape and weight. The greater the difference from the original, the more difficult the change. You can spend this Kit’s uses to use Knowledge or Perception when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapper</t>
   </si>
   <si>
     <t xml:space="preserve">Concussive Charges</t>
@@ -148,25 +145,25 @@
     <t xml:space="preserve">Combat, Alchemy</t>
   </si>
   <si>
-    <t xml:space="preserve">Grenade that ruptures the ground or stuns those in area with bright light and deafening sound. When used as a bullet, can penetrate cover and deal additional Physical damage.</t>
+    <t xml:space="preserve">Grenade that ruptures the ground or stuns those in the area with bright light and deafening sound. When used as a bullet, successful attacks deal an additional box of Physical damage.</t>
   </si>
   <si>
     <t xml:space="preserve">Electromagnetic Charges</t>
   </si>
   <si>
-    <t xml:space="preserve">Grenade that covers an area with crackling electricity or magnetizes an area, forcing metal objects in the vicinity to adhere to one another. Can be used as a bullet to produce a smaller but more precise effect.</t>
+    <t xml:space="preserve">Grenade that covers an area with crackling electricity or magnetizes an area, forcing metal objects in the vicinity to adhere to one another. Can be used as a bullet to produce a smaller but more potent effect.</t>
   </si>
   <si>
     <t xml:space="preserve">Friction Charges</t>
   </si>
   <si>
-    <t xml:space="preserve">Grenade that covers an area with a grease slick or quick-drying adhesive. Can be used as a bullet to produce a smaller but more precise effect.</t>
+    <t xml:space="preserve">Grenade that covers an area with a grease slick or quick-drying adhesive. Can be used as a bullet to produce a smaller but more potent effect.</t>
   </si>
   <si>
     <t xml:space="preserve">Thermic Charges</t>
   </si>
   <si>
-    <t xml:space="preserve">Grenade that covers an area with roaring flames or a layer of ice. Can be used as a bullet to produce a smaller but more precise effect.</t>
+    <t xml:space="preserve">Grenade that covers an area with roaring flames or a layer of ice. Can be used as a bullet to produce a smaller but more potent effect.</t>
   </si>
   <si>
     <t xml:space="preserve">Trenchsteel Charges</t>
@@ -178,13 +175,22 @@
     <t xml:space="preserve">Vapor Charges</t>
   </si>
   <si>
-    <t xml:space="preserve">Grenade that covers an area in scalding steam or a billowing cloud of fog. When used as a bullet, can instantly rust metals.</t>
+    <t xml:space="preserve">Grenade that covers an area in scalding steam or a billowing cloud of fog. When used as a bullet, can instantly rust through metals.</t>
   </si>
   <si>
     <t xml:space="preserve">Mage</t>
   </si>
   <si>
-    <t xml:space="preserve">Celestial</t>
+    <t xml:space="preserve">Priest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Abjuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal and purify. Used to create barriers and dispel magic.</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit of Divination</t>
@@ -196,31 +202,22 @@
     <t xml:space="preserve">Seek and learn. Used to scry for hidden things and reveal new information.</t>
   </si>
   <si>
-    <t xml:space="preserve">Spirit of Heavens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smite and cleanse. Used to punish evil and dispel magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Hells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corrupt and wrong. Used to raise the dead and subvert the natural order.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Spirit of Language</t>
   </si>
   <si>
     <t xml:space="preserve">Social, Magic</t>
   </si>
   <si>
-    <t xml:space="preserve">Speak and understand. Used to communicate with all manner of creatures, including animals and monsters.</t>
+    <t xml:space="preserve">Speak and understand. Used to commune with all creatures and compel others to your will.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Necromancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration, Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrupt and wrong. Used to raise the dead and curse the living.</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit of Restoration</t>
@@ -232,21 +229,18 @@
     <t xml:space="preserve">Restore and repair. Used to heal wounds and mend broken objects.</t>
   </si>
   <si>
-    <t xml:space="preserve">Spirit of Warding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal and repel. Used to create barriers and push targets away.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elemental</t>
+    <t xml:space="preserve">Spirit of Summoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petition and conjure. Used to pull otherworldly influences into the mortal realm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaman</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit of Aether</t>
   </si>
   <si>
-    <t xml:space="preserve">Combat, Exploration, Magic</t>
-  </si>
-  <si>
     <t xml:space="preserve">Allows for control and limited manifestation of electricity.</t>
   </si>
   <si>
@@ -268,85 +262,178 @@
     <t xml:space="preserve">Allows for control and limited manifestation of flame.</t>
   </si>
   <si>
+    <t xml:space="preserve">Spirit of Metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows for control and limited manifestation of metal.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spirit of Water</t>
   </si>
   <si>
     <t xml:space="preserve">Allows for control and limited manifestation of water.</t>
   </si>
   <si>
-    <t xml:space="preserve">Elemental </t>
+    <t xml:space="preserve">Wizard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adhere and restrain. Used to lash things together with gravitational force.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Entropy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diminish and dissolve. Used to unravel targets into their base elements.</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit of Force</t>
   </si>
   <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of magnetism.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fundamental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adhere and restrain. Used to lash things together with gravitational force.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Entropy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dissolve and decay. Used to unravel targets into their base elements.</t>
+    <t xml:space="preserve">Channel raw magical energy. Used to lob bolts of force at enemies, or otherwise manipulate resevoirs of energy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Locomotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accelerate and slow. Used to manipulate kinetic energy, adding or taking away speed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Reinforcement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortify and empower. Used to improve existing qualities, such as making someone stronger or faster.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Thermos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat and cool. Used to manipulate thermal energy, adding or taking away temperature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scoundrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assassin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assassinate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your sneak attacks deal an additional box of Physical damage. You can use "Assume a Disguise" to disappear from sight, even in the middle of combat. You can tell if a target will be incapacitated by your sneak attack before you make it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convincing Fake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration, Social, Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a Skill you have no points in, and raise it to half the level of your highest Skill (rounded down). You can spend a Prep Point to change the chosen Skill, provided you have a few minutes to concentrate. You can use “Assume a Disguise” without spending Prep Points.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infiltration Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social, Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nearby allies can use your Cunning when moving in stealth. When you use "Assume a Disguise", you can provide disguises to your allies as well. When you or an ally would otherwise be revealed, you can spend a Prep Point to prevent it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iocane Powder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Social, Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your sneak attacks can put targets to sleep and cause short-term memory loss. You can use "What You Needed" to produce a vial of liquid that makes those who drink it highly suggestible. Those under the effects of the liquid will speak truthfully, but are visibly drugged, and slow to react.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Shadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic, Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obscure and muffle. Used to manipulate darkness and quiet footsteps. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unbounded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locks, magic barriers, illusions, and similar obstacles fall apart at your touch. You can use "What You Needed" to produce specialized tools for infiltration, such as forged documents or badges of office. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charm Arcana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use Cunning as though it were Aura, Bravery, or Knowledge for social purposes. You can spend a Prep Point to reroll a social action and take the new result, a maximum of one time per social action. You can use "I Know a Guy" without spending Prep Points.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lore Arcana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use Cunning or Agility to detect and identify magic. You can use "What You Needed" to produce an item that briefly channels or negates magic you've identified. You can use Cunning or Agility when recalling information about history, religion, magic, or politics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resilience Arcana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health, Exploration, Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional Physical box. You can exchange Mental boxes for Prep Points and vice versa, and can do so as an action while in combat. You do not need to sleep, and cannot be rendered unconscious against your will, but can be incapacitated in other ways.</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit of Light</t>
   </si>
   <si>
-    <t xml:space="preserve">Brighten and dim. Used to create and manipulate illusory images.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Locomotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accelerate and slow. Used to manipulate kinetic energy.</t>
+    <t xml:space="preserve">Brighten and bend light. Used to create and manipulate illusory images, as well as to see afar. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit of Sound</t>
   </si>
   <si>
-    <t xml:space="preserve">Combat, Social, Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amplify and quiet. Used to create and manipulate sound.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Thermos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat and cool. Used to manipulate thermal energy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scoundrel</t>
+    <t xml:space="preserve">Amplify and distort. Used to create and manipulate sound, as well as to listen in from a distance. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">War Arcana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using this technique allows you to move before and after making an attack. You can spend a Prep Point to take an additional action on your turn, besides another attack. You can expend a Prep Point to combine this technique with another.</t>
   </si>
   <si>
     <t xml:space="preserve">Ranger</t>
   </si>
   <si>
-    <t xml:space="preserve">Beast Tamer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Exploration, Social, Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can communicate with animals, and use “I Know a Guy” to enlist a local animal to assist you. The animal can track, warn you of danger, fight, and do anything a creature of its kind might. You can compel the animal to do something it doesn’t want to by spending a Prep Point. You recover a Prep Point when you defeat an animal or animal-like monster.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hunter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social, Exploration, Stealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can use Cunning or Agility when actively collecting information, and can disguise yourself as terrain via “Assume a Disguise”. You can spend a Prep Point to uncover a secret entrance, find another exit, or find a clue in an investigation. You have Advantage against traps.</t>
+    <t xml:space="preserve">Camouflage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration, Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your sneak attacks do not reveal your position or break stealth, though they may alert enemies to your presence. You can use "Assume a Disguise" to take on the appearance of terrain or common objects, such as trees or crates.</t>
   </si>
   <si>
     <t xml:space="preserve">Lifesense</t>
@@ -355,13 +442,13 @@
     <t xml:space="preserve">Exploration, Social</t>
   </si>
   <si>
-    <t xml:space="preserve">You can use Cunning or Agility when interacting with spirits, and can sense the presence or absence of life nearby. You can spend a Prep Point to greatly extend your range, or to sense the emotions of those in range. You have Advantage when sensing motives and know when others lie.</t>
+    <t xml:space="preserve">You can sense the presence and absence of life using Cunning or Agility. You can use "I Know a Guy" to focus your senses, feeling the emotions of those nearby and knowing when they tell lies. When performing magic of any kind you can use Cunning or Agility as the primary Skill, and do not need to expend a Prep Point to do so.</t>
   </si>
   <si>
     <t xml:space="preserve">Prepared</t>
   </si>
   <si>
-    <t xml:space="preserve">Health</t>
+    <t xml:space="preserve">Exploration, Health</t>
   </si>
   <si>
     <t xml:space="preserve">Gain an additional two Prep Points. When you use a Prep Point to change Kits, you can change two Kits instead of one. You can use “What You Needed” without spending Prep Points.</t>
@@ -373,244 +460,160 @@
     <t xml:space="preserve">Combat, Recovery</t>
   </si>
   <si>
-    <t xml:space="preserve">You can use “What You Needed” to produce a weapon or ammunition that target a specific enemy’s weakness, provided that you know what the weakness is. Attacks made with the item deal additional damage. You can spend a Prep Point to discover an enemy’s weakness. You recover a Prep Point anytime you or your allies defeat an enemy with its weakness.</t>
+    <t xml:space="preserve">You instinctively know the weaknesses of monsters and beasts. You can use "What You Needed" to produce a weapon or ammunition that's particularly effective against them. Attacks with this item inflict an additional box of Physical damage. When you or an ally incapacitate an enemy with its weakness, you recover a Prep Point.</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit of Wood</t>
   </si>
   <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of plant matter. You can spend a Prep Point to use Cunning or Agility instead of Aura when using this spirit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assassinate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Stealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your sneak attacks deal additional damage. You can spend a Prep Point to enter stealth, even from combat or while in plain sight, and can do so outside your turn in combat. Sneak attacks that incapacitate an enemy do not break stealth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convincing Fake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration, Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a Skill you have no points in, and raise it to half the level of your highest Skill (rounded down). You can spend a Prep Point to change the chosen Skill, provided you have a few minutes to concentrate. You can use “Assume a Disguise” without spending Prep Points.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infiltration Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social, Stealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nearby allies can use your Cunning when moving in stealth. You can use a Prep Point to prevent you or your allies from being revealed when they otherwise would be. “Assume a Disguise” also produces disguises for your allies. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iocane Powder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Stealth, Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your sneak attacks can put targets to sleep and wipe away their short-term memory when they would otherwise incapacitate. Successfully taking out a target in this way recovers a Prep Point. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shadowdancing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration, Stealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can move your shadow independently of your body. Your shadow can interact with physical objects, including moving objects and attacking enemies, but takes your action to do so. It can move roughly as far as you can see, but cannot enter brightly lit areas. You can spend a Prep Point to switch places with your shadow. You see perfectly in the dark.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spycraft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Assume a Disguise” is nearly instantaneous, and allows you to adopt an alias with a legally documented background and history. “What You Needed” can produce forgeries of documents, symbols of authority, and similar items. “I Know a Guy” can be used to produce blackmail on targets. You can open any non-magical lock.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swashbuckler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arta Eres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can counterattack or move after successfully defending against an attack. You can spend a Prep Point to succeed at defending against an attack regardless of your roll. You can move before and after taking an action in combat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arta Forteiza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional Physical box. You can convert a Prep Point into Physical box or vice versa, and can do so once per action while in combat. You do not need to sleep, and cannot be rendered unconscious, though you may be incapacitated through other means.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arta Loquit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can use Cunning as though it were Aura, Bravery, or Knowledge for social purposes. You can spend a Prep Point to reroll any social action you take, up to one additional time. You can use “I Know A Guy” without spending Prep Points.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arta Siva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can use Cunning or Agility to provoke and intimidate in combat. When you succeed on provoking or intimidating an enemy in combat, you recover a Prep Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arta Tuco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can steal from, or disarm, a target on a successful attack or defense. You can spend a Prep Point to inflict a sneak attack regardless of stealth. Using an item as an action does not end your turn in combat, though subsequent uses will.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arta Valar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks can target Mental health instead of Physical. You can spend a Prep Point to take an action before someone else, including taking actions outside of your turn in combat. You can use this ability a maximum of one time between your normal turns in combat. Whenever there’s a question of who goes first, the answer is you.</t>
+    <t xml:space="preserve">Allows for control and limited manifestation of plant matter. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration, Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can speak with and understand beasts. You can use "I Know a Guy" to recruit a local beast to aid you. The beast can track, fight, and is capable of anything that a creature of its kind might otherwise do. The beast will follow your orders, but will prioritize its own survival. Only one beast can be recruited at a time.</t>
   </si>
   <si>
     <t xml:space="preserve">Soldier</t>
   </si>
   <si>
-    <t xml:space="preserve">Discipline</t>
+    <t xml:space="preserve">Fencer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Social, Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using this technique inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when using Bravery to provoke others, in or out of combat. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inner Flame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health, Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At any time when you would otherwise spend a Fortune Point, you can spend a Physical box instead. When you recover Physical or Mental boxes, you recover one more than you would otherwise.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharpshot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using this technique lowers the difficulty of making precise attacks, such as disarming a target by striking their hand. You have Advantage when making ranged attacks without any distractions. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spellbreak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration, Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using this technique allows your attacks to destroy magic and spirits. You have Advantage when defending against magical attacks. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subvert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using this technique delays the target’s turn on successful attacks, in addition to any Physical damage dealt. On a successful defense against a melee attack, you inflict a point of Physical damage on the attacker. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind Dance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using this technique extends the range of your attacks. Melee attacks create blades of wind, while ranged attacks are followed by gusts of wind. You have Advantage when defending against ranged attacks. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guardian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When an ally would otherwise take damage, you can spend a Fortune Point to negate it, so long as you are able to provide a narrative justification for how you do so. You can use Strength or Bravery to detect danger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospitaler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration, Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can spend a Fortune Point to revive an incapacitated ally, clearing one box of the appropriate damage track (but not their Injuries). This takes an action if done in combat. You can use Strength or Bravery to perform medical tasks. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you successfully intimidate a group of enemies, they take a box of Mental damage in addition to any other effects that intimidation may have. You have Advantage when using Bravery to intimidate in or out of combat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Will</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional Mental box. You can convert a Fortune Point into a Mental box or vice versa, and can do so as an action while in combat. You are immune to Mental damage from exhaustion, fear, or similar effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using this technique provides Advantage to one nearby ally on their next roll in combat when you make a successful attack, in addition to dealing Physical damage to an enemy. You have Advantage when using Bravery to inspire or rally others outside of combat. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using this technique allows your attacks to forcibly reposition targets, pushing them backwards or knocking in addition to any Physical damage dealt. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myrmidon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using this technique allows your attacks to damage enemies or objects adjacent to your target, in addition to any Physical damage dealt to the original target. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambler’s Fallacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration, Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treat a roll of 1 as a +0 instead of a -2. You recover a Fortune Point when you roll a 1.</t>
   </si>
   <si>
     <t xml:space="preserve">Iron Blood</t>
   </si>
   <si>
-    <t xml:space="preserve">Combat, Exploration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are immune to most environmental hazards, including magical and alchemical hazards. You can spend a Fortune Point to weaponize an environmental hazard, such as sweeping a weapon through an open flame and sending fire at your enemies. Poisons, diseases, and similar afflictions have no effect on you. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Circle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Take a free attack against enemies that attempt to enter or leave your melee range. You can spend a Fortune Point to prevent nearly anything from moving past you. You are immune to sneak attacks and similar effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Stance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can defend against Physical attacks and hazards using Bravery or Physique. You can spend a Fortune Point to negate an attack against a nearby ally. You cannot be moved, knocked down, or otherwise repositioned against your will.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Star</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks also count as a rally for one ally of your choice, requiring no additional rolls when the attack is successful. You can spend a Fortune Point to revive an incapacitated ally using a rally. When you recover Physical or Mental health, you recover one more box than you would otherwise.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Strength</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks land with brutal force, dealing additional Physical damage when the attack is successful. You can spend a Fortune Point to perform a feat of incredible strength, such as bending metal bars or picking up a cart. You take Advantage on any roll that relies on brute strength.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Will</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional Mental box. You can convert a Fortune Point into a Mental box or vice versa, and can do so once per action while in combat. You are immune to Mental damage from exhaustion, fear, psychological attacks, or similar effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fortune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Those you provoke or intimidate are prone to bouts of misfortune. The next roll against them, from you or your allies, has Advantage. You can spend a Fortune Point to change this effect into a lasting weakness affiliated with a specific threat (fire, blades, heartbreak, poverty, etc.) Rolls related to this threat have Advantage against the target.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambler’s Fallacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You recover a Fortune Point when you roll a 1. You can spend a Fortune Point to guarantee a 10 on your next action without rolling. You win all games of chance as though by divine intervention.</t>
+    <t xml:space="preserve">You are immune to most poisons and diseases. Take Advantage against environmental hazards, traps, and area of effect attacks.</t>
   </si>
   <si>
     <t xml:space="preserve">Lucky</t>
   </si>
   <si>
-    <t xml:space="preserve">Gain an additional two Fortune Point boxes. When you use a Fortune Point to reroll, add a +1 to the reroll result. When a roll for luck is called, the result is always favorable for you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near Miss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you roll a 1 you take a +0 instead of a -2 to the result. You can spend a Fortune Point to avoid taking damage from an attack or hazard. When you would otherwise be taken out, you can roll. On a 9 or higher, you miraculously avoid being incapacitated.</t>
+    <t xml:space="preserve">Gain an additional two Fortune Points. When a roll for luck is called for, it always goes in your favor.</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit of Chance</t>
   </si>
   <si>
-    <t xml:space="preserve">Bend probability in your favor or against others. You can spend a Fortune Point to use Physique or Bravery instead of Aura when using this spirit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winning Charm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You make a good first impression, acquiring the respect or affection of people you meet. You can spend a Fortune Point to establish a reputation of your choice among those you meet for the first time, regardless of whether or not it’s deserved. You have Advantage when using Bravery or Physique to impress others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hordebreaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks affect anyone or anything near your target, becoming area-of-effect. You can spend a Fortune Point to make an attack against every enemy in combat, or to strike one target twice in a single action. Take Advantage when attacking a group of similar enemies (i.e. a pack of wolves).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skybreaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks, both melee and ranged, have a much longer range than normal. You can spend a Fortune Point to make a difficult shot with pinpoint accuracy. When you tie attacking an enemy, you succeed instead of the defender.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spellbreaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks can damage spells and spirits. You can spend a Fortune Point to deflect a spell back at its caster or clear away magical effects in the area. Take Advantage when attacking mages or spirits.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stancebreaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks force enemies to reposition and volley objects into the air. You can spend a Fortune Point to manipulate a target’s placement; knocking it down, pinning it in place, launching it into the air, or throwing it a great distance. Enemies that you hit have reduced movement throughout combat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swordbreaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks can strike through stone and metal, damaging equipment and piercing cover as well as causing harm. You can spend a Fortune Point to outright destroy an object or obstacle. Take Advantage when attacking armored or very large enemies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Willbreaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks also count as a provocation or intimidation for one enemy, requiring no additional rolls to produce either effect when successful and dealing additional Mental damage. You can spend a Fortune Point to provoke or intimidate all enemies in combat. Recover a Fortune Point when you incapacitate an enemy that you’ve previously provoked or intimidated.</t>
+    <t xml:space="preserve">Manipulate probability and tweak the odds. Used to alter the likelihood of events. You can spend a Fortune Point to use Physique or Bravery instead of Aura when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using this technique allows your attacks to deal an additional box of Physical damage, on top of any Physical damage that would otherwise be dealt. You can expend a Fortune Point on a successful attack to make it especially destructive, breaking through metal, armor, and similarly durable materials. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
   </si>
 </sst>
 </file>
@@ -932,8 +935,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FF272727"/>
+          <fgColor rgb="FFDEDEDE"/>
+          <bgColor rgb="FF18191D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1012,16 +1015,16 @@
   </sheetPr>
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D61" activeCellId="0" sqref="D61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E66" activeCellId="0" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.64"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="37.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="155.45"/>
   </cols>
   <sheetData>
@@ -1070,10 +1073,10 @@
         <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1084,13 +1087,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1101,10 +1104,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
@@ -1121,10 +1124,10 @@
         <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1135,13 +1138,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1149,16 +1152,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1166,16 +1169,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1183,16 +1186,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1200,16 +1203,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1217,16 +1220,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1234,16 +1237,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1251,16 +1254,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1268,16 +1271,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1285,16 +1288,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1302,16 +1305,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1319,16 +1322,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1336,625 +1339,625 @@
         <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="E20" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="C21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="E21" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="C22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="E22" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="C23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="C24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="E24" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="C25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="D26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="D33" s="9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="14" t="s">
         <v>100</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B39" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>105</v>
-      </c>
       <c r="D39" s="13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B44" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44" s="14" t="s">
         <v>119</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B51" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>141</v>
-      </c>
       <c r="D51" s="13" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C53" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E53" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C54" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="14" t="s">
         <v>147</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C55" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="13" t="s">
         <v>149</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>139</v>
       </c>
       <c r="E55" s="14" t="s">
         <v>150</v>
@@ -1988,10 +1991,10 @@
         <v>156</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2002,13 +2005,13 @@
         <v>152</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2019,13 +2022,13 @@
         <v>152</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2036,13 +2039,13 @@
         <v>152</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2053,13 +2056,13 @@
         <v>152</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2067,13 +2070,13 @@
         <v>151</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="E62" s="18" t="s">
         <v>170</v>
@@ -2084,16 +2087,16 @@
         <v>151</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C63" s="17" t="s">
         <v>171</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2101,16 +2104,16 @@
         <v>151</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2118,16 +2121,16 @@
         <v>151</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2135,16 +2138,16 @@
         <v>151</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2152,13 +2155,13 @@
         <v>151</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="E67" s="18" t="s">
         <v>182</v>
@@ -2175,7 +2178,7 @@
         <v>184</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E68" s="18" t="s">
         <v>185</v>
@@ -2192,10 +2195,10 @@
         <v>186</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2206,13 +2209,13 @@
         <v>183</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2223,13 +2226,13 @@
         <v>183</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2240,13 +2243,13 @@
         <v>183</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>154</v>
+        <v>57</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2257,13 +2260,13 @@
         <v>183</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/miracuse_kits.xlsx
+++ b/miracuse_kits.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="200">
   <si>
     <t xml:space="preserve">Class</t>
   </si>
@@ -46,10 +46,19 @@
     <t xml:space="preserve">Chemist</t>
   </si>
   <si>
+    <t xml:space="preserve">Basilisk’s Tongue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration, Alchemy, Substance, Grenade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reshape stone and metal by rubbing an ointment into them. Possible applications might include creating a shelter in rock, opening an entry to a brick building, or bending metal bars. Can be used as a grenade to turn areas of solid dirt or rock into quicksand.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beast’s Blood</t>
   </si>
   <si>
-    <t xml:space="preserve">Exploration, Alchemy</t>
+    <t xml:space="preserve">Exploration, Alchemy, Potion</t>
   </si>
   <si>
     <t xml:space="preserve">Adopt an animal-like adaption for a short period of time by drinking a potion. Example of effects could include a cat’s night vision, a bat’s sense of hearing, or a gecko’s skin.</t>
@@ -58,19 +67,19 @@
     <t xml:space="preserve">Elixir</t>
   </si>
   <si>
-    <t xml:space="preserve">Recovery, Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recover from harm and illness by drinking a potion. This can include recovering two boxes of Physical damage, recovering two boxes of Mental damage, treating an Injury, or curing various natural afflictions.</t>
+    <t xml:space="preserve">Recovery, Alchemy, Potion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recover from harm and illness by drinking a potion. This can include recovering Physical damage, recovering Mental damage, treating an Injury, or curing various natural afflictions.</t>
   </si>
   <si>
     <t xml:space="preserve">Faerie Fire</t>
   </si>
   <si>
-    <t xml:space="preserve">Combat, Exploration, Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cause burning pain and violent coughing by throwing a highly volatile dust. Capable of creating dazzling fireworks displays, conducting electricity, and producing abundant colorful smoke when exposed to fire. Can be used as a grenade to inflict Physical damage.</t>
+    <t xml:space="preserve">Combat, Exploration, Alchemy, Substance, Grenade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cause burning pain and violent coughing by throwing a highly volatile dust. Capable of creating dazzling fireworks displays, conducting electricity, and producing abundant colorful smoke. Can be used as a grenade to inflict Physical damage.</t>
   </si>
   <si>
     <t xml:space="preserve">Holy Water</t>
@@ -82,13 +91,10 @@
     <t xml:space="preserve">Manifold Venom</t>
   </si>
   <si>
-    <t xml:space="preserve">Cause additional harm and effects by applying poisons to weapon. These might include additional Physical damage, temporary blindness, or gradual petrification.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shaper’s Oil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reshape stone and metal by rubbing an ointment into them. Possible applications might include creating a shelter in rock, opening an entry to a brick building, or bending metal bars. Can be used as a grenade to turn areas of solid dirt or rock into quicksand.</t>
+    <t xml:space="preserve">Exploration, Alchemy, Substance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cause additional harm by applying poisons to weapons and ammunition. Example of effects could include additional Physical damage, temporary blindness, or gradual petrification.</t>
   </si>
   <si>
     <t xml:space="preserve">Enchanter</t>
@@ -97,19 +103,25 @@
     <t xml:space="preserve">Clay Homunculus</t>
   </si>
   <si>
+    <t xml:space="preserve">Combat, Exploration, Alchemy, Tool</t>
+  </si>
+  <si>
     <t xml:space="preserve">Create a clay golem from mud or dirt. The golem is roughly three feet tall, will follow your orders, and is capable of fighting on your behalf. It will fall apart one hour after its creation.</t>
   </si>
   <si>
     <t xml:space="preserve">Cloth Homunculus</t>
   </si>
   <si>
-    <t xml:space="preserve">Create a cloak out of living cloth. The cloak lightens the weight of its user, allowing them to fall from great distances without harm. On command the cloak can also become 200 ft. of sturdy rope, a bag that reduces the weight of its contents, or another object made of thread. The cloak remains active so long as this Kit is equipped.</t>
+    <t xml:space="preserve">Exploration, Alchemy, Tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a bag that reduces the weight of its contents, and is bigger on the inside than the outside. Without expending any of this Kit’s uses, a few reasonably sized objects that are each under 50 lbs. can be placed within, becoming weightless. You can expend a use to place larger objects weighing up to 300 lbs. into the bag. The bag remains active so long as this Kit is equipped.</t>
   </si>
   <si>
     <t xml:space="preserve">Paper Homunculus</t>
   </si>
   <si>
-    <t xml:space="preserve">Exploration, Social, Alchemy</t>
+    <t xml:space="preserve">Exploration, Social, Alchemy, Tool</t>
   </si>
   <si>
     <t xml:space="preserve">Create a shikigami, a flying talisman made of paper. The talisman can carry messages, eavesdrop, and scout. It has Cunning equal to half your Knowledge rounded down. The talisman will fall apart one hour after its creation.</t>
@@ -124,7 +136,7 @@
     <t xml:space="preserve">Spirit of Animation</t>
   </si>
   <si>
-    <t xml:space="preserve">Magic, Alchemy</t>
+    <t xml:space="preserve">Magic, Alchemy, Tool</t>
   </si>
   <si>
     <t xml:space="preserve">Awaken and imbue with purpose. Used to compel objects to move with a life of their own. You can spend this Kit’s uses to use Knowledge or Perception when using this spirit.</t>
@@ -142,40 +154,40 @@
     <t xml:space="preserve">Concussive Charges</t>
   </si>
   <si>
-    <t xml:space="preserve">Combat, Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenade that ruptures the ground or stuns those in the area with bright light and deafening sound. When used as a bullet, successful attacks deal an additional box of Physical damage.</t>
+    <t xml:space="preserve">Combat, Alchemy, Grenade, Bullet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenade that is especially destructive, dealing two boxes of Physical damage and damaging the surrounding area. When used as a bullet, deals two boxes of Physical damage and pierces through obstacles.</t>
   </si>
   <si>
     <t xml:space="preserve">Electromagnetic Charges</t>
   </si>
   <si>
-    <t xml:space="preserve">Grenade that covers an area with crackling electricity or magnetizes an area, forcing metal objects in the vicinity to adhere to one another. Can be used as a bullet to produce a smaller but more potent effect.</t>
+    <t xml:space="preserve">Grenade that covers an area with crackling electricity, or magnetizes an area, forcing metal objects in the vicinity to adhere to one another. When used as a bullet, deals two boxes of Physical damage and one of the grenade effects.</t>
   </si>
   <si>
     <t xml:space="preserve">Friction Charges</t>
   </si>
   <si>
-    <t xml:space="preserve">Grenade that covers an area with a grease slick or quick-drying adhesive. Can be used as a bullet to produce a smaller but more potent effect.</t>
+    <t xml:space="preserve">Grenade that covers an area with a grease slick, or a quick-drying adhesive. When used as a bullet, deals two boxes of Physical damage and one of the grenade effects.</t>
   </si>
   <si>
     <t xml:space="preserve">Thermic Charges</t>
   </si>
   <si>
-    <t xml:space="preserve">Grenade that covers an area with roaring flames or a layer of ice. Can be used as a bullet to produce a smaller but more potent effect.</t>
+    <t xml:space="preserve">Grenade that covers an area with roaring flames, or a layer of ice. When used as a bullet, deals two boxes of Physical damage and one of the grenade effects.</t>
   </si>
   <si>
     <t xml:space="preserve">Trenchsteel Charges</t>
   </si>
   <si>
-    <t xml:space="preserve">Grenade that covers an area with metal ball bearings or a sprawl of barbed wire. When used as a bullet, can change course mid-flight by detonating a second time.</t>
+    <t xml:space="preserve">Grenade that covers an area with metal ball bearings, or a sprawl of barbed wire. When used as a bullet, can change course mid-flight by detonating a second time and ricochets in closed spaces.</t>
   </si>
   <si>
     <t xml:space="preserve">Vapor Charges</t>
   </si>
   <si>
-    <t xml:space="preserve">Grenade that covers an area in scalding steam or a billowing cloud of fog. When used as a bullet, can instantly rust through metals.</t>
+    <t xml:space="preserve">Grenade that covers an area in tear gas, or a billowing cloud of fog. When used as a bullet, can instantly rust through most metals.</t>
   </si>
   <si>
     <t xml:space="preserve">Mage</t>
@@ -265,7 +277,7 @@
     <t xml:space="preserve">Spirit of Metal</t>
   </si>
   <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of metal.</t>
+    <t xml:space="preserve">Allows for control and limited manifestation of metal and magnetism.</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit of Water</t>
@@ -292,7 +304,7 @@
     <t xml:space="preserve">Spirit of Force</t>
   </si>
   <si>
-    <t xml:space="preserve">Channel raw magical energy. Used to lob bolts of force at enemies, or otherwise manipulate resevoirs of energy.</t>
+    <t xml:space="preserve">Channel raw magical energy. Used to lob bolts of force at enemies, or otherwise manipulate energy.</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit of Locomotion</t>
@@ -325,7 +337,7 @@
     <t xml:space="preserve">Combat, Stealth</t>
   </si>
   <si>
-    <t xml:space="preserve">Your sneak attacks deal an additional box of Physical damage. You can use "Assume a Disguise" to disappear from sight, even in the middle of combat. You can tell if a target will be incapacitated by your sneak attack before you make it.</t>
+    <t xml:space="preserve">Your sneak attacks deal an additional box of Physical damage. You can use "Assume a Disguise" to disappear from sight, taking an action to do so if done in combat. You can tell if a target will be incapacitated by your sneak attack before you make it.</t>
   </si>
   <si>
     <t xml:space="preserve">Convincing Fake</t>
@@ -355,6 +367,15 @@
     <t xml:space="preserve">Your sneak attacks can put targets to sleep and cause short-term memory loss. You can use "What You Needed" to produce a vial of liquid that makes those who drink it highly suggestible. Those under the effects of the liquid will speak truthfully, but are visibly drugged, and slow to react.</t>
   </si>
   <si>
+    <t xml:space="preserve">Pin Down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks reduce an enemy’s movement, cutting off their ability to escape or pursue. Using this technique greatly reduces a target’s mobility, in addition to any Physical damage dealt.  You can expend a Prep Point to amplify this technique or combine this with another.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spirit of Shadow</t>
   </si>
   <si>
@@ -364,15 +385,6 @@
     <t xml:space="preserve">Obscure and muffle. Used to manipulate darkness and quiet footsteps. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
   </si>
   <si>
-    <t xml:space="preserve">Unbounded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locks, magic barriers, illusions, and similar obstacles fall apart at your touch. You can use "What You Needed" to produce specialized tools for infiltration, such as forged documents or badges of office. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Bard</t>
   </si>
   <si>
@@ -382,7 +394,7 @@
     <t xml:space="preserve">Social</t>
   </si>
   <si>
-    <t xml:space="preserve">You can use Cunning as though it were Aura, Bravery, or Knowledge for social purposes. You can spend a Prep Point to reroll a social action and take the new result, a maximum of one time per social action. You can use "I Know a Guy" without spending Prep Points.</t>
+    <t xml:space="preserve">You can use Cunning as though it were Presence, Bravery, or Knowledge for social purposes. You can spend a Prep Point to reroll a social action and take the new result, a maximum of one time per social action. You can use "I Know a Guy" without spending Prep Points.</t>
   </si>
   <si>
     <t xml:space="preserve">Lore Arcana</t>
@@ -418,10 +430,7 @@
     <t xml:space="preserve">War Arcana</t>
   </si>
   <si>
-    <t xml:space="preserve">Combat, Technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using this technique allows you to move before and after making an attack. You can spend a Prep Point to take an additional action on your turn, besides another attack. You can expend a Prep Point to combine this technique with another.</t>
+    <t xml:space="preserve">Your fighting style resembles dancing, making you particularly mobile. Using this technique allows you to move before and after making an attack. You can spend a Prep Point to take an additional action on your turn, besides another attack. You can expend a Prep Point to combine this technique with another.</t>
   </si>
   <si>
     <t xml:space="preserve">Ranger</t>
@@ -433,16 +442,16 @@
     <t xml:space="preserve">Combat, Exploration, Stealth</t>
   </si>
   <si>
-    <t xml:space="preserve">Your sneak attacks do not reveal your position or break stealth, though they may alert enemies to your presence. You can use "Assume a Disguise" to take on the appearance of terrain or common objects, such as trees or crates.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lifesense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration, Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can sense the presence and absence of life using Cunning or Agility. You can use "I Know a Guy" to focus your senses, feeling the emotions of those nearby and knowing when they tell lies. When performing magic of any kind you can use Cunning or Agility as the primary Skill, and do not need to expend a Prep Point to do so.</t>
+    <t xml:space="preserve">Your sneak attacks do not reveal your position or break stealth, though they may alert enemies to your presence. You can use "Assume a Disguise" to take on the appearance of terrain or common objects, such as trees or crates. When using stealth passively you are nearly impossible to notice, even by perceptive guards and sentries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herbalism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use “What You Needed” to produce teas and poultices, capable of recovering Physical or Mental boxes outside of combat. </t>
   </si>
   <si>
     <t xml:space="preserve">Prepared</t>
@@ -451,22 +460,19 @@
     <t xml:space="preserve">Exploration, Health</t>
   </si>
   <si>
-    <t xml:space="preserve">Gain an additional two Prep Points. When you use a Prep Point to change Kits, you can change two Kits instead of one. You can use “What You Needed” without spending Prep Points.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slayer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You instinctively know the weaknesses of monsters and beasts. You can use "What You Needed" to produce a weapon or ammunition that's particularly effective against them. Attacks with this item inflict an additional box of Physical damage. When you or an ally incapacitate an enemy with its weakness, you recover a Prep Point.</t>
+    <t xml:space="preserve">Gain an additional two Prep Points. When you use a Prep Point to change Kits, you can change two Kits instead of one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharpshooter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are inhumanly precise. Using this technique lowers the difficulty of making targeted attacks, such as disarming an enemy by striking their hand or blinding an enemy by striking their eyes. You have Advantage when making ranged attacks without any distractions. You can expend a Prep Point to combine this technique with another, or amplify its effects.</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit of Wood</t>
   </si>
   <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of plant matter. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
+    <t xml:space="preserve">Allows for control and limited manifestation of plants. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
   </si>
   <si>
     <t xml:space="preserve">Tamer</t>
@@ -490,7 +496,7 @@
     <t xml:space="preserve">Combat, Social, Technique</t>
   </si>
   <si>
-    <t xml:space="preserve">Using this technique inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when using Bravery to provoke others, in or out of combat. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+    <t xml:space="preserve">Your attacks taunt and frustrate targets in addition to dealing damage. Using this technique inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when using Bravery to provoke others outside of combat. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
   </si>
   <si>
     <t xml:space="preserve">Inner Flame</t>
@@ -502,10 +508,13 @@
     <t xml:space="preserve">At any time when you would otherwise spend a Fortune Point, you can spend a Physical box instead. When you recover Physical or Mental boxes, you recover one more than you would otherwise.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sharpshot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using this technique lowers the difficulty of making precise attacks, such as disarming a target by striking their hand. You have Advantage when making ranged attacks without any distractions. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+    <t xml:space="preserve">Quickdraw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Stealth, Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are swift and silent, preventing targets from crying out when struck or otherwise making noise. Using this technique ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. You can expend a Fortune Point to attack before someone else acts. If done in combat, moves your turn in front of the target’s, and cannot be used again until your next turn is complete. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
   </si>
   <si>
     <t xml:space="preserve">Spellbreak</t>
@@ -514,19 +523,19 @@
     <t xml:space="preserve">Combat, Exploration, Technique</t>
   </si>
   <si>
-    <t xml:space="preserve">Using this technique allows your attacks to destroy magic and spirits. You have Advantage when defending against magical attacks. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+    <t xml:space="preserve">Your attacks interfere with magical energies. Using this technique allows your attacks to destroy spells and spirits. You have Advantage when defending against magical attacks. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
   </si>
   <si>
     <t xml:space="preserve">Subvert</t>
   </si>
   <si>
-    <t xml:space="preserve">Using this technique delays the target’s turn on successful attacks, in addition to any Physical damage dealt. On a successful defense against a melee attack, you inflict a point of Physical damage on the attacker. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wind Dance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using this technique extends the range of your attacks. Melee attacks create blades of wind, while ranged attacks are followed by gusts of wind. You have Advantage when defending against ranged attacks. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+    <t xml:space="preserve">Your attacks put targets off-balance. Using this technique delays an enemy’s turn on successful attacks, in addition to any Physical damage dealt. On a successful defense against a melee attack, you inflict a point of Physical damage on the attacker. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind Strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your melee attacks create blades of cutting wind, while your ranged attacks are propelled by gusts. Using this technique greatly extends the range of your attacks. You have Advantage when defending against ranged attacks. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
   </si>
   <si>
     <t xml:space="preserve">Knight</t>
@@ -544,7 +553,7 @@
     <t xml:space="preserve">Combat, Exploration, Recovery</t>
   </si>
   <si>
-    <t xml:space="preserve">You can spend a Fortune Point to revive an incapacitated ally, clearing one box of the appropriate damage track (but not their Injuries). This takes an action if done in combat. You can use Strength or Bravery to perform medical tasks. </t>
+    <t xml:space="preserve">You can spend a Fortune Point to revive an incapacitated ally, restoring one box of either of their damage tracks and taking your action to do so if done in combat. You can use Strength or Bravery to perform medical tasks outside of combat, giving you the ability to heal others and treat injuries. </t>
   </si>
   <si>
     <t xml:space="preserve">Impose</t>
@@ -553,7 +562,7 @@
     <t xml:space="preserve">Combat, Social</t>
   </si>
   <si>
-    <t xml:space="preserve">When you successfully intimidate a group of enemies, they take a box of Mental damage in addition to any other effects that intimidation may have. You have Advantage when using Bravery to intimidate in or out of combat.</t>
+    <t xml:space="preserve">When you successfully intimidate a group of enemies, they take a box of Mental damage in addition to any other effects that intimidation may have. You have Advantage when using Bravery to intimidate others outside of combat.</t>
   </si>
   <si>
     <t xml:space="preserve">Iron Will</t>
@@ -571,7 +580,7 @@
     <t xml:space="preserve">Smite</t>
   </si>
   <si>
-    <t xml:space="preserve">Using this technique allows your attacks to forcibly reposition targets, pushing them backwards or knocking in addition to any Physical damage dealt. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+    <t xml:space="preserve">Your attacks strike with enough force to knock targets back or topple them over. Using this technique allows your attacks to forcibly reposition enemies, in addition to any Physical damage dealt. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
   </si>
   <si>
     <t xml:space="preserve">Myrmidon</t>
@@ -580,7 +589,7 @@
     <t xml:space="preserve">Cleave</t>
   </si>
   <si>
-    <t xml:space="preserve">Using this technique allows your attacks to damage enemies or objects adjacent to your target, in addition to any Physical damage dealt to the original target. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+    <t xml:space="preserve">Your attacks are especially destructive, hitting enemies and objects adjacent to your target. Using this technique allows your attacks to inflict Physical damage in an area of effect. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
   </si>
   <si>
     <t xml:space="preserve">Gambler’s Fallacy</t>
@@ -589,13 +598,13 @@
     <t xml:space="preserve">Exploration, Recovery</t>
   </si>
   <si>
-    <t xml:space="preserve">Treat a roll of 1 as a +0 instead of a -2. You recover a Fortune Point when you roll a 1.</t>
+    <t xml:space="preserve">Treat a roll of 1 as a +0 instead of a -2. You recover a Fortune Point when you roll a 1 in combat.</t>
   </si>
   <si>
     <t xml:space="preserve">Iron Blood</t>
   </si>
   <si>
-    <t xml:space="preserve">You are immune to most poisons and diseases. Take Advantage against environmental hazards, traps, and area of effect attacks.</t>
+    <t xml:space="preserve">Take Advantage against environmental hazards, traps, and area of effect attacks. You are immune to poisons, diseases, and similar afflictions.</t>
   </si>
   <si>
     <t xml:space="preserve">Lucky</t>
@@ -613,7 +622,7 @@
     <t xml:space="preserve">Sunder</t>
   </si>
   <si>
-    <t xml:space="preserve">Using this technique allows your attacks to deal an additional box of Physical damage, on top of any Physical damage that would otherwise be dealt. You can expend a Fortune Point on a successful attack to make it especially destructive, breaking through metal, armor, and similarly durable materials. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+    <t xml:space="preserve">Your attacks are brutally effective, causing great harm and striking through armor. Using this technique allows your attacks to deal an additional box of Physical damage, on top of any Physical damage that would otherwise be dealt. You can expend a Fortune Point on a successful attack to make it capable of destroying obstacles, breaking through even metal and stone. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
   </si>
 </sst>
 </file>
@@ -1015,16 +1024,16 @@
   </sheetPr>
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E66" activeCellId="0" sqref="E66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E43" activeCellId="0" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.6"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="37.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="155.45"/>
   </cols>
   <sheetData>
@@ -1107,10 +1116,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1121,13 +1130,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1138,13 +1147,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1152,16 +1161,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1169,16 +1178,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1186,16 +1195,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1203,16 +1212,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1220,16 +1229,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1237,16 +1246,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1254,16 +1263,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1271,16 +1280,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1288,16 +1297,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="E16" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1305,16 +1314,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1322,16 +1331,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1339,934 +1348,934 @@
         <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/miracuse_kits.xlsx
+++ b/miracuse_kits.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="198">
   <si>
     <t xml:space="preserve">Class</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Exploration, Alchemy, Substance, Grenade</t>
   </si>
   <si>
-    <t xml:space="preserve">Reshape stone and metal by rubbing an ointment into them. Possible applications might include creating a shelter in rock, opening an entry to a brick building, or bending metal bars. Can be used as a grenade to turn areas of solid dirt or rock into quicksand.</t>
+    <t xml:space="preserve">Briefly turn stone and metal into liquids with a strange spray. Can be used to create tunnels, melt armor, make blades, or otherwise reshape materials. Can be used as a grenade for a lesser result over a wide area.</t>
   </si>
   <si>
     <t xml:space="preserve">Beast’s Blood</t>
@@ -79,13 +79,13 @@
     <t xml:space="preserve">Combat, Exploration, Alchemy, Substance, Grenade</t>
   </si>
   <si>
-    <t xml:space="preserve">Cause burning pain and violent coughing by throwing a highly volatile dust. Capable of creating dazzling fireworks displays, conducting electricity, and producing abundant colorful smoke. Can be used as a grenade to inflict Physical damage.</t>
+    <t xml:space="preserve">Create dazzling fireworks displays with a highly volatile powder. Capable of producing blinding lights, making smoke screens, emitting deafening noises, and causing wracking coughs when breathed. Can be used as a grenade to produce any two of the effects listed or inflict Physical damage.</t>
   </si>
   <si>
     <t xml:space="preserve">Holy Water</t>
   </si>
   <si>
-    <t xml:space="preserve">Neutralize magic by spraying specially treated water. Can be used to negate spells, ward away monsters, create light, or produce anti-magic effects. Can be used as a grenade to dampen magical effects over a wide area.</t>
+    <t xml:space="preserve">Neutralize magic by spraying specially treated water. Can be used to negate spells, ward away monsters, treat curses, or produce anti-magic effects. Can be used as a grenade.</t>
   </si>
   <si>
     <t xml:space="preserve">Manifold Venom</t>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">Exploration, Alchemy, Substance</t>
   </si>
   <si>
-    <t xml:space="preserve">Cause additional harm by applying poisons to weapons and ammunition. Example of effects could include additional Physical damage, temporary blindness, or gradual petrification.</t>
+    <t xml:space="preserve">Cause harm by applying poisons to weapons and ammunition. Example of effects could include additional Physical damage, temporary blindness, or gradual petrification.</t>
   </si>
   <si>
     <t xml:space="preserve">Enchanter</t>
@@ -181,7 +181,35 @@
     <t xml:space="preserve">Trenchsteel Charges</t>
   </si>
   <si>
-    <t xml:space="preserve">Grenade that covers an area with metal ball bearings, or a sprawl of barbed wire. When used as a bullet, can change course mid-flight by detonating a second time and ricochets in closed spaces.</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Grenade that covers an area with metal ball bearings, or a sprawl of barbed wire. When used as a bullet, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ricochets in closed spaces, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">deals two boxes of Physical damage, and can change course mid-flight by detonating a second time .</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Vapor Charges</t>
@@ -346,7 +374,7 @@
     <t xml:space="preserve">Exploration, Social, Health</t>
   </si>
   <si>
-    <t xml:space="preserve">Choose a Skill you have no points in, and raise it to half the level of your highest Skill (rounded down). You can spend a Prep Point to change the chosen Skill, provided you have a few minutes to concentrate. You can use “Assume a Disguise” without spending Prep Points.</t>
+    <t xml:space="preserve">Choose a Skill and raise it to half the level of your highest Skill (rounded down). You can spend a Prep Point to change the chosen Skill, provided you have a few minutes to concentrate. You can use “Assume a Disguise” without spending Prep Points.</t>
   </si>
   <si>
     <t xml:space="preserve">Infiltration Team</t>
@@ -355,7 +383,7 @@
     <t xml:space="preserve">Social, Stealth</t>
   </si>
   <si>
-    <t xml:space="preserve">Nearby allies can use your Cunning when moving in stealth. When you use "Assume a Disguise", you can provide disguises to your allies as well. When you or an ally would otherwise be revealed, you can spend a Prep Point to prevent it.</t>
+    <t xml:space="preserve">Nearby allies can use your Cunning when moving in stealth. When you use "Assume a Disguise", you can provide disguises to your allies as well. When you or an ally would otherwise be revealed, you can spend a Prep Point to prevent it, so long as you can narratively describe how you do so.</t>
   </si>
   <si>
     <t xml:space="preserve">Iocane Powder</t>
@@ -436,15 +464,6 @@
     <t xml:space="preserve">Ranger</t>
   </si>
   <si>
-    <t xml:space="preserve">Camouflage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Exploration, Stealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your sneak attacks do not reveal your position or break stealth, though they may alert enemies to your presence. You can use "Assume a Disguise" to take on the appearance of terrain or common objects, such as trees or crates. When using stealth passively you are nearly impossible to notice, even by perceptive guards and sentries.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Herbalism</t>
   </si>
   <si>
@@ -463,10 +482,10 @@
     <t xml:space="preserve">Gain an additional two Prep Points. When you use a Prep Point to change Kits, you can change two Kits instead of one.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sharpshooter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are inhumanly precise. Using this technique lowers the difficulty of making targeted attacks, such as disarming an enemy by striking their hand or blinding an enemy by striking their eyes. You have Advantage when making ranged attacks without any distractions. You can expend a Prep Point to combine this technique with another, or amplify its effects.</t>
+    <t xml:space="preserve">Quickdraw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are swift and silent, preventing targets from crying out when struck or otherwise making noise. Using this technique ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. You always go first when turn order is described. You can expend a Prep Point to combine this technique with another, or amplify its effects.</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit of Wood</t>
@@ -484,19 +503,34 @@
     <t xml:space="preserve">You can speak with and understand beasts. You can use "I Know a Guy" to recruit a local beast to aid you. The beast can track, fight, and is capable of anything that a creature of its kind might otherwise do. The beast will follow your orders, but will prioritize its own survival. Only one beast can be recruited at a time.</t>
   </si>
   <si>
+    <t xml:space="preserve">Twin Strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks hit two targets instead of one. Using this technique gives your attack an additional target, with both hits landing within moments of one another. You can expend a Prep Point to combine this technique with another, or amplify its effects.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Soldier</t>
   </si>
   <si>
     <t xml:space="preserve">Fencer</t>
   </si>
   <si>
+    <t xml:space="preserve">Called Shot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration, Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are exceptionally precise. Using this technique lowers the difficulty of making targeted attacks, such as disarming an enemy by striking their hand or blinding an enemy by striking their eyes. You have Advantage when making ranged attacks without any distractions. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Harass</t>
   </si>
   <si>
     <t xml:space="preserve">Combat, Social, Technique</t>
   </si>
   <si>
-    <t xml:space="preserve">Your attacks taunt and frustrate targets in addition to dealing damage. Using this technique inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when using Bravery to provoke others outside of combat. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+    <t xml:space="preserve">Your attacks taunt and frustrate targets in addition to dealing damage. Using this technique inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when using Bravery to provoke others. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
   </si>
   <si>
     <t xml:space="preserve">Inner Flame</t>
@@ -508,28 +542,19 @@
     <t xml:space="preserve">At any time when you would otherwise spend a Fortune Point, you can spend a Physical box instead. When you recover Physical or Mental boxes, you recover one more than you would otherwise.</t>
   </si>
   <si>
-    <t xml:space="preserve">Quickdraw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Stealth, Technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are swift and silent, preventing targets from crying out when struck or otherwise making noise. Using this technique ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. You can expend a Fortune Point to attack before someone else acts. If done in combat, moves your turn in front of the target’s, and cannot be used again until your next turn is complete. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Spellbreak</t>
   </si>
   <si>
-    <t xml:space="preserve">Combat, Exploration, Technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks interfere with magical energies. Using this technique allows your attacks to destroy spells and spirits. You have Advantage when defending against magical attacks. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subvert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks put targets off-balance. Using this technique delays an enemy’s turn on successful attacks, in addition to any Physical damage dealt. On a successful defense against a melee attack, you inflict a point of Physical damage on the attacker. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+    <t xml:space="preserve">Your attacks interfere with magic. Using this technique allows your attacks to destroy spells and spirits. You have Advantage when defending against magical attacks. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riposte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On a successful defense against a melee attack, you inflict a box of Physical damage to the attacker. </t>
   </si>
   <si>
     <t xml:space="preserve">Wind Strike</t>
@@ -559,10 +584,25 @@
     <t xml:space="preserve">Impose</t>
   </si>
   <si>
-    <t xml:space="preserve">Combat, Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you successfully intimidate a group of enemies, they take a box of Mental damage in addition to any other effects that intimidation may have. You have Advantage when using Bravery to intimidate others outside of combat.</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Your attacks demand the attention of targets and cloud their perception. Using this technique compels an enemy to focus on you on successful attacks, in addition to any Physical damage dealt. You have Advantage when using Bravery to intimidate others. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Iron Will</t>
@@ -598,13 +638,13 @@
     <t xml:space="preserve">Exploration, Recovery</t>
   </si>
   <si>
-    <t xml:space="preserve">Treat a roll of 1 as a +0 instead of a -2. You recover a Fortune Point when you roll a 1 in combat.</t>
+    <t xml:space="preserve">Treat a roll of 1 as a -1 instead of a -2. You recover a Fortune Point when you roll a 1 in combat.</t>
   </si>
   <si>
     <t xml:space="preserve">Iron Blood</t>
   </si>
   <si>
-    <t xml:space="preserve">Take Advantage against environmental hazards, traps, and area of effect attacks. You are immune to poisons, diseases, and similar afflictions.</t>
+    <t xml:space="preserve">You have Advantage against the effects of hazardous terrain, traps, and area of effect attacks. You are immune to most poisons, diseases, and curses.</t>
   </si>
   <si>
     <t xml:space="preserve">Lucky</t>
@@ -622,7 +662,7 @@
     <t xml:space="preserve">Sunder</t>
   </si>
   <si>
-    <t xml:space="preserve">Your attacks are brutally effective, causing great harm and striking through armor. Using this technique allows your attacks to deal an additional box of Physical damage, on top of any Physical damage that would otherwise be dealt. You can expend a Fortune Point on a successful attack to make it capable of destroying obstacles, breaking through even metal and stone. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+    <t xml:space="preserve">Your attacks are brutally effective, causing great harm and striking through armor. Using this technique allows your attacks to deal an additional box of Physical damage when successful. You have Advantage when using Strength to destroy obstacles. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
   </si>
 </sst>
 </file>
@@ -633,7 +673,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -693,6 +733,12 @@
       <name val="Fira Sans"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Fira Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -819,80 +865,84 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1018,1264 +1068,1264 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E43" activeCellId="0" sqref="E43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="155.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="155.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="11" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="11" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="11" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="15" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="15" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="15" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="15" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="15" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="15" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="15" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="15" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="15" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="15" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="15" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="15" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E52" s="14" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="14" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="11" t="s">
+      <c r="D53" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B54" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D53" s="13" t="s">
+      <c r="C54" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E53" s="14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D55" s="13" t="s">
+      <c r="E55" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="E55" s="14" t="s">
+    </row>
+    <row r="56" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="16" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="15" t="s">
+      <c r="B56" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="C56" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="D56" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="E56" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="E56" s="18" t="s">
+    </row>
+    <row r="57" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" s="18" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="15" t="s">
+      <c r="D57" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B58" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="B57" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C57" s="17" t="s">
+      <c r="C58" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="D57" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C58" s="17" t="s">
+      <c r="E64" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D60" s="17" t="s">
+      <c r="E65" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D67" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="E60" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D61" s="17" t="s">
+      <c r="E67" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D68" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="E61" s="18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="D62" s="17" t="s">
+      <c r="E68" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D70" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E62" s="18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="E63" s="18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="E64" s="18" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="E65" s="18" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="E66" s="18" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C67" s="17" t="s">
+      <c r="E70" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B71" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D67" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E67" s="18" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E68" s="18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C70" s="17" t="s">
+      <c r="C71" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="D70" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="E70" s="18" t="s">
+      <c r="D71" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E71" s="19" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C71" s="17" t="s">
+    <row r="72" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C72" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="D71" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="E71" s="18" t="s">
+      <c r="D72" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E72" s="19" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C72" s="17" t="s">
+    <row r="73" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C73" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="D72" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E72" s="18" t="s">
+      <c r="D73" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E73" s="19" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/miracuse_kits.xlsx
+++ b/miracuse_kits.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="197">
   <si>
     <t xml:space="preserve">Class</t>
   </si>
@@ -46,46 +46,46 @@
     <t xml:space="preserve">Chemist</t>
   </si>
   <si>
-    <t xml:space="preserve">Basilisk’s Tongue</t>
+    <t xml:space="preserve">Beast’s Blood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration, Alchemy, Potion, Substance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adopt an animal-like adaption for a short period of time by drinking a potion. Example of effects could include a cat’s night vision, a bat’s sense of hearing, or a gecko’s skin. Can be used as a substance to attract monsters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elixir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recovery, Alchemy, Potion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recover from harm and illness by drinking a potion. This can include recovering Physical damage, recovering Mental damage, treating an Injury, or curing various natural afflictions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faerie Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration, Alchemy, Substance, Grenade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create dazzling fireworks displays with a highly volatile powder. Capable of producing blinding lights, making smoke screens, emitting deafening noises, and causing wracking coughs when breathed. Can be used as a grenade to produce any two of the effects listed or inflict Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distort perceptions with a potent hallucionegic. Can be used as a potion to see through illusions, ignore the effects of injuries, and change mental states. Can be used as a grenade to inflict Mental damage. Can be used as an offering to powerful spirits and supernatural creatures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holy Water</t>
   </si>
   <si>
     <t xml:space="preserve">Exploration, Alchemy, Substance, Grenade</t>
   </si>
   <si>
-    <t xml:space="preserve">Briefly turn stone and metal into liquids with a strange spray. Can be used to create tunnels, melt armor, make blades, or otherwise reshape materials. Can be used as a grenade for a lesser result over a wide area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beast’s Blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration, Alchemy, Potion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adopt an animal-like adaption for a short period of time by drinking a potion. Example of effects could include a cat’s night vision, a bat’s sense of hearing, or a gecko’s skin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elixir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recovery, Alchemy, Potion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recover from harm and illness by drinking a potion. This can include recovering Physical damage, recovering Mental damage, treating an Injury, or curing various natural afflictions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faerie Fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Exploration, Alchemy, Substance, Grenade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create dazzling fireworks displays with a highly volatile powder. Capable of producing blinding lights, making smoke screens, emitting deafening noises, and causing wracking coughs when breathed. Can be used as a grenade to produce any two of the effects listed or inflict Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holy Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neutralize magic by spraying specially treated water. Can be used to negate spells, ward away monsters, treat curses, or produce anti-magic effects. Can be used as a grenade.</t>
+    <t xml:space="preserve">Neutralize magic by spraying specially treated water. Can be used to negate spells, harm the undead, treat curses, or produce anti-magic effects. Can be used as a grenade. Can be used as a substance to repel monsters and magical creatures.</t>
   </si>
   <si>
     <t xml:space="preserve">Manifold Venom</t>
@@ -100,37 +100,34 @@
     <t xml:space="preserve">Enchanter</t>
   </si>
   <si>
-    <t xml:space="preserve">Clay Homunculus</t>
+    <t xml:space="preserve">Rune of Awareness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration, Alchemy, Tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sigil that allows the user to see and hear around the object it’s applied to for two days. Can be used to create a shikigami, a paper oragami servant capable of flight and relaying messages. The shikigami falls apart after twenty-four hours, or when this Kit is removed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rune of Featherweight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sigil that halves the weight of objects for two hours when applied. Can be used to create a bag that’s bigger on the inside than the outside, capable of holding three times its volume without growing heavier. The bag falls apart after twenty-four hours, or when this Kit is removed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rune of Quickening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sigil that makes solid objects malleable for a short period of time when applied. Can be used to create a quicksilver familiar, a sentient metal ooze that can reshape itself into tools and weapons on command. The familiar hardens into whatever shape it was holding after two hours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rune of Strength</t>
   </si>
   <si>
     <t xml:space="preserve">Combat, Exploration, Alchemy, Tool</t>
   </si>
   <si>
-    <t xml:space="preserve">Create a clay golem from mud or dirt. The golem is roughly three feet tall, will follow your orders, and is capable of fighting on your behalf. It will fall apart one hour after its creation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloth Homunculus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration, Alchemy, Tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a bag that reduces the weight of its contents, and is bigger on the inside than the outside. Without expending any of this Kit’s uses, a few reasonably sized objects that are each under 50 lbs. can be placed within, becoming weightless. You can expend a use to place larger objects weighing up to 300 lbs. into the bag. The bag remains active so long as this Kit is equipped.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paper Homunculus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration, Social, Alchemy, Tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a shikigami, a flying talisman made of paper. The talisman can carry messages, eavesdrop, and scout. It has Cunning equal to half your Knowledge rounded down. The talisman will fall apart one hour after its creation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quicksilver Homunculus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a shapeshifting metal familiar, generally worn as a bracelet when not in use. Without expending any of this Kit’s uses, the familiar can change into simple metal objects like tools and weapons. The creator can expend a use to perform more complex or fast-paced transformations. Examples might include a shield to deflect an incoming attack, a musical instrument, or a bear trap. The familiar remains active so long as this Kit is equipped.</t>
+    <t xml:space="preserve">A sigil that makes objects stronger and heavier for two hours when applied. Can be used to create a golem from stone or dirt, which will follow your orders and fight on your behalf for two hours.</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit of Animation</t>
@@ -179,6 +176,423 @@
   </si>
   <si>
     <t xml:space="preserve">Trenchsteel Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenade that covers an area with metal ball bearings, or a sprawl of barbed wire. When used as a bullet, ricochets in closed spaces, deals two boxes of Physical damage, and can change course mid-flight by detonating a second time .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vapor Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenade that covers an area in tear gas, or a billowing cloud of fog. When used as a bullet, can instantly rust through most metals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Abjuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal and purify. Used to create barriers and dispel magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Divination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration, Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seek and learn. Used to scry for hidden things and reveal new information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social, Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speak and understand. Used to commune with all creatures and compel others to your will.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Necromancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration, Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrupt and wrong. Used to raise the dead and curse the living.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Restoration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recovery, Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore and repair. Used to heal wounds and mend broken objects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Summoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petition and conjure. Used to pull otherworldly influences into the mortal realm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Aether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows for control and limited manifestation of electricity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows for control and limited manifestation of air.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows for control and limited manifestation of earth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Flame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows for control and limited manifestation of flame.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows for control and limited manifestation of metal and magnetism.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows for control and limited manifestation of water.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wizard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adhere and restrain. Used to lash things together with gravitational force.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Entropy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diminish and dissolve. Used to unravel targets into their base elements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel raw magical energy. Used to lob bolts of force at enemies, or otherwise manipulate energy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Locomotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accelerate and slow. Used to manipulate kinetic energy, adding or taking away speed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Reinforcement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortify and empower. Used to improve existing qualities, such as making someone stronger or faster.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Thermos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat and cool. Used to manipulate thermal energy, adding or taking away temperature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scoundrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assassin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assassinate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your sneak attacks deal an additional box of Physical damage. You can use "Assume a Disguise" to disappear from sight, taking an action to do so if done in combat. You can tell if a target will be incapacitated by your sneak attack before you make it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convincing Fake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration, Social, Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a Skill and raise it to half the level of your highest Skill (rounded down). You can spend a Prep Point to change the chosen Skill, provided you have a few minutes to concentrate. You can use “Assume a Disguise” without spending Prep Points.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infiltration Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social, Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nearby allies can use your Cunning when moving in stealth. When you use "Assume a Disguise", you can provide disguises to your allies as well. When you or an ally would otherwise be revealed, you can spend a Prep Point to prevent it, so long as you can narratively describe how you do so.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iocane Powder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Social, Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your sneak attacks can put targets to sleep and cause short-term memory loss. You can use "What You Needed" to produce a vial of liquid that makes those who drink it highly suggestible. Those under the effects of the liquid will speak truthfully, but are visibly drugged, and slow to react.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin Down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks reduce an enemy’s movement, cutting off their ability to escape or pursue. Using this technique greatly reduces a target’s mobility, in addition to any Physical damage dealt.  You can expend a Prep Point to amplify this technique or combine this with another.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Shadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic, Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obscure and muffle. Used to manipulate darkness and quiet footsteps. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charm Arcana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use Cunning as though it were Presence, Bravery, or Knowledge for social purposes. You can spend a Prep Point to reroll a social action and take the new result, a maximum of one time per social action. You can use "I Know a Guy" without spending Prep Points.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lore Arcana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use Cunning or Agility to detect and identify magic. You can use "What You Needed" to produce an item that briefly channels or negates magic you've identified. You can use Cunning or Agility when recalling information about history, religion, magic, or politics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resilience Arcana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health, Exploration, Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional Physical box. You can exchange Mental boxes for Prep Points and vice versa, and can do so as an action while in combat. You do not need to sleep, and cannot be rendered unconscious against your will, but can be incapacitated in other ways.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brighten and bend light. Used to create and manipulate illusory images, as well as to see afar. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amplify and distort. Used to create and manipulate sound, as well as to listen in from a distance. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">War Arcana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your fighting style resembles dancing, making you particularly mobile. Using this technique allows you to move before and after making an attack. You can spend a Prep Point to take an additional action on your turn, besides another attack. You can expend a Prep Point to combine this technique with another.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herbalism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use “What You Needed” to produce teas and poultices, capable of recovering Physical or Mental boxes outside of combat. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration, Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional two Prep Points. When you use a Prep Point to change Kits, you can change two Kits instead of one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quickdraw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are swift and silent, preventing targets from crying out when struck or otherwise making noise. Using this technique ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. You always go first when turn order is described. You can expend a Prep Point to combine this technique with another, or amplify its effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows for control and limited manifestation of plants. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration, Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can speak with and understand beasts. You can use "I Know a Guy" to recruit a local beast to aid you. The beast can track, fight, and is capable of anything that a creature of its kind might otherwise do. The beast will follow your orders, but will prioritize its own survival. Only one beast can be recruited at a time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twin Strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks hit two targets instead of one. Using this technique gives your attack an additional target, with both hits landing within moments of one another. You can expend a Prep Point to combine this technique with another, or amplify its effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soldier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fencer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Called Shot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration, Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are exceptionally precise. Using this technique lowers the difficulty of making targeted attacks, such as disarming an enemy by striking their hand or blinding an enemy by striking their eyes. You have Advantage when making ranged attacks without any distractions. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Social, Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks taunt and frustrate targets in addition to dealing damage. Using this technique inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when using Bravery to provoke others. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inner Flame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health, Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At any time when you would otherwise spend a Fortune Point, you can spend a Physical box instead. When you recover Physical or Mental boxes, you recover one more than you would otherwise.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riposte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On a successful defense against a melee attack, you inflict a box of Physical damage to the attacker. You recover a Fortune Point when an enemy is incapacitated using this Kit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spellbreak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks interfere with magic. Using this technique allows your attacks to destroy spells and spirits. You have Advantage when defending against magical attacks. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind Strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your melee attacks create blades of cutting wind, while your ranged attacks are propelled by gusts. Using this technique greatly extends the range of your attacks. You have Advantage when defending against ranged attacks. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guardian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When an ally would otherwise take damage, you can spend a Fortune Point to negate it, so long as you are able to provide a narrative justification for how you do so. You can use Strength or Bravery to detect danger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospitaler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration, Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can spend a Fortune Point to revive an incapacitated ally, restoring one box of either of their damage tracks and taking your action to do so if done in combat. You can use Strength or Bravery to perform medical tasks outside of combat, giving you the ability to heal others and treat injuries. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks demand the attention of targets and cloud their perception. Using this technique compels an enemy to focus on you on successful attacks, in addition to any Physical damage dealt. You have Advantage when using Bravery to intimidate others. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Will</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional Mental box. You can convert a Fortune Point into a Mental box or vice versa, and can do so as an action while in combat. You are immune to Mental damage from exhaustion, fear, or similar effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks encourage and inspire allies on the battlefield. Using this technique can provide Advantage to one nearby ally on their next roll in combat when you make a successful attack, in addition to dealing Physical damage to an enemy. You have Advantage when using Bravery to inspire or rally others outside of combat. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks strike with enough force to knock targets back or topple them over. Using this technique allows your attacks to forcibly reposition enemies, in addition to any Physical damage dealt. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myrmidon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are especially destructive, hitting enemies and objects adjacent to your target. Using this technique allows your attacks to inflict Physical damage in an area of effect. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambler’s Fallacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration, Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treat a roll of 1 as a -1 instead of a -2. You recover a Fortune Point when you roll a 1 in combat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Strike</t>
   </si>
   <si>
     <r>
@@ -189,410 +603,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Grenade that covers an area with metal ball bearings, or a sprawl of barbed wire. When used as a bullet, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ricochets in closed spaces, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">deals two boxes of Physical damage, and can change course mid-flight by detonating a second time .</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Vapor Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenade that covers an area in tear gas, or a billowing cloud of fog. When used as a bullet, can instantly rust through most metals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Abjuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal and purify. Used to create barriers and dispel magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Divination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration, Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seek and learn. Used to scry for hidden things and reveal new information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social, Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speak and understand. Used to commune with all creatures and compel others to your will.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Necromancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Exploration, Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corrupt and wrong. Used to raise the dead and curse the living.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Restoration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recovery, Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restore and repair. Used to heal wounds and mend broken objects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Summoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petition and conjure. Used to pull otherworldly influences into the mortal realm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shaman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Aether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of electricity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of air.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Earth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of earth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Flame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of flame.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Metal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of metal and magnetism.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of water.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wizard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adhere and restrain. Used to lash things together with gravitational force.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Entropy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diminish and dissolve. Used to unravel targets into their base elements.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel raw magical energy. Used to lob bolts of force at enemies, or otherwise manipulate energy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Locomotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accelerate and slow. Used to manipulate kinetic energy, adding or taking away speed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Reinforcement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fortify and empower. Used to improve existing qualities, such as making someone stronger or faster.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Thermos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat and cool. Used to manipulate thermal energy, adding or taking away temperature.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scoundrel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assassin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assassinate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Stealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your sneak attacks deal an additional box of Physical damage. You can use "Assume a Disguise" to disappear from sight, taking an action to do so if done in combat. You can tell if a target will be incapacitated by your sneak attack before you make it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convincing Fake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration, Social, Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a Skill and raise it to half the level of your highest Skill (rounded down). You can spend a Prep Point to change the chosen Skill, provided you have a few minutes to concentrate. You can use “Assume a Disguise” without spending Prep Points.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infiltration Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social, Stealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nearby allies can use your Cunning when moving in stealth. When you use "Assume a Disguise", you can provide disguises to your allies as well. When you or an ally would otherwise be revealed, you can spend a Prep Point to prevent it, so long as you can narratively describe how you do so.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iocane Powder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Social, Stealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your sneak attacks can put targets to sleep and cause short-term memory loss. You can use "What You Needed" to produce a vial of liquid that makes those who drink it highly suggestible. Those under the effects of the liquid will speak truthfully, but are visibly drugged, and slow to react.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pin Down</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks reduce an enemy’s movement, cutting off their ability to escape or pursue. Using this technique greatly reduces a target’s mobility, in addition to any Physical damage dealt.  You can expend a Prep Point to amplify this technique or combine this with another.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Shadow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic, Stealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obscure and muffle. Used to manipulate darkness and quiet footsteps. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charm Arcana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can use Cunning as though it were Presence, Bravery, or Knowledge for social purposes. You can spend a Prep Point to reroll a social action and take the new result, a maximum of one time per social action. You can use "I Know a Guy" without spending Prep Points.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lore Arcana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Exploration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can use Cunning or Agility to detect and identify magic. You can use "What You Needed" to produce an item that briefly channels or negates magic you've identified. You can use Cunning or Agility when recalling information about history, religion, magic, or politics.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resilience Arcana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health, Exploration, Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional Physical box. You can exchange Mental boxes for Prep Points and vice versa, and can do so as an action while in combat. You do not need to sleep, and cannot be rendered unconscious against your will, but can be incapacitated in other ways.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brighten and bend light. Used to create and manipulate illusory images, as well as to see afar. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Sound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amplify and distort. Used to create and manipulate sound, as well as to listen in from a distance. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">War Arcana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your fighting style resembles dancing, making you particularly mobile. Using this technique allows you to move before and after making an attack. You can spend a Prep Point to take an additional action on your turn, besides another attack. You can expend a Prep Point to combine this technique with another.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herbalism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can use “What You Needed” to produce teas and poultices, capable of recovering Physical or Mental boxes outside of combat. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prepared</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration, Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional two Prep Points. When you use a Prep Point to change Kits, you can change two Kits instead of one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quickdraw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are swift and silent, preventing targets from crying out when struck or otherwise making noise. Using this technique ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. You always go first when turn order is described. You can expend a Prep Point to combine this technique with another, or amplify its effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of plants. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Exploration, Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can speak with and understand beasts. You can use "I Know a Guy" to recruit a local beast to aid you. The beast can track, fight, and is capable of anything that a creature of its kind might otherwise do. The beast will follow your orders, but will prioritize its own survival. Only one beast can be recruited at a time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twin Strike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks hit two targets instead of one. Using this technique gives your attack an additional target, with both hits landing within moments of one another. You can expend a Prep Point to combine this technique with another, or amplify its effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soldier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fencer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Called Shot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Exploration, Technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are exceptionally precise. Using this technique lowers the difficulty of making targeted attacks, such as disarming an enemy by striking their hand or blinding an enemy by striking their eyes. You have Advantage when making ranged attacks without any distractions. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Social, Technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks taunt and frustrate targets in addition to dealing damage. Using this technique inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when using Bravery to provoke others. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inner Flame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health, Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At any time when you would otherwise spend a Fortune Point, you can spend a Physical box instead. When you recover Physical or Mental boxes, you recover one more than you would otherwise.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spellbreak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks interfere with magic. Using this technique allows your attacks to destroy spells and spirits. You have Advantage when defending against magical attacks. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riposte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On a successful defense against a melee attack, you inflict a box of Physical damage to the attacker. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wind Strike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your melee attacks create blades of cutting wind, while your ranged attacks are propelled by gusts. Using this technique greatly extends the range of your attacks. You have Advantage when defending against ranged attacks. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guardian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When an ally would otherwise take damage, you can spend a Fortune Point to negate it, so long as you are able to provide a narrative justification for how you do so. You can use Strength or Bravery to detect danger.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospitaler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Exploration, Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can spend a Fortune Point to revive an incapacitated ally, restoring one box of either of their damage tracks and taking your action to do so if done in combat. You can use Strength or Bravery to perform medical tasks outside of combat, giving you the ability to heal others and treat injuries. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impose</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Your attacks demand the attention of targets and cloud their perception. Using this technique compels an enemy to focus on you on successful attacks, in addition to any Physical damage dealt. You have Advantage when using Bravery to intimidate others. </t>
+      <t xml:space="preserve">Your attacks cause harm even on glancing blows. Using this techique allows your attacks to inflict damage even when your roll would normally have tied with the defender. You can expend a Fortune Point to guarantee a hit, so long as hitting the target is within the realm of possibility. </t>
     </r>
     <r>
       <rPr>
@@ -603,48 +614,6 @@
       </rPr>
       <t xml:space="preserve">You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Will</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional Mental box. You can convert a Fortune Point into a Mental box or vice versa, and can do so as an action while in combat. You are immune to Mental damage from exhaustion, fear, or similar effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rally</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using this technique provides Advantage to one nearby ally on their next roll in combat when you make a successful attack, in addition to dealing Physical damage to an enemy. You have Advantage when using Bravery to inspire or rally others outside of combat. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks strike with enough force to knock targets back or topple them over. Using this technique allows your attacks to forcibly reposition enemies, in addition to any Physical damage dealt. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myrmidon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cleave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are especially destructive, hitting enemies and objects adjacent to your target. Using this technique allows your attacks to inflict Physical damage in an area of effect. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambler’s Fallacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration, Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treat a roll of 1 as a -1 instead of a -2. You recover a Fortune Point when you roll a 1 in combat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have Advantage against the effects of hazardous terrain, traps, and area of effect attacks. You are immune to most poisons, diseases, and curses.</t>
   </si>
   <si>
     <t xml:space="preserve">Lucky</t>
@@ -1074,8 +1043,8 @@
   </sheetPr>
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E70" activeCellId="0" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1166,10 +1135,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1180,10 +1149,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>20</v>
@@ -1234,10 +1203,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1248,13 +1217,13 @@
         <v>24</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1265,13 +1234,13 @@
         <v>24</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1282,13 +1251,13 @@
         <v>24</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1299,13 +1268,13 @@
         <v>24</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1313,16 +1282,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1330,16 +1299,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1347,16 +1316,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1364,16 +1333,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1381,16 +1350,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1398,693 +1367,693 @@
         <v>5</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="E20" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="C21" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="E21" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="C22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="E22" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="C23" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="E23" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="C24" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="E24" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="C25" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="D26" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="D32" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="C38" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="D38" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="E38" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>101</v>
-      </c>
       <c r="C39" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="E39" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>101</v>
-      </c>
       <c r="C40" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="E40" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>101</v>
-      </c>
       <c r="C41" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="E41" s="15" t="s">
         <v>112</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>101</v>
-      </c>
       <c r="C42" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="E42" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>101</v>
-      </c>
       <c r="C43" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="E43" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B44" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="D44" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="E44" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C45" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="E45" s="15" t="s">
         <v>125</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C46" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="E46" s="15" t="s">
         <v>128</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C47" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="15" t="s">
         <v>130</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C48" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C49" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" s="15" t="s">
         <v>134</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B50" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="D50" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="E50" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C51" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="E51" s="15" t="s">
         <v>141</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C52" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E52" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C53" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C54" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="E54" s="15" t="s">
         <v>148</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C55" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E55" s="15" t="s">
         <v>150</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B56" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="C56" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="D56" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="E56" s="19" t="s">
         <v>155</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="B57" s="17" t="s">
-        <v>153</v>
-      </c>
       <c r="C57" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="E57" s="19" t="s">
         <v>158</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="B58" s="17" t="s">
-        <v>153</v>
-      </c>
       <c r="C58" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="E58" s="19" t="s">
         <v>161</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B59" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="B59" s="17" t="s">
-        <v>153</v>
-      </c>
       <c r="C59" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" s="18" t="s">
         <v>163</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>155</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>164</v>
@@ -2092,240 +2061,240 @@
     </row>
     <row r="60" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B60" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>153</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>165</v>
       </c>
       <c r="D60" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E60" s="19" t="s">
         <v>166</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B61" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="B61" s="17" t="s">
-        <v>153</v>
-      </c>
       <c r="C61" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E61" s="19" t="s">
         <v>168</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B62" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C62" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="D62" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E62" s="19" t="s">
         <v>171</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C63" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D63" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="E63" s="19" t="s">
         <v>174</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C64" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E64" s="19" t="s">
         <v>176</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="E64" s="19" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C65" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E65" s="19" t="s">
         <v>178</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C66" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E66" s="19" t="s">
         <v>180</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C67" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E67" s="19" t="s">
         <v>182</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E67" s="19" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B68" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C68" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="D68" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E68" s="19" t="s">
         <v>185</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C69" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D69" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="E69" s="19" t="s">
         <v>188</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C70" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E70" s="19" t="s">
         <v>190</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C71" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E71" s="19" t="s">
         <v>192</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C72" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E72" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C73" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" s="19" t="s">
         <v>196</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="E73" s="19" t="s">
-        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/miracuse_kits.xlsx
+++ b/miracuse_kits.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="198">
   <si>
     <t xml:space="preserve">Class</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Exploration, Alchemy, Potion, Substance</t>
   </si>
   <si>
-    <t xml:space="preserve">Adopt an animal-like adaption for a short period of time by drinking a potion. Example of effects could include a cat’s night vision, a bat’s sense of hearing, or a gecko’s skin. Can be used as a substance to attract monsters.</t>
+    <t xml:space="preserve">Adopt an animal-like adaption for a short period of time by drinking a potion. Example of effects could include a cat’s night vision, a bat’s sense of hearing, or a gecko’s skin. Can be used as a substance to attract animals and monsters.</t>
   </si>
   <si>
     <t xml:space="preserve">Elixir</t>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Recovery, Alchemy, Potion</t>
   </si>
   <si>
-    <t xml:space="preserve">Recover from harm and illness by drinking a potion. This can include recovering Physical damage, recovering Mental damage, treating an Injury, or curing various natural afflictions. </t>
+    <t xml:space="preserve">Recover from harm and illness by drinking a potion. This can include recovering Physical damage, recovering Mental damage, treating an Injury, or curing various natural afflictions. Can be used to revitilize most living creatures.</t>
   </si>
   <si>
     <t xml:space="preserve">Faerie Fire</t>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">Combat, Exploration, Alchemy, Substance, Grenade</t>
   </si>
   <si>
-    <t xml:space="preserve">Create dazzling fireworks displays with a highly volatile powder. Capable of producing blinding lights, making smoke screens, emitting deafening noises, and causing wracking coughs when breathed. Can be used as a grenade to produce any two of the effects listed or inflict Physical damage.</t>
+    <t xml:space="preserve">Create dazzling fireworks displays with a highly volatile powder. Capable of producing blinding lights, making smoke screens, emitting deafening noises, and causing painful coughing when breathed. Can be used as a grenade to produce any two of the effects listed or inflict Physical damage.</t>
   </si>
   <si>
     <t xml:space="preserve">Golden Silk</t>
@@ -106,22 +106,22 @@
     <t xml:space="preserve">Exploration, Alchemy, Tool</t>
   </si>
   <si>
-    <t xml:space="preserve">A sigil that allows the user to see and hear around the object it’s applied to for two days. Can be used to create a shikigami, a paper oragami servant capable of flight and relaying messages. The shikigami falls apart after twenty-four hours, or when this Kit is removed. </t>
+    <t xml:space="preserve">A sigil that allows the user to see and hear around the object it’s applied to for two hours. Can be used to create a shikigami, a paper origami servant capable of flight and relaying messages. The shikigami falls apart after twenty-four hours, or when this Kit is removed. </t>
   </si>
   <si>
     <t xml:space="preserve">Rune of Featherweight</t>
   </si>
   <si>
-    <t xml:space="preserve">A sigil that halves the weight of objects for two hours when applied. Can be used to create a bag that’s bigger on the inside than the outside, capable of holding three times its volume without growing heavier. The bag falls apart after twenty-four hours, or when this Kit is removed.</t>
+    <t xml:space="preserve">A sigil that makes objects lighter and more brittle for two hours when applied. Can be used to create a backpack that’s bigger on the inside than the outside, capable of holding three times its volume without growing heavier. The bag falls apart after twenty-four hours, or when this Kit is removed.</t>
   </si>
   <si>
     <t xml:space="preserve">Rune of Quickening</t>
   </si>
   <si>
-    <t xml:space="preserve">A sigil that makes solid objects malleable for a short period of time when applied. Can be used to create a quicksilver familiar, a sentient metal ooze that can reshape itself into tools and weapons on command. The familiar hardens into whatever shape it was holding after two hours.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rune of Strength</t>
+    <t xml:space="preserve">A sigil that makes solid objects malleable and liquid for a short period of time when applied. Can be used to create a quicksilver familiar, a sentient metal ooze that can reshape itself into tools and weapons on command. The familiar hardens into whatever shape it was holding after two hours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rune of Stoneweight</t>
   </si>
   <si>
     <t xml:space="preserve">Combat, Exploration, Alchemy, Tool</t>
@@ -133,16 +133,16 @@
     <t xml:space="preserve">Spirit of Animation</t>
   </si>
   <si>
-    <t xml:space="preserve">Magic, Alchemy, Tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Awaken and imbue with purpose. Used to compel objects to move with a life of their own. You can spend this Kit’s uses to use Knowledge or Perception when using this spirit.</t>
+    <t xml:space="preserve">Spirit, Alchemy, Tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awaken inanimate objects, compel them to move and act on your orders. You can spend this Kit’s Charges to use Knowledge or Perception when using this spirit.</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit of Transmutation</t>
   </si>
   <si>
-    <t xml:space="preserve">Transform and alter. Used to change the properties of a substance, such as shape and weight. The greater the difference from the original, the more difficult the change. You can spend this Kit’s uses to use Knowledge or Perception when using this spirit.</t>
+    <t xml:space="preserve">Change the properties of a substance, such as shape and weight. The greater the difference from the original, the more difficult the change. You can spend this Kit’s Charges to use Knowledge or Perception when using this spirit.</t>
   </si>
   <si>
     <t xml:space="preserve">Sapper</t>
@@ -152,447 +152,6 @@
   </si>
   <si>
     <t xml:space="preserve">Combat, Alchemy, Grenade, Bullet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenade that is especially destructive, dealing two boxes of Physical damage and damaging the surrounding area. When used as a bullet, deals two boxes of Physical damage and pierces through obstacles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electromagnetic Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenade that covers an area with crackling electricity, or magnetizes an area, forcing metal objects in the vicinity to adhere to one another. When used as a bullet, deals two boxes of Physical damage and one of the grenade effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friction Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenade that covers an area with a grease slick, or a quick-drying adhesive. When used as a bullet, deals two boxes of Physical damage and one of the grenade effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thermic Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenade that covers an area with roaring flames, or a layer of ice. When used as a bullet, deals two boxes of Physical damage and one of the grenade effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trenchsteel Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenade that covers an area with metal ball bearings, or a sprawl of barbed wire. When used as a bullet, ricochets in closed spaces, deals two boxes of Physical damage, and can change course mid-flight by detonating a second time .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vapor Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenade that covers an area in tear gas, or a billowing cloud of fog. When used as a bullet, can instantly rust through most metals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Abjuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal and purify. Used to create barriers and dispel magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Divination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration, Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seek and learn. Used to scry for hidden things and reveal new information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social, Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speak and understand. Used to commune with all creatures and compel others to your will.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Necromancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Exploration, Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corrupt and wrong. Used to raise the dead and curse the living.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Restoration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recovery, Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restore and repair. Used to heal wounds and mend broken objects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Summoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petition and conjure. Used to pull otherworldly influences into the mortal realm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shaman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Aether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of electricity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of air.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Earth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of earth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Flame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of flame.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Metal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of metal and magnetism.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of water.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wizard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adhere and restrain. Used to lash things together with gravitational force.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Entropy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diminish and dissolve. Used to unravel targets into their base elements.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel raw magical energy. Used to lob bolts of force at enemies, or otherwise manipulate energy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Locomotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accelerate and slow. Used to manipulate kinetic energy, adding or taking away speed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Reinforcement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fortify and empower. Used to improve existing qualities, such as making someone stronger or faster.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Thermos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat and cool. Used to manipulate thermal energy, adding or taking away temperature.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scoundrel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assassin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assassinate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Stealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your sneak attacks deal an additional box of Physical damage. You can use "Assume a Disguise" to disappear from sight, taking an action to do so if done in combat. You can tell if a target will be incapacitated by your sneak attack before you make it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convincing Fake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration, Social, Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a Skill and raise it to half the level of your highest Skill (rounded down). You can spend a Prep Point to change the chosen Skill, provided you have a few minutes to concentrate. You can use “Assume a Disguise” without spending Prep Points.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infiltration Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social, Stealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nearby allies can use your Cunning when moving in stealth. When you use "Assume a Disguise", you can provide disguises to your allies as well. When you or an ally would otherwise be revealed, you can spend a Prep Point to prevent it, so long as you can narratively describe how you do so.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iocane Powder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Social, Stealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your sneak attacks can put targets to sleep and cause short-term memory loss. You can use "What You Needed" to produce a vial of liquid that makes those who drink it highly suggestible. Those under the effects of the liquid will speak truthfully, but are visibly drugged, and slow to react.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pin Down</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks reduce an enemy’s movement, cutting off their ability to escape or pursue. Using this technique greatly reduces a target’s mobility, in addition to any Physical damage dealt.  You can expend a Prep Point to amplify this technique or combine this with another.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Shadow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic, Stealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obscure and muffle. Used to manipulate darkness and quiet footsteps. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charm Arcana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can use Cunning as though it were Presence, Bravery, or Knowledge for social purposes. You can spend a Prep Point to reroll a social action and take the new result, a maximum of one time per social action. You can use "I Know a Guy" without spending Prep Points.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lore Arcana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Exploration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can use Cunning or Agility to detect and identify magic. You can use "What You Needed" to produce an item that briefly channels or negates magic you've identified. You can use Cunning or Agility when recalling information about history, religion, magic, or politics.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resilience Arcana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health, Exploration, Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional Physical box. You can exchange Mental boxes for Prep Points and vice versa, and can do so as an action while in combat. You do not need to sleep, and cannot be rendered unconscious against your will, but can be incapacitated in other ways.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brighten and bend light. Used to create and manipulate illusory images, as well as to see afar. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Sound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amplify and distort. Used to create and manipulate sound, as well as to listen in from a distance. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">War Arcana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your fighting style resembles dancing, making you particularly mobile. Using this technique allows you to move before and after making an attack. You can spend a Prep Point to take an additional action on your turn, besides another attack. You can expend a Prep Point to combine this technique with another.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herbalism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can use “What You Needed” to produce teas and poultices, capable of recovering Physical or Mental boxes outside of combat. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prepared</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration, Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional two Prep Points. When you use a Prep Point to change Kits, you can change two Kits instead of one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quickdraw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are swift and silent, preventing targets from crying out when struck or otherwise making noise. Using this technique ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. You always go first when turn order is described. You can expend a Prep Point to combine this technique with another, or amplify its effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows for control and limited manifestation of plants. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Exploration, Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can speak with and understand beasts. You can use "I Know a Guy" to recruit a local beast to aid you. The beast can track, fight, and is capable of anything that a creature of its kind might otherwise do. The beast will follow your orders, but will prioritize its own survival. Only one beast can be recruited at a time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twin Strike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks hit two targets instead of one. Using this technique gives your attack an additional target, with both hits landing within moments of one another. You can expend a Prep Point to combine this technique with another, or amplify its effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soldier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fencer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Called Shot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Exploration, Technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are exceptionally precise. Using this technique lowers the difficulty of making targeted attacks, such as disarming an enemy by striking their hand or blinding an enemy by striking their eyes. You have Advantage when making ranged attacks without any distractions. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Social, Technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks taunt and frustrate targets in addition to dealing damage. Using this technique inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when using Bravery to provoke others. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inner Flame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health, Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At any time when you would otherwise spend a Fortune Point, you can spend a Physical box instead. When you recover Physical or Mental boxes, you recover one more than you would otherwise.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riposte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On a successful defense against a melee attack, you inflict a box of Physical damage to the attacker. You recover a Fortune Point when an enemy is incapacitated using this Kit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spellbreak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks interfere with magic. Using this technique allows your attacks to destroy spells and spirits. You have Advantage when defending against magical attacks. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wind Strike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your melee attacks create blades of cutting wind, while your ranged attacks are propelled by gusts. Using this technique greatly extends the range of your attacks. You have Advantage when defending against ranged attacks. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guardian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When an ally would otherwise take damage, you can spend a Fortune Point to negate it, so long as you are able to provide a narrative justification for how you do so. You can use Strength or Bravery to detect danger.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospitaler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Exploration, Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can spend a Fortune Point to revive an incapacitated ally, restoring one box of either of their damage tracks and taking your action to do so if done in combat. You can use Strength or Bravery to perform medical tasks outside of combat, giving you the ability to heal others and treat injuries. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks demand the attention of targets and cloud their perception. Using this technique compels an enemy to focus on you on successful attacks, in addition to any Physical damage dealt. You have Advantage when using Bravery to intimidate others. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Will</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional Mental box. You can convert a Fortune Point into a Mental box or vice versa, and can do so as an action while in combat. You are immune to Mental damage from exhaustion, fear, or similar effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rally</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks encourage and inspire allies on the battlefield. Using this technique can provide Advantage to one nearby ally on their next roll in combat when you make a successful attack, in addition to dealing Physical damage to an enemy. You have Advantage when using Bravery to inspire or rally others outside of combat. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks strike with enough force to knock targets back or topple them over. Using this technique allows your attacks to forcibly reposition enemies, in addition to any Physical damage dealt. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myrmidon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cleave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are especially destructive, hitting enemies and objects adjacent to your target. Using this technique allows your attacks to inflict Physical damage in an area of effect. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambler’s Fallacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration, Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treat a roll of 1 as a -1 instead of a -2. You recover a Fortune Point when you roll a 1 in combat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Strike</t>
   </si>
   <si>
     <r>
@@ -603,7 +162,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Your attacks cause harm even on glancing blows. Using this techique allows your attacks to inflict damage even when your roll would normally have tied with the defender. You can expend a Fortune Point to guarantee a hit, so long as hitting the target is within the realm of possibility. </t>
+      <t xml:space="preserve">Grenade that is especially destructive, dealing two boxes of Physical damage and damaging the surrounding area. When used as a bullet, </t>
     </r>
     <r>
       <rPr>
@@ -612,8 +171,574 @@
         <rFont val="Fira Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+      <t xml:space="preserve">deals an additional box of Physical damage</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and pierces through obstacles.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Electromagnetic Charges</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Grenade that covers an area with crackling electricity, or magnetizes an area, forcing metal objects in the vicinity to adhere to one another. When used as a bullet, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">deals an additional box of Physical damage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and one of the grenade effects.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Friction Charges</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Grenade that covers an area with a grease slick, or a quick-drying adhesive. When used as a bullet, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">deals an additional box of Physical damage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and one of the grenade effects.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermic Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenade that covers an area with roaring flames, or a layer of ice. When used as a bullet, deals an additional box of Physical damage and one of the grenade effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trenchsteel Charges</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Grenade that covers an area with metal ball bearings, or a sprawl of barbed wire. When used as a bullet, ricochets in closed spaces, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">deals an additional box of Physical damage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, and can change course mid-flight by detonating a second time .</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Vapor Charges</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Grenade that covers an area in tear gas, or a billowing cloud of fog. When used as a bullet, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">deals an additional box of Physical damage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and can instantly rust through most metals.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Mage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Abjuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Spirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create barriers, dispel magic, and repel otherworldly influences.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Divination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration, Spirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find people, places, things, and hidden knowledge through divination.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social, Spirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speak all languages, use charm magic, and compel others to your will.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Necromancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration, Spirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raise the dead, curse the living, and meddle with the boundary between life and death.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Restoration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recovery, Spirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heal Physical wounds, restore broken objects, and treat natural afflictions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Summoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration, Social, Spirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call imps, pixies, and other minor magical creatures to serve you. Pull otherworldly influences into the world. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Aether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate electricity, shoot lightning, and stun enemies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate air, create gusts of wind, and fall gently.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate earth, reshape terrain, and mold stone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Flame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate fire, throw flames, and ignite objects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate metal, create magnetic fields, and sharpen blades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate water, freeze liquids, and conjure fog.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wizard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate bonds, adhering things together or loosening them from one another.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Entropy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate decay, accelerating or slowing processes like rotting and rusting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate magic energy, lob bolts of raw power at enemies, and tinker with magical forces present in the world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Locomotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate kinetic energy, add or reduce speed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Gravity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate gravity, add or reduce weight.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Thermos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate thermal energy, add or reduce heat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scoundrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assassin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assassinate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your sneak attacks deal an additional box of Physical damage. You can use "Assume a Disguise" to disappear from sight, taking an action to do so if done in combat. You can tell if a target will be incapacitated by your sneak attack before you make it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convincing Fake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration, Social, Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a Skill and raise it to half the level of your highest Skill (rounded down). You can spend a Prep Point to change the chosen Skill, provided you have a few minutes to concentrate. You can use “Assume a Disguise” without spending Prep Points.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infiltration Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social, Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nearby allies can use your Cunning when moving in stealth. When you use "Assume a Disguise", you can provide disguises to your allies as well. When you or an ally would otherwise be revealed, you can spend a Prep Point to prevent it, so long as you can narratively describe how you do so.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin Down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks reduce an enemy’s movement, cutting off their ability to escape or pursue. Using this technique greatly reduces a target’s mobility, in addition to any Physical damage dealt. You have Advantage when using Agility to sprint, as might be the case when chasing after someone or retreating from danger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Technique, Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks strike at an enemy’s nerves. Using this technique can incapacitate targets without lasting harm or visible injury, in addition to any Physical damage dealt. You have Advantage when sensing the motivations of others, such as detecting lies, by picking up on nervous ticks or other tells.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Shadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit, Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate shadows, obscure appearances, and blind enemies. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charm Arcana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use Cunning as though it were Presence, Bravery, or Knowledge for social purposes. You can spend a Prep Point to reroll a social action and take the new result, a maximum of one time per social action. You can use "I Know a Guy" without spending Prep Points.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lore Arcana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use Cunning or Agility to detect and identify magic. You can use "What You Needed" to produce an item that briefly channels or negates magic you've identified. You can use Cunning or Agility when recalling information about history, religion, magic, or politics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resilience Arcana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health, Exploration, Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional Physical box. You can exchange Mental boxes for Prep Points and vice versa, and can do so as an action while in combat. You do not need to sleep, and cannot be rendered unconscious against your will, but can be incapacitated in other ways.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate light, create ghostly illusions, and see afar. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate sound, shatter eardrums, and eavesdrop from afar. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">War Arcana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your fighting style resembles dancing, making you particularly mobile. Using this technique allows you to move before and after making an attack, escaping from melee range or otherwise covering ground. You have Advantage reacting to traps or similar surprise attacks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herbalism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use “What You Needed” to heal Physical and Mental damage outside of combat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration, Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional two Prep Points. When you use a Prep Point to change Kits, you can change two Kits instead of one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quickdraw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are swift and silent, preventing targets from crying out when struck or otherwise making noise. Using this technique ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. You have Advantage when determining who acts first, including combat turn order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate plants, encourage growth, and influence the environment. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration, Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can speak with and understand beasts. You can use "I Know a Guy" to recruit a local beast to aid you. The beast can track, fight, and is capable of anything that a creature of its kind might otherwise do. The beast will follow your orders, but will prioritize its own survival. Only one beast can be recruited at a time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twin Strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks hit two targets instead of one. Using this technique gives your attack an additional target, with both hits landing within moments of one another. The additional target cannot be the same as the original target.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soldier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fencer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Called Shot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration, Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are exceptionally precise. Using this technique allows you to harm specific targets (like eyes or hands), in addition to any Physical damage dealt. You have Advantage when making ranged attacks without any distractions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Social, Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks taunt and frustrate targets in addition to dealing damage. Using this technique inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when using Bravery to provoke others. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inner Flame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health, Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At any time when you would otherwise spend a Fortune Point, you can spend a Physical box instead. When you recover Physical or Mental boxes, you recover one more than you would otherwise.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riposte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On a successful defense against a melee attack, you inflict a box of Physical damage to the attacker. You recover a Fortune Point when an enemy is incapacitated using this Kit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spellbreak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks interfere with magic. Using this technique allows your attacks to destroy spells and spirits, in addition to any Physical damage dealt. You have Advantage when defending against magical attacks. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind Strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your melee attacks create blades of cutting wind, while your ranged attacks are propelled by gusts. Using this technique greatly extends the range of your attacks. You have Advantage when defending against projectile attacks like arrows and bullets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guardian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When an ally would otherwise take damage, you can spend a Fortune Point to negate it, so long as you are able to provide a narrative justification for how you do so. You can use Strength or Bravery to detect danger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospitaler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration, Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can spend a Fortune Point to revive an incapacitated ally, restoring one box of either of their damage tracks and taking your action to do so if done in combat. You can use Strength or Bravery to perform medical tasks outside of combat, giving you the ability to heal Physical damage and treat Physical injuries. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks demand the attention of targets and cloud their perception. Using this technique compels an enemy to focus on you on successful attacks, in addition to any Physical damage dealt. You have Advantage when using Bravery to intimidate others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Will</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional Mental box. You can convert a Fortune Point into a Mental box or vice versa, and can do so as an action while in combat. You are immune to Mental damage from exhaustion, fear, or similar effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks encourage and inspire allies on the battlefield. Using this technique can provide Advantage to one nearby ally on their next roll in combat when you make a successful attack, in addition to dealing Physical damage to an enemy. You have Advantage when using Bravery to inspire or rally others outside of combat. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks strike with enough force to knock targets back or topple them over. Using this technique allows your attacks to forcibly reposition enemies, in addition to any Physical damage dealt. You have Advantage against any attempt to forcibly move you and against any effect that impedes your movement, including terrain hazards like ice or mud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myrmidon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are especially destructive, hitting enemies and objects adjacent to your target. Using this technique allows your attacks to inflict damage in a small area of effect. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambler’s Fallacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration, Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treat any roll of 1 as a -1 instead of a -2. You recover a Fortune Point when you roll a 1 in combat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Blow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks cause harm even on glancing blows. Using this techique allows your attacks to inflict damage when your roll would normally have tied with the defender, increasing the odds of a successful attack. You have Advantage when performing feats that rely solely on raw muscle, such as lifting heavy objects or bending metal bars.</t>
   </si>
   <si>
     <t xml:space="preserve">Lucky</t>
@@ -625,13 +750,13 @@
     <t xml:space="preserve">Spirit of Chance</t>
   </si>
   <si>
-    <t xml:space="preserve">Manipulate probability and tweak the odds. Used to alter the likelihood of events. You can spend a Fortune Point to use Physique or Bravery instead of Aura when using this spirit.</t>
+    <t xml:space="preserve">Manipulate probability, tweak the odds in your favor, and jinx enemies. You can spend a Fortune Point to use Physique or Bravery instead of Aura when using this spirit.</t>
   </si>
   <si>
     <t xml:space="preserve">Sunder</t>
   </si>
   <si>
-    <t xml:space="preserve">Your attacks are brutally effective, causing great harm and striking through armor. Using this technique allows your attacks to deal an additional box of Physical damage when successful. You have Advantage when using Strength to destroy obstacles. You can expend a Fortune Point to combine this technique with another, or amplify its effects.</t>
+    <t xml:space="preserve">Your attacks are brutally effective, causing great harm and striking through armor. Using this technique allows your attacks to deal an additional box of Physical damage when successful. You have Advantage when using this technique to destroy objects and obstacles. </t>
   </si>
 </sst>
 </file>
@@ -834,7 +959,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -880,6 +1005,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1043,8 +1172,8 @@
   </sheetPr>
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E70" activeCellId="0" sqref="E70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1475,10 +1604,10 @@
         <v>71</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1486,16 +1615,16 @@
         <v>54</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1503,16 +1632,16 @@
         <v>54</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1520,16 +1649,16 @@
         <v>54</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1537,16 +1666,16 @@
         <v>54</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1554,16 +1683,16 @@
         <v>54</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1571,16 +1700,16 @@
         <v>54</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1588,16 +1717,16 @@
         <v>54</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>88</v>
+        <v>66</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1605,16 +1734,16 @@
         <v>54</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1622,16 +1751,16 @@
         <v>54</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1639,16 +1768,16 @@
         <v>54</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1656,16 +1785,16 @@
         <v>54</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1673,628 +1802,628 @@
         <v>54</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" s="13" t="s">
+      <c r="A38" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="B38" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="C38" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="D38" s="15" t="s">
         <v>103</v>
       </c>
+      <c r="E38" s="16" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="13" t="s">
+      <c r="A39" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="14" t="s">
+      <c r="B39" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="D39" s="15" t="s">
         <v>106</v>
       </c>
+      <c r="E39" s="16" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="13" t="s">
+      <c r="A40" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="14" t="s">
+      <c r="B40" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="D40" s="15" t="s">
         <v>109</v>
       </c>
+      <c r="E40" s="16" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="13" t="s">
+      <c r="A41" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="14" t="s">
+      <c r="B41" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="D41" s="15" t="s">
         <v>112</v>
       </c>
+      <c r="E41" s="16" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42" s="13" t="s">
+      <c r="A42" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" s="14" t="s">
+      <c r="B42" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="D42" s="15" t="s">
         <v>115</v>
       </c>
+      <c r="E42" s="16" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="13" t="s">
+      <c r="A43" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" s="14" t="s">
+      <c r="B43" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="D43" s="15" t="s">
         <v>118</v>
       </c>
+      <c r="E43" s="16" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" s="14" t="s">
+      <c r="A44" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="C44" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="D44" s="15" t="s">
         <v>122</v>
       </c>
+      <c r="E44" s="16" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D45" s="14" t="s">
+      <c r="A45" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="D45" s="15" t="s">
         <v>125</v>
       </c>
+      <c r="E45" s="16" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D46" s="14" t="s">
+      <c r="A46" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="D46" s="15" t="s">
         <v>128</v>
       </c>
+      <c r="E46" s="16" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D47" s="14" t="s">
+      <c r="A47" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="15" t="s">
-        <v>130</v>
+      <c r="E47" s="16" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D48" s="14" t="s">
+      <c r="A48" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="15" t="s">
-        <v>132</v>
+      <c r="E48" s="16" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E49" s="15" t="s">
+      <c r="A49" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>134</v>
       </c>
+      <c r="D49" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="14" t="s">
+      <c r="A50" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="C50" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="D50" s="15" t="s">
         <v>138</v>
       </c>
+      <c r="E50" s="16" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D51" s="14" t="s">
+      <c r="A51" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="D51" s="15" t="s">
         <v>141</v>
       </c>
+      <c r="E51" s="16" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E52" s="15" t="s">
+      <c r="A52" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>143</v>
       </c>
+      <c r="D52" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D53" s="14" t="s">
+      <c r="A53" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E53" s="15" t="s">
-        <v>145</v>
+      <c r="E53" s="16" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D54" s="14" t="s">
+      <c r="A54" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="D54" s="15" t="s">
         <v>148</v>
       </c>
+      <c r="E54" s="16" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E55" s="15" t="s">
+      <c r="A55" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" s="15" t="s">
         <v>150</v>
       </c>
+      <c r="D55" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B56" s="17" t="s">
+      <c r="A56" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="C56" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="D56" s="19" t="s">
         <v>155</v>
       </c>
+      <c r="E56" s="20" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B57" s="17" t="s">
+      <c r="A57" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C57" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D57" s="18" t="s">
+      <c r="B57" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="D57" s="19" t="s">
         <v>158</v>
       </c>
+      <c r="E57" s="20" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B58" s="17" t="s">
+      <c r="A58" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C58" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="D58" s="18" t="s">
+      <c r="B58" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="D58" s="19" t="s">
         <v>161</v>
       </c>
+      <c r="E58" s="20" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B59" s="17" t="s">
+      <c r="A59" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C59" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D59" s="18" t="s">
+      <c r="B59" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="D59" s="19" t="s">
         <v>164</v>
       </c>
+      <c r="E59" s="20" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B60" s="17" t="s">
+      <c r="A60" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C60" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E60" s="19" t="s">
+      <c r="B60" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="19" t="s">
         <v>166</v>
       </c>
+      <c r="D60" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B61" s="17" t="s">
+      <c r="A61" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C61" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E61" s="19" t="s">
+      <c r="B61" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="19" t="s">
         <v>168</v>
       </c>
+      <c r="D61" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C62" s="18" t="s">
+      <c r="A62" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="D62" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E62" s="19" t="s">
+      <c r="C62" s="19" t="s">
         <v>171</v>
       </c>
+      <c r="D62" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D63" s="18" t="s">
+      <c r="A63" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="D63" s="19" t="s">
         <v>174</v>
       </c>
+      <c r="E63" s="20" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="E64" s="19" t="s">
+      <c r="A64" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" s="19" t="s">
         <v>176</v>
       </c>
+      <c r="D64" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="E65" s="19" t="s">
+      <c r="A65" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" s="19" t="s">
         <v>178</v>
       </c>
+      <c r="D65" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="E66" s="19" t="s">
+      <c r="A66" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="19" t="s">
         <v>180</v>
       </c>
+      <c r="D66" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E67" s="19" t="s">
+      <c r="A67" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" s="19" t="s">
         <v>182</v>
       </c>
+      <c r="D67" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="C68" s="18" t="s">
+      <c r="A68" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="D68" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E68" s="19" t="s">
+      <c r="C68" s="19" t="s">
         <v>185</v>
       </c>
+      <c r="D68" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="D69" s="18" t="s">
+      <c r="A69" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="D69" s="19" t="s">
         <v>188</v>
       </c>
+      <c r="E69" s="20" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E70" s="19" t="s">
+      <c r="A70" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C70" s="19" t="s">
         <v>190</v>
       </c>
+      <c r="D70" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="E71" s="19" t="s">
+      <c r="A71" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C71" s="19" t="s">
         <v>192</v>
       </c>
+      <c r="D71" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="D72" s="18" t="s">
+      <c r="A72" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D72" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E72" s="19" t="s">
-        <v>194</v>
+      <c r="E72" s="20" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E73" s="19" t="s">
+      <c r="A73" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C73" s="19" t="s">
         <v>196</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/miracuse_kits.xlsx
+++ b/miracuse_kits.xlsx
@@ -547,25 +547,7 @@
     <t xml:space="preserve">Combat, Exploration, Recovery</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">You can use Strength or Bravery to perform medical tasks outside of combat, giving you the ability to heal Physical damage and treat Physical injuries. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">You can spend a Fortune Point to revive an incapacitated ally, restoring one box of either of their damage tracks and taking your action to do so if done in combat. </t>
-    </r>
+    <t xml:space="preserve">You can use Strength or Bravery to perform medical tasks outside of combat, giving you the ability to heal Physical damage and treat Physical injuries. You can spend a Fortune Point to revive an incapacitated ally, restoring one box of either of their damage tracks and taking your action to do so if done in combat. </t>
   </si>
   <si>
     <t xml:space="preserve">Impose</t>
@@ -642,7 +624,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -702,12 +684,6 @@
       <name val="Fira Sans"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Fira Sans"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -834,7 +810,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -880,10 +856,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1047,8 +1019,8 @@
   </sheetPr>
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D58" activeCellId="0" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1498,7 +1470,7 @@
       <c r="D26" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="11" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1690,614 +1662,614 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="15" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="15" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="15" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="15" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="15" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="15" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="15" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="15" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="15" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="15" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="15" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="15" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="15" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="15" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="15" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="15" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="D56" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="E56" s="20" t="s">
+      <c r="E56" s="19" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="E57" s="20" t="s">
+      <c r="E57" s="19" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D58" s="19" t="s">
+      <c r="D58" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E58" s="20" t="s">
+      <c r="E58" s="19" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="E59" s="20" t="s">
+      <c r="E59" s="19" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="E60" s="20" t="s">
+      <c r="E60" s="19" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="E61" s="20" t="s">
+      <c r="E61" s="19" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="E62" s="19" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="E63" s="20" t="s">
+      <c r="E63" s="19" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C64" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="D64" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="E64" s="20" t="s">
+      <c r="E64" s="19" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C65" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="D65" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E65" s="20" t="s">
+      <c r="E65" s="19" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="D66" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="E66" s="20" t="s">
+      <c r="E66" s="19" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C67" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D67" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="E67" s="20" t="s">
+      <c r="E67" s="19" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C68" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="D68" s="19" t="s">
+      <c r="D68" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="E68" s="20" t="s">
+      <c r="E68" s="19" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C69" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="D69" s="19" t="s">
+      <c r="D69" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="E69" s="20" t="s">
+      <c r="E69" s="19" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C70" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D70" s="19" t="s">
+      <c r="D70" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="E70" s="20" t="s">
+      <c r="E70" s="19" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D71" s="19" t="s">
+      <c r="D71" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E71" s="20" t="s">
+      <c r="E71" s="19" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C72" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="D72" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E72" s="20" t="s">
+      <c r="E72" s="19" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="17" t="s">
+      <c r="A73" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C73" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="D73" s="19" t="s">
+      <c r="D73" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="E73" s="20" t="s">
+      <c r="E73" s="19" t="s">
         <v>196</v>
       </c>
     </row>

--- a/miracuse_kits.xlsx
+++ b/miracuse_kits.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="196">
   <si>
     <t xml:space="preserve">Class</t>
   </si>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Recovery, Alchemy, Potion</t>
   </si>
   <si>
-    <t xml:space="preserve">Recover from harm and illness by drinking a potion. Examples of effects recovering Physical damage, recovering Mental damage, treating an Injury, or curing various natural afflictions. Can be used to revitilize most living creatures.</t>
+    <t xml:space="preserve">Recover from harm and illness by drinking a potion. Can be used to recover Physical damage, recover Mental damage, treat an injury, or cure various natural afflictions.</t>
   </si>
   <si>
     <t xml:space="preserve">Faerie Fire</t>
@@ -70,13 +70,16 @@
     <t xml:space="preserve">Combat, Exploration, Alchemy, Substance, Grenade</t>
   </si>
   <si>
-    <t xml:space="preserve">Create dazzling fireworks displays with a highly volatile powder. Capable of producing blinding lights, making smoke screens, emitting deafening noises, and causing painful coughing when breathed. Can be used as a grenade to produce any of the effects listed and inflict Physical damage.</t>
+    <t xml:space="preserve">Create dazzling fireworks displays with a highly volatile powder. Capable of producing blinding lights, making smoke screens, emitting deafening noises, or causing painful coughing when breathed. Can be used as a grenade to produce one of the effects listed and inflict Physical damage.</t>
   </si>
   <si>
     <t xml:space="preserve">Golden Silk</t>
   </si>
   <si>
-    <t xml:space="preserve">Distort perceptions with a potent hallucionegic. Can be used to open or close minds, to make others highly suggestible, and to induce deep slumber. Can be used as a grenade to inflict Mental damage. Can be used as an offering to powerful spirits and supernatural creatures.</t>
+    <t xml:space="preserve">Combat, Exploration, Social, Alchemy, Substance, Grenade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distort perceptions with a potent hallucionegic. Can be used to induce confusion, to put others into a stupor, to provide Advantage against Mental attacks, or to make targets highly suggestible. Can be used as a grenade to produce one of the effects listed or inflict Mental damage. Can be used as an offering to powerful spirits and supernatural creatures.</t>
   </si>
   <si>
     <t xml:space="preserve">Holy Water</t>
@@ -85,16 +88,13 @@
     <t xml:space="preserve">Exploration, Alchemy, Substance, Grenade</t>
   </si>
   <si>
-    <t xml:space="preserve">Neutralize magic by spraying specially treated water. Can be used to negate spells, harm the undead, treat curses, or produce anti-magic effects. Can be used as a grenade. Can be used as a substance to repel monsters and magical creatures.</t>
+    <t xml:space="preserve">Neutralize magical energy with treated water. Can be used to counter spells, disperse spirits, damage magical objects, nullify magical effects, or repel monsters. Can be used as a grenade to produce all of the listed effects.</t>
   </si>
   <si>
     <t xml:space="preserve">Manifold Venom</t>
   </si>
   <si>
-    <t xml:space="preserve">Exploration, Alchemy, Substance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cause harm by applying poisons to weapons and ammunition. Example of effects could include additional Physical damage, additional Mental damage, temporary blindness, or gradual petrification. Can be used as a potent acid to carefully dissolve durable materials like metal.</t>
+    <t xml:space="preserve">Inflict debilitating effects with a collection of dangerous poisons. Can be used to induce paralysis, sap strength, create nausea, or cause blindness. Can be used as a grenade to produce one of the effects listed or inflict Physical damage. Can be applied to weapons to provide one of the effects listed on the next successful attack, in addition to any damage dealt by the attack.</t>
   </si>
   <si>
     <t xml:space="preserve">Enchanter</t>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">Rune of Quickening</t>
   </si>
   <si>
-    <t xml:space="preserve">A sigil that makes solid objects malleable and liquid for a short period of time when applied. Can be used to create a quicksilver familiar, a sentient metal ooze that can reshape itself into tools and weapons on command. The familiar hardens into whatever shape it was holding after two hours.</t>
+    <t xml:space="preserve">A sigil that makes solid objects malleable and liquid for two minutes when applied. Can be used to create a quicksilver familiar, a sentient metal ooze that can reshape itself into tools and weapons on command. The familiar hardens into whatever shape it was holding after two hours.</t>
   </si>
   <si>
     <t xml:space="preserve">Rune of Stoneweight</t>
@@ -172,13 +172,13 @@
     <t xml:space="preserve">Thermic Charges</t>
   </si>
   <si>
-    <t xml:space="preserve">Grenade that covers an area with roaring flames, or a layer of ice. When used as a bullet, deals an additional box of Physical damage and one of the grenade effects.</t>
+    <t xml:space="preserve">Grenade that covers an area with roaring flames, or a sheet of frost. When used as a bullet, deals an additional box of Physical damage and one of the grenade effects.</t>
   </si>
   <si>
     <t xml:space="preserve">Trenchsteel Charges</t>
   </si>
   <si>
-    <t xml:space="preserve">Grenade that covers an area with metal ball bearings, or a sprawl of barbed wire. When used as a bullet, ricochets in closed spaces, deals an additional box of Physical damage, and can change course mid-flight by detonating a second time .</t>
+    <t xml:space="preserve">Grenade that covers an area with metal ball bearings, or a sprawl of barbed wire. When used as a bullet, ricochets in closed spaces, deals an additional box of Physical damage, and can change course mid-flight by detonating a second time.</t>
   </si>
   <si>
     <t xml:space="preserve">Vapor Charges</t>
@@ -250,37 +250,37 @@
     <t xml:space="preserve">Spirit of Aether</t>
   </si>
   <si>
-    <t xml:space="preserve">Manipulate electricity, create lightning, and stun enemies.</t>
+    <t xml:space="preserve">Manipulate electricity, create lightning, and stun enemies. Represents emptiness and divinity.</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit of Air</t>
   </si>
   <si>
-    <t xml:space="preserve">Manipulate air, create gusts of wind, and fall gently.</t>
+    <t xml:space="preserve">Manipulate air, create gusts of wind, and fall gently. Represents movement and freedom.</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit of Earth</t>
   </si>
   <si>
-    <t xml:space="preserve">Manipulate earth, reshape terrain, and mold stone.</t>
+    <t xml:space="preserve">Manipulate earth, reshape terrain, and mold stone. Represents solidity and strength.</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit of Flame</t>
   </si>
   <si>
-    <t xml:space="preserve">Manipulate fire, conjure flames, and blast enemies.</t>
+    <t xml:space="preserve">Manipulate fire, conjure flames, and blast enemies. Represents cleansing and destruction.</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit of Metal</t>
   </si>
   <si>
-    <t xml:space="preserve">Manipulate metal, magnetize metallic objects, and sharpen metal.</t>
+    <t xml:space="preserve">Manipulate metal, magnetize metallic objects, and sharpen metal. Represents clarity and reason.</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit of Water</t>
   </si>
   <si>
-    <t xml:space="preserve">Manipulate water, conjure fog, and freeze liquids.</t>
+    <t xml:space="preserve">Manipulate water, conjure fog, and freeze liquids. Represents tranquility and adaptability.</t>
   </si>
   <si>
     <t xml:space="preserve">Wizard</t>
@@ -334,13 +334,13 @@
     <t xml:space="preserve">Combat, Stealth</t>
   </si>
   <si>
-    <t xml:space="preserve">Your sneak attacks deal an additional box of Physical damage. You can use "Assume a Disguise" to disappear from sight, taking an action to do so if done in combat. You can tell if a target will be incapacitated by your sneak attack before you strike.</t>
+    <t xml:space="preserve">Your sneak attacks deal an additional box of Physical damage. You can use Assume a Disguise to disappear from sight, taking an action to do so if done in combat. You can tell if a target will be incapacitated by your sneak attack before you strike.</t>
   </si>
   <si>
     <t xml:space="preserve">Convincing Fake</t>
   </si>
   <si>
-    <t xml:space="preserve">Exploration, Social, Health</t>
+    <t xml:space="preserve">Exploration, Health</t>
   </si>
   <si>
     <t xml:space="preserve">Choose a Skill and raise it to half the level of your highest Skill (rounded down). You can spend a Prep Point to change the chosen Skill, provided you have a few minutes to concentrate. </t>
@@ -352,7 +352,7 @@
     <t xml:space="preserve">Social, Stealth</t>
   </si>
   <si>
-    <t xml:space="preserve">Nearby allies can use your Cunning when moving in stealth. When you use "Assume a Disguise", you can provide disguises to your allies as well. When you or an ally would otherwise be revealed, you can spend a Prep Point to prevent it, so long as you can narratively describe how you do so.</t>
+    <t xml:space="preserve">Nearby allies can use your Cunning when moving in stealth. When you use Assume a Disguise, you can provide disguises to your allies as well. When you or an ally would otherwise be revealed, you can spend a Prep Point to prevent it, so long as you can narratively describe how you do so.</t>
   </si>
   <si>
     <t xml:space="preserve">Pin Down</t>
@@ -391,151 +391,166 @@
     <t xml:space="preserve">Social</t>
   </si>
   <si>
-    <t xml:space="preserve">You can use Cunning as though it were Presence, Bravery, or Knowledge for social purposes. You can spend a Prep Point to reroll a social action and take the new result, a maximum of one time per social action. You can use "I Know a Guy" without spending Prep Points.</t>
+    <t xml:space="preserve">You can use Cunning as though it were Presence, Bravery, or Knowledge for social purposes. You can spend a Prep Point to reroll a social action and take the higher result, a maximum of one time per social action. You can use I Know a Guy without spending Prep Points.</t>
   </si>
   <si>
     <t xml:space="preserve">Lore Arcana</t>
   </si>
   <si>
+    <t xml:space="preserve">Exploration</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">You have a perfect memory while this Kit is equipped, capable of recalling minute details or committing a book to memory in minutes. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">You can use What You Needed to recall information in place of a Knowledge roll. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Resilience Arcana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health, Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional Physical box. You can exchange Mental boxes for Prep Points and vice versa, and can do so as an action while in combat. You do not need to sleep, and cannot be rendered unconscious against your will, but can be incapacitated in other ways.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate light, create ghostly illusions, and see afar. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate sound, shatter eardrums, and eavesdrop from afar. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">War Arcana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your fighting style resembles dancing, making you particularly mobile. Using this technique allows you to move before and after making an attack, escaping from melee range or otherwise covering ground. You have Advantage when reacting to traps or similar surprise attacks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herbalism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use What You Needed to heal Physical and Mental damage outside of combat. You are immune to all poisons, diseases, and similar effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional two Prep Points. When you use a Prep Point to change Kits, you can change two Kits instead of one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quickdraw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are swift and silent, preventing targets from crying out when struck. Using this technique ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. You have Advantage when determining who acts first, including combat turn order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate plants, encourage growth, and influence the environment. Represents growth and vitality. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration, Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can speak with and understand beasts. You can use I Know a Guy to recruit a local beast to aid you. The beast can track, fight, and is capable of anything that a creature of its kind might otherwise do. The beast will follow your orders, but will prioritize its own survival. Only one beast can be recruited at a time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twin Strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks hit two targets instead of one. Using this technique gives your attack an additional target, with both hits landing within moments of one another. The additional target cannot be the same as the original target.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soldier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fencer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Called Shot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration, Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are exceptionally precise. Using this technique allows you to harm specific targets (like eyes or hands), in addition to any Physical damage dealt. You have Advantage when making ranged attacks without any distractions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Social, Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks unnerve and frustrate targets in addition to dealing damage. Using this technique inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when using Bravery to provoke others. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inner Flame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At any time when you would otherwise spend a Fortune Point, you can spend a Physical box instead. When you recover Physical or Mental boxes, you recover one more than you would otherwise.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riposte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On a successful defense against a melee attack, you inflict a box of Physical damage to the attacker. You recover a Fortune Point when an enemy is incapacitated in this fashion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spellbreak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks interfere with magic. Using this technique allows your attacks to harm spells and spirits, in addition to any Physical damage dealt. You have Advantage when defending against magical attacks. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind Strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your melee attacks create blades of cutting wind, while your ranged attacks are propelled by gusts. Using this technique greatly extends the range of your attacks. You have Advantage when defending against projectile attacks like arrows and bullets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guardian</t>
+  </si>
+  <si>
     <t xml:space="preserve">Combat, Exploration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can use Cunning or Agility to detect and identify magic. You can use "What You Needed" to produce an item that briefly channels or negates magic you've identified. You can use Cunning or Agility when recalling information about history, religion, magic, or politics.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resilience Arcana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health, Exploration, Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional Physical box. You can exchange Mental boxes for Prep Points and vice versa, and can do so as an action while in combat. You do not need to sleep, and cannot be rendered unconscious against your will, but can be incapacitated in other ways.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate light, create ghostly illusions, and see afar. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Sound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate sound, shatter eardrums, and eavesdrop from afar. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">War Arcana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your fighting style resembles dancing, making you particularly mobile. Using this technique allows you to move before and after making an attack, escaping from melee range or otherwise covering ground. You have Advantage when reacting to traps or similar surprise attacks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herbalism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can use “What You Needed” to heal Physical and Mental damage outside of combat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prepared</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration, Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional two Prep Points. When you use a Prep Point to change Kits, you can change two Kits instead of one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quickdraw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are swift and silent, preventing targets from crying out when struck. Using this technique ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. You have Advantage when determining who acts first, including combat turn order.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate plants, encourage growth, and influence the environment. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Exploration, Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can speak with and understand beasts. You can use "I Know a Guy" to recruit a local beast to aid you. The beast can track, fight, and is capable of anything that a creature of its kind might otherwise do. The beast will follow your orders, but will prioritize its own survival. Only one beast can be recruited at a time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twin Strike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks hit two targets instead of one. Using this technique gives your attack an additional target, with both hits landing within moments of one another. The additional target cannot be the same as the original target.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soldier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fencer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Called Shot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Exploration, Technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are exceptionally precise. Using this technique allows you to harm specific targets (like eyes or hands), in addition to any Physical damage dealt. You have Advantage when making ranged attacks without any distractions. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Social, Technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks unnerve and frustrate targets in addition to dealing damage. Using this technique inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when using Bravery to provoke others. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inner Flame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health, Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At any time when you would otherwise spend a Fortune Point, you can spend a Physical box instead. When you recover Physical or Mental boxes, you recover one more than you would otherwise.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riposte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On a successful defense against a melee attack, you inflict a box of Physical damage to the attacker. You recover a Fortune Point when an enemy is incapacitated using this Kit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spellbreak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks interfere with magic. Using this technique allows your attacks to harm spells and spirits, in addition to any Physical damage dealt. You have Advantage when defending against magical attacks. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wind Strike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your melee attacks create blades of cutting wind, while your ranged attacks are propelled by gusts. Using this technique greatly extends the range of your attacks. You have Advantage when defending against projectile attacks like arrows and bullets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guardian</t>
   </si>
   <si>
     <t xml:space="preserve">When an ally would otherwise take damage, you can spend a Fortune Point to negate it, so long as you are able to provide a narrative justification for how you do so. You can use Strength or Bravery to detect danger.</t>
@@ -624,7 +639,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -684,6 +699,12 @@
       <name val="Fira Sans"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Fira Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1019,8 +1040,8 @@
   </sheetPr>
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D58" activeCellId="0" sqref="D58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1111,10 +1132,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1125,13 +1146,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1142,10 +1163,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1893,10 +1914,10 @@
         <v>139</v>
       </c>
       <c r="D51" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" s="15" t="s">
         <v>140</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1907,13 +1928,13 @@
         <v>135</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>114</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1924,13 +1945,13 @@
         <v>135</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>57</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1941,13 +1962,13 @@
         <v>135</v>
       </c>
       <c r="C54" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="E54" s="15" t="s">
         <v>147</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1958,319 +1979,319 @@
         <v>135</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>111</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B56" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="C56" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="D56" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="E56" s="19" t="s">
         <v>154</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="B57" s="17" t="s">
-        <v>152</v>
-      </c>
       <c r="C57" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="E57" s="19" t="s">
         <v>157</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B58" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="B58" s="17" t="s">
-        <v>152</v>
-      </c>
       <c r="C58" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" s="19" t="s">
         <v>159</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B59" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="B59" s="17" t="s">
-        <v>152</v>
-      </c>
       <c r="C59" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E59" s="19" t="s">
         <v>162</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="B60" s="17" t="s">
-        <v>152</v>
-      </c>
       <c r="C60" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="B61" s="17" t="s">
-        <v>152</v>
-      </c>
       <c r="C61" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B62" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D62" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="E62" s="19" t="s">
         <v>170</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C63" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="E63" s="19" t="s">
         <v>173</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C64" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E64" s="19" t="s">
         <v>175</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="E64" s="19" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C65" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E65" s="19" t="s">
         <v>177</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C66" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E66" s="19" t="s">
         <v>179</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>111</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B68" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" s="18" t="s">
         <v>183</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>184</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>111</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C69" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="E69" s="19" t="s">
         <v>187</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>111</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C71" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E71" s="19" t="s">
         <v>191</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D72" s="18" t="s">
         <v>60</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C73" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E73" s="19" t="s">
         <v>195</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E73" s="19" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/miracuse_kits.xlsx
+++ b/miracuse_kits.xlsx
@@ -295,7 +295,7 @@
     <t xml:space="preserve">Spirit of Force</t>
   </si>
   <si>
-    <t xml:space="preserve">Manipulate raw magical energy, lobbing bolts of force at enemies and tampering with other people’s spells.</t>
+    <t xml:space="preserve">Manipulate magical energy, lob bolts of force at enemies, and create forcefields.</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit of Gravity</t>
@@ -400,25 +400,7 @@
     <t xml:space="preserve">Exploration</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">You have a perfect memory while this Kit is equipped, capable of recalling minute details or committing a book to memory in minutes. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">You can use What You Needed to recall information in place of a Knowledge roll. </t>
-    </r>
+    <t xml:space="preserve">You have a perfect memory while this Kit is equipped, capable of recalling minute details or committing a book to memory in minutes. You can use What You Needed to recall information in place of a Knowledge roll. </t>
   </si>
   <si>
     <t xml:space="preserve">Resilience Arcana</t>
@@ -639,7 +621,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -699,12 +681,6 @@
       <name val="Fira Sans"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Fira Sans"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1040,8 +1016,8 @@
   </sheetPr>
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/miracuse_kits.xlsx
+++ b/miracuse_kits.xlsx
@@ -8,10 +8,12 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1_2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$E$73</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$E$73</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1_2!$A$1:$E$73</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="273">
   <si>
     <t xml:space="preserve">Class</t>
   </si>
@@ -43,157 +45,622 @@
     <t xml:space="preserve">Alchemist</t>
   </si>
   <si>
+    <t xml:space="preserve">Enchanter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bag of Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a bag that’s bigger on the inside than the outside, capable of reducing the weight of objects placed within. You can expend a Charge Point to place a particularly large or heavy object within. The object should generally be less than 300 lbs. and less than five times the bag’s size.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a golem made from clay, capable of fighting and lifting heavy objects. The golem has a Strength equal to half your Knowledge rounded down. You can expend a Charge Point to create an additional golem. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional two Charge Points. When you Produce a Potion, the potion restores an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quicksilver Familiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alchemy, Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a familiar made from liquid metal, capable of shaping itself into weapons, tools, and objects. You can expend a Charge Point to deflect an attack by having the familiar change into a shield or similar object.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shikigami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant made from enchanted paper, capable of flying, spying, and carrying messages. The shikigami has a Cunning equal to half your Knowledge rounded down. You can expend a Charge Point to create an additional servant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Animation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awaken inanimate objects, compel them to move and act on your orders. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Called Shot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are exceptionally precise. Using this technique allows you to harm specific targets (like eyes or hands), in addition to any Physical damage dealt. You have Advantage when making ranged attacks without any distractions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electromagnetic Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition are electrically charged, shocking or magnetizing targets in addition to any Physical damage dealt. When used with Produce a Grenade inflicts Physical damage and one other effect in a wide area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friction Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition involve capsules of liquid, producing quick-drying adhesive or slippery grease in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermic Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition have thermal properties, producing flames or frost on targets in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trenchsteel Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition are physically loaded, exploding into a mass of ball bearings or barbed wire in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vapor Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition are chemically loaded, instantly rusting through metal or producing small clouds of tear gas in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmuter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separate objects. Can be used to physically sever two objects from one another, or to distill an object into its base elements. The more complex the intended result is, the more difficult the change. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Self</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alchemy, Resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expend a Mental box to recover a Physical box or vice versa. Can only be applied to yourself. When done in combat, requires an action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reshape an object, altering its form by expanding or contracting its mass. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strengthen an object, making it harder and more durable. Or weaken an object, making it flimsy and more brittle. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Substance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert one material into another. The greater the difference from the original, the more difficult the change. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Synthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combine objects. Can be used to physically weld two objects to one another, or to mix them into one another as a means of creating a new object. The more complex the intended result is, the more difficult the change. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Abjuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit, Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create barriers, dispel magic, and repel otherworldly influences. You can expend a Mana Point to deflect an attack aimed at you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Divination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find people, places, things, and hidden knowledge through divination.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communicate with all creatures, use charm magic, and compel others to your will.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Necromancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raise the dead, curse the living, and meddle with the boundary between life and death.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Restoration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heal Physical wounds, restore broken objects, and treat natural afflictions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Summoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pull otherworldly influences into the world. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Aether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate electricity, create lightning, and stun enemies. Represents emptiness and void.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate air, create gusts of wind, and fall gently. Represents movement and freedom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate earth, reshape terrain, and mold stone. Represents solidity and strength.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Flame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate fire, conjure flames, and blast enemies. Represents cleansing and destruction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate metal, magnetize metallic objects, and sharpen or dull blades. Represents clarity and reason.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate water, conjure fog, and freeze liquids. Represents tranquility and adaptability.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wizard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manafont</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional two Mana Points. When you Sacrifice a Mental health box, you gain two Mana Points instead of one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Entropy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate decay, accelerating or decelerating processes like rotting and rusting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Force</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Perform limited telekinesis, levitating objects and lobbing them through the air. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">You can expend a Mana Point to deflect an attack aimed at you.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Gravity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate gravity, add or reduce weight.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Locomotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate kinetic energy, add or reduce speed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Thermos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate thermal energy, add or reduce heat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scoundrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assassin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A potent hallucinogenic. Can be used to induce confusion, to put a target into a stupor, to render someone highly suggestable, or to inflict Mental damage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manifold Venom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A collection of dangerous poisons. Can be applied to the user’s weapons to induce paralysis, sap strength, create nausea, cause blindness, or inflict additional Physical damage. Requires an action if applied in combat, unless the Kit is amplified.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin Down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks reduce an enemy’s movement, cutting off their ability to escape or pursue. Using this technique greatly reduces a target’s mobility, in addition to any Physical damage dealt. You have Advantage when using Agility to sprint, as might be the case when chasing after someone or retreating from danger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks strike at an enemy’s nerves. Using this technique can incapacitate targets without lasting harm or visible injury, in addition to any Physical damage dealt. You have Advantage when sensing the motivations of others, such as detecting lies, by picking up on nervous ticks or other tells.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Shadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate shadows, obscure appearances, and blind enemies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uncanny Dodge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can expend a Prep Point to avoid harm from an attack or hazard. You have Advantage against traps and area of effect attacks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faerie Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A volatile powder used in fireworks. Can create plumes of smoke, bright lights, flames, loud noises, or induce violent coughing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holy Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A specially treated water that negates magic. Can be used to counter spells, disperse spirits, damage magical objects, or repel monsters. You can expend a Prep Point to negate hostile magic as a reaction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resilience Arcana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional Physical box. You do not need to sleep, and cannot be rendered unconscious against your will, but can be incapacitated in other ways.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate light, create ghostly illusions, and see afar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate sound, shatter eardrums, and eavesdrop from afar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">War Arcana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your fighting style resembles dancing, making you particularly mobile. Using this technique allows you to take a second action after making an attack, so long as the second action is not an attack. Examples might include moving out of range, using an item, or using magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast Balm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mixture that bewitches animals. You can communicate with and befriend beasts. You can use I Know a Guy to recruit a local beast to aid you. The beast can track, fight, and is capable of anything that a creature of its kind might otherwise do. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast’s Blood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mixture that heightens senses. Can provide a bat’s sense of hearing, a hound’s sense of smell, or similar effects. When amplified, can provide more drastic animal adaptations, like fireproof scales or a fish’s gills. Can also be used to attract beasts and monsters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional two Prep Points.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quickdraw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are swift and silent, preventing targets from crying out when struck. Using this technique ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. You have Advantage when determining who acts first, including combat turn order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate plants, encourage growth, and influence the environment. Represents growth and vitality. Can be used to accelerate the process of natural healing outside of combat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twin Strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks hit two targets instead of one. Using this technique gives your attack an additional target, with both hits landing within moments of one another. The additional target cannot be the same as the original target.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soldier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fencer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aura Strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your melee attacks create blades of cutting wind, while your ranged attacks are propelled by gusts. Using this technique greatly extends the range of your attacks. You have Advantage when defending against projectile attacks like arrows and bullets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your melee attacks bend the shape of your weapon in unpredictable ways, while your ranged attacks can change trajectory in mid-flight. Using this technique allows your attacks to circumvent cover and obstacles. When you tie with a defender while attacking, you deal damage regardless.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flourish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are complex, dazzling, and distracting to enemies. Using this technique can either give Disadvantage to the target’s next action, or give Advantage to the next attack made on the target. You have Advantage when using Bravery to inspire or rally others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks unnerve and frustrate targets in addition to dealing damage. Using this technique inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when using Bravery to provoke others. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inner Flame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At any time when you would otherwise spend a Fortune Point, you can spend a Physical box instead. When you recover Physical or Mental boxes, you recover one more than you would otherwise.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riposte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On a successful defense against a melee attack, you inflict a box of Physical damage to the attacker. You recover a Fortune Point when an enemy is incapacitated in this fashion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guardian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When a nearby ally would otherwise take damage, you can take damage in their place, so long as you are able to provide a narrative justification for how you do so. You recover a Fortune Point when using this Kit. You cannot attempt to block, dodge, or otherwise reduce damage taken using this Kit. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospitaler Salts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alchemy, Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revive an incapacitated ally and allow them to briefly ignore the effects of their injuries. Revived allies clear one box of damage, Physical or Mental, depending on which is necessary. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks demand the attention of targets and cloud their perception. Using this technique compels an enemy to focus on you after a successful attack, in addition to any Physical damage dealt. You have Advantage when using Bravery to intimidate others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Will</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional Mental box. You are immune to Mental damage from exhaustion, fear, or similar psychological effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks strike with enough force to knock targets around or launch them into the air. Using this technique allows your attacks to forcibly reposition enemies, in addition to any Physical damage dealt. You have Advantage against any attempt to forcibly move you, and against any effect that impedes your movement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spellbreak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks interfere with magic. Using this technique allows your attacks to destroy spells and spirits, in addition to any Physical damage dealt. You have Advantage when defending against magical attacks. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myrmidon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blitz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are more likely to cause harm. Using this technique adds +1 to the roll result of your attacks, significantly improving the chance that they’ll inflict damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are especially destructive, hitting enemies and objects adjacent to your target. Using this technique allows your attacks to inflict damage in a small area of effect. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danger Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enemies that attempt to leave your melee range take one box of Physical damage. You recover a Fortune Point when an enemy is incapacitated in this fashion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional two Fortune Points. When you use a Fortune Point to reroll, take the better result of the two rolls.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Chance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate probability, tweak the odds in your favor, and jinx enemies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are brutally effective, causing great harm and breaking through defences. Using this technique allows your attacks to cut or pierce durable materials like stone and metal. Successful attacks also deal an additional box of Physical damage. You have Advantage when using this technique to destroy objects and obstacles. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Chemist</t>
   </si>
   <si>
-    <t xml:space="preserve">Beast’s Blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration, Alchemy, Potion, Substance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adopt an animal-like adaption for a short period of time by drinking a potion. Examples of effects could include a cat’s night vision, a bat’s sense of hearing, or a gecko’s skin. Can be used as a substance to attract animals and monsters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elixir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recovery, Alchemy, Potion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recover from harm and illness by drinking a potion. Can be used to recover Physical damage, recover Mental damage, treat an injury, or cure various natural afflictions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faerie Fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Exploration, Alchemy, Substance, Grenade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create dazzling fireworks displays with a highly volatile powder. Capable of producing blinding lights, making smoke screens, emitting deafening noises, or causing painful coughing when breathed. Can be used as a grenade to produce one of the effects listed and inflict Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden Silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Exploration, Social, Alchemy, Substance, Grenade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distort perceptions with a potent hallucionegic. Can be used to induce confusion, to put others into a stupor, to provide Advantage against Mental attacks, or to make targets highly suggestible. Can be used as a grenade to produce one of the effects listed or inflict Mental damage. Can be used as an offering to powerful spirits and supernatural creatures.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holy Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration, Alchemy, Substance, Grenade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neutralize magical energy with treated water. Can be used to counter spells, disperse spirits, damage magical objects, nullify magical effects, or repel monsters. Can be used as a grenade to produce all of the listed effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manifold Venom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflict debilitating effects with a collection of dangerous poisons. Can be used to induce paralysis, sap strength, create nausea, or cause blindness. Can be used as a grenade to produce one of the effects listed or inflict Physical damage. Can be applied to weapons to provide one of the effects listed on the next successful attack, in addition to any damage dealt by the attack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enchanter</t>
+    <t xml:space="preserve">Exploration, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mixture that heightens senses. Can provide a bat’s sense of hearing, a hound’s sense of smell, or similar effects. When amplified, can provide more drastic animal adaptations, like fireproof scales or a fish’s gills. Can also be used to attract animals and monsters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A volatile powder used in fireworks. Can create plumes of smoke, bright lights, flames, loud noises, or induce violent coughing. When used with Produce a Grenade inflicts Physical damage and one other effect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration, Social, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A potent hallucinogenic. Can be used to induce confusion, to put a target into a stupor, to render someone highly suggestable, or to inflict Mental damage. When used with Produce a Grenade inflicts Mental damage and one other effect. Can also be used as an offering to powerful spirits and supernatural creatures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A specially treated water that negates magic. Can be used to counter spells, disperse spirits, damage magical objects, or repel monsters. When used with Produce a Grenade produces all such effects at once. Can also be used to destroy the undead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A collection of dangerous poisons. Can be applied to the user’s weapons to induce paralysis, sap strength, create nausea, cause blindness, or inflict additional Physical damage. When used with Produce a Grenade inflicts Physical damage and one other effect. Can also be used to carefully burn through durable materials as a potent acid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional two Charge Points. When you use a Charge Point to Produce a Potion, you produce two instead of one.</t>
   </si>
   <si>
     <t xml:space="preserve">Rune of Awareness</t>
   </si>
   <si>
-    <t xml:space="preserve">Exploration, Alchemy, Tool</t>
-  </si>
-  <si>
     <t xml:space="preserve">A sigil that allows the user to see and hear around the object it’s applied to for two hours. Can be used to create a shikigami, a paper origami servant capable of flight and relaying messages. The shikigami falls apart after twenty-four hours, or when this Kit is removed. </t>
   </si>
   <si>
     <t xml:space="preserve">Rune of Featherweight</t>
   </si>
   <si>
-    <t xml:space="preserve">A sigil that makes objects lighter and more brittle for two hours when applied. Can be used to create a backpack that’s bigger on the inside than the outside, capable of holding three times its volume without growing heavier. The bag falls apart after twenty-four hours, or when this Kit is removed.</t>
+    <t xml:space="preserve">A sigil that makes objects lighter and more brittle for a short time. When amplified, can be used to create a backpack that’s bigger on the inside than the outside, capable of holding three times its volume without growing heavier. The bag falls apart after twenty-four hours, or when this Kit is removed.</t>
   </si>
   <si>
     <t xml:space="preserve">Rune of Quickening</t>
   </si>
   <si>
-    <t xml:space="preserve">A sigil that makes solid objects malleable and liquid for two minutes when applied. Can be used to create a quicksilver familiar, a sentient metal ooze that can reshape itself into tools and weapons on command. The familiar hardens into whatever shape it was holding after two hours.</t>
+    <t xml:space="preserve">A sigil that makes solid objects malleable and liquid for a short time. When amplified, can be used to create a quicksilver familiar, a sentient metal ooze that can reshape itself into tools and weapons on command. The familiar hardens into whatever shape it was holding after twenty-four hours, when this Kit is removed, or at the user’s discretion.</t>
   </si>
   <si>
     <t xml:space="preserve">Rune of Stoneweight</t>
   </si>
   <si>
-    <t xml:space="preserve">Combat, Exploration, Alchemy, Tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sigil that makes objects stronger and heavier for two hours when applied. Can be used to create a golem from stone or dirt, which will follow your orders and fight on your behalf for two hours.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Animation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit, Alchemy, Tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Awaken inanimate objects, compel them to move and act on your orders. You can spend this Kit’s Charges to use Knowledge or Perception when using this spirit.</t>
+    <t xml:space="preserve">A sigil that makes objects stronger and heavier for a short time. When amplified, can be used to create a golem from stone or dirt, which will follow your orders and fight on your behalf for twenty-four hours, or when this Kit is removed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awaken inanimate objects, compel them to move and act on your orders. You can spend a Charge Point to use Knowledge or Perception when using this spirit.</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit of Transmutation</t>
   </si>
   <si>
-    <t xml:space="preserve">Change the properties of a substance, such as shape and weight. The greater the difference from the original, the more difficult the change. You can spend this Kit’s Charges to use Knowledge or Perception when using this spirit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sapper</t>
+    <t xml:space="preserve">Change the properties of a substance, such as shape and weight. The greater the difference from the original, the more difficult the change. You can spend a Charge Point to use Knowledge or Perception when using this spirit.</t>
   </si>
   <si>
     <t xml:space="preserve">Concussive Charges</t>
   </si>
   <si>
-    <t xml:space="preserve">Combat, Alchemy, Grenade, Bullet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenade that is especially destructive, dealing two boxes of Physical damage and damaging the surrounding area. When used as a bullet, deals an additional box of Physical damage and pierces through obstacles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electromagnetic Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenade that covers an area with crackling electricity, or magnetizes an area, forcing metal objects in the vicinity to adhere to one another. When used as a bullet, deals an additional box of Physical damage and one of the grenade effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friction Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenade that covers an area with a grease slick, or a quick-drying adhesive. When used as a bullet, deals an additional box of Physical damage and one of the grenade effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thermic Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenade that covers an area with roaring flames, or a sheet of frost. When used as a bullet, deals an additional box of Physical damage and one of the grenade effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trenchsteel Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenade that covers an area with metal ball bearings, or a sprawl of barbed wire. When used as a bullet, ricochets in closed spaces, deals an additional box of Physical damage, and can change course mid-flight by detonating a second time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vapor Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenade that covers an area in tear gas, or a billowing cloud of fog. When used as a bullet, deals an additional box of Physical damage and can instantly rust through most metals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Abjuration</t>
+    <t xml:space="preserve">Combat, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition have unusual materials, ricocheting in closed spaces or detonating while in the air to change trajectory. Deals two points of Physical damage to everything in range when used with Produce a Grenade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition are electrically charged, shocking or magnetizing targets in addition to any Physical damage dealt. When used with Produce a Grenade inflicts Physical damage and one other effect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition have capsules of liquid, producing quick-drying adhesive or slippery grease in addition to any Physical damage dealt. When used with Produce a Grenade inflicts Physical damage and one other effect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition have thermal properties, producing flames or ice on targets in addition to any Physical damage dealt. When used with Produce a Grenade inflicts Physical damage and one other effect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition are physically loaded, exploding into a mass of ball bearings or barbed wire in addition to any Physical damage dealt. When used with Produce a Grenade inflicts Physical damage and one other effect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition are chemically loaded, instantly rusting through metal or producing small clouds of tear gas in addition to any Physical damage dealt. When used with Produce a Grenade inflicts Physical damage and one other effect.</t>
   </si>
   <si>
     <t xml:space="preserve">Combat, Exploration, Spirit</t>
@@ -202,132 +669,39 @@
     <t xml:space="preserve">Create barriers, dispel magic, and repel otherworldly influences.</t>
   </si>
   <si>
-    <t xml:space="preserve">Spirit of Divination</t>
-  </si>
-  <si>
     <t xml:space="preserve">Exploration, Spirit</t>
   </si>
   <si>
-    <t xml:space="preserve">Find people, places, things, and hidden knowledge through divination.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Language</t>
-  </si>
-  <si>
     <t xml:space="preserve">Social, Spirit</t>
   </si>
   <si>
-    <t xml:space="preserve">Communicate with all creatures, use charm magic, and compel others to your will.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Necromancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raise the dead, curse the living, and meddle with the boundary between life and death.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Restoration</t>
-  </si>
-  <si>
     <t xml:space="preserve">Recovery, Spirit</t>
   </si>
   <si>
-    <t xml:space="preserve">Heal Physical wounds, restore broken objects, and treat natural afflictions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Summoning</t>
-  </si>
-  <si>
     <t xml:space="preserve">Exploration, Social, Spirit</t>
   </si>
   <si>
     <t xml:space="preserve">Call imps, pixies, and other minor magical creatures to serve you. Pull otherworldly influences into the world. </t>
   </si>
   <si>
-    <t xml:space="preserve">Shaman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Aether</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manipulate electricity, create lightning, and stun enemies. Represents emptiness and divinity.</t>
   </si>
   <si>
-    <t xml:space="preserve">Spirit of Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate air, create gusts of wind, and fall gently. Represents movement and freedom.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Earth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate earth, reshape terrain, and mold stone. Represents solidity and strength.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Flame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate fire, conjure flames, and blast enemies. Represents cleansing and destruction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Metal</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manipulate metal, magnetize metallic objects, and sharpen metal. Represents clarity and reason.</t>
   </si>
   <si>
-    <t xml:space="preserve">Spirit of Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate water, conjure fog, and freeze liquids. Represents tranquility and adaptability.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wizard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Entropy</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manipulate decay, accelerating processes like rotting and rusting.</t>
   </si>
   <si>
-    <t xml:space="preserve">Spirit of Force</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manipulate magical energy, lob bolts of force at enemies, and create forcefields.</t>
   </si>
   <si>
-    <t xml:space="preserve">Spirit of Gravity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate gravity, add or reduce weight.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Locomotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate kinetic energy, add or reduce speed.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Spirit of Siphoning</t>
   </si>
   <si>
     <t xml:space="preserve">Manipulate lifeforce, steal Physical health from others, or bequeath your own.</t>
   </si>
   <si>
-    <t xml:space="preserve">Spirit of Thermos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate thermal energy, add or reduce heat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scoundrel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assassin</t>
-  </si>
-  <si>
     <t xml:space="preserve">Assassinate</t>
   </si>
   <si>
@@ -355,36 +729,18 @@
     <t xml:space="preserve">Nearby allies can use your Cunning when moving in stealth. When you use Assume a Disguise, you can provide disguises to your allies as well. When you or an ally would otherwise be revealed, you can spend a Prep Point to prevent it, so long as you can narratively describe how you do so.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pin Down</t>
-  </si>
-  <si>
     <t xml:space="preserve">Combat, Technique</t>
   </si>
   <si>
-    <t xml:space="preserve">Your attacks reduce an enemy’s movement, cutting off their ability to escape or pursue. Using this technique greatly reduces a target’s mobility, in addition to any Physical damage dealt. You have Advantage when using Agility to sprint, as might be the case when chasing after someone or retreating from danger.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pressure Points</t>
-  </si>
-  <si>
     <t xml:space="preserve">Combat, Technique, Stealth</t>
   </si>
   <si>
-    <t xml:space="preserve">Your attacks strike at an enemy’s nerves. Using this technique can incapacitate targets without lasting harm or visible injury, in addition to any Physical damage dealt. You have Advantage when sensing the motivations of others, such as detecting lies, by picking up on nervous ticks or other tells.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Shadow</t>
-  </si>
-  <si>
     <t xml:space="preserve">Spirit, Stealth</t>
   </si>
   <si>
     <t xml:space="preserve">Manipulate shadows, obscure appearances, and blind enemies. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
   </si>
   <si>
-    <t xml:space="preserve">Bard</t>
-  </si>
-  <si>
     <t xml:space="preserve">Charm Arcana</t>
   </si>
   <si>
@@ -403,60 +759,33 @@
     <t xml:space="preserve">You have a perfect memory while this Kit is equipped, capable of recalling minute details or committing a book to memory in minutes. You can use What You Needed to recall information in place of a Knowledge roll. </t>
   </si>
   <si>
-    <t xml:space="preserve">Resilience Arcana</t>
-  </si>
-  <si>
     <t xml:space="preserve">Health, Recovery</t>
   </si>
   <si>
     <t xml:space="preserve">Gain an additional Physical box. You can exchange Mental boxes for Prep Points and vice versa, and can do so as an action while in combat. You do not need to sleep, and cannot be rendered unconscious against your will, but can be incapacitated in other ways.</t>
   </si>
   <si>
-    <t xml:space="preserve">Spirit of Light</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manipulate light, create ghostly illusions, and see afar. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
   </si>
   <si>
-    <t xml:space="preserve">Spirit of Sound</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manipulate sound, shatter eardrums, and eavesdrop from afar. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
   </si>
   <si>
-    <t xml:space="preserve">War Arcana</t>
-  </si>
-  <si>
     <t xml:space="preserve">Your fighting style resembles dancing, making you particularly mobile. Using this technique allows you to move before and after making an attack, escaping from melee range or otherwise covering ground. You have Advantage when reacting to traps or similar surprise attacks.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ranger</t>
-  </si>
-  <si>
     <t xml:space="preserve">Herbalism</t>
   </si>
   <si>
     <t xml:space="preserve">Recovery</t>
   </si>
   <si>
-    <t xml:space="preserve">You can use What You Needed to heal Physical and Mental damage outside of combat. You are immune to all poisons, diseases, and similar effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prepared</t>
+    <t xml:space="preserve">You can use What You Needed to heal Physical damage outside of combat. You are immune to all poisons, diseases, and similar effects.</t>
   </si>
   <si>
     <t xml:space="preserve">Gain an additional two Prep Points. When you use a Prep Point to change Kits, you can change two Kits instead of one.</t>
   </si>
   <si>
-    <t xml:space="preserve">Quickdraw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are swift and silent, preventing targets from crying out when struck. Using this technique ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. You have Advantage when determining who acts first, including combat turn order.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Wood</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manipulate plants, encourage growth, and influence the environment. Represents growth and vitality. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
   </si>
   <si>
@@ -469,67 +798,28 @@
     <t xml:space="preserve">You can speak with and understand beasts. You can use I Know a Guy to recruit a local beast to aid you. The beast can track, fight, and is capable of anything that a creature of its kind might otherwise do. The beast will follow your orders, but will prioritize its own survival. Only one beast can be recruited at a time.</t>
   </si>
   <si>
-    <t xml:space="preserve">Twin Strike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks hit two targets instead of one. Using this technique gives your attack an additional target, with both hits landing within moments of one another. The additional target cannot be the same as the original target.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soldier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fencer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Called Shot</t>
-  </si>
-  <si>
     <t xml:space="preserve">Combat, Exploration, Technique</t>
   </si>
   <si>
-    <t xml:space="preserve">Your attacks are exceptionally precise. Using this technique allows you to harm specific targets (like eyes or hands), in addition to any Physical damage dealt. You have Advantage when making ranged attacks without any distractions. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harass</t>
-  </si>
-  <si>
     <t xml:space="preserve">Combat, Social, Technique</t>
   </si>
   <si>
-    <t xml:space="preserve">Your attacks unnerve and frustrate targets in addition to dealing damage. Using this technique inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when using Bravery to provoke others. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inner Flame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At any time when you would otherwise spend a Fortune Point, you can spend a Physical box instead. When you recover Physical or Mental boxes, you recover one more than you would otherwise.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riposte</t>
-  </si>
-  <si>
     <t xml:space="preserve">Combat</t>
   </si>
   <si>
-    <t xml:space="preserve">On a successful defense against a melee attack, you inflict a box of Physical damage to the attacker. You recover a Fortune Point when an enemy is incapacitated in this fashion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spellbreak</t>
-  </si>
-  <si>
     <t xml:space="preserve">Your attacks interfere with magic. Using this technique allows your attacks to harm spells and spirits, in addition to any Physical damage dealt. You have Advantage when defending against magical attacks. </t>
   </si>
   <si>
     <t xml:space="preserve">Wind Strike</t>
   </si>
   <si>
-    <t xml:space="preserve">Your melee attacks create blades of cutting wind, while your ranged attacks are propelled by gusts. Using this technique greatly extends the range of your attacks. You have Advantage when defending against projectile attacks like arrows and bullets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guardian</t>
+    <t xml:space="preserve">Field Medic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration, Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can spend a Fortune Point to revive an incapacitated ally, restoring one box of either of their damage tracks and taking your action to do so if done in combat. </t>
   </si>
   <si>
     <t xml:space="preserve">Combat, Exploration</t>
@@ -538,24 +828,6 @@
     <t xml:space="preserve">When an ally would otherwise take damage, you can spend a Fortune Point to negate it, so long as you are able to provide a narrative justification for how you do so. You can use Strength or Bravery to detect danger.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hospitaler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Exploration, Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can use Strength or Bravery to perform medical tasks outside of combat, giving you the ability to heal Physical damage and treat Physical injuries. You can spend a Fortune Point to revive an incapacitated ally, restoring one box of either of their damage tracks and taking your action to do so if done in combat. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks demand the attention of targets and cloud their perception. Using this technique compels an enemy to focus on you after a successful attack, in addition to any Physical damage dealt. You have Advantage when using Bravery to intimidate others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Will</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gain an additional Mental box. You can convert a Fortune Point into a Mental box or vice versa, and can do so as an action while in combat. You are immune to Mental damage from exhaustion, fear, or similar effects.</t>
   </si>
   <si>
@@ -565,21 +837,9 @@
     <t xml:space="preserve">Your attacks encourage and inspire allies on the battlefield. Using this technique can provide Advantage to one nearby ally on their next roll in combat when you make a successful attack, in addition to dealing Physical damage to an enemy. You have Advantage when using Bravery to inspire or rally others outside of combat. </t>
   </si>
   <si>
-    <t xml:space="preserve">Smite</t>
-  </si>
-  <si>
     <t xml:space="preserve">Your attacks strike with enough force to knock targets around or topple them over. Using this technique allows your attacks to forcibly reposition enemies, in addition to any Physical damage dealt. You have Advantage against any attempt to forcibly move you, and against any effect that impedes your movement, including terrain hazards like ice or mud.</t>
   </si>
   <si>
-    <t xml:space="preserve">Myrmidon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cleave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are especially destructive, hitting enemies and objects adjacent to your target. Using this technique allows your attacks to inflict damage in a small area of effect. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Gambler’s Fallacy</t>
   </si>
   <si>
@@ -595,19 +855,10 @@
     <t xml:space="preserve">Your attacks cause harm even on glancing blows. Using this techique allows your attacks to succeed when your roll would normally have tied with the defender. You have Advantage when performing feats that rely solely on raw muscle, such as lifting heavy objects or bending metal bars.</t>
   </si>
   <si>
-    <t xml:space="preserve">Lucky</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gain an additional two Fortune Points. When a roll for luck is called for, it always goes in your favor.</t>
   </si>
   <si>
-    <t xml:space="preserve">Spirit of Chance</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manipulate probability, tweak the odds in your favor, and jinx enemies. You can spend a Fortune Point to use Physique or Bravery instead of Aura when using this spirit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunder</t>
   </si>
   <si>
     <t xml:space="preserve">Your attacks are brutally effective, causing great harm and striking through armor. Using this technique allows your attacks to deal an additional box of Physical damage when successful. You have Advantage when using this technique to destroy objects and obstacles. </t>
@@ -621,7 +872,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -681,6 +932,12 @@
       <name val="Fira Sans"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Fira Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1009,6 +1266,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1016,8 +1277,8 @@
   </sheetPr>
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1074,10 +1335,10 @@
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1088,13 +1349,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1105,13 +1366,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1122,13 +1383,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1139,13 +1400,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1153,16 +1414,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1170,16 +1431,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1187,16 +1448,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1204,16 +1465,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1221,16 +1482,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1238,16 +1499,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1255,16 +1516,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1272,16 +1533,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="D15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1289,16 +1550,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1306,16 +1567,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1323,16 +1584,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1340,934 +1601,2208 @@
         <v>5</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="E20" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>80</v>
-      </c>
       <c r="D29" s="10" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>57</v>
-      </c>
       <c r="E34" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>93</v>
-      </c>
       <c r="D35" s="10" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B41" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>110</v>
-      </c>
       <c r="D41" s="14" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B49" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>137</v>
+        <v>8</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="16" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="16" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="16" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="16" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="16" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="16" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="16" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="B63" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>171</v>
-      </c>
       <c r="D63" s="18" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="16" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="16" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="16" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="16" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="16" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="16" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="16" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="16" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="16" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="16" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B73" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E73"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E73"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E53" activeCellId="0" sqref="E53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="109.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>182</v>
       </c>
+    </row>
+    <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>161</v>
+      </c>
       <c r="C73" s="18" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>153</v>
+        <v>251</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>195</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/miracuse_kits.xlsx
+++ b/miracuse_kits.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="406">
   <si>
     <t xml:space="preserve">Class</t>
   </si>
@@ -205,15 +205,318 @@
     <t xml:space="preserve">Spirit of Dreaming</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Meddle with the boundary between conscious and unconscious. Can be used to i</t>
-    </r>
+    <t xml:space="preserve">Meddle with the boundary between conscious and unconscious. Can be used to induce sleep, daze enemies, and put others into a trance. You have Advantage when using Presence to hypnotize the weak-willed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speak and undestand all creatures. Can be used to communicate with animals, use charm magic, and compel others to your will. You have Advantage when using Presence to awe others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Necromancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meddle with the boundary between life and death. Can be used to puppet corpses to do your bidding, summon ghosts, and stave off death.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Restoration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore what is broken. Can be used to heal Physical damage, repair broken objects, and treat natural afflictions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Aether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate electricity. Can be used to shoot lightning from your hands, induce pain without damage, and shock enemies that harm you. Represents emptiness and void. You can expend a Mana Point to inflict Physical damage on enemies that harm you from melee range.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate air. Can be used to create ferocious whirlwinds, fall gently from great heights, and rebuff projectiles. Represents movement and freedom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate earth. Can be used to throw jagged spikes from the ground, reshape stone, and send tremors through the earth. Represents solidity and strength.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Flame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate fire. Can be used to throw flames, create floating torches, and cause burns. Represents cleansing and destruction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate metal. Can be used to magnetize metallic objects, binding them together or pushing them apart. Represents clarity and reason.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate water. Can be used to create spears of ice, conjure fog, and purify liquids. Represents tranquility and adaptability.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wizard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manafont</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional two Mana Points. When you expend a Mental health box to recover a Mana Point, you gain two instead of one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Entropy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate decay. Can be used to accelerate or decelerate processes like rotting and rusting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perform limited telekinesis. Can be used to levitate nearby objects and launch them through the air. You can expend a Mana Point to deflect an attack aimed at you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Gravity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate gravity. Can be used to add or reduce weight for a short time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Locomotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate kinetic energy. Can be used to add or reduce speed of a moving object.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Thermos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate thermal energy. Can be used to add or reduce heat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scoundrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assassin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A potent hallucinogenic. Can be used to induce confusion, to numb pain, to put a target into a stupor, to render someone highly suggestable, or to inflict Mental damage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manifold Venom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A collection of dangerous poisons. Can be applied to the user’s weapons to induce paralysis, sap strength, create nausea, cause blindness, or inflict additional Physical damage. Requires an action if applied in combat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin Down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks reduce an enemy’s movement, cutting off their ability to escape or pursue. Using this technique greatly reduces a target’s mobility, in addition to any Physical damage dealt. You have Advantage when using sprinting, as might be the case when chasing after someone or retreating from danger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks strike at an enemy’s nerves. Using this technique can incapacitate targets without lasting harm or visible injury, in addition to any Physical damage dealt. You have Advantage when sensing the motivations of others, such as detecting lies, by picking up on nervous ticks or other tells.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shifting Sniper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technique, Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your ranged attacks are difficult to trace. Using this technique reduces the likelihood that you’ll be exposed after making a ranged sneak attack. You can expend a Prep Point to avoid harm from an attack or hazard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Darkness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate darkness. Can be used to obscure appearances, darken areas, and blind enemies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faerie Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A volatile powder used in fireworks. Can create plumes of smoke, bright lights, flames, loud noises, or induce violent coughing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holy Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A specially treated water that negates magic. Can be used to counter spells, disperse spirits, damage magical objects, or repel monsters. You can expend a Prep Point to negate hostile magic as a reaction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resilience Arcana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional Physical box. You do not need to sleep, and cannot be rendered unconscious against your will, but can be incapacitated in other ways.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate light. Can be used to create ghostly illusions, see afar, and blind enemies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate sound. Can be used to shatter eardrums, eavesdrop from afar, and mimic sounds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">War Arcana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your fighting style resembles dancing, making you particularly mobile. Using this technique allows you to move before and after making an attack, darting outside of melee range or firing shots while running. You have Advantage when performing acrobatics, such as climbing walls or jumping over obstacles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks hit two targets instead of one. Using this technique gives your attack an additional target, with both hits landing within moments of one another. The additional target cannot be the same as the original target. You have Advantage when tracking a target, such as when finding the trail of a monster or criminal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast’s Balm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mixture that bewitches animals. You can communicate with and befriend beasts. You can use I Know a Guy to recruit a local beast to aid you. The beast can track, fight, and is capable of anything that a creature of its kind might otherwise do. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast’s Blood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mixture that heightens senses. Can provide a bat’s sense of hearing, a hound’s sense of smell, or similar effects. When amplified, can provide more drastic animal adaptations, like fireproof scales or a fish’s gills. Can also be used to attract beasts and monsters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional two Prep Points. You can expend a Prep Point to change a Kit without resting, provided you have a few minutes to do so.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quickdraw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are swift and silent, preventing targets from crying out when struck. Using this technique ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. You have Advantage when determining who acts first, such as when determining combat turn order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate plants. Can be used to accelerate plant growth, speed up natural healing, and command flora. Represents growth and vitality. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soldier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fencer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flourish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are complex, dazzling, and distracting to enemies. Using this technique gives Advantage to the next attack made on the target, either by you or by one of your allies, in addition to any Physical damage dealt. You have Advantage when inspiring or rallying others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks unnerve and frustrate targets in addition to dealing damage. Using this technique inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when provoking others. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inner Flame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At any time when you would otherwise spend a Fortune Point, you can spend a Physical box instead. When you recover Physical boxes, you recover one more than you would otherwise.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thunderclap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks culminate in deafening peals of thunder, causing harm through sound and shockwaves. Using this technique circumvents armor, barriers, and similar defenses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whirlwind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks hit all enemies adjacent to you. Using this technique gives your attacks a small area of effect around your body, targeting enemies immediately next to you. On a successful defense against a melee attack, you inflict a box of Physical damage to the attacker.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windcutter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your melee attacks create blades of cutting wind, while your ranged attacks are propelled by gusts. Using this technique greatly extends the range of your attacks. You have Advantage when defending against projectile attacks like arrows and bullets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guardian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When a nearby ally would otherwise take damage, you can take damage in their place, so long as you are able to provide a narrative justification for how you do so. You recover a Fortune Point when using this Kit. You cannot attempt to block, dodge, or otherwise reduce damage taken from using this Kit. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospitaler Salts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smelling salts that wake the unconscious. Can be used to revive an incapacitated ally and allow them to briefly ignore the effects of their injuries. Revived allies clear one box of damage, Physical or Mental, depending on which is necessary. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks demand the attention of targets and cloud their perception. Using this technique compels an enemy to focus on you after a successful attack, in addition to any Physical damage dealt. You have Advantage when intimidating others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Will</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional Mental box. You are immune to Mental damage from exhaustion, fear, or similar psychological effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks strike with enough force to knock targets back or launch them into the air. Using this technique allows your attacks to forcibly reposition enemies, in addition to any Physical damage dealt. You have Advantage against any effect that attempts to forcibly move you or impede your movement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spellbreak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks interfere with magic. Using this technique allows your attacks to destroy spells and spirits, in addition to any Physical damage dealt. You have Advantage when defending against magical effects. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myrmidon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blitz</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -222,965 +525,707 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">nduce sleep, daze enemies, and put others into a trance. You have Advantage when using Presence to hypnotize the weak-willed.</t>
+      <t xml:space="preserve">Your attacks are more likely to cause harm. Using this technique adds +1 to the roll result of your attacks, significantly improving the chance that they’ll inflict damage. </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speak and undestand all creatures. Can be used to communicate with animals, use charm magic, and compel others to your will. You have Advantage when using Presence to awe others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Necromancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meddle with the boundary between life and death. Can be used to puppet corpses to do your bidding, summon ghosts, and stave off death.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Restoration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restore what is broken. Can be used to heal Physical damage, repair broken objects, and treat natural afflictions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shaman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Aether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate electricity. Can be used to shoot lightning from your hands, induce pain without damage, and x. Represents emptiness and void.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate air. Can be used to create ferocious whirlwinds, fall gently from great heights, and rebuff projectiles. Represents movement and freedom.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Earth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate earth. Can be used to throw jagged spikes from the ground, reshape stone, and x. Represents solidity and strength.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Flame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate fire. Can be used to conjure flames from nothing, create floating torches, and x. Represents cleansing and destruction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Metal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate metal. Can be used to magnetize metallic objects, binding them together or pushing them apart. Represents clarity and reason.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate water. Can be used to create spears of ice, conjure fog, and purify liquids. Represents tranquility and adaptability.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wizard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manafont</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional two Mana Points. When you expend a Mental health box to recover a Mana Point, you gain two instead of one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Entropy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate decay. Can be used to accelerate or decelerate processes like rotting and rusting.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perform limited telekinesis. Can be used to levitate nearby objects and launch them through the air. You can expend a Mana Point to deflect an attack aimed at you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Gravity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate gravity. Can be used to add or reduce weight for a short time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Locomotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate kinetic energy. Can be used to add or reduce speed of a moving object.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Thermos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate thermal energy. Can be used to add or reduce heat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scoundrel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assassin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden Silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A potent hallucinogenic. Can be used to induce confusion, to numb pain, to put a target into a stupor, to render someone highly suggestable, or to inflict Mental damage. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manifold Venom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A collection of dangerous poisons. Can be applied to the user’s weapons to induce paralysis, sap strength, create nausea, cause blindness, or inflict additional Physical damage. Requires an action if applied in combat, unless the Kit is amplified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pin Down</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Enemies that attempt to leave your melee range take one box of Physical damage. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are especially destructive, hitting enemies and objects adjacent to your target. Using this technique allows your attacks to inflict damage in a small area of effect centered around your main target. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferocious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks inspire fear and caution from enemies. Using this technique intimidates enemies you harm, causing targets with a sense of self-preservation to flee or otherwise behave more cautiously.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional two Fortune Points. When you use a Fortune Point to reroll, take the better result of the two rolls.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Chance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate probability. Can be used to tweak the odds in your favor, jinx enemies with poor luck, and make improbable outcomes more likely.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are brutally effective, causing great harm and breaking through defences. Using this technique allows your attacks to cut or pierce durable materials like stone and metal. Successful attacks also deal an additional box of Physical damage. You have Advantage when using this technique to destroy objects and obstacles. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armiger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grapple Claw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wrist-mounted blade that doubles as a projectile grappling hook. Can be used to rapidly change positions, and to attack enemies while pulling them closer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potion Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have mastered the art of multitasking while fighting. Using this technique allows you to drink a potion in the same action as making an attack. You can use Produce a Potion as part of this action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonant Shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A magnetically-charged shield that returns to its owner when thrown. You have Advantage when defending against metal-based attacks (swords, arrows, etc.) Can be amplified to make an area-of-effect sonic attack that shatters glass, ice, and similar materials.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabotage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks deliberately damage enemy equipment, chipping swords and breaking shields. Using this technique inflicts damage to a target’s equipment, in addition to any Physical damage dealt to the target themselves.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shocklance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A spear whose tip is infused with lightning. Can be used to inflict Mental damage instead of Physical damage. Can be amplified to shoot a powerful bolt of lightning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wallwalkers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your boots and gloves have an unusual adhesive that allows you to easily climb vertical surfaces and restrain enemies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blademaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Cut Above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can expend a Fortune Point to increase an attack roll’s result by +1. You can do so even if a Fortune Point has already been expended on that action, but cannot do so more than once per an action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolute Cut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks cut the very space they pass through, leaving nothing behind. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatal Circle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your melee attacks hit all enemies adjacent to you, even those behind you. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intricate Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you expend a Fortune Point to combine kits with the Technique tag, you can combine three instead of two.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lingering Trail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks leave afterimages, creating short-lived areas that can cause damage. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonic Rend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks create deafening sonic booms by virtue of extreme force. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gunslinger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bomb Bullet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you Produce a Grenade, you can fire it as a bullet, dealing damage from both the impact of the attack and the explosion of the grenade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon’s Breath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition create a cone of flame, capable of harming multiple enemies at once and igniting the area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Metal Jacket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition pierce through enemies, armor, and cover. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead Hail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your ranged attacks indiscriminately fill the area in front of you with bullets, dealing damage to anyone in range. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricochet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your ranged attacks can rebound off odd angles, hitting targets behind cover or out of sight. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver Bullet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition disrupt magic and spells.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Casting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you expend a Mana Point to combine kits with the spirit tag, you can combine three instead of two.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Art</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can expend a Mana Point to increase a Magic roll’s result by +1. You can do so even if a Mana Point has already been expended on that action, but cannot do so more than once per an action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Reversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Undo past events, healing recent wounds or reverting recent actions. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Spatiality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warp space to be larger or smaller in an area. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Temporality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accelerates or slows the passage of time in an area. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Void</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empty and implode, creating vaccuums. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadowdancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dancing Shadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are followed by your shadow’s attacks. Using this technique allows you to strike at a target twice. The target must be the same as your original. You roll twice when using this technique.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midnight Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A greasy liquid that can be used to render an individual pitch black, create an oil slick, produce a thick slab of tar, or create long-burning torches. When amplified, it swallows light, making its surroundings darker.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadow Hop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you use Disappear from Sight in a dark area, you can teleport into a nearby shadow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Shadows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate your shadow at will, allowing it to interact with the physical world. Manipulate the shadows of others, controlling their movements like puppets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you use Disappear from Sight in a dark area, no Prep Points are expended.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watchful Shadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can expend a Prep Point to block an attack using your shadow. You have Advantage on rolls to detect danger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spellsword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat Casting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your fighting style mixes weaponry and magic. When using this technique, you can use a Spirit kit before or after making an attack, so long as the Spirit kit is not used as an attack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equilibrium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can expend a Mana Point to recover a Fortune Point and vice versa. When you’re harmed by magic, you recover a Mana Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imbue Weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks draw on the power of an equipped Spirit kit. When using this technique, your attacks have effects based on the Spirit used, in addition to any Physical damage done.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reflect light, magic, and projectiles that come near you. You can expend a Mana Point to deflect an attack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accelerate a process within your body, such as natural healing or metabolism.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radiate light and heat around yourself. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloodletter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Blood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heal Physical wounds, track targets by their blood, and weaponize blood.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draining Strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks steal away energy from enemies you fell. Using this technique recovers a Fortune Point when you incapacitate an enemy with it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Word: Stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A primordial word that forces others to stop. Restricts movement, to the point of lethal paralysis in some uses. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Word: Freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A primordial word that releases restraints. Can be used to break curses, barriers, chains, and other forms of restriction. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Word: Death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A primordial word that causes death. Inflicts severe harm, wilts plants, and erodes surroundings. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Word: Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A primordial word that fosters recovery and growth. Restores Physical harm and revitalizes natural life. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trajectory Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your ranged attacks can change direction in mid-flight. Using this technique allows you to detonate bullets a second time, allowing them to strike around corners or behind cover. You have Advantage when trying to see things from a great distance or when trying to make out small visual details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separate objects. Can be used to physically sever two objects from one another, or to distill an object into its base elements. The more complex the intended result is, the more difficult the change. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Self</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alchemy, Resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expend a Mental box to recover a Physical box or vice versa. Can only be applied to yourself. When done in combat, requires an action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reshape an object, altering its form by expanding or contracting its mass. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strengthen an object, making it harder and more durable. Or weaken an object, making it flimsy and more brittle. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Substance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert one material into another. The greater the difference from the original, the more difficult the change. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Synthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combine objects. Can be used to physically weld two objects to one another, or to mix them into one another as a means of creating a new object. The more complex the intended result is, the more difficult the change. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are complex, dazzling, and distracting to enemies. Using this technique can either give Disadvantage to the target’s next action, or give Advantage to the next attack made on the target. You have Advantage when using Bravery to inspire or rally others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your melee attacks bend the shape of your weapon in unpredictable ways, while your ranged attacks can change trajectory in mid-flight. Using this technique allows your attacks to circumvent cover and obstacles. When you tie with a defender while attacking, you deal damage regardless.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mixture that heightens senses. Can provide a bat’s sense of hearing, a hound’s sense of smell, or similar effects. When amplified, can provide more drastic animal adaptations, like fireproof scales or a fish’s gills. Can also be used to attract animals and monsters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A volatile powder used in fireworks. Can create plumes of smoke, bright lights, flames, loud noises, or induce violent coughing. When used with Produce a Grenade inflicts Physical damage and one other effect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration, Social, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A potent hallucinogenic. Can be used to induce confusion, to put a target into a stupor, to render someone highly suggestable, or to inflict Mental damage. When used with Produce a Grenade inflicts Mental damage and one other effect. Can also be used as an offering to powerful spirits and supernatural creatures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A specially treated water that negates magic. Can be used to counter spells, disperse spirits, damage magical objects, or repel monsters. When used with Produce a Grenade produces all such effects at once. Can also be used to destroy the undead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A collection of dangerous poisons. Can be applied to the user’s weapons to induce paralysis, sap strength, create nausea, cause blindness, or inflict additional Physical damage. When used with Produce a Grenade inflicts Physical damage and one other effect. Can also be used to carefully burn through durable materials as a potent acid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional two Charge Points. When you use a Charge Point to Produce a Potion, you produce two instead of one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rune of Awareness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sigil that allows the user to see and hear around the object it’s applied to for two hours. Can be used to create a shikigami, a paper origami servant capable of flight and relaying messages. The shikigami falls apart after twenty-four hours, or when this Kit is removed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rune of Featherweight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sigil that makes objects lighter and more brittle for a short time. When amplified, can be used to create a backpack that’s bigger on the inside than the outside, capable of holding three times its volume without growing heavier. The bag falls apart after twenty-four hours, or when this Kit is removed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rune of Quickening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sigil that makes solid objects malleable and liquid for a short time. When amplified, can be used to create a quicksilver familiar, a sentient metal ooze that can reshape itself into tools and weapons on command. The familiar hardens into whatever shape it was holding after twenty-four hours, when this Kit is removed, or at the user’s discretion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rune of Stoneweight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sigil that makes objects stronger and heavier for a short time. When amplified, can be used to create a golem from stone or dirt, which will follow your orders and fight on your behalf for twenty-four hours, or when this Kit is removed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awaken inanimate objects, compel them to move and act on your orders. You can spend a Charge Point to use Knowledge or Perception when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Transmutation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change the properties of a substance, such as shape and weight. The greater the difference from the original, the more difficult the change. You can spend a Charge Point to use Knowledge or Perception when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concussive Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition have unusual materials, ricocheting in closed spaces or detonating while in the air to change trajectory. Deals two points of Physical damage to everything in range when used with Produce a Grenade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition are electrically charged, shocking or magnetizing targets in addition to any Physical damage dealt. When used with Produce a Grenade inflicts Physical damage and one other effect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition have capsules of liquid, producing quick-drying adhesive or slippery grease in addition to any Physical damage dealt. When used with Produce a Grenade inflicts Physical damage and one other effect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition have thermal properties, producing flames or ice on targets in addition to any Physical damage dealt. When used with Produce a Grenade inflicts Physical damage and one other effect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition are physically loaded, exploding into a mass of ball bearings or barbed wire in addition to any Physical damage dealt. When used with Produce a Grenade inflicts Physical damage and one other effect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition are chemically loaded, instantly rusting through metal or producing small clouds of tear gas in addition to any Physical damage dealt. When used with Produce a Grenade inflicts Physical damage and one other effect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration, Spirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create barriers, dispel magic, and repel otherworldly influences.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration, Spirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find people, places, things, and hidden knowledge through divination.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social, Spirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communicate with all creatures, use charm magic, and compel others to your will.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raise the dead, curse the living, and meddle with the boundary between life and death.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recovery, Spirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heal Physical wounds, restore broken objects, and treat natural afflictions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Summoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration, Social, Spirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call imps, pixies, and other minor magical creatures to serve you. Pull otherworldly influences into the world. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate electricity, create lightning, and stun enemies. Represents emptiness and divinity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate air, create gusts of wind, and fall gently. Represents movement and freedom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate earth, reshape terrain, and mold stone. Represents solidity and strength.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate fire, conjure flames, and blast enemies. Represents cleansing and destruction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate metal, magnetize metallic objects, and sharpen metal. Represents clarity and reason.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate water, conjure fog, and freeze liquids. Represents tranquility and adaptability.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate decay, accelerating processes like rotting and rusting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate magical energy, lob bolts of force at enemies, and create forcefields.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate gravity, add or reduce weight.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate kinetic energy, add or reduce speed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Siphoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate lifeforce, steal Physical health from others, or bequeath your own.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate thermal energy, add or reduce heat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assassinate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your sneak attacks deal an additional box of Physical damage. You can use Assume a Disguise to disappear from sight, taking an action to do so if done in combat. You can tell if a target will be incapacitated by your sneak attack before you strike.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convincing Fake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration, Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a Skill and raise it to half the level of your highest Skill (rounded down). You can spend a Prep Point to change the chosen Skill, provided you have a few minutes to concentrate. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infiltration Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social, Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nearby allies can use your Cunning when moving in stealth. When you use Assume a Disguise, you can provide disguises to your allies as well. When you or an ally would otherwise be revealed, you can spend a Prep Point to prevent it, so long as you can narratively describe how you do so.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Technique</t>
   </si>
   <si>
     <t xml:space="preserve">Your attacks reduce an enemy’s movement, cutting off their ability to escape or pursue. Using this technique greatly reduces a target’s mobility, in addition to any Physical damage dealt. You have Advantage when using Agility to sprint, as might be the case when chasing after someone or retreating from danger.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pressure Points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks strike at an enemy’s nerves. Using this technique can incapacitate targets without lasting harm or visible injury, in addition to any Physical damage dealt. You have Advantage when sensing the motivations of others, such as detecting lies, by picking up on nervous ticks or other tells.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Darkness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate darkness. Can be used to obscure appearances, darken areas, and blind enemies. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uncanny Dodge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can expend a Prep Point to avoid harm from an attack or hazard. You have Advantage against traps and area of effect attacks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faerie Fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A volatile powder used in fireworks. Can create plumes of smoke, bright lights, flames, loud noises, or induce violent coughing. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holy Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A specially treated water that negates magic. Can be used to counter spells, disperse spirits, damage magical objects, or repel monsters. You can expend a Prep Point to negate hostile magic as a reaction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resilience Arcana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional Physical box. You do not need to sleep, and cannot be rendered unconscious against your will, but can be incapacitated in other ways.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate light. Can be used to create ghostly illusions, see afar, and produce lighting. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Sound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate sound. Can be used to shatter eardrums, eavesdrop from afar, and mimic sounds.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">War Arcana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your fighting style resembles dancing, making you particularly mobile. Using this technique allows you to move before and after making an attack, darting outside of melee range or firing shots while running. You have Advantage when performing acrobatics, such as climbing walls or jumping over obstacles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beast Balm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A mixture that bewitches animals. You can communicate with and befriend beasts. You can use I Know a Guy to recruit a local beast to aid you. The beast can track, fight, and is capable of anything that a creature of its kind might otherwise do. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beast’s Blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A mixture that heightens senses. Can provide a bat’s sense of hearing, a hound’s sense of smell, or similar effects. When amplified, can provide more drastic animal adaptations, like fireproof scales or a fish’s gills. Can also be used to attract beasts and monsters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prepared</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional two Prep Points. You can expend a Prep Point to change a Kit without resting, provided you have a few minutes to do so.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quickdraw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are swift and silent, preventing targets from crying out when struck. Using this technique ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. You have Advantage when determining who acts first, such as when determining combat turn order.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate plants. Can be used to accelerate plant growth, speed up natural healing, and command flora. Represents growth and vitality. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ambush</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks hit two targets instead of one. Using this technique gives your attack an additional target, with both hits landing within moments of one another. The additional target cannot be the same as the original target. You have Advantage when tracking a target, such as when finding the trail of a monster or criminal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soldier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fencer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flourish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are complex, dazzling, and distracting to enemies. Using this technique gives Advantage to the next attack made on the target, either by you or by one of your allies, in addition to any Physical damage dealt. You have Advantage when using Bravery to inspire or rally others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harass</t>
+    <t xml:space="preserve">Combat, Technique, Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Shadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit, Stealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate shadows, obscure appearances, and blind enemies. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charm Arcana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use Cunning as though it were Presence, Bravery, or Knowledge for social purposes. You can spend a Prep Point to reroll a social action and take the higher result, a maximum of one time per social action. You can use I Know a Guy without spending Prep Points.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lore Arcana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a perfect memory while this Kit is equipped, capable of recalling minute details or committing a book to memory in minutes. You can use What You Needed to recall information in place of a Knowledge roll. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health, Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional Physical box. You can exchange Mental boxes for Prep Points and vice versa, and can do so as an action while in combat. You do not need to sleep, and cannot be rendered unconscious against your will, but can be incapacitated in other ways.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate light, create ghostly illusions, and see afar. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate sound, shatter eardrums, and eavesdrop from afar. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your fighting style resembles dancing, making you particularly mobile. Using this technique allows you to move before and after making an attack, escaping from melee range or otherwise covering ground. You have Advantage when reacting to traps or similar surprise attacks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herbalism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use What You Needed to heal Physical damage outside of combat. You are immune to all poisons, diseases, and similar effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional two Prep Points. When you use a Prep Point to change Kits, you can change two Kits instead of one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are swift and silent, preventing targets from crying out when struck. Using this technique ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. You have Advantage when determining who acts first, including combat turn order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate plants, encourage growth, and influence the environment. Represents growth and vitality. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration, Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can speak with and understand beasts. You can use I Know a Guy to recruit a local beast to aid you. The beast can track, fight, and is capable of anything that a creature of its kind might otherwise do. The beast will follow your orders, but will prioritize its own survival. Only one beast can be recruited at a time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twin Strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks hit two targets instead of one. Using this technique gives your attack an additional target, with both hits landing within moments of one another. The additional target cannot be the same as the original target.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration, Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Social, Technique</t>
   </si>
   <si>
     <t xml:space="preserve">Your attacks unnerve and frustrate targets in addition to dealing damage. Using this technique inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when using Bravery to provoke others. </t>
   </si>
   <si>
-    <t xml:space="preserve">Inner Flame</t>
-  </si>
-  <si>
     <t xml:space="preserve">At any time when you would otherwise spend a Fortune Point, you can spend a Physical box instead. When you recover Physical or Mental boxes, you recover one more than you would otherwise.</t>
   </si>
   <si>
     <t xml:space="preserve">Riposte</t>
   </si>
   <si>
+    <t xml:space="preserve">Combat</t>
+  </si>
+  <si>
     <t xml:space="preserve">On a successful defense against a melee attack, you inflict a box of Physical damage to the attacker. You recover a Fortune Point when an enemy is incapacitated in this fashion.</t>
   </si>
   <si>
-    <t xml:space="preserve">Whirlwind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks hit all enemies adjacent to you. Using this technique gives your attacks a small area of effect around your body, targeting enemies immediately next to you. You have Advantage when defending against melee attacks made with weapons.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windcutter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your melee attacks create blades of cutting wind, while your ranged attacks are propelled by gusts. Using this technique greatly extends the range of your attacks. You have Advantage when defending against projectile attacks like arrows and bullets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guardian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When a nearby ally would otherwise take damage, you can take damage in their place, so long as you are able to provide a narrative justification for how you do so. You recover a Fortune Point when using this Kit. You cannot attempt to block, dodge, or otherwise reduce damage taken using this Kit. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospitaler Salts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alchemy, Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revive an incapacitated ally and allow them to briefly ignore the effects of their injuries. Revived allies clear one box of damage, Physical or Mental, depending on which is necessary. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impose</t>
+    <t xml:space="preserve">Your attacks interfere with magic. Using this technique allows your attacks to harm spells and spirits, in addition to any Physical damage dealt. You have Advantage when defending against magical attacks. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind Strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field Medic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration, Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can spend a Fortune Point to revive an incapacitated ally, restoring one box of either of their damage tracks and taking your action to do so if done in combat. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat, Exploration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When an ally would otherwise take damage, you can spend a Fortune Point to negate it, so long as you are able to provide a narrative justification for how you do so. You can use Strength or Bravery to detect danger.</t>
   </si>
   <si>
     <t xml:space="preserve">Your attacks demand the attention of targets and cloud their perception. Using this technique compels an enemy to focus on you after a successful attack, in addition to any Physical damage dealt. You have Advantage when using Bravery to intimidate others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Will</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional Mental box. You are immune to Mental damage from exhaustion, fear, or similar psychological effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks strike with enough force to knock targets around or launch them into the air. Using this technique allows your attacks to forcibly reposition enemies, in addition to any Physical damage dealt. You have Advantage against any effect that attempts to forcibly move you or impede your movement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spellbreak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks interfere with magic. Using this technique allows your attacks to destroy spells and spirits, in addition to any Physical damage dealt. You have Advantage when defending against magical effects. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myrmidon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blitz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are more likely to cause harm. Using this technique adds +1 to the roll result of your attacks, significantly improving the chance that they’ll inflict damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cleave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are especially destructive, hitting enemies and objects adjacent to your target. Using this technique allows your attacks to inflict damage in a small area of effect centered around your main target. You have Advantage when using raw Strength to overcome an obstacle, such as bending metal bars or lifting heavy objects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No Escape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enemies that attempt to leave your melee range take one box of Physical damage. You recover a Fortune Point when an enemy is incapacitated in this fashion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional two Fortune Points. When you use a Fortune Point to reroll, take the better result of the two rolls.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Chance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate probability. Can be used to tweak the odds in your favor, jinx enemies with poor luck, and make improbable outcomes more likely.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are brutally effective, causing great harm and breaking through defences. Using this technique allows your attacks to cut or pierce durable materials like stone and metal. Successful attacks also deal an additional box of Physical damage. You have Advantage when using this technique to destroy objects and obstacles. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armiger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grapple Claw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wrist-mounted blade that doubles as a projectile grappling hook. Can be used to rapidly change positions, and to attack enemies while pulling them closer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potion Knight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have mastered the art of multitasking while fighting. Using this technique allows you to drink a potion in the same action as making an attack. You can use Produce a Potion as part of this action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonant Shield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A magnetically-charged shield that returns to its owner when thrown. You have Advantage when defending against metal-based attacks (swords, arrows, etc.) Can be amplified to make an area-of-effect sonic attack that shatters glass, ice, and similar materials.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sabotage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks deliberately damage enemy equipment, chipping swords and breaking shields. Using this technique inflicts damage to a target’s equipment, in addition to any Physical damage dealt to the target themselves.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shocklance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A spear whose tip is infused with lightning. Can be used to inflict Mental damage instead of Physical damage. Can be amplified to shoot a powerful bolt of lightning.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wallwalkers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your boots and gloves have an unusual adhesive that allows you to easily climb vertical surfaces and restrain enemies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blademaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Cut Above</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can expend a Fortune Point to increase an attack roll’s result by +1. You can do so even if a Fortune Point has already been expended on that action, but cannot do so more than once per an action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absolute Cut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks cut the very space they pass through, leaving nothing behind. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fatal Circle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your melee attacks hit all enemies adjacent to you, even those behind you. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intricate Technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you expend a Fortune Point to combine kits with the Technique tag, you can combine three instead of two.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lingering Trail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks leave afterimages, creating short-lived areas that can cause damage. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonic Rend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks create deafening sonic booms by virtue of extreme force. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gunslinger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bomb Bullet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you Produce a Grenade, you can fire it as a bullet, dealing damage from both the impact of the attack and the explosion of the grenade.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragon’s Breath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition create a cone of flame, capable of harming multiple enemies at once and igniting the area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full Metal Jacket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition pierce through enemies, armor, and cover. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lead Hail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your ranged attacks indiscriminately fill the area in front of you with bullets, dealing damage to anyone in range. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricochet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your ranged attacks can rebound off odd angles, hitting targets behind cover or out of sight. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver Bullet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition disrupt magic and spells.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand Casting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you expend a Mana Point to combine kits with the spirit tag, you can combine three instead of two.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High Art</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can expend a Mana Point to increase a Magic roll’s result by +1. You can do so even if a Mana Point has already been expended on that action, but cannot do so more than once per an action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Reversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Undo past events, healing recent wounds or reverting recent actions. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Spatiality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warp space to be larger or smaller in an area. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Temporality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accelerates or slows the passage of time in an area. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Void</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empty and implode, creating vaccuums. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shadowdancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dancing Shadow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are followed by your shadow’s attacks. Using this technique allows you to strike at a target twice. The target must be the same as your original. You roll twice when using this technique.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Midnight Oil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A greasy liquid that can be used to render an individual pitch black, create an oil slick, produce a thick slab of tar, or create long-burning torches. When amplified, it swallows light, making its surroundings darker.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shadow Hop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you use Disappear from Sight in a dark area, you can teleport into a nearby shadow.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Shadows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate your shadow at will, allowing it to interact with the physical world. Manipulate the shadows of others, controlling their movements like puppets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you use Disappear from Sight in a dark area, no Prep Points are expended.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watchful Shadow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can expend a Prep Point to block an attack using your shadow. You have Advantage on rolls to detect danger.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spellsword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat Casting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your fighting style mixes weaponry and magic. When using this technique, you can use a Spirit kit before or after making an attack, so long as the Spirit kit is not used as an attack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equilibrium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can expend a Mana Point to recover a Fortune Point and vice versa. When you’re harmed by magic, you recover a Mana Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imbue Weapon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks draw on the power of an equipped Spirit kit. When using this technique, your attacks have effects based on the Spirit used, in addition to any Physical damage done.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Moon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reflect light, magic, and projectiles that come near you. You can expend a Mana Point to deflect an attack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Stars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accelerate a process within your body, such as natural healing or metabolism.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Sun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radiate light and heat around yourself. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloodletter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heal Physical wounds, track targets by their blood, and weaponize blood.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Draining Strike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks steal away energy from enemies you fell. Using this technique recovers a Fortune Point when you incapacitate an enemy with it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trajectory Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your ranged attacks can change direction in mid-flight. Using this technique allows you to detonate bullets a second time, allowing them to strike around corners or behind cover. You have Advantage when trying to see things from a great distance or when trying to make out small visual details.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmute Division</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Separate objects. Can be used to physically sever two objects from one another, or to distill an object into its base elements. The more complex the intended result is, the more difficult the change. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmute Self</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alchemy, Resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expend a Mental box to recover a Physical box or vice versa. Can only be applied to yourself. When done in combat, requires an action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmute Shape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reshape an object, altering its form by expanding or contracting its mass. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmute Strength</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strengthen an object, making it harder and more durable. Or weaken an object, making it flimsy and more brittle. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmute Substance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert one material into another. The greater the difference from the original, the more difficult the change. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmute Synthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combine objects. Can be used to physically weld two objects to one another, or to mix them into one another as a means of creating a new object. The more complex the intended result is, the more difficult the change. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are complex, dazzling, and distracting to enemies. Using this technique can either give Disadvantage to the target’s next action, or give Advantage to the next attack made on the target. You have Advantage when using Bravery to inspire or rally others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your melee attacks bend the shape of your weapon in unpredictable ways, while your ranged attacks can change trajectory in mid-flight. Using this technique allows your attacks to circumvent cover and obstacles. When you tie with a defender while attacking, you deal damage regardless.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration, Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A mixture that heightens senses. Can provide a bat’s sense of hearing, a hound’s sense of smell, or similar effects. When amplified, can provide more drastic animal adaptations, like fireproof scales or a fish’s gills. Can also be used to attract animals and monsters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Exploration, Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A volatile powder used in fireworks. Can create plumes of smoke, bright lights, flames, loud noises, or induce violent coughing. When used with Produce a Grenade inflicts Physical damage and one other effect.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Exploration, Social, Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A potent hallucinogenic. Can be used to induce confusion, to put a target into a stupor, to render someone highly suggestable, or to inflict Mental damage. When used with Produce a Grenade inflicts Mental damage and one other effect. Can also be used as an offering to powerful spirits and supernatural creatures.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A specially treated water that negates magic. Can be used to counter spells, disperse spirits, damage magical objects, or repel monsters. When used with Produce a Grenade produces all such effects at once. Can also be used to destroy the undead.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A collection of dangerous poisons. Can be applied to the user’s weapons to induce paralysis, sap strength, create nausea, cause blindness, or inflict additional Physical damage. When used with Produce a Grenade inflicts Physical damage and one other effect. Can also be used to carefully burn through durable materials as a potent acid.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional two Charge Points. When you use a Charge Point to Produce a Potion, you produce two instead of one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rune of Awareness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sigil that allows the user to see and hear around the object it’s applied to for two hours. Can be used to create a shikigami, a paper origami servant capable of flight and relaying messages. The shikigami falls apart after twenty-four hours, or when this Kit is removed. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rune of Featherweight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sigil that makes objects lighter and more brittle for a short time. When amplified, can be used to create a backpack that’s bigger on the inside than the outside, capable of holding three times its volume without growing heavier. The bag falls apart after twenty-four hours, or when this Kit is removed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rune of Quickening</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sigil that makes solid objects malleable and liquid for a short time. When amplified, can be used to create a quicksilver familiar, a sentient metal ooze that can reshape itself into tools and weapons on command. The familiar hardens into whatever shape it was holding after twenty-four hours, when this Kit is removed, or at the user’s discretion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rune of Stoneweight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sigil that makes objects stronger and heavier for a short time. When amplified, can be used to create a golem from stone or dirt, which will follow your orders and fight on your behalf for twenty-four hours, or when this Kit is removed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit, Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Awaken inanimate objects, compel them to move and act on your orders. You can spend a Charge Point to use Knowledge or Perception when using this spirit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Transmutation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change the properties of a substance, such as shape and weight. The greater the difference from the original, the more difficult the change. You can spend a Charge Point to use Knowledge or Perception when using this spirit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concussive Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition have unusual materials, ricocheting in closed spaces or detonating while in the air to change trajectory. Deals two points of Physical damage to everything in range when used with Produce a Grenade.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition are electrically charged, shocking or magnetizing targets in addition to any Physical damage dealt. When used with Produce a Grenade inflicts Physical damage and one other effect.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition have capsules of liquid, producing quick-drying adhesive or slippery grease in addition to any Physical damage dealt. When used with Produce a Grenade inflicts Physical damage and one other effect.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition have thermal properties, producing flames or ice on targets in addition to any Physical damage dealt. When used with Produce a Grenade inflicts Physical damage and one other effect.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition are physically loaded, exploding into a mass of ball bearings or barbed wire in addition to any Physical damage dealt. When used with Produce a Grenade inflicts Physical damage and one other effect.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition are chemically loaded, instantly rusting through metal or producing small clouds of tear gas in addition to any Physical damage dealt. When used with Produce a Grenade inflicts Physical damage and one other effect.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Exploration, Spirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create barriers, dispel magic, and repel otherworldly influences.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration, Spirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find people, places, things, and hidden knowledge through divination.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social, Spirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Communicate with all creatures, use charm magic, and compel others to your will.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raise the dead, curse the living, and meddle with the boundary between life and death.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recovery, Spirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heal Physical wounds, restore broken objects, and treat natural afflictions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Summoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration, Social, Spirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call imps, pixies, and other minor magical creatures to serve you. Pull otherworldly influences into the world. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate electricity, create lightning, and stun enemies. Represents emptiness and divinity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate air, create gusts of wind, and fall gently. Represents movement and freedom.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate earth, reshape terrain, and mold stone. Represents solidity and strength.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate fire, conjure flames, and blast enemies. Represents cleansing and destruction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate metal, magnetize metallic objects, and sharpen metal. Represents clarity and reason.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate water, conjure fog, and freeze liquids. Represents tranquility and adaptability.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate decay, accelerating processes like rotting and rusting.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate magical energy, lob bolts of force at enemies, and create forcefields.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate gravity, add or reduce weight.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate kinetic energy, add or reduce speed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Siphoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate lifeforce, steal Physical health from others, or bequeath your own.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate thermal energy, add or reduce heat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assassinate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Stealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your sneak attacks deal an additional box of Physical damage. You can use Assume a Disguise to disappear from sight, taking an action to do so if done in combat. You can tell if a target will be incapacitated by your sneak attack before you strike.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convincing Fake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration, Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a Skill and raise it to half the level of your highest Skill (rounded down). You can spend a Prep Point to change the chosen Skill, provided you have a few minutes to concentrate. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infiltration Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social, Stealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nearby allies can use your Cunning when moving in stealth. When you use Assume a Disguise, you can provide disguises to your allies as well. When you or an ally would otherwise be revealed, you can spend a Prep Point to prevent it, so long as you can narratively describe how you do so.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Technique, Stealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Shadow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit, Stealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate shadows, obscure appearances, and blind enemies. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charm Arcana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can use Cunning as though it were Presence, Bravery, or Knowledge for social purposes. You can spend a Prep Point to reroll a social action and take the higher result, a maximum of one time per social action. You can use I Know a Guy without spending Prep Points.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lore Arcana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a perfect memory while this Kit is equipped, capable of recalling minute details or committing a book to memory in minutes. You can use What You Needed to recall information in place of a Knowledge roll. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health, Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional Physical box. You can exchange Mental boxes for Prep Points and vice versa, and can do so as an action while in combat. You do not need to sleep, and cannot be rendered unconscious against your will, but can be incapacitated in other ways.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate light, create ghostly illusions, and see afar. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate sound, shatter eardrums, and eavesdrop from afar. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your fighting style resembles dancing, making you particularly mobile. Using this technique allows you to move before and after making an attack, escaping from melee range or otherwise covering ground. You have Advantage when reacting to traps or similar surprise attacks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herbalism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can use What You Needed to heal Physical damage outside of combat. You are immune to all poisons, diseases, and similar effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional two Prep Points. When you use a Prep Point to change Kits, you can change two Kits instead of one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are swift and silent, preventing targets from crying out when struck. Using this technique ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. You have Advantage when determining who acts first, including combat turn order.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate plants, encourage growth, and influence the environment. Represents growth and vitality. You can spend a Prep Point to use Cunning or Agility when using this spirit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Exploration, Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can speak with and understand beasts. You can use I Know a Guy to recruit a local beast to aid you. The beast can track, fight, and is capable of anything that a creature of its kind might otherwise do. The beast will follow your orders, but will prioritize its own survival. Only one beast can be recruited at a time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twin Strike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks hit two targets instead of one. Using this technique gives your attack an additional target, with both hits landing within moments of one another. The additional target cannot be the same as the original target.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Exploration, Technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Social, Technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks interfere with magic. Using this technique allows your attacks to harm spells and spirits, in addition to any Physical damage dealt. You have Advantage when defending against magical attacks. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wind Strike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field Medic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Exploration, Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can spend a Fortune Point to revive an incapacitated ally, restoring one box of either of their damage tracks and taking your action to do so if done in combat. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat, Exploration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When an ally would otherwise take damage, you can spend a Fortune Point to negate it, so long as you are able to provide a narrative justification for how you do so. You can use Strength or Bravery to detect danger.</t>
   </si>
   <si>
     <t xml:space="preserve">Gain an additional Mental box. You can convert a Fortune Point into a Mental box or vice versa, and can do so as an action while in combat. You are immune to Mental damage from exhaustion, fear, or similar effects.</t>
@@ -1452,7 +1497,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1498,10 +1543,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1792,8 +1833,8 @@
   </sheetPr>
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E68" activeCellId="0" sqref="E68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C65" activeCellId="0" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2175,7 +2216,7 @@
       <c r="D22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2209,7 +2250,7 @@
       <c r="D24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="11" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2241,7 +2282,7 @@
         <v>66</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>67</v>
@@ -2435,614 +2476,614 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="15" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E43" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" s="18" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D44" s="15" t="s">
+      <c r="E60" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" s="15" t="s">
+      <c r="E63" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="15" t="s">
+      <c r="E65" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D49" s="15" t="s">
+      <c r="E72" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E69" s="20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E70" s="20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E71" s="20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E72" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D73" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E73" s="20" t="s">
+      <c r="E73" s="19" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3064,10 +3105,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3097,694 +3138,788 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="27" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="27" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="27" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="27" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="23" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="23" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="23" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="23" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="23" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="23" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="31" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="31" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="31" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="31" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="31" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="31" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="35" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="35" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="35" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="35" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="35" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="D31" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" s="36" t="s">
+      <c r="D31" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="35" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="39" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="39" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="39" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="39" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="40" t="s">
+      <c r="E36" s="39" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="40" t="s">
+      <c r="E37" s="39" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="27" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E39" s="27" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="28"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="27"/>
     </row>
     <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="28"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="27"/>
     </row>
     <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="28"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="27"/>
     </row>
     <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="28"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="27"/>
+    </row>
+    <row r="44" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="31"/>
+    </row>
+    <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="31"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E73"/>
@@ -3859,13 +3994,13 @@
         <v>22</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3897,13 +4032,13 @@
         <v>36</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3914,13 +4049,13 @@
         <v>36</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3931,13 +4066,13 @@
         <v>36</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3948,13 +4083,13 @@
         <v>36</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3965,13 +4100,13 @@
         <v>36</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3982,13 +4117,13 @@
         <v>36</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4167,276 +4302,276 @@
       <c r="E37" s="11"/>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="16"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="16"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="16"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="16"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="16"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15"/>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="16"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
     </row>
     <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="16"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
     </row>
     <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="16"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15"/>
     </row>
     <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="16"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="15"/>
     </row>
     <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="16"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="15"/>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="16"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="15"/>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="16"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="15"/>
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="16"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="15"/>
     </row>
     <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="16"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="15"/>
     </row>
     <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="16"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15"/>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="16"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="15"/>
     </row>
     <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="16"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="15"/>
     </row>
     <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="16"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="15"/>
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="D56" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="20" t="s">
-        <v>272</v>
+      <c r="E56" s="19" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C57" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="D57" s="19" t="s">
+      <c r="C57" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="D57" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="20" t="s">
-        <v>274</v>
+      <c r="E57" s="19" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="20"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="19"/>
     </row>
     <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="17"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="20"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="19"/>
     </row>
     <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="17"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="20"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="19"/>
     </row>
     <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="20"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="19"/>
     </row>
     <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="17"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="20"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="19"/>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="17"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="20"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="19"/>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="17"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="20"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="19"/>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="17"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="20"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="19"/>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="17"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="20"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="19"/>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="17"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="20"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="19"/>
     </row>
     <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="17"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="20"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="19"/>
     </row>
     <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="17"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="20"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="19"/>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="17"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="20"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="19"/>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="17"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="20"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="19"/>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="17"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="20"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="19"/>
     </row>
     <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="17"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="20"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E109"/>
@@ -4493,16 +4628,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4510,16 +4645,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>107</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4527,16 +4662,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>93</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4544,16 +4679,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>109</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4561,16 +4696,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>95</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4578,16 +4713,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4598,13 +4733,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4615,13 +4750,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4632,13 +4767,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4649,13 +4784,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4669,10 +4804,10 @@
         <v>19</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4683,13 +4818,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4700,13 +4835,13 @@
         <v>22</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4720,10 +4855,10 @@
         <v>26</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4737,10 +4872,10 @@
         <v>28</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4754,10 +4889,10 @@
         <v>30</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4771,10 +4906,10 @@
         <v>32</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4788,10 +4923,10 @@
         <v>34</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4805,10 +4940,10 @@
         <v>52</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4822,10 +4957,10 @@
         <v>55</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4839,10 +4974,10 @@
         <v>59</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4856,10 +4991,10 @@
         <v>61</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4873,10 +5008,10 @@
         <v>63</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4887,13 +5022,13 @@
         <v>51</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4907,10 +5042,10 @@
         <v>66</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4924,10 +5059,10 @@
         <v>68</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4941,10 +5076,10 @@
         <v>70</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4958,10 +5093,10 @@
         <v>72</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4975,10 +5110,10 @@
         <v>74</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4992,10 +5127,10 @@
         <v>76</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5009,10 +5144,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5026,10 +5161,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5043,10 +5178,10 @@
         <v>85</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5060,10 +5195,10 @@
         <v>87</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5074,13 +5209,13 @@
         <v>78</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5094,622 +5229,622 @@
         <v>89</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>334</v>
+      <c r="C38" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>337</v>
+      <c r="C39" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>340</v>
+      <c r="C40" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>98</v>
+      <c r="D41" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="E42" s="16" t="s">
+      <c r="D42" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="E42" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="E43" s="16" t="s">
+      <c r="C43" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="14" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="s">
+      <c r="E51" s="15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="s">
+      <c r="B52" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="D45" s="15" t="s">
+      <c r="B53" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="D55" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="E45" s="16" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="E53" s="16" t="s">
+      <c r="E55" s="15" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="18" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="17" t="s">
+      <c r="E58" s="19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B59" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C56" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="17" t="s">
+      <c r="C59" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B60" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C57" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17" t="s">
+      <c r="C60" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B61" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C58" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="17" t="s">
+      <c r="C61" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="17" t="s">
+      <c r="B62" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B60" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17" t="s">
+      <c r="B63" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B61" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="17" t="s">
+      <c r="B64" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B65" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C62" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="17" t="s">
+      <c r="C65" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B66" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C63" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="17" t="s">
+      <c r="C66" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B67" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C64" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="17" t="s">
+      <c r="C67" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B65" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="E65" s="20" t="s">
+      <c r="B68" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73" s="18" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="E69" s="20" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="E70" s="20" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="E71" s="20" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="E72" s="20" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D73" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="E73" s="20" t="s">
-        <v>390</v>
+      <c r="E73" s="19" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>

--- a/miracuse_kits.xlsx
+++ b/miracuse_kits.xlsx
@@ -130,7 +130,7 @@
     <t xml:space="preserve">Trenchsteel Charges</t>
   </si>
   <si>
-    <t xml:space="preserve">Attacks that use this ammunition are physically loaded, exploding into a mass of ball bearings or barbed wire in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
+    <t xml:space="preserve">Attacks that use this ammunition are physically loaded, exploding into a mass of ball bearings or coils of barbed wire in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
   </si>
   <si>
     <t xml:space="preserve">Vapor Charges</t>
@@ -1833,8 +1833,8 @@
   </sheetPr>
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C65" activeCellId="0" sqref="C65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/miracuse_kits.xlsx
+++ b/miracuse_kits.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="543">
   <si>
     <t xml:space="preserve">Class</t>
   </si>
@@ -54,489 +54,33 @@
     <t xml:space="preserve">Chemist</t>
   </si>
   <si>
-    <t xml:space="preserve">Bigger Batches</t>
+    <t xml:space="preserve">Agua Regia</t>
   </si>
   <si>
     <t xml:space="preserve">Alchemy</t>
   </si>
   <si>
-    <t xml:space="preserve">When you use Produce a Potion or Produce a Grenade, you produce two items instead of one. You are still limited to using one item per action in combat.</t>
+    <t xml:space="preserve">A dangerously potent acid that eats through metals with ease. Can be used to break locks, sabotage equipment, and create clouds of poisonous gas. When you Produce a Grenade, you can create a canister of poisonous gas instead. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunar Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystallized holy water, a substance that leeches away magic on contact. Can be used to deaden a person to magic for a short time, rendering them immune and incapable of casting spells. When you Produce a Grenade, magic in the area of effect is torn apart. You have Advantage when defending against magic in any form while this kit is equipped.</t>
   </si>
   <si>
     <t xml:space="preserve">Midnight Oil</t>
   </si>
   <si>
-    <t xml:space="preserve">A slick and highly flammable liquid. Can be used to create oil slicks, waterproof flames, thick tar, or light-absorbing materials that darken their surroundings.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millow Fog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distilled extract from the Millow flower. When exposed to air, explodes into a billowing cloud of fog that extinguishes flames, confuses the senses, and blocks line of sight.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perfect Acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A dangerously potent acid that can be diluted for many uses. Can be used to dissolve most materials, break locks, sabotage equipment, or deal Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pocket Wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A rapidly expanding cement-like substance. Can be used to create cover, seal doors shut, impede movement, or adhere objects together.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pyre Powder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A caustic powder that augments potions and grenades. Potions from Produce a Potion heal an additional box of damage. Grenades from Produce a Grenade can either a create a larger blast radius or deal additional damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enchanter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant made from clay, capable of fighting and lifting heavy objects. Equipping this Kit provides one golem. You can expend a Charge Point to create additional golems. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quicksilver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alchemy, Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant made from liquid metal, capable of shaping itself into weapons, tools, and objects. You can expend a Charge Point to deflect an attack by having the metal change into a shield or similar object.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shikigami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant made from enchanted paper, capable of flying, scouting, and carrying messages.  Equipping this kit provides one shikigami. You can expend a Charge Point to create additional servants.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substance Empower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reinforce an object, making it harder to damage or break. The larger the object is, the more difficult and time-consuming it is to perform the change. Can be completed instantly by expending a Charge Point Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substance Reshape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change the shape of an object, without changing its mass. The more intricate the intended result is, the more difficult and time-consuming it is to perform the change. Can be completed instantly by expending a Charge Point. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substance Transmute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Converts one material into another. The greater the difference from the original, the more difficult and time-consuming it is to perform the change. Can be completed instantly by expending a Charge Point. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sapper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electromagnetic Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition are electrically charged, shocking or magnetizing targets in addition to any Physical damage dealt. When used with Produce a Grenade inflicts Physical damage and one other effect in a wide area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friction Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition involve capsules of liquid, producing quick-drying adhesive or slippery grease in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron-Sighted Rifle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A long-barreled gun used for prevision shooting. Using this weapon allows you to harm specific targets (like eyes or hands), in addition to any Physical damage dealt. You have Advantage when making ranged attacks without any distractions. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thermic Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition have thermal properties, producing flames or frost on targets in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trenchsteel Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition are physically loaded, exploding into a mass of ball bearings or coils of barbed wire in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vapor Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition are chemically loaded, instantly rusting through metal or producing small clouds of tear gas in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Abjuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman, Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to repel and dispel. Can be used to create barriers, destroy magic, and turn away otherworldly influences. You can expend a Mana Point to deflect an attack aimed at you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Divination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to petition otherworldly forces for information. Can be used to divine the location of people, places, and things through magical means.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Dreaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to meddle with the boundary between conscious and unconscious. Can be used to induce sleep, daze enemies, and put others into a trance. You have Advantage when using Presence to hypnotize the weak-willed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to speak and undestand all creatures. Can be used to communicate with animals, use charm magic, and compel others to your will. You have Advantage when using Presence to awe others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Necromancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to meddle with the boundary between life and death. Can be used to puppet corpses to do your bidding, summon ghosts, and stave off death.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Restoration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to restore what is broken. Can be used to heal Physical damage, repair broken objects, and treat natural afflictions. The number of Physical boxes healed is equal to the result of the roll.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shaman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Aether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate electricity. Can be used to shoot lightning from your hands, induce pain without damage, and shock enemies that harm you. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate air. Can be used to create ferocious whirlwinds, fall gently from great heights, and rebuff projectiles. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Earth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate earth. Can be used to throw jagged spikes from the ground, reshape stone, and send tremors through the earth. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Flame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate fire. Can be used to throw flames, create floating torches, and control raging fires. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Metal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate metal. Can be used to magnetize metallic objects, binding them together or pushing them apart. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate water. Can be used to create spears of ice, conjure fog, and purify liquids. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wizard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Entropy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate the rate of decay. Can be used to accelerate or slow rotting, rusting, and other decomposition processes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to perform limited telekinesis. Can be used to levitate nearby objects and launch them through the air. You can expend a Mana Point to deflect an attack aimed at you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Gravity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate gravity. Can be used to add or reduce weight for a short time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Locomotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate kinetic energy. Can be used to add or reduce the speed of a moving object.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Siphon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to sap energy. Can be used to steal away lifeforce and pull it into oneself, or tap into the magic energy of enchanted objects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Thermos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate thermal energy. Can be used to add or reduce heat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scoundrel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assassin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbed Thorns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of poisoned barbed arrows and needles that hamper an enemy’s movement. Using this weapon greatly reduces a target’s mobility, in addition to any Physical damage dealt. You have Advantage when sprinting, as might be the case when chasing after someone or retreating from danger.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden Silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A potent hallucinogenic dust. Can be used to induce confusion, to numb pain, to put a target into a stupor, to render someone highly suggestable, or to inflict Mental damage. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manifold Venom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A collection of dangerous poisons. Can be applied to the user’s weapons to induce paralysis, sap strength, cause blindness, or inflict additional Physical damage. Requires an action if applied in combat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nerve Thorns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of needles laced with nerve poison. Using this technique can incapacitate targets without lasting harm or visible injury, in addition to any Physical damage dealt. You have Advantage when sensing the motivations of others and detecting lies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Darkness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate darkness. Can be used to obscure appearances, darken areas, and blind enemies. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traceless Thorns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of transparent glass arrows and needles that make it difficult to trace the trajectory of attacks. Using this weapon reduces the likelihood that you’ll be exposed after making a sneak attack. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charmed Chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A length of enchanted chain that can become rigid or loose on command. Using this weapon allows your attacks to grapple enemies with ease, in addition to any damage dealt. Can be used in place of rope, a grappling hook, or a whip.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dervish Knives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of throwing knives that can be flicked through the air with ease. Using this weapon allows you to move before and after making an attack, darting outside of melee range or throwing blades while running. You have Advantage when performing acrobatics, such as climbing walls or jumping over obstacles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faerie Fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A volatile powder used in fireworks. Can create plumes of smoke, bright lights, flames, loud noises, or induce violent coughing. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holy Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A specially treated water that negates magic. Can be used to counter spells, disperse spirits, damage magical objects, or repel monsters. You can expend a Prep Point to negate hostile magic as a reaction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate light. Can be used to create ghostly illusions, see afar, and blind enemies. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Sound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate sound. Can be used to project noises, eavesdrop from afar, and shatter eardrums.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beast’s Balm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A mixture that bewitches animals. You can communicate with and befriend beasts. You can use I Know a Guy to recruit a local beast to aid you. The beast can track, fight, and is capable of anything that a creature of its kind might otherwise do. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beast’s Blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A mixture that heightens senses. Can provide a bat’s sense of hearing, a hound’s sense of smell, or similar effects. When amplified, can provide more drastic animal adaptations, like fireproof scales or a fish’s gills. Can also be used to attract beasts and monsters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monster Hunter’s Salve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A thick medicinal paste that can neutralize most poisons, diseases, and noxious odors. Allows the user to pierce through illusions when worn over the eyes, ears, and nose.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silent Arrows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of arrows that seem to absorb sound. Using this weapon ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. You have Advantage when determining who acts first, such as when determining combat turn order.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Splitting Arrows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of arrows that split apart in mid-flight. Using this weapon gives your attack an additional target, with both hits landing within moments of one another. The additional target cannot be the same as the original target. You have Advantage when tracking a target, such as when finding the trail of a monster or criminal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate plants. Can be used to accelerate plant growth, speed up natural healing, and command flora. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soldier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blademaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blinding Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sleek sword with an alchemical mirror finish that blinds enemies with reflected light. Using this weapon gives Advantage to the next attack made on the target, either by you or by one of your allies, in addition to any Physical damage dealt. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flametongue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An enchanted iron sword that glows with heat, as though it was just taken out of a forge. Using this weapon ignites flammable surfaces on contact. Successful attacks also deal an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harmonic Steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A weighty length of steel that resonates like a tuning fork when struck. Using this weapon bypasses the effects of armor or similar defenses by sending destructive vibrations on contact. Can be used to shatter glass, ice, and similar materials without physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stormbringer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A cursed blade that feeds off the living. Using this weapon restores a Fortune Point whenever it’s used to incapacitate an enemy. At any time when you would otherwise spend a Fortune Point, you can spend a Physical box instead. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twin Edges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A pair of swords used together to create a whirlwind of slashes. Using this weapon gives your attacks an area of effect around your body, damaging enemies nearby. On a successful defense against a melee attack, you inflict a box of Physical damage to the attacker.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windcutter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A curved sword that catches the wind and turns it into sharp blades. Using this weapon greatly extends the range of your attacks. You have Advantage when defending against projectile attacks like arrows and bullets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arrows of Light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of silver-tipped arrows that glow brightly in the dark. Using this weapon allows your ranged attacks to ignore magical defenses and prevents targets from healing by magic or alchemy. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blessed Sword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A blade quenched in holy water, used to break curses and strike down otherworldly forces. Using this weapon allows your attacks to interfere with magic, in addition to any Physical damage dealt. You have Advantage when inspiring or rallying others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospitaler Salts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smelling salts that wake the unconscious. Can be used to revive an incapacitated ally and allow them to briefly ignore the effects of their injuries. Revived allies clear one box of damage, Physical or Mental, depending on which is necessary. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impact Mace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An enchanted warmace that stores kinetic energy. Using this weapon allows your attacks to forcibly reposition enemies, knocking them back or into the air, in addition to any Physical damage dealt. You have Advantage against any effect that attempts to forcibly move you or impede your movement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ironheart Shield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A magnetically-charged shield, capable of attracting arrows and blades. Using this weapon allows your attacks to trap metal objects and armored enemies, in addition to any Physical damage dealt. When a nearby ally would otherwise take damage, you can take damage in their place, so long as you are able to provide a narrative justification for how you do so. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mythril Spear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A featherweight spear with a chain attached to its base, allowing it to be thrown or spun. Using this weapon compels an enemy to focus their attentions on you after a successful attack, in addition to any Physical damage dealt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myrmidon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breaker Axe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An alchemically-enhanced axe that’s just as effective on doors and walls as enemies. Using this weapon allows your attacks to breakthrough materials like stone and metal. Successful attacks also deal an additional box of Physical damage. You have Advantage when using this weapon to destroy objects. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compliant Rod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A metal staff that can shrink to fit in a pocket or grow to ten feet in length. Using this weapon allows your attacks to inflict damage in an area around your main target. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ogre Draught</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A dangerous drug that requires training to withstand. While this kit is equipped you are immune to poisons, diseases, and curses. You have Advantage against hazards like sweltering heat, bitter cold, or traps. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shocklance</t>
-  </si>
-  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">A dark oil that absorbs sound and light, muting its surroundings.</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -545,7 +89,109 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">An spear whose tip crackles with electricity, causing intense pain on contact. </t>
+      <t xml:space="preserve"> When burned it produces an invisible flame that gives off heat but not light, and an odorless gas that lulls others to sleep. When you Produce a Grenade, you can create a canister of sleeping gas instead, which deals Mental damage rather than Physical.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Pocket Wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A rapidly expanding cement-like substance. Can be used to create shelter, mend cracks, seal doors, or adhere objects to one another. You have Advantage when creating or repairing objects with this substance. When you Produce a Potion, it heals an additional Physical box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyre Powder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A crackling dust that serves as the ideal catalyst. When you use Produce a Potion or Produce a Grenade, you produce two items instead of one. You are still limited to using one item per action in combat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winterbloom Extract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highly-concentrated extract from the Winterbloom flower. A droplet can freeze fifty gallons of water into hard ice, create a billowing cloud of fog, or plummet the temperature of anything it comes into contact with. When you Produce a Grenade, you can create a flash freeze grenade instead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enchanter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dancing Shadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant made of shadow, granting you a limited form of telekinesis. The servant exists within your shadow, but can move independently and interact with the physical world. The shadow is able to retrieve lightweight objects and jostle objects, but cannot fight.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Familiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant that takes the form of a small animal, such as a crow or cat. You are able to borrow its senses, temporarily gaining a bird’s eye view or a dog’s sense of smell for example. The form of the familiar is chosen when the kit is equipped, and may be changed by expending a Charge Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Featherweave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alchemy, Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant made from enchanted cloth, capable of resisting gravity to a limited degree. You glide gently to the ground while wearing this kit. When folded into a bag, you can carry heavy objects with ease. When unrolled it becomes a flying carpet, able to carry you through the air across short distances.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant made from clay, capable of fighting and lifting heavy objects. Equipping this Kit provides one golem. You can expend a Charge Point to create additional golems. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quicksilver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, Alchemy, Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant made from liquid metal, capable of shaping itself into weapons, tools, and objects. Using this weapon allows you to use Perception when attacking in melee. You can expend a Charge Point to deflect an attack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shikigami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant made from enchanted paper, capable of flying, spying, and carrying messages.  Equipping this kit provides one shikigami. You can expend a Charge Point to create additional servants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electromagnetic Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrically charged bullets that shock (dealing Mental damage) or magnetize targets instead of dealing Physical damage. When used with Produce a Grenade inflicts one of the two effects in a wide area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friction Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capsule bullets filled with liquid that produces quick-drying adhesive or slippery grease instead of dealing Physical damage. When used with Produce a Grenade this kit inflicts one of the two effects in a wide area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron-Sighted Rifle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A long-barreled gun used for precision shooting. Using this weapon allows your ranged attacks to harm specific targets (like eyes or hands), in addition to any Physical damage dealt. You have Advantage when making ranged attacks without any distractions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphos Charges</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Volatile bullets that ignite (dealing Physical damage) or produce blinding flashes of light on impact. </t>
     </r>
     <r>
       <rPr>
@@ -554,10 +200,382 @@
         <rFont val="Fira Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Using this weapon inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when intimidating others. </t>
+      <t xml:space="preserve">When used with Produce a Grenade this kit inflicts one of the two effects in a wide area.</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Sonic Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explosive bullets that create powerful shockwaves to knock enemies over or deliver deafening sonic booms, instead of dealing Physical damage. When used with Produce a Grenade inflicts one of the two effects in a wide area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trenchcoat Boomstick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A short-barreled gun used for clearing rooms. Using this weapon allows your ranged attacks to cause harm in a cone area-of-effect immediately in front of you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Abjuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman, Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to repel and dispel. Can be used to create barriers, destroy magic, and turn away otherworldly influences. You can expend a Mana Point to deflect an attack aimed at you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Divination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to petition otherworldly forces for information. Can be used to divine the location of people, places, and things through magical means.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Dreaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to meddle with the boundary between conscious and unconscious. Can be used to induce sleep, daze enemies, and put others into a trance. You have Advantage when using Presence to hypnotize the weak-willed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to speak and undestand all creatures. Can be used to communicate with animals, use charm magic, and compel others to your will. You have Advantage when using Presence to awe others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Necromancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to meddle with the boundary between life and death. Can be used to puppet corpses to do your bidding, summon ghosts, and stave off death.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Restoration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to restore what is broken. Can be used to heal Physical damage, repair broken objects, and treat natural afflictions. The number of Physical boxes healed is equal to the result of the roll.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Aether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate electricity. Can be used to shoot lightning from your hands, induce pain without damage, and shock enemies that harm you. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate air. Can be used to create ferocious whirlwinds, fall gently from great heights, and rebuff projectiles. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate earth. Can be used to throw jagged spikes from the ground, reshape stone, and send tremors through the earth. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Flame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate fire. Can be used to throw flames, create floating torches, and control raging fires. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate metal. Can be used to magnetize metallic objects, binding them together or pushing them apart. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate water. Can be used to create spears of ice, conjure fog, and purify liquids. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wizard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Entropy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate the rate of decay. Can be used to accelerate or slow rotting, rusting, and other decomposition processes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to perform limited telekinesis. Can be used to levitate nearby objects and launch them through the air. You can expend a Mana Point to deflect an attack aimed at you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Gravity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate gravity. Can be used to add or reduce weight for a short time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Locomotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate kinetic energy. Can be used to add or reduce the speed of a moving object.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Siphoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to sap energy. Can be used to steal away lifeforce and pull it into oneself, or tap into the magic energy of enchanted objects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Thermos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate thermal energy. Can be used to add or reduce heat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scoundrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assassin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbed Thorns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of poisoned barbed arrows and needles that hamper an enemy’s movement. Using this weapon greatly reduces a target’s mobility, in addition to any Physical damage dealt. You have Advantage when sprinting, as might be the case when chasing after someone or retreating from danger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A potent hallucinogenic dust. Can be used to induce confusion, to numb pain, to put a target into a stupor, to render someone highly suggestable, or to inflict Mental damage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manifold Venom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A collection of dangerous poisons. Can be applied to the user’s weapons to induce paralysis, sap strength, cause blindness, or inflict additional Physical damage. Requires an action if applied in combat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nerve Thorns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of needles laced with nerve poison. Using this technique can incapacitate targets without lasting harm or visible injury, in addition to any Physical damage dealt. You have Advantage when sensing the motivations of others and detecting lies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Darkness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate darkness. Can be used to obscure appearances, darken areas, and blind enemies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traceless Thorns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of transparent glass arrows and needles that make it difficult to trace the trajectory of attacks. Using this weapon reduces the likelihood that you’ll be exposed after making a sneak attack. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charmed Chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A length of enchanted chain that can become rigid or loose on command. Using this weapon allows your attacks to grapple enemies with ease, in addition to any damage dealt. You have Advantage when climbing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dervish Knives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of throwing knives that can be flicked through the air with ease. Using this weapon allows you to move before and after making an attack, darting outside of melee range or throwing blades while running. You have Advantage when performing acrobatics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faerie Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A volatile powder used in fireworks. Can create plumes of smoke, bright lights, flames, loud noises, or induce violent coughing. When you Disappear from Sight, you can create a cloud of smoke that blocks line of sight.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holy Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A specially treated water that negates magic. Can be used to counter spells, disperse spirits, damage magical objects, or repel monsters. You can expend a Prep Point to negate hostile magic as a reaction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate light. Can be used to create ghostly illusions, see afar, and blind enemies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate sound. Can be used to project noises, eavesdrop from afar, and shatter eardrums.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast’s Balm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mixture that bewitches animals. You can communicate with and befriend beasts. You can use I Know a Guy to recruit a local beast to aid you. The beast can track, fight, and is capable of anything that a creature of its kind might otherwise do. Can also be used to attract beasts and monsters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster Hunter’s Salve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A thick medicinal paste that can neutralize most poisons, diseases, and noxious odors. Allows the user to pierce through illusions when worn over the eyes, ears, and nose.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silent Arrows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of arrows that seem to absorb sound. Using this weapon ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. You have Advantage when determining who acts first, such as when determining combat turn order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate plants. Can be used to accelerate plant growth, speed up natural healing, and command flora. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twin Edges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pair of swords used together to create a whirlwind of slashes. Using this weapon gives your attacks an area of effect around your body, damaging enemies nearby. On a successful defense against a melee attack, you inflict a box of Physical damage to the attacker.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twinned Arrows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of arrows that split apart in mid-flight. Using this weapon gives your attack an additional target, with both hits landing within moments of one another. The additional target cannot be the same as the original target. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soldier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blademaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blinding Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sleek sword with an alchemical mirror finish that blinds enemies with reflected light. Using this weapon gives Advantage to the next attack made on the target, either by you or by one of your allies, in addition to any Physical damage dealt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flametongue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An enchanted iron sword that glows with heat, as though it was just taken out of a forge. Using this weapon ignites flammable surfaces on contact. Successful attacks also deal an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harmonic Steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A vibrating length of metal that resonates like a tuning fork when struck. Using this weapon bypasses the effects of armor and shields by sending shockwaves through strikes. Can be used to cause tremors in the ground and shatter glass at range.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mournblade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, Resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cursed sword that feeds off the living. Using this weapon restores a Fortune Point whenever it’s used to incapacitate an enemy. At any time when you would otherwise spend a Fortune Point, you can spend a Physical box instead. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaping Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An ointment that temporarily softens metal and stone when rubbed in. Can be used to sharpen objects into blades, repair damaged tools, and bend steel bars.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windcutter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A curved scimitar that catches the wind and turns it into sharp blades. Using this weapon greatly extends the range of your attacks. You have Advantage when defending against projectile attacks like arrows and bullets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrows of Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of silver-tipped arrows that glow brightly in the dark. Using this weapon allows your ranged attacks to ignore magical defenses and prevents targets from healing by magic or alchemy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blessed Sword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A blade quenched in holy water, used to break curses and strike down otherworldly forces. Using this weapon allows your attacks to interfere with magic, in addition to any Physical damage dealt. You have Advantage when inspiring or rallying others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospitaler Salts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smelling salts that wake the unconscious. Can be used to revive an incapacitated ally and allow them to briefly ignore the effects of their injuries. Revived allies clear one box of damage, Physical or Mental, depending on which is necessary. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impact Mace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An enchanted warmace that stores kinetic energy. Using this weapon allows your attacks to forcibly reposition enemies, knocking them back or into the air, in addition to any Physical damage dealt. You have Advantage against any effect that attempts to forcibly move you or impede your movement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ironheart Shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A magnetically-charged shield, capable of attracting arrows and blades. Using this weapon allows your attacks to trap metal objects and armored enemies, in addition to any Physical damage dealt. When a nearby ally would otherwise take damage, you can take damage in their place, so long as you are able to provide a narrative justification for how you do so. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mythril Spear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A featherweight spear with a chain attached to its base, allowing it to be thrown or spun. Using this weapon compels an enemy to focus their attentions on you after a successful attack, in addition to any Physical damage dealt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myrmidon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breaker Axe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An alchemically-enhanced axe that’s just as effective on doors and walls as enemies. Using this weapon allows your attacks to cut through materials like stone and metal. Successful attacks also deal an additional box of Physical damage. You have Advantage when using this weapon to destroy objects. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compliant Rod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A metal staff that can shrink to fit in a pocket or grow to ten feet in length. Using this weapon allows your attacks to inflict damage in an area around your main target. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ogre Draught</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dangerous drug that requires training to withstand. While this kit is equipped you are immune to poisons, diseases, and curses. You have Advantage against hazards like sweltering heat, bitter cold, or traps. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shocklance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A spear whose tip crackles with electricity, causing intense pain on contact. Using this weapon inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when intimidating others. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Thunderclap Javelins</t>
   </si>
   <si>
@@ -615,6 +633,9 @@
     <t xml:space="preserve">A Cut Above</t>
   </si>
   <si>
+    <t xml:space="preserve">Resource</t>
+  </si>
+  <si>
     <t xml:space="preserve">You can expend a Fortune Point to increase an attack roll’s result by +1. You can do so even if a Fortune Point has already been expended on that action, but cannot do so more than once per an action.</t>
   </si>
   <si>
@@ -732,9 +753,6 @@
     <t xml:space="preserve">Shadowdancer</t>
   </si>
   <si>
-    <t xml:space="preserve">Dancing Shadow</t>
-  </si>
-  <si>
     <t xml:space="preserve">Your attacks are followed by your shadow’s attacks. Using this technique allows you to strike at a target twice. The target must be the same as your original. You roll twice when using this technique.</t>
   </si>
   <si>
@@ -852,6 +870,12 @@
     <t xml:space="preserve">A primordial word that fosters recovery and growth. Restores Physical harm and revitalizes natural life. Higher difficulty than most magic.</t>
   </si>
   <si>
+    <t xml:space="preserve">Vapor Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition are chemically loaded, instantly rusting through metal or producing small clouds of tear gas in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trajectory Control</t>
   </si>
   <si>
@@ -900,6 +924,24 @@
     <t xml:space="preserve">Combine objects. Can be used to physically weld two objects to one another, or to mix them into one another as a means of creating a new object. The more complex the intended result is, the more difficult the change. Requires physical contact.</t>
   </si>
   <si>
+    <t xml:space="preserve">Substance Empower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinforce an object, making it harder to damage or break. The larger the object is, the more difficult and time-consuming it is to perform the change. Can be completed instantly by expending a Charge Point Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substance Reshape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change the shape of an object, without changing its mass. The more intricate the intended result is, the more difficult and time-consuming it is to perform the change. Can be completed instantly by expending a Charge Point. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substance Transmute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converts one material into another. The greater the difference from the original, the more difficult and time-consuming it is to perform the change. Can be completed instantly by expending a Charge Point. Requires physical contact.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fencer</t>
   </si>
   <si>
@@ -921,9 +963,24 @@
     <t xml:space="preserve">You’re able to multitask while fighting. You can use Produce a Potion or What You Needed in the same action as making an attack.</t>
   </si>
   <si>
+    <t xml:space="preserve">Bigger Batches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you use Produce a Potion or Produce a Grenade, you produce two items instead of one. You are still limited to using one item per action in combat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A slick and highly flammable liquid. Can be used to create oil slicks, waterproof flames, thick tar, or light-absorbing materials that darken their surroundings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect Acid</t>
+  </si>
+  <si>
     <t xml:space="preserve">A dangerously potent acid that can be diluted for use in many tasks. Can be used to dissolve most materials, break locks, sabotage equipment, or deal Physical damage.</t>
   </si>
   <si>
+    <t xml:space="preserve">A rapidly expanding cement-like substance. Can be used to create cover, seal doors shut, impede movement, or adhere objects together.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Potency</t>
   </si>
   <si>
@@ -936,12 +993,33 @@
     <t xml:space="preserve">You have a servant made from liquid metal, capable of shaping itself into weapons, tools, and objects. You can expend a Charge Point to deflect an attack by having the familiar change into a shield or similar object.</t>
   </si>
   <si>
+    <t xml:space="preserve">You have a servant made from enchanted paper, capable of flying, scouting, and carrying messages.  Equipping this kit provides one shikigami. You can expend a Charge Point to create additional servants.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Called Shot</t>
   </si>
   <si>
     <t xml:space="preserve">Your attacks are exceptionally precise. Using this technique allows you to harm specific targets (like eyes or hands), in addition to any Physical damage dealt. You have Advantage when making ranged attacks without any distractions. </t>
   </si>
   <si>
+    <t xml:space="preserve">Attacks that use this ammunition are electrically charged, shocking or magnetizing targets in addition to any Physical damage dealt. When used with Produce a Grenade inflicts Physical damage and one other effect in a wide area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition involve capsules of liquid, producing quick-drying adhesive or slippery grease in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermic Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition have thermal properties, producing flames or frost on targets in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trenchsteel Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition are physically loaded, exploding into a mass of ball bearings or coils of barbed wire in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spirit of Abjuration</t>
   </si>
   <si>
@@ -1083,6 +1161,9 @@
     <t xml:space="preserve">Your fighting style resembles dancing, making you particularly mobile. Using this technique allows you to move before and after making an attack, darting outside of melee range or firing shots while running. You have Advantage when performing acrobatics, such as climbing walls or jumping over obstacles.</t>
   </si>
   <si>
+    <t xml:space="preserve">A volatile powder used in fireworks. Can create plumes of smoke, bright lights, flames, loud noises, or induce violent coughing. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Spirit of Light</t>
   </si>
   <si>
@@ -1105,6 +1186,15 @@
   </si>
   <si>
     <t xml:space="preserve">Your attacks hit two targets instead of one. Using this technique gives your attack an additional target, with both hits landing within moments of one another. The additional target cannot be the same as the original target. You have Advantage when tracking a target, such as when finding the trail of a monster or criminal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mixture that bewitches animals. You can communicate with and befriend beasts. You can use I Know a Guy to recruit a local beast to aid you. The beast can track, fight, and is capable of anything that a creature of its kind might otherwise do. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast’s Blood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mixture that heightens senses. Can provide a bat’s sense of hearing, a hound’s sense of smell, or similar effects. When amplified, can provide more drastic animal adaptations, like fireproof scales or a fish’s gills. Can also be used to attract beasts and monsters.</t>
   </si>
   <si>
     <t xml:space="preserve">Prepared</t>
@@ -1871,6 +1961,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1916,10 +2010,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2182,8 +2272,8 @@
   </sheetPr>
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E65" activeCellId="0" sqref="E65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2259,7 +2349,7 @@
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2308,10 +2398,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2319,16 +2409,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2336,16 +2426,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2353,16 +2443,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2370,16 +2460,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2387,13 +2477,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>32</v>
@@ -2404,7 +2494,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>33</v>
@@ -2512,927 +2602,927 @@
         <v>47</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="16" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="16" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="16" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D47" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="15" t="s">
+      <c r="D47" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="E48" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D53" s="14" t="s">
+      <c r="E60" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E53" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D54" s="14" t="s">
+      <c r="E62" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E63" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" s="19" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B56" s="17" t="s">
+      <c r="E66" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D56" s="18" t="s">
+      <c r="B67" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E56" s="19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B57" s="17" t="s">
+      <c r="E67" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C57" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="D57" s="18" t="s">
+      <c r="B68" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E57" s="20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B58" s="17" t="s">
+      <c r="E68" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C58" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="D58" s="18" t="s">
+      <c r="B69" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E58" s="19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B59" s="17" t="s">
+      <c r="E69" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C59" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B60" s="17" t="s">
+      <c r="B70" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C60" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B61" s="17" t="s">
+      <c r="B71" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C61" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D61" s="18" t="s">
+      <c r="B72" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E67" s="19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68" s="17" t="s">
+      <c r="E72" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="C68" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D73" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E73" s="19" t="s">
+      <c r="D73" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E73" s="20" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3456,7 +3546,7 @@
   </sheetPr>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -3593,16 +3683,16 @@
         <v>173</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>187</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3610,16 +3700,16 @@
         <v>173</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>178</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3627,16 +3717,16 @@
         <v>173</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>178</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3644,16 +3734,16 @@
         <v>173</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3661,16 +3751,16 @@
         <v>173</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>178</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3678,16 +3768,16 @@
         <v>173</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>178</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3695,16 +3785,16 @@
         <v>173</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3712,16 +3802,16 @@
         <v>173</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3729,16 +3819,16 @@
         <v>173</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3746,16 +3836,16 @@
         <v>173</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>178</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3763,16 +3853,16 @@
         <v>173</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>178</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3780,16 +3870,16 @@
         <v>173</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3797,16 +3887,16 @@
         <v>173</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3814,16 +3904,16 @@
         <v>173</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3831,16 +3921,16 @@
         <v>173</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3848,16 +3938,16 @@
         <v>173</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3865,16 +3955,16 @@
         <v>173</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3882,16 +3972,16 @@
         <v>173</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3899,10 +3989,10 @@
         <v>173</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>227</v>
+        <v>21</v>
       </c>
       <c r="D26" s="35" t="s">
         <v>178</v>
@@ -3916,10 +4006,10 @@
         <v>173</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D27" s="35" t="s">
         <v>8</v>
@@ -3933,13 +4023,13 @@
         <v>173</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C28" s="35" t="s">
         <v>230</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="E28" s="36" t="s">
         <v>231</v>
@@ -3950,13 +4040,13 @@
         <v>173</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C29" s="35" t="s">
         <v>232</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E29" s="36" t="s">
         <v>233</v>
@@ -3967,13 +4057,13 @@
         <v>173</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C30" s="35" t="s">
         <v>234</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="E30" s="36" t="s">
         <v>235</v>
@@ -3984,7 +4074,7 @@
         <v>173</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C31" s="35" t="s">
         <v>236</v>
@@ -4024,7 +4114,7 @@
         <v>242</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="E33" s="40" t="s">
         <v>243</v>
@@ -4075,7 +4165,7 @@
         <v>249</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E36" s="40" t="s">
         <v>250</v>
@@ -4092,7 +4182,7 @@
         <v>251</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E37" s="40" t="s">
         <v>252</v>
@@ -4109,7 +4199,7 @@
         <v>254</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E38" s="28" t="s">
         <v>255</v>
@@ -4187,7 +4277,7 @@
         <v>259</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E44" s="32" t="s">
         <v>260</v>
@@ -4204,7 +4294,7 @@
         <v>261</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E45" s="32" t="s">
         <v>262</v>
@@ -4221,7 +4311,7 @@
         <v>263</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E46" s="32" t="s">
         <v>264</v>
@@ -4238,7 +4328,7 @@
         <v>265</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E47" s="32" t="s">
         <v>266</v>
@@ -4253,7 +4343,7 @@
       </c>
       <c r="C48" s="31"/>
       <c r="D48" s="31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E48" s="32"/>
     </row>
@@ -4266,7 +4356,7 @@
       </c>
       <c r="C49" s="31"/>
       <c r="D49" s="31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E49" s="32"/>
     </row>
@@ -4291,7 +4381,7 @@
   <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4328,13 +4418,13 @@
         <v>35</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>47</v>
+        <v>267</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>48</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4343,13 +4433,13 @@
         <v>35</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>178</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4378,16 +4468,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4395,16 +4485,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4412,16 +4502,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4429,16 +4519,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4446,16 +4536,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4463,38 +4553,56 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
+      <c r="C13" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
+      <c r="C14" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
+      <c r="C15" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
@@ -4525,402 +4633,402 @@
       <c r="E19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="15"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="16"/>
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="15"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16"/>
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="15"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="16"/>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="16"/>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="15"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="16"/>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="15"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="16"/>
     </row>
     <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="15"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="16"/>
     </row>
     <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="15"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="16"/>
     </row>
     <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="15"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="16"/>
     </row>
     <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="15"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="16"/>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="15"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="16"/>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="15"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="16"/>
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="15"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="16"/>
     </row>
     <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="15"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="16"/>
     </row>
     <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="15"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="16"/>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="15"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="16"/>
     </row>
     <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="15"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="16"/>
     </row>
     <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="15"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="16"/>
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="D56" s="18" t="s">
+      <c r="A56" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D56" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E56" s="19" t="s">
-        <v>285</v>
+      <c r="E56" s="20" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="D57" s="18" t="s">
+      <c r="A57" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="D57" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E57" s="19" t="s">
-        <v>287</v>
+      <c r="E57" s="20" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="16"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="19"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="20"/>
     </row>
     <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="16"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="19"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="20"/>
     </row>
     <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="16"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="19"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="20"/>
     </row>
     <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="16"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="19"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="20"/>
     </row>
     <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="16"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="19"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="20"/>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="16"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="19"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="20"/>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="16"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="19"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="20"/>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="16"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="19"/>
+      <c r="A65" s="17"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="20"/>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="16"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="19"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="20"/>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="16"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="19"/>
+      <c r="A67" s="17"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="20"/>
     </row>
     <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="16"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="19"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="20"/>
     </row>
     <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="16"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="19"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="20"/>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="16"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="19"/>
+      <c r="A70" s="17"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="20"/>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="16"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="19"/>
+      <c r="A71" s="17"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="20"/>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="16"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="19"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="20"/>
     </row>
     <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="16"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="19"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="20"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E109"/>
@@ -4942,7 +5050,7 @@
   </sheetPr>
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D77" activeCellId="0" sqref="D77"/>
     </sheetView>
   </sheetViews>
@@ -4980,13 +5088,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>178</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4997,13 +5105,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>7</v>
+        <v>298</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>9</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5014,13 +5122,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5031,13 +5139,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>301</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5048,13 +5156,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5065,13 +5173,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5079,16 +5187,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5096,16 +5204,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5113,16 +5221,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>28</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5130,16 +5238,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>30</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5147,16 +5255,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>31</v>
+        <v>287</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5164,16 +5272,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>33</v>
+        <v>289</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5184,13 +5292,13 @@
         <v>35</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>178</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5207,7 +5315,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5224,7 +5332,7 @@
         <v>8</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>39</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5235,13 +5343,13 @@
         <v>35</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>43</v>
+        <v>313</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>44</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5252,13 +5360,13 @@
         <v>35</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>46</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5269,931 +5377,931 @@
         <v>35</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>47</v>
+        <v>267</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>48</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>298</v>
+      <c r="E20" s="12" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>300</v>
+      <c r="C21" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>302</v>
+      <c r="C22" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>304</v>
+      <c r="C23" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>306</v>
+      <c r="C24" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>308</v>
+      <c r="C25" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>310</v>
+      <c r="C26" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>312</v>
+      <c r="C27" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>314</v>
+      <c r="C28" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>316</v>
+      <c r="C29" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>318</v>
+      <c r="C30" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>320</v>
+      <c r="C31" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>322</v>
+      <c r="C32" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>324</v>
+      <c r="C33" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="D34" s="10" t="s">
+      <c r="C34" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>326</v>
+      <c r="E34" s="12" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>328</v>
+      <c r="C35" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>330</v>
+      <c r="C36" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>332</v>
+      <c r="C37" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="D40" s="14" t="s">
+      <c r="C40" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>334</v>
+      <c r="E40" s="16" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="D41" s="14" t="s">
+      <c r="C41" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="D41" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="E41" s="15" t="s">
-        <v>336</v>
+      <c r="E41" s="16" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>339</v>
+      <c r="C42" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>341</v>
+      <c r="C43" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="D44" s="14" t="s">
+      <c r="C44" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="D44" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="E44" s="15" t="s">
-        <v>343</v>
+      <c r="E44" s="16" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="15" t="s">
-        <v>111</v>
+      <c r="E45" s="16" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D46" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" s="15" t="s">
+      <c r="D46" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>345</v>
+      <c r="C47" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>347</v>
+      <c r="C48" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>349</v>
+      <c r="C49" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C50" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="D50" s="14" t="s">
+      <c r="C50" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="D50" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="E50" s="15" t="s">
-        <v>351</v>
+      <c r="E50" s="16" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="15" t="s">
-        <v>120</v>
+      <c r="E51" s="16" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D52" s="14" t="s">
+      <c r="C52" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="D52" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="15" t="s">
-        <v>122</v>
+      <c r="E52" s="16" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C53" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>353</v>
+      <c r="C53" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="D54" s="14" t="s">
+      <c r="C54" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="D54" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="E54" s="15" t="s">
-        <v>355</v>
+      <c r="E54" s="16" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>357</v>
+      <c r="C55" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="C56" s="18" t="s">
+      <c r="A56" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="D60" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="E60" s="20" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E56" s="19" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="D58" s="18" t="s">
+      <c r="E61" s="20" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="D64" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E58" s="19" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="D59" s="18" t="s">
+      <c r="E64" s="20" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="D66" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E59" s="19" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D61" s="18" t="s">
+      <c r="E66" s="20" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="D67" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E61" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="D62" s="18" t="s">
+      <c r="E67" s="20" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="D71" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="E62" s="19" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="D64" s="18" t="s">
+      <c r="E71" s="20" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="D72" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E64" s="19" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="E67" s="19" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68" s="17" t="s">
+      <c r="E72" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="C68" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="D71" s="18" t="s">
+      <c r="C73" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="D73" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="E71" s="19" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="E73" s="19" t="s">
-        <v>390</v>
+      <c r="E73" s="20" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -6216,7 +6324,7 @@
   </sheetPr>
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6254,13 +6362,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>121</v>
+        <v>374</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6274,10 +6382,10 @@
         <v>110</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6291,10 +6399,10 @@
         <v>95</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6308,10 +6416,10 @@
         <v>112</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6325,10 +6433,10 @@
         <v>97</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6339,13 +6447,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6353,16 +6461,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6370,16 +6478,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6387,16 +6495,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6404,16 +6512,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6421,16 +6529,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6438,16 +6546,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6458,13 +6566,13 @@
         <v>35</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6478,10 +6586,10 @@
         <v>36</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6495,10 +6603,10 @@
         <v>38</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6509,13 +6617,13 @@
         <v>35</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>43</v>
+        <v>313</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6526,13 +6634,13 @@
         <v>35</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6543,931 +6651,931 @@
         <v>35</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>47</v>
+        <v>267</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>424</v>
+      <c r="C20" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>426</v>
+      <c r="C21" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>428</v>
+      <c r="C22" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>429</v>
+      <c r="C23" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>431</v>
+      <c r="C24" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>434</v>
+      <c r="C25" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C56" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="D38" s="14" t="s">
+      <c r="D56" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>524</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="D72" s="19" t="s">
         <v>449</v>
       </c>
-      <c r="E38" s="15" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>464</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>465</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>484</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>488</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>490</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>494</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>495</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>488</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>498</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>488</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>499</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>500</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>490</v>
-      </c>
-      <c r="E64" s="19" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>506</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>490</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="E67" s="19" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68" s="17" t="s">
+      <c r="E72" s="20" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="C68" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>511</v>
-      </c>
-      <c r="E69" s="19" t="s">
+      <c r="C73" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="D73" s="19" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>513</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>516</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>425</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>488</v>
-      </c>
-      <c r="E73" s="19" t="s">
-        <v>518</v>
+      <c r="E73" s="20" t="s">
+        <v>542</v>
       </c>
     </row>
   </sheetData>

--- a/miracuse_kits.xlsx
+++ b/miracuse_kits.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="545">
   <si>
     <t xml:space="preserve">Class</t>
   </si>
@@ -72,25 +72,7 @@
     <t xml:space="preserve">Midnight Oil</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">A dark oil that absorbs sound and light, muting its surroundings.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> When burned it produces an invisible flame that gives off heat but not light, and an odorless gas that lulls others to sleep. When you Produce a Grenade, you can create a canister of sleeping gas instead, which deals Mental damage rather than Physical.</t>
-    </r>
+    <t xml:space="preserve">A dark oil that absorbs sound and light, muting its surroundings. When burned it produces an invisible flame that gives off heat but not light, and an odorless gas that lulls others to sleep. When you Produce a Grenade, you can create a canister of sleeping gas instead, which deals Mental damage rather than Physical.</t>
   </si>
   <si>
     <t xml:space="preserve">Pocket Wall</t>
@@ -183,25 +165,7 @@
     <t xml:space="preserve">Phosphos Charges</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Volatile bullets that ignite (dealing Physical damage) or produce blinding flashes of light on impact. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">When used with Produce a Grenade this kit inflicts one of the two effects in a wide area.</t>
-    </r>
+    <t xml:space="preserve">Volatile bullets that ignite targets (dealing Physical damage) or produce blinding flashes of light on impact. When used with Produce a Grenade this kit inflicts one of the two effects in a wide area.</t>
   </si>
   <si>
     <t xml:space="preserve">Sonic Charges</t>
@@ -348,784 +312,790 @@
     <t xml:space="preserve">Assassin</t>
   </si>
   <si>
-    <t xml:space="preserve">Barbed Thorns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of poisoned barbed arrows and needles that hamper an enemy’s movement. Using this weapon greatly reduces a target’s mobility, in addition to any Physical damage dealt. You have Advantage when sprinting, as might be the case when chasing after someone or retreating from danger.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Golden Silk</t>
   </si>
   <si>
+    <t xml:space="preserve">A potent hallucinogenic dust. Can be used to induce confusion, put a target into a stupor, render someone highly suggestable, or inflict Mental damage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manifold Venom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A collection of dangerous liquid venoms. Can be applied to the user’s weapons to induce paralysis, sap strength, or cause blindness. Requires an action if applied in combat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nerve Thorns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of needles laced with nerve poison. Using this technique can incapacitate targets without lasting harm or visible injury, in addition to any Physical damage dealt. You have Advantage when sensing the motivations of others and detecting lies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speed Thorns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of needles tipped with slowing poison. Using this weapon greatly reduces a target’s mobility, in addition to any Physical damage dealt. You have Advantage when sprinting, as might be the case when chasing after someone or retreating from danger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Darkness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate darkness. Can be used to obscure appearances, darken areas, and blind enemies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traceless Thorns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of transparent needles that make it difficult to trace the trajectory of attacks. Using this weapon reduces the likelihood that you’ll be exposed after making a sneak attack. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charmed Chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A length of enchanted chain that can become rigid or loose on command. Using this weapon allows your attacks to grapple enemies with ease, in addition to any damage dealt. You have Advantage when climbing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dervish Knives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of throwing knives that can be flicked through the air with ease. Using this weapon allows you to move before and after making an attack, darting outside of melee range or throwing blades while running. You have Advantage when performing acrobatics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faerie Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A volatile powder used in fireworks. Can create plumes of smoke, bright lights, flames, loud noises, or induce violent coughing. When you Disappear from Sight, you can create a cloud of smoke that blocks line of sight.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holy Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A specially treated water that negates magic. Can be used to counter spells, disperse spirits, damage magical objects, or repel monsters. You can expend a Prep Point to negate hostile magic as a reaction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate light. Can be used to create ghostly illusions, see afar, and blind enemies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate sound. Can be used to project noises, eavesdrop from afar, and shatter eardrums.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast’s Balm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mixture that bewitches animals. You can communicate with and befriend beasts. You can use I Know a Guy to recruit a local beast to aid you. The beast can track, fight, and is capable of anything that a creature of its kind might otherwise do. Can also be used to attract beasts and monsters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricochet Arrows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of magicked arrows with blunt heads. Using this weapon allows your attacks to ricochet to nearby enemies, bouncing at least once. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shepherd’s Flute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ritually crafted flute that has power over simple-minded creatures. Playing the flute with care can calm wild animals and insects. Playing the flute recklessly can stir them into a frenzy, attacking anything nearby.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silent Arrows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of arrows that seem to absorb sound. Using this weapon ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. You have Advantage when determining who acts first, such as when determining combat turn order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate plants. Can be used to accelerate plant growth, speed up natural healing, and command flora. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twin Edges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pair of swords used together to create a whirlwind of slashes. Using this weapon gives your attacks an area of effect around your body, damaging enemies nearby. On a successful defense against a melee attack, you inflict a box of Physical damage to the attacker.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soldier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blademaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flametongue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An enchanted iron sword that glows with heat, as though it was just taken out of a forge. Using this weapon ignites flammable surfaces on contact. Successful attacks also deal an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harmonic Steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A vibrating length of metal that resonates like a tuning fork when struck. Using this weapon bypasses the effects of armor and shields by sending shockwaves through strikes. Can be used to cause tremors in the ground and shatter glass at range.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mournblade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon, Resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cursed sword that feeds off the living. Using this weapon restores a Fortune Point whenever it’s used to incapacitate an enemy. At any time when you would otherwise spend a Fortune Point, you can spend a Physical box instead. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaping Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An ointment that temporarily softens metal and stone when rubbed in. Can be used to sharpen objects into blades, repair damaged tools, and bend steel bars.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorpal Blade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An impossibly sharp sword made of liquid metal. Using this weapon allows your attacks to cleanly slice through most objects. Successful attacks also deal an additional box of damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windcutter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A curved scimitar that catches the wind and turns it into sharp blades. Using this weapon greatly extends the range of your attacks. You have Advantage when defending against projectile attacks like arrows and bullets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrows of Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of silver-tipped arrows that glow brightly in the dark. Using this weapon allows your ranged attacks to ignore magical defenses and prevents targets from healing by magic or alchemy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blessed Sword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A blade quenched in holy water, used to break curses and strike down otherworldly forces. Using this weapon allows your attacks to interfere with magic, in addition to any Physical damage dealt. You have Advantage when inspiring or rallying others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospitaler Salts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smelling salts that wake the unconscious. Can be used to revive an incapacitated ally and allow them to briefly ignore the effects of their injuries. Revived allies clear one box of damage, Physical or Mental, depending on which is necessary. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impact Mace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An enchanted warmace that stores kinetic energy. Using this weapon allows your attacks to forcibly reposition enemies, knocking them back or into the air, in addition to any Physical damage dealt. You have Advantage against any effect that attempts to forcibly move you or impede your movement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ironheart Shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A magnetically-charged shield, capable of attracting arrows and blades. Using this weapon allows your attacks to trap metal objects and armored enemies, in addition to any Physical damage dealt. When a nearby ally would otherwise take damage, you can take damage in their place, so long as you are able to provide a narrative justification for how you do so. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mythril Spear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A featherweight spear with a chain attached to its base, allowing it to be thrown or spun. Using this weapon compels an enemy to focus their attentions on you after a successful attack, in addition to any Physical damage dealt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myrmidon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breaker Axe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An indestructable axe that’s just as effective on doors and walls as enemies. Using this weapon allows your attacks to smash through materials like stone and metal. Successful attacks also deal an additional box of Physical damage. You have Advantage when using this weapon to destroy objects. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compliant Rod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A metal staff that can shrink to fit in a pocket or grow to ten feet in length. Using this weapon allows your attacks to inflict damage in an area around your main target. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ogre Draught</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dangerous drug that requires training to withstand. While this kit is equipped you are immune to poisons, diseases, and curses. You have Advantage against hazards like sweltering heat, bitter cold, or traps. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shocklance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A spear whose tip crackles with electricity, causing intense pain on contact. Using this weapon inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when intimidating others. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thunderclap Javelins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of javelins that release sonic booms when they land. Using this weapon shatters the eardrums of enemies, deafening and disorienting in an area around your main target.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wicked Blade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An implausably sharp shortsword that excels in quick, piercing strikes. Using this weapon adds +1 to the roll result of your attacks, significantly improving the chance that they’ll inflict damage. Enemies that attempt to leave your melee range take one box of Physical damage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armiger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grapple Claw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wrist-mounted blade that doubles as a projectile grappling hook. Can be used to rapidly change positions, and to attack enemies while pulling them closer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potion Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have mastered the art of multitasking while fighting. Using this technique allows you to drink a potion in the same action as making an attack. You can use Produce a Potion as part of this action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonant Shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A magnetically-charged shield that returns to its owner when thrown. You have Advantage when defending against metal-based attacks (swords, arrows, etc.) Can be amplified to make an area-of-effect sonic attack that shatters glass, ice, and similar materials.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabotage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks deliberately damage enemy equipment, chipping swords and breaking shields. Using this technique inflicts damage to a target’s equipment, in addition to any Physical damage dealt to the target themselves.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A spear whose tip is infused with lightning. Can be used to inflict Mental damage instead of Physical damage. Can be amplified to shoot a powerful bolt of lightning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wallwalkers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your boots and gloves have an unusual adhesive that allows you to easily climb vertical surfaces and restrain enemies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Cut Above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can expend a Fortune Point to increase an attack roll’s result by +1. You can do so even if a Fortune Point has already been expended on that action, but cannot do so more than once per an action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolute Cut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks cut the very space they pass through, leaving nothing behind. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatal Circle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your melee attacks hit all enemies adjacent to you, even those behind you. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intricate Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you expend a Fortune Point to combine kits with the Technique tag, you can combine three instead of two.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lingering Trail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks leave afterimages, creating short-lived areas that can cause damage. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonic Rend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks create deafening sonic booms by virtue of extreme force. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gunslinger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bomb Bullet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you Produce a Grenade, you can fire it as a bullet, dealing damage from both the impact of the attack and the explosion of the grenade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon’s Breath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition create a cone of flame, capable of harming multiple enemies at once and igniting the area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Metal Jacket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition pierce through enemies, armor, and cover. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead Hail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your ranged attacks indiscriminately fill the area in front of you with bullets, dealing damage to anyone in range. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricochet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your ranged attacks can rebound off odd angles, hitting targets behind cover or out of sight. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver Bullet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition disrupt magic and spells.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Casting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you expend a Mana Point to combine kits with the spirit tag, you can combine three instead of two.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Art</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can expend a Mana Point to increase a Magic roll’s result by +1. You can do so even if a Mana Point has already been expended on that action, but cannot do so more than once per an action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Reversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Undo past events, healing recent wounds or reverting recent actions. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Spatiality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warp space to be larger or smaller in an area. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Temporality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accelerates or slows the passage of time in an area. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Void</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empty and implode, creating vaccuums. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadowdancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are followed by your shadow’s attacks. Using this technique allows you to strike at a target twice. The target must be the same as your original. You roll twice when using this technique.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A greasy liquid that can be used to render an individual pitch black, create an oil slick, produce a thick slab of tar, or create long-burning torches. When amplified, it swallows light, making its surroundings darker.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadow Hop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you use Disappear from Sight in a dark area, you can teleport into a nearby shadow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Shadows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate your shadow at will, allowing it to interact with the physical world. Manipulate the shadows of others, controlling their movements like puppets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you use Disappear from Sight in a dark area, no Prep Points are expended.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watchful Shadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can expend a Prep Point to block an attack using your shadow. You have Advantage on rolls to detect danger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spellsword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat Casting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your fighting style mixes weaponry and magic. When using this technique, you can use a Spirit kit before or after making an attack, so long as the Spirit kit is not used as an attack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equilibrium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can expend a Mana Point to recover a Fortune Point and vice versa. When you’re harmed by magic, you recover a Mana Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imbue Weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks draw on the power of an equipped Spirit kit. When using this technique, your attacks have effects based on the Spirit used, in addition to any Physical damage done.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit, Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reflect light, magic, and projectiles that come near you. You can expend a Mana Point to deflect an attack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accelerate a process within your body, such as natural healing or metabolism.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radiate light and heat around yourself. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloodletter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Blood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heal Physical wounds, track targets by their blood, and weaponize blood.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draining Strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks steal away energy from enemies you fell. Using this technique recovers a Fortune Point when you incapacitate an enemy with it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Word: Stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A primordial word that forces others to stop. Restricts movement, to the point of lethal paralysis in some uses. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Word: Freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A primordial word that releases restraints. Can be used to break curses, barriers, chains, and other forms of restriction. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Word: Death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A primordial word that causes death. Inflicts severe harm, wilts plants, and erodes surroundings. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Word: Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A primordial word that fosters recovery and growth. Restores Physical harm and revitalizes natural life. Higher difficulty than most magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vapor Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition are chemically loaded, instantly rusting through metal or producing small clouds of tear gas in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trajectory Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your ranged attacks can change direction in mid-flight. Using this technique allows you to detonate bullets a second time, allowing them to strike around corners or behind cover. You have Advantage when trying to see things from a great distance or when trying to make out small visual details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmuter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separate objects. Can be used to physically sever two objects from one another, or to distill an object into its base elements. The more complex the intended result is, the more difficult the change. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Self</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alchemy, Resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expend a Mental box to recover a Physical box or vice versa. Can only be applied to yourself. When done in combat, requires an action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reshape an object, altering its form by expanding or contracting its mass. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strengthen an object, making it harder and more durable. Or weaken an object, making it flimsy and more brittle. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Substance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert one material into another. The greater the difference from the original, the more difficult the change. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmute Synthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combine objects. Can be used to physically weld two objects to one another, or to mix them into one another as a means of creating a new object. The more complex the intended result is, the more difficult the change. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substance Empower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinforce an object, making it harder to damage or break. The larger the object is, the more difficult and time-consuming it is to perform the change. Can be completed instantly by expending a Charge Point Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substance Reshape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change the shape of an object, without changing its mass. The more intricate the intended result is, the more difficult and time-consuming it is to perform the change. Can be completed instantly by expending a Charge Point. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substance Transmute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converts one material into another. The greater the difference from the original, the more difficult and time-consuming it is to perform the change. Can be completed instantly by expending a Charge Point. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fencer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flourish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are complex, dazzling, and distracting to enemies. Using this technique can either give Disadvantage to the target’s next action, or give Advantage to the next attack made on the target. You have Advantage when using Bravery to inspire or rally others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your melee attacks bend the shape of your weapon in unpredictable ways, while your ranged attacks can change trajectory in mid-flight. Using this technique allows your attacks to circumvent cover and obstacles. When you tie with a defender while attacking, you deal damage regardless.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle Chemist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You’re able to multitask while fighting. You can use Produce a Potion or What You Needed in the same action as making an attack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bigger Batches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you use Produce a Potion or Produce a Grenade, you produce two items instead of one. You are still limited to using one item per action in combat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A slick and highly flammable liquid. Can be used to create oil slicks, waterproof flames, thick tar, or light-absorbing materials that darken their surroundings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect Acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dangerously potent acid that can be diluted for use in many tasks. Can be used to dissolve most materials, break locks, sabotage equipment, or deal Physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A rapidly expanding cement-like substance. Can be used to create cover, seal doors shut, impede movement, or adhere objects together.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potions from Produce a Potion heal an additional box of damage. Grenades from Produce a Grenade can either a create a larger blast radius or deal additional damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quicksilver Familiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant made from liquid metal, capable of shaping itself into weapons, tools, and objects. You can expend a Charge Point to deflect an attack by having the familiar change into a shield or similar object.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant made from enchanted paper, capable of flying, scouting, and carrying messages.  Equipping this kit provides one shikigami. You can expend a Charge Point to create additional servants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Called Shot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your attacks are exceptionally precise. Using this technique allows you to harm specific targets (like eyes or hands), in addition to any Physical damage dealt. You have Advantage when making ranged attacks without any distractions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition are electrically charged, shocking or magnetizing targets in addition to any Physical damage dealt. When used with Produce a Grenade inflicts Physical damage and one other effect in a wide area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition involve capsules of liquid, producing quick-drying adhesive or slippery grease in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermic Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition have thermal properties, producing flames or frost on targets in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trenchsteel Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition are physically loaded, exploding into a mass of ball bearings or coils of barbed wire in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Abjuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repel and dispel. Can be used to create barriers, destroy magic, and turn away otherworldly influences. You can expend a Mana Point to deflect an attack aimed at you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Divination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petition otherworldly forces for information. Can be used to divine the location of people, places, and things through magical means.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Dreaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meddle with the boundary between conscious and unconscious. Can be used to induce sleep, daze enemies, and put others into a trance. You have Advantage when using Presence to hypnotize the weak-willed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speak and undestand all creatures. Can be used to communicate with animals, use charm magic, and compel others to your will. You have Advantage when using Presence to awe others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Necromancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meddle with the boundary between life and death. Can be used to puppet corpses to do your bidding, summon ghosts, and stave off death.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Restoration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore what is broken. Can be used to heal Physical damage, repair broken objects, and treat natural afflictions. The number of Physical boxes healed is equal to the result of the roll.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Aether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate electricity. Can be used to shoot lightning from your hands, induce pain without damage, and shock enemies that harm you. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate air. Can be used to create ferocious whirlwinds, fall gently from great heights, and rebuff projectiles. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate earth. Can be used to throw jagged spikes from the ground, reshape stone, and send tremors through the earth. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Flame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate fire. Can be used to throw flames, create floating torches, and control raging fires. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate metal. Can be used to magnetize metallic objects, binding them together or pushing them apart. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate water. Can be used to create spears of ice, conjure fog, and purify liquids. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manafont</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an additional two Mana Points. When you expend a Mental health box to recover a Mana Point, you gain two instead of one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Entropy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate the rate of decay. Can be used to accelerate or decelerate rotting, rusting, and other decomposition processes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perform limited telekinesis. Can be used to levitate nearby objects and launch them through the air. You can expend a Mana Point to deflect an attack aimed at you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Gravity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate gravity. Can be used to add or reduce weight for a short time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Locomotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate kinetic energy. Can be used to add or reduce speed of a moving object.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirit of Thermos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulate thermal energy. Can be used to add or reduce heat.</t>
+  </si>
+  <si>
     <t xml:space="preserve">A potent hallucinogenic dust. Can be used to induce confusion, to numb pain, to put a target into a stupor, to render someone highly suggestable, or to inflict Mental damage. </t>
   </si>
   <si>
-    <t xml:space="preserve">Manifold Venom</t>
-  </si>
-  <si>
     <t xml:space="preserve">A collection of dangerous poisons. Can be applied to the user’s weapons to induce paralysis, sap strength, cause blindness, or inflict additional Physical damage. Requires an action if applied in combat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nerve Thorns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of needles laced with nerve poison. Using this technique can incapacitate targets without lasting harm or visible injury, in addition to any Physical damage dealt. You have Advantage when sensing the motivations of others and detecting lies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Darkness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate darkness. Can be used to obscure appearances, darken areas, and blind enemies. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traceless Thorns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of transparent glass arrows and needles that make it difficult to trace the trajectory of attacks. Using this weapon reduces the likelihood that you’ll be exposed after making a sneak attack. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charmed Chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A length of enchanted chain that can become rigid or loose on command. Using this weapon allows your attacks to grapple enemies with ease, in addition to any damage dealt. You have Advantage when climbing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dervish Knives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of throwing knives that can be flicked through the air with ease. Using this weapon allows you to move before and after making an attack, darting outside of melee range or throwing blades while running. You have Advantage when performing acrobatics.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faerie Fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A volatile powder used in fireworks. Can create plumes of smoke, bright lights, flames, loud noises, or induce violent coughing. When you Disappear from Sight, you can create a cloud of smoke that blocks line of sight.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holy Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A specially treated water that negates magic. Can be used to counter spells, disperse spirits, damage magical objects, or repel monsters. You can expend a Prep Point to negate hostile magic as a reaction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate light. Can be used to create ghostly illusions, see afar, and blind enemies. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Sound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate sound. Can be used to project noises, eavesdrop from afar, and shatter eardrums.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beast’s Balm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A mixture that bewitches animals. You can communicate with and befriend beasts. You can use I Know a Guy to recruit a local beast to aid you. The beast can track, fight, and is capable of anything that a creature of its kind might otherwise do. Can also be used to attract beasts and monsters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monster Hunter’s Salve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A thick medicinal paste that can neutralize most poisons, diseases, and noxious odors. Allows the user to pierce through illusions when worn over the eyes, ears, and nose.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silent Arrows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of arrows that seem to absorb sound. Using this weapon ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. You have Advantage when determining who acts first, such as when determining combat turn order.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate plants. Can be used to accelerate plant growth, speed up natural healing, and command flora. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twin Edges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A pair of swords used together to create a whirlwind of slashes. Using this weapon gives your attacks an area of effect around your body, damaging enemies nearby. On a successful defense against a melee attack, you inflict a box of Physical damage to the attacker.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twinned Arrows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of arrows that split apart in mid-flight. Using this weapon gives your attack an additional target, with both hits landing within moments of one another. The additional target cannot be the same as the original target. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soldier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blademaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blinding Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sleek sword with an alchemical mirror finish that blinds enemies with reflected light. Using this weapon gives Advantage to the next attack made on the target, either by you or by one of your allies, in addition to any Physical damage dealt. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flametongue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An enchanted iron sword that glows with heat, as though it was just taken out of a forge. Using this weapon ignites flammable surfaces on contact. Successful attacks also deal an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harmonic Steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A vibrating length of metal that resonates like a tuning fork when struck. Using this weapon bypasses the effects of armor and shields by sending shockwaves through strikes. Can be used to cause tremors in the ground and shatter glass at range.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mournblade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon, Resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A cursed sword that feeds off the living. Using this weapon restores a Fortune Point whenever it’s used to incapacitate an enemy. At any time when you would otherwise spend a Fortune Point, you can spend a Physical box instead. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shaping Oil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An ointment that temporarily softens metal and stone when rubbed in. Can be used to sharpen objects into blades, repair damaged tools, and bend steel bars.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windcutter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A curved scimitar that catches the wind and turns it into sharp blades. Using this weapon greatly extends the range of your attacks. You have Advantage when defending against projectile attacks like arrows and bullets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arrows of Light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of silver-tipped arrows that glow brightly in the dark. Using this weapon allows your ranged attacks to ignore magical defenses and prevents targets from healing by magic or alchemy. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blessed Sword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A blade quenched in holy water, used to break curses and strike down otherworldly forces. Using this weapon allows your attacks to interfere with magic, in addition to any Physical damage dealt. You have Advantage when inspiring or rallying others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospitaler Salts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smelling salts that wake the unconscious. Can be used to revive an incapacitated ally and allow them to briefly ignore the effects of their injuries. Revived allies clear one box of damage, Physical or Mental, depending on which is necessary. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impact Mace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An enchanted warmace that stores kinetic energy. Using this weapon allows your attacks to forcibly reposition enemies, knocking them back or into the air, in addition to any Physical damage dealt. You have Advantage against any effect that attempts to forcibly move you or impede your movement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ironheart Shield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A magnetically-charged shield, capable of attracting arrows and blades. Using this weapon allows your attacks to trap metal objects and armored enemies, in addition to any Physical damage dealt. When a nearby ally would otherwise take damage, you can take damage in their place, so long as you are able to provide a narrative justification for how you do so. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mythril Spear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A featherweight spear with a chain attached to its base, allowing it to be thrown or spun. Using this weapon compels an enemy to focus their attentions on you after a successful attack, in addition to any Physical damage dealt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myrmidon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breaker Axe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An alchemically-enhanced axe that’s just as effective on doors and walls as enemies. Using this weapon allows your attacks to cut through materials like stone and metal. Successful attacks also deal an additional box of Physical damage. You have Advantage when using this weapon to destroy objects. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compliant Rod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A metal staff that can shrink to fit in a pocket or grow to ten feet in length. Using this weapon allows your attacks to inflict damage in an area around your main target. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ogre Draught</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A dangerous drug that requires training to withstand. While this kit is equipped you are immune to poisons, diseases, and curses. You have Advantage against hazards like sweltering heat, bitter cold, or traps. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shocklance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A spear whose tip crackles with electricity, causing intense pain on contact. Using this weapon inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when intimidating others. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thunderclap Javelins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of javelins that release sonic booms when they land. Using this weapon shatters the eardrums of enemies, deafening and disorienting in an area around your main target.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wicked Blade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An implausably sharp shortsword that excels in quick, piercing strikes. Using this weapon adds +1 to the roll result of your attacks, significantly improving the chance that they’ll inflict damage. Enemies that attempt to leave your melee range take one box of Physical damage. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armiger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grapple Claw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wrist-mounted blade that doubles as a projectile grappling hook. Can be used to rapidly change positions, and to attack enemies while pulling them closer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potion Knight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have mastered the art of multitasking while fighting. Using this technique allows you to drink a potion in the same action as making an attack. You can use Produce a Potion as part of this action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonant Shield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A magnetically-charged shield that returns to its owner when thrown. You have Advantage when defending against metal-based attacks (swords, arrows, etc.) Can be amplified to make an area-of-effect sonic attack that shatters glass, ice, and similar materials.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sabotage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks deliberately damage enemy equipment, chipping swords and breaking shields. Using this technique inflicts damage to a target’s equipment, in addition to any Physical damage dealt to the target themselves.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A spear whose tip is infused with lightning. Can be used to inflict Mental damage instead of Physical damage. Can be amplified to shoot a powerful bolt of lightning.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wallwalkers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your boots and gloves have an unusual adhesive that allows you to easily climb vertical surfaces and restrain enemies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Cut Above</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can expend a Fortune Point to increase an attack roll’s result by +1. You can do so even if a Fortune Point has already been expended on that action, but cannot do so more than once per an action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absolute Cut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks cut the very space they pass through, leaving nothing behind. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fatal Circle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your melee attacks hit all enemies adjacent to you, even those behind you. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intricate Technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you expend a Fortune Point to combine kits with the Technique tag, you can combine three instead of two.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lingering Trail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks leave afterimages, creating short-lived areas that can cause damage. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonic Rend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks create deafening sonic booms by virtue of extreme force. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gunslinger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bomb Bullet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you Produce a Grenade, you can fire it as a bullet, dealing damage from both the impact of the attack and the explosion of the grenade.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragon’s Breath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition create a cone of flame, capable of harming multiple enemies at once and igniting the area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full Metal Jacket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition pierce through enemies, armor, and cover. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lead Hail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your ranged attacks indiscriminately fill the area in front of you with bullets, dealing damage to anyone in range. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricochet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your ranged attacks can rebound off odd angles, hitting targets behind cover or out of sight. Using this technique increases the difficulty of your attack rolls and deals an additional box of Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver Bullet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition disrupt magic and spells.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand Casting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you expend a Mana Point to combine kits with the spirit tag, you can combine three instead of two.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High Art</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can expend a Mana Point to increase a Magic roll’s result by +1. You can do so even if a Mana Point has already been expended on that action, but cannot do so more than once per an action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Reversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Undo past events, healing recent wounds or reverting recent actions. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Spatiality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warp space to be larger or smaller in an area. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Temporality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accelerates or slows the passage of time in an area. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Void</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empty and implode, creating vaccuums. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shadowdancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are followed by your shadow’s attacks. Using this technique allows you to strike at a target twice. The target must be the same as your original. You roll twice when using this technique.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A greasy liquid that can be used to render an individual pitch black, create an oil slick, produce a thick slab of tar, or create long-burning torches. When amplified, it swallows light, making its surroundings darker.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shadow Hop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you use Disappear from Sight in a dark area, you can teleport into a nearby shadow.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Shadows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate your shadow at will, allowing it to interact with the physical world. Manipulate the shadows of others, controlling their movements like puppets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you use Disappear from Sight in a dark area, no Prep Points are expended.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watchful Shadow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can expend a Prep Point to block an attack using your shadow. You have Advantage on rolls to detect danger.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spellsword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combat Casting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your fighting style mixes weaponry and magic. When using this technique, you can use a Spirit kit before or after making an attack, so long as the Spirit kit is not used as an attack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equilibrium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can expend a Mana Point to recover a Fortune Point and vice versa. When you’re harmed by magic, you recover a Mana Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imbue Weapon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks draw on the power of an equipped Spirit kit. When using this technique, your attacks have effects based on the Spirit used, in addition to any Physical damage done.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Moon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit, Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reflect light, magic, and projectiles that come near you. You can expend a Mana Point to deflect an attack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Stars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accelerate a process within your body, such as natural healing or metabolism.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Sun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radiate light and heat around yourself. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloodletter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heal Physical wounds, track targets by their blood, and weaponize blood.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Draining Strike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks steal away energy from enemies you fell. Using this technique recovers a Fortune Point when you incapacitate an enemy with it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Word: Stop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A primordial word that forces others to stop. Restricts movement, to the point of lethal paralysis in some uses. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Word: Freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A primordial word that releases restraints. Can be used to break curses, barriers, chains, and other forms of restriction. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Word: Death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A primordial word that causes death. Inflicts severe harm, wilts plants, and erodes surroundings. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Word: Life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A primordial word that fosters recovery and growth. Restores Physical harm and revitalizes natural life. Higher difficulty than most magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vapor Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition are chemically loaded, instantly rusting through metal or producing small clouds of tear gas in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trajectory Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your ranged attacks can change direction in mid-flight. Using this technique allows you to detonate bullets a second time, allowing them to strike around corners or behind cover. You have Advantage when trying to see things from a great distance or when trying to make out small visual details.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmuter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmute Division</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Separate objects. Can be used to physically sever two objects from one another, or to distill an object into its base elements. The more complex the intended result is, the more difficult the change. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmute Self</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alchemy, Resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expend a Mental box to recover a Physical box or vice versa. Can only be applied to yourself. When done in combat, requires an action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmute Shape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reshape an object, altering its form by expanding or contracting its mass. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmute Strength</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strengthen an object, making it harder and more durable. Or weaken an object, making it flimsy and more brittle. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmute Substance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert one material into another. The greater the difference from the original, the more difficult the change. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmute Synthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combine objects. Can be used to physically weld two objects to one another, or to mix them into one another as a means of creating a new object. The more complex the intended result is, the more difficult the change. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substance Empower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reinforce an object, making it harder to damage or break. The larger the object is, the more difficult and time-consuming it is to perform the change. Can be completed instantly by expending a Charge Point Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substance Reshape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change the shape of an object, without changing its mass. The more intricate the intended result is, the more difficult and time-consuming it is to perform the change. Can be completed instantly by expending a Charge Point. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substance Transmute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Converts one material into another. The greater the difference from the original, the more difficult and time-consuming it is to perform the change. Can be completed instantly by expending a Charge Point. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fencer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flourish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are complex, dazzling, and distracting to enemies. Using this technique can either give Disadvantage to the target’s next action, or give Advantage to the next attack made on the target. You have Advantage when using Bravery to inspire or rally others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your melee attacks bend the shape of your weapon in unpredictable ways, while your ranged attacks can change trajectory in mid-flight. Using this technique allows your attacks to circumvent cover and obstacles. When you tie with a defender while attacking, you deal damage regardless.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battle Chemist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You’re able to multitask while fighting. You can use Produce a Potion or What You Needed in the same action as making an attack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bigger Batches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you use Produce a Potion or Produce a Grenade, you produce two items instead of one. You are still limited to using one item per action in combat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A slick and highly flammable liquid. Can be used to create oil slicks, waterproof flames, thick tar, or light-absorbing materials that darken their surroundings.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perfect Acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A dangerously potent acid that can be diluted for use in many tasks. Can be used to dissolve most materials, break locks, sabotage equipment, or deal Physical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A rapidly expanding cement-like substance. Can be used to create cover, seal doors shut, impede movement, or adhere objects together.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potions from Produce a Potion heal an additional box of damage. Grenades from Produce a Grenade can either a create a larger blast radius or deal additional damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quicksilver Familiar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant made from liquid metal, capable of shaping itself into weapons, tools, and objects. You can expend a Charge Point to deflect an attack by having the familiar change into a shield or similar object.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant made from enchanted paper, capable of flying, scouting, and carrying messages.  Equipping this kit provides one shikigami. You can expend a Charge Point to create additional servants.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Called Shot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your attacks are exceptionally precise. Using this technique allows you to harm specific targets (like eyes or hands), in addition to any Physical damage dealt. You have Advantage when making ranged attacks without any distractions. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition are electrically charged, shocking or magnetizing targets in addition to any Physical damage dealt. When used with Produce a Grenade inflicts Physical damage and one other effect in a wide area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition involve capsules of liquid, producing quick-drying adhesive or slippery grease in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thermic Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition have thermal properties, producing flames or frost on targets in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trenchsteel Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition are physically loaded, exploding into a mass of ball bearings or coils of barbed wire in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Abjuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repel and dispel. Can be used to create barriers, destroy magic, and turn away otherworldly influences. You can expend a Mana Point to deflect an attack aimed at you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Divination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petition otherworldly forces for information. Can be used to divine the location of people, places, and things through magical means.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Dreaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meddle with the boundary between conscious and unconscious. Can be used to induce sleep, daze enemies, and put others into a trance. You have Advantage when using Presence to hypnotize the weak-willed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speak and undestand all creatures. Can be used to communicate with animals, use charm magic, and compel others to your will. You have Advantage when using Presence to awe others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Necromancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meddle with the boundary between life and death. Can be used to puppet corpses to do your bidding, summon ghosts, and stave off death.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Restoration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restore what is broken. Can be used to heal Physical damage, repair broken objects, and treat natural afflictions. The number of Physical boxes healed is equal to the result of the roll.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Aether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate electricity. Can be used to shoot lightning from your hands, induce pain without damage, and shock enemies that harm you. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate air. Can be used to create ferocious whirlwinds, fall gently from great heights, and rebuff projectiles. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Earth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate earth. Can be used to throw jagged spikes from the ground, reshape stone, and send tremors through the earth. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Flame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate fire. Can be used to throw flames, create floating torches, and control raging fires. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Metal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate metal. Can be used to magnetize metallic objects, binding them together or pushing them apart. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate water. Can be used to create spears of ice, conjure fog, and purify liquids. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manafont</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain an additional two Mana Points. When you expend a Mental health box to recover a Mana Point, you gain two instead of one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Entropy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate the rate of decay. Can be used to accelerate or decelerate rotting, rusting, and other decomposition processes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perform limited telekinesis. Can be used to levitate nearby objects and launch them through the air. You can expend a Mana Point to deflect an attack aimed at you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Gravity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate gravity. Can be used to add or reduce weight for a short time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Locomotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate kinetic energy. Can be used to add or reduce speed of a moving object.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirit of Thermos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate thermal energy. Can be used to add or reduce heat.</t>
   </si>
   <si>
     <t xml:space="preserve">Pin Down</t>
@@ -1706,7 +1676,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1766,12 +1736,6 @@
       <name val="Fira Sans"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Fira Sans"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1928,7 +1892,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1958,10 +1922,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2272,8 +2232,8 @@
   </sheetPr>
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2349,7 +2309,7 @@
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2609,920 +2569,920 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="11" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="11" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="s">
+      <c r="E40" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" s="15" t="s">
+      <c r="C41" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="s">
+      <c r="E46" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="15" t="s">
+      <c r="B47" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="s">
+      <c r="E50" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" s="15" t="s">
+      <c r="B51" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="s">
+      <c r="E51" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="15" t="s">
+      <c r="B52" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="s">
+      <c r="E54" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="15" t="s">
+      <c r="B55" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="15" t="s">
+      <c r="E56" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="15" t="s">
+      <c r="E57" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D46" s="15" t="s">
+      <c r="E60" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D50" s="15" t="s">
+      <c r="E64" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D70" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D52" s="15" t="s">
+      <c r="E70" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E52" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="15" t="s">
+      <c r="E71" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D55" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E69" s="20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E71" s="20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E72" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D73" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="E73" s="20" t="s">
+      <c r="E73" s="19" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3577,788 +3537,788 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="27" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="27" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="27" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="27" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="23" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="23" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="23" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="23" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="23" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="23" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="31" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="31" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="31" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="31" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="31" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="31" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="35" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="35" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="35" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="35" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="35" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="35" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="39" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="39" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="39" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="39" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="E36" s="40" t="s">
+      <c r="E36" s="39" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="E37" s="40" t="s">
+      <c r="E37" s="39" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="27" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E39" s="27" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="28"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="27"/>
     </row>
     <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="28"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="27"/>
     </row>
     <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="28"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="27"/>
     </row>
     <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="28"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="27"/>
     </row>
     <row r="44" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="E44" s="32" t="s">
+      <c r="E44" s="31" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="E45" s="32" t="s">
+      <c r="E45" s="31" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="E46" s="32" t="s">
+      <c r="E46" s="31" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="E47" s="32" t="s">
+      <c r="E47" s="31" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31" t="s">
+      <c r="C48" s="30"/>
+      <c r="D48" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="E48" s="32"/>
+      <c r="E48" s="31"/>
     </row>
     <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31" t="s">
+      <c r="C49" s="30"/>
+      <c r="D49" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="E49" s="32"/>
+      <c r="E49" s="31"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E73"/>
@@ -4633,402 +4593,402 @@
       <c r="E19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="16"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="16"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="16"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="16"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="16"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15"/>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="16"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
     </row>
     <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="16"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
     </row>
     <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="16"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15"/>
     </row>
     <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="16"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="15"/>
     </row>
     <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="16"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="15"/>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="16"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="15"/>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="16"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="15"/>
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="16"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="15"/>
     </row>
     <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="16"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="15"/>
     </row>
     <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="16"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15"/>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="16"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="15"/>
     </row>
     <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="16"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="15"/>
     </row>
     <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="16"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="15"/>
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="D56" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E56" s="20" t="s">
+      <c r="E56" s="19" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E57" s="20" t="s">
+      <c r="E57" s="19" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="20"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="19"/>
     </row>
     <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="17"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="20"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="19"/>
     </row>
     <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="17"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="20"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="19"/>
     </row>
     <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="20"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="19"/>
     </row>
     <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="17"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="20"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="19"/>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="17"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="20"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="19"/>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="17"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="20"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="19"/>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="17"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="20"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="19"/>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="17"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="20"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="19"/>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="17"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="20"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="19"/>
     </row>
     <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="17"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="20"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="19"/>
     </row>
     <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="17"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="20"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="19"/>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="17"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="20"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="19"/>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="17"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="20"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="19"/>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="17"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="20"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="19"/>
     </row>
     <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="17"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="20"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E109"/>
@@ -5387,921 +5347,921 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="11" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="11" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="11" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="11" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="11" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="11" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="11" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="11" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="11" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="11" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="11" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="11" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="11" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="11" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D39" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="s">
+      <c r="E39" s="15" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="15" t="s">
+      <c r="C40" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="s">
+      <c r="E45" s="15" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="D40" s="15" t="s">
+      <c r="B46" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="D50" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="E40" s="16" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="s">
+      <c r="E50" s="15" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="D41" s="15" t="s">
+      <c r="B51" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="D54" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="E41" s="16" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="s">
+      <c r="E54" s="15" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="15" t="s">
+      <c r="B55" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="D60" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="D43" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="D44" s="15" t="s">
+      <c r="E60" s="19" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E44" s="16" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="15" t="s">
+      <c r="E61" s="19" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D63" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="16" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="D49" s="15" t="s">
+      <c r="E63" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="D65" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="E49" s="16" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="D50" s="15" t="s">
+      <c r="E65" s="19" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="D66" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E50" s="16" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="D53" s="15" t="s">
+      <c r="E66" s="19" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="D70" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="E53" s="16" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="D54" s="15" t="s">
+      <c r="E70" s="19" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="D72" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E54" s="16" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="17" t="s">
+      <c r="E72" s="19" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B56" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>388</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="D62" s="19" t="s">
+      <c r="B73" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="D73" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="E62" s="20" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>397</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E69" s="20" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="E70" s="20" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="E71" s="20" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E72" s="20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="D73" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="E73" s="20" t="s">
-        <v>414</v>
+      <c r="E73" s="19" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -6362,13 +6322,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6382,10 +6342,10 @@
         <v>110</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6396,13 +6356,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6416,10 +6376,10 @@
         <v>112</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6430,13 +6390,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6447,13 +6407,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6464,13 +6424,13 @@
         <v>20</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6481,13 +6441,13 @@
         <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6498,13 +6458,13 @@
         <v>20</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6515,13 +6475,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6532,13 +6492,13 @@
         <v>20</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6549,13 +6509,13 @@
         <v>20</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>435</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6566,13 +6526,13 @@
         <v>35</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6586,10 +6546,10 @@
         <v>36</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6603,10 +6563,10 @@
         <v>38</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6620,10 +6580,10 @@
         <v>313</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6637,10 +6597,10 @@
         <v>315</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6654,928 +6614,928 @@
         <v>267</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>448</v>
+      <c r="D20" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
+      <c r="E23" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="C24" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="D72" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>475</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>485</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>495</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>499</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>510</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="17" t="s">
+      <c r="E72" s="19" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B56" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>513</v>
-      </c>
-      <c r="D57" s="19" t="s">
+      <c r="B73" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="D73" s="18" t="s">
         <v>514</v>
       </c>
-      <c r="E57" s="20" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>516</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>518</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>519</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>522</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>523</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>524</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>526</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>514</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>397</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>530</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>514</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>534</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>535</v>
-      </c>
-      <c r="E69" s="20" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>537</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="E70" s="20" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>476</v>
-      </c>
-      <c r="E71" s="20" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>540</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="E72" s="20" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="D73" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="E73" s="20" t="s">
-        <v>542</v>
+      <c r="E73" s="19" t="s">
+        <v>544</v>
       </c>
     </row>
   </sheetData>

--- a/miracuse_kits.xlsx
+++ b/miracuse_kits.xlsx
@@ -54,10 +54,46 @@
     <t xml:space="preserve">Conjurer</t>
   </si>
   <si>
-    <t xml:space="preserve">Athame</t>
+    <t xml:space="preserve">Brimstone Powder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An otherworldly dust that conducts and magnifies magical energy. When added to fire it becomes hellfire, burning hotter and creating a noxious stench. When you use Produce a Grenade, the resulting explosion deals an additional point of damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fey Venom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A chemical that can stem the flow of blood or increase the rate of blood loss depending on how the substance is prepared. When you Produce a Potion, it heals an additional Physical box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Rod</t>
   </si>
   <si>
     <t xml:space="preserve">Weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An metal rod that holds sway over otherworldly creatures. Wielding this weapon compels nearby magical creatures into obedience, providing Advantage on all rolls to influence them. Successful attacks against magical creatures deal one additional box of Mental damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Demons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to bring forth demonic influence. Can be used to summon imps, consult devils for knowledge, or fling hellfire. You have Advantage when using Knowledge to recall forbidden information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Fey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to bring forth faerie influence. Can be used to summon pixies, bewitch the senses, and change your appearence. You have Advantage when using Presence to confuse and bewilder others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Jinn</t>
   </si>
   <si>
     <r>
@@ -68,7 +104,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">A ritual dagger that conducts magical energy. Using this weapon restores a Mana Point whenever it’s used to incapacitate an enemy. </t>
+      <t xml:space="preserve">A wand or other object that can be used to bring forth jinn influence. Can be used to summon snakes, call forth hot desert wind, and see into the past of an object. </t>
     </r>
     <r>
       <rPr>
@@ -77,82 +113,10 @@
         <rFont val="Fira Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">At any time when you would otherwise spend a Mana Point, you can spend a Physical box instead. </t>
+      <t xml:space="preserve">You have Advantage when using Knowledge to recall history.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Brimstone Powder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alchemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An otherworldly dust that conducts and magnifies magical energy. When added to fire it becomes hellfire, burning hotter and creating a noxious stench. When you use Produce a Grenade, the resulting explosion deals an additional point of damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ironbrew</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">A chemical that stem the flow of blood or increase the rate of blood loss depending on how the substance is prepared. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">When you Produce a Potion, it heals an additional Physical box.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Solomon Rod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An inscribed metal rod that holds sway over otherworldly creatures. Using this weapon compels magical creatures into obedience when touched, providing Advantage on all rolls afterwards to socially influence them. Successful attacks against magical creatures deal one additional box of Mental damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Demons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">A wand or other object that can be used to bring forth demonic influence. Can be used to summon imps, consult devils for knowledge, or fling hellfire. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">You have Advantage when using Knowledge to recall forbidden information.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Fey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to bring forth faerie influence. Can be used to summon pixies, bewitch the senses, and change your appearence. You have Advantage when using Presence to confuse and bewilder others.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gunslinger</t>
   </si>
   <si>
@@ -207,10 +171,16 @@
     <t xml:space="preserve">A set of flexible gloves that have somehow been crafted out of finely worked adamantium. They protect the wearer’s hands from conditions as extreme as molten lava or caustic acid. You have Advantage when blocking attacks with the gloves.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reshape Metal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reshape metal, altering its form by expanding or reducing its mass. The more drastic the change, the more difficult and time consuming it is. Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
+    <t xml:space="preserve">Ring of Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A red ring with the power to convert metals into other metals. The greater the difference from the original, the more difficult the change. Requires physical contact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring of Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A black ring with the power to reshape metal. The more drastic the change, the more difficult and time consuming it is. Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
   </si>
   <si>
     <t xml:space="preserve">Runehammer</t>
@@ -225,12 +195,6 @@
     <t xml:space="preserve">A wand or other object that can be used to alter the properties of metals. Can be used to heat metals, purge them of impurities, and strengthen or weaken them.</t>
   </si>
   <si>
-    <t xml:space="preserve">Transmute Metal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert one metal into another. The greater the difference from the original, the more difficult the change. Requires physical contact.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vitrolic Edge</t>
   </si>
   <si>
@@ -246,7 +210,7 @@
     <t xml:space="preserve">A metal chainlink whip engraved with warding runes. Using this weapon allows your attacks to interfere with magic, similar to a knight’s holy sword. The whip can be joined together to create a magic circle that repels magic from the outside and contains magic within.</t>
   </si>
   <si>
-    <t xml:space="preserve">Blinding Spear</t>
+    <t xml:space="preserve">Lantern Spear</t>
   </si>
   <si>
     <t xml:space="preserve">A shaft of steel tipped with enchanted silver that permanently glows with light. Using this weapon blinds creatures with strong night vision. Successful attacks against magical creatures deal an additional point of damage.</t>
@@ -2506,8 +2470,8 @@
   </sheetPr>
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2564,10 +2528,10 @@
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2578,10 +2542,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>14</v>
@@ -2598,10 +2562,10 @@
         <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2612,10 +2576,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -2632,7 +2596,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>21</v>
@@ -2649,7 +2613,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>24</v>
@@ -2666,7 +2630,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>26</v>
@@ -2700,7 +2664,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>31</v>
@@ -2717,7 +2681,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>33</v>
@@ -2734,7 +2698,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>35</v>
@@ -2768,7 +2732,7 @@
         <v>40</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>41</v>
@@ -2802,7 +2766,7 @@
         <v>44</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>45</v>
@@ -2819,7 +2783,7 @@
         <v>46</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>47</v>
@@ -2836,7 +2800,7 @@
         <v>48</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>49</v>
@@ -2853,7 +2817,7 @@
         <v>51</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>52</v>
@@ -2870,7 +2834,7 @@
         <v>53</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>54</v>
@@ -2887,7 +2851,7 @@
         <v>55</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>56</v>
@@ -2904,7 +2868,7 @@
         <v>57</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>58</v>
@@ -2921,7 +2885,7 @@
         <v>59</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>60</v>
@@ -2938,7 +2902,7 @@
         <v>61</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>62</v>
@@ -2955,7 +2919,7 @@
         <v>65</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>66</v>
@@ -2972,7 +2936,7 @@
         <v>67</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>68</v>
@@ -2989,7 +2953,7 @@
         <v>69</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>70</v>
@@ -3006,7 +2970,7 @@
         <v>71</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>72</v>
@@ -3023,7 +2987,7 @@
         <v>73</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>74</v>
@@ -3040,7 +3004,7 @@
         <v>75</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>76</v>
@@ -3057,7 +3021,7 @@
         <v>78</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>79</v>
@@ -3074,7 +3038,7 @@
         <v>80</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>81</v>
@@ -3108,7 +3072,7 @@
         <v>84</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>85</v>
@@ -3142,7 +3106,7 @@
         <v>89</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>90</v>
@@ -3159,7 +3123,7 @@
         <v>92</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>93</v>
@@ -3176,7 +3140,7 @@
         <v>94</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>95</v>
@@ -3193,7 +3157,7 @@
         <v>96</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>97</v>
@@ -3210,7 +3174,7 @@
         <v>98</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>99</v>
@@ -3227,7 +3191,7 @@
         <v>100</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>101</v>
@@ -3244,7 +3208,7 @@
         <v>102</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>103</v>
@@ -3278,7 +3242,7 @@
         <v>109</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>110</v>
@@ -3295,7 +3259,7 @@
         <v>111</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>112</v>
@@ -3312,7 +3276,7 @@
         <v>113</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>114</v>
@@ -3329,7 +3293,7 @@
         <v>115</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>116</v>
@@ -3346,7 +3310,7 @@
         <v>117</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>118</v>
@@ -3363,7 +3327,7 @@
         <v>120</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>121</v>
@@ -3380,7 +3344,7 @@
         <v>122</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>123</v>
@@ -3397,7 +3361,7 @@
         <v>124</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>125</v>
@@ -3414,7 +3378,7 @@
         <v>126</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E53" s="19" t="s">
         <v>127</v>
@@ -3431,7 +3395,7 @@
         <v>128</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E54" s="19" t="s">
         <v>129</v>
@@ -3448,7 +3412,7 @@
         <v>130</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>131</v>
@@ -3465,7 +3429,7 @@
         <v>133</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E56" s="19" t="s">
         <v>134</v>
@@ -3499,7 +3463,7 @@
         <v>137</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>138</v>
@@ -3516,7 +3480,7 @@
         <v>139</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>140</v>
@@ -3533,7 +3497,7 @@
         <v>141</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>142</v>
@@ -3550,7 +3514,7 @@
         <v>143</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>144</v>
@@ -3567,7 +3531,7 @@
         <v>147</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E62" s="23" t="s">
         <v>148</v>
@@ -3584,7 +3548,7 @@
         <v>149</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E63" s="23" t="s">
         <v>150</v>
@@ -3601,7 +3565,7 @@
         <v>151</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E64" s="23" t="s">
         <v>152</v>
@@ -3618,7 +3582,7 @@
         <v>153</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E65" s="23" t="s">
         <v>154</v>
@@ -3635,7 +3599,7 @@
         <v>155</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E66" s="23" t="s">
         <v>156</v>
@@ -3652,7 +3616,7 @@
         <v>157</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E67" s="23" t="s">
         <v>158</v>
@@ -3669,7 +3633,7 @@
         <v>160</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E68" s="23" t="s">
         <v>161</v>
@@ -3686,7 +3650,7 @@
         <v>162</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E69" s="23" t="s">
         <v>163</v>
@@ -3703,7 +3667,7 @@
         <v>164</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E70" s="23" t="s">
         <v>165</v>
@@ -3737,7 +3701,7 @@
         <v>168</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E72" s="23" t="s">
         <v>169</v>
@@ -3754,7 +3718,7 @@
         <v>170</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E73" s="23" t="s">
         <v>171</v>
@@ -3771,7 +3735,7 @@
         <v>173</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E74" s="23" t="s">
         <v>174</v>
@@ -3788,7 +3752,7 @@
         <v>175</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E75" s="23" t="s">
         <v>176</v>
@@ -3805,7 +3769,7 @@
         <v>177</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E76" s="23" t="s">
         <v>178</v>
@@ -3822,7 +3786,7 @@
         <v>179</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E77" s="23" t="s">
         <v>180</v>
@@ -3839,7 +3803,7 @@
         <v>181</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E78" s="23" t="s">
         <v>182</v>
@@ -3873,7 +3837,7 @@
         <v>187</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E80" s="27" t="s">
         <v>188</v>
@@ -3890,7 +3854,7 @@
         <v>189</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E81" s="27" t="s">
         <v>190</v>
@@ -3924,7 +3888,7 @@
         <v>194</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E83" s="27" t="s">
         <v>195</v>
@@ -3941,7 +3905,7 @@
         <v>196</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E84" s="27" t="s">
         <v>197</v>
@@ -3975,7 +3939,7 @@
         <v>201</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E86" s="27" t="s">
         <v>202</v>
@@ -3992,7 +3956,7 @@
         <v>203</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E87" s="27" t="s">
         <v>204</v>
@@ -4009,7 +3973,7 @@
         <v>205</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E88" s="27" t="s">
         <v>206</v>
@@ -4026,7 +3990,7 @@
         <v>207</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E89" s="27" t="s">
         <v>208</v>
@@ -4060,7 +4024,7 @@
         <v>211</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E91" s="27" t="s">
         <v>212</v>
@@ -4077,7 +4041,7 @@
         <v>214</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E92" s="27" t="s">
         <v>215</v>
@@ -4094,7 +4058,7 @@
         <v>216</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E93" s="27" t="s">
         <v>217</v>
@@ -4111,7 +4075,7 @@
         <v>218</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E94" s="27" t="s">
         <v>219</v>
@@ -4128,7 +4092,7 @@
         <v>220</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E95" s="27" t="s">
         <v>221</v>
@@ -4145,7 +4109,7 @@
         <v>222</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E96" s="27" t="s">
         <v>223</v>
@@ -4229,7 +4193,7 @@
         <v>227</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>228</v>
@@ -4263,7 +4227,7 @@
         <v>232</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>233</v>
@@ -4297,7 +4261,7 @@
         <v>220</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>236</v>
@@ -4314,7 +4278,7 @@
         <v>237</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>238</v>
@@ -4450,7 +4414,7 @@
         <v>254</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>255</v>
@@ -4467,7 +4431,7 @@
         <v>256</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>257</v>
@@ -4518,7 +4482,7 @@
         <v>262</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E19" s="31" t="s">
         <v>263</v>
@@ -4654,7 +4618,7 @@
         <v>69</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E27" s="43" t="s">
         <v>280</v>
@@ -5195,7 +5159,7 @@
         <v>319</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>320</v>
@@ -5248,7 +5212,7 @@
         <v>324</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>325</v>
@@ -5282,7 +5246,7 @@
         <v>329</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>330</v>
@@ -5299,7 +5263,7 @@
         <v>331</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>332</v>
@@ -5316,7 +5280,7 @@
         <v>333</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>334</v>
@@ -5333,7 +5297,7 @@
         <v>335</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>336</v>
@@ -5346,7 +5310,7 @@
         <v>337</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>338</v>
@@ -5359,7 +5323,7 @@
         <v>339</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>340</v>
@@ -5372,7 +5336,7 @@
         <v>341</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>342</v>
@@ -5882,7 +5846,7 @@
         <v>350</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>351</v>
@@ -5899,7 +5863,7 @@
         <v>69</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>352</v>
@@ -5916,7 +5880,7 @@
         <v>353</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>354</v>
@@ -5933,7 +5897,7 @@
         <v>71</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>355</v>
@@ -5950,7 +5914,7 @@
         <v>356</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>357</v>
@@ -5967,7 +5931,7 @@
         <v>84</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>85</v>
@@ -6001,7 +5965,7 @@
         <v>89</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>360</v>
@@ -6018,7 +5982,7 @@
         <v>337</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>338</v>
@@ -6035,7 +5999,7 @@
         <v>339</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>340</v>
@@ -6052,7 +6016,7 @@
         <v>341</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>342</v>
@@ -6086,7 +6050,7 @@
         <v>92</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>363</v>
@@ -6103,7 +6067,7 @@
         <v>94</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>364</v>
@@ -6120,7 +6084,7 @@
         <v>365</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>366</v>
@@ -6137,7 +6101,7 @@
         <v>367</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>368</v>
@@ -6154,7 +6118,7 @@
         <v>319</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>320</v>
@@ -6477,7 +6441,7 @@
         <v>147</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E38" s="23" t="s">
         <v>405</v>
@@ -6494,7 +6458,7 @@
         <v>149</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E39" s="23" t="s">
         <v>406</v>
@@ -6596,7 +6560,7 @@
         <v>164</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E45" s="23" t="s">
         <v>418</v>
@@ -6698,7 +6662,7 @@
         <v>173</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E51" s="23" t="s">
         <v>427</v>
@@ -6715,7 +6679,7 @@
         <v>428</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E52" s="23" t="s">
         <v>429</v>
@@ -6902,7 +6866,7 @@
         <v>205</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E63" s="27" t="s">
         <v>206</v>

--- a/miracuse_kits.xlsx
+++ b/miracuse_kits.xlsx
@@ -96,25 +96,7 @@
     <t xml:space="preserve">Talisman of Jinn</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">A wand or other object that can be used to bring forth jinn influence. Can be used to summon snakes, call forth hot desert wind, and see into the past of an object. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Fira Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">You have Advantage when using Knowledge to recall history.</t>
-    </r>
+    <t xml:space="preserve">A wand or other object that can be used to bring forth jinn influence. Can be used to summon snakes, call forth hot desert wind, and see into the past of an object. You have Advantage when using Knowledge to recall history.</t>
   </si>
   <si>
     <t xml:space="preserve">Gunslinger</t>
@@ -507,13 +489,13 @@
     <t xml:space="preserve">Nerve Thorns</t>
   </si>
   <si>
-    <t xml:space="preserve">A set of needles laced with nerve poison. Using this technique can incapacitate targets without lasting harm or visible injury, in addition to any Physical damage dealt. You have Advantage when sensing the motivations of others and detecting lies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speed Thorns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of needles tipped with slowing poison. Using this weapon greatly reduces a target’s mobility, in addition to any Physical damage dealt. You have Advantage when sprinting, as might be the case when chasing after someone or retreating from danger.</t>
+    <t xml:space="preserve">A set of needles laced with nerve poison. Using this technique can incapacitate targets without lasting harm or visible injury, in addition to any Physical damage dealt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slowing Thorns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of needles tipped with slowing poison. Using this weapon greatly reduces a target’s mobility, in addition to any Physical damage dealt. </t>
   </si>
   <si>
     <t xml:space="preserve">Talisman of Darkness</t>
@@ -525,7 +507,7 @@
     <t xml:space="preserve">Traceless Thorns</t>
   </si>
   <si>
-    <t xml:space="preserve">A set of transparent needles that make it difficult to trace the trajectory of attacks. Using this weapon reduces the likelihood that you’ll be exposed after making a sneak attack. </t>
+    <t xml:space="preserve">A set of transparent needles that make it difficult to trace the origin of attacks. Using this weapon reduces the likelihood that you’ll be exposed after making a sneak attack. </t>
   </si>
   <si>
     <t xml:space="preserve">Bard</t>
@@ -576,34 +558,34 @@
     <t xml:space="preserve">A mixture that bewitches animals. You can communicate with and befriend beasts. You can use I Know a Guy to recruit a local beast to aid you. The beast can track, fight, and is capable of anything that a creature of its kind might otherwise do. Can also be used to attract beasts and monsters.</t>
   </si>
   <si>
-    <t xml:space="preserve">Bouncing Arrows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of magicked arrows with blunt heads. Using this weapon allows your attacks to ricochet to one other nearby enemy in the same action.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shepherd’s Flute</t>
   </si>
   <si>
     <t xml:space="preserve">A ritually crafted flute that has power over simple-minded creatures. Playing the flute with care can calm wild animals and insects. Playing the flute recklessly can stir them into a frenzy, attacking anything nearby.</t>
   </si>
   <si>
-    <t xml:space="preserve">Silent Arrows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of arrows that seem to absorb sound. Using this weapon ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. You have Advantage when determining who acts first, such as when determining combat turn order.</t>
+    <t xml:space="preserve">Talisman of Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to preserve life. Can be used to heal wounds, sense the presence of living things, and detect disturbances in the natural order.</t>
   </si>
   <si>
     <t xml:space="preserve">Talisman of Wood</t>
   </si>
   <si>
-    <t xml:space="preserve">A wand or other object that can be used to manipulate plants. Can be used to accelerate plant growth, speed up natural healing, and command flora. </t>
+    <t xml:space="preserve">A wand or other object that can be used to manipulate plants. Can be used to accelerate plant growth, command flora, and commune with the spirits of the land. </t>
   </si>
   <si>
     <t xml:space="preserve">Twin Edges</t>
   </si>
   <si>
-    <t xml:space="preserve">A pair of swords used together to create a whirlwind of slashes. Using this weapon gives your attacks an area of effect around your body, damaging enemies nearby. On a successful defense against a melee attack, you inflict a box of Physical damage to the attacker.</t>
+    <t xml:space="preserve">A pair of charmed swords that gravitate towards one another. Using this weapon gives your attacks an area of effect around your body, damaging enemies nearby. On a successful defense against a melee attack, you inflict a box of Physical damage to the attacker.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whisper Bowstring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bowstring that enchants arrows to ‘eat sound’, creating small pockets of silence on impact. Using this weapon ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. </t>
   </si>
   <si>
     <t xml:space="preserve">Soldier</t>
@@ -726,7 +708,7 @@
     <t xml:space="preserve">Wicked Blade</t>
   </si>
   <si>
-    <t xml:space="preserve">An implausably sharp shortsword that excels in quick, piercing strikes. Using this weapon adds +1 to the roll result of your attacks, significantly improving the chance that they’ll inflict damage. Enemies that attempt to leave your melee range take one box of Physical damage. </t>
+    <t xml:space="preserve">A sharp shortsword that seeks out targets. Using this weapon adds +1 to the roll result of your attacks, significantly improving the chance that they’ll inflict damage. Enemies that attempt to leave your melee range take one box of Physical damage. </t>
   </si>
   <si>
     <t xml:space="preserve">Armiger</t>
@@ -1850,7 +1832,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1910,12 +1892,6 @@
       <name val="Fira Sans"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Fira Sans"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -2470,8 +2446,8 @@
   </sheetPr>
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3752,7 +3728,7 @@
         <v>175</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E75" s="23" t="s">
         <v>176</v>
@@ -3769,13 +3745,13 @@
         <v>177</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E76" s="23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="20" t="s">
         <v>145</v>
       </c>
@@ -3786,13 +3762,13 @@
         <v>179</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E77" s="23" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="20" t="s">
         <v>145</v>
       </c>
@@ -3803,7 +3779,7 @@
         <v>181</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E78" s="23" t="s">
         <v>182</v>
@@ -3820,7 +3796,7 @@
         <v>183</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E79" s="23" t="s">
         <v>184</v>

--- a/miracuse_kits.xlsx
+++ b/miracuse_kits.xlsx
@@ -120,7 +120,7 @@
     <t xml:space="preserve">Weapon, Reaction</t>
   </si>
   <si>
-    <t xml:space="preserve">A handgun specialized for near-instant withdraw. Using this weapon, have Advantage when turn order is rolled, and your first attack counts as a sneak attack. You cannot use grenades when using this weapon to attack.</t>
+    <t xml:space="preserve">A handgun specialized for near-instant withdraw. Using this weapon, you have Advantage when turn order is rolled, and your first attack counts as a sneak attack. You cannot use grenades when using this weapon to attack.</t>
   </si>
   <si>
     <t xml:space="preserve">Rubber Bullets</t>
@@ -144,144 +144,217 @@
     <t xml:space="preserve">Metallurgist</t>
   </si>
   <si>
-    <t xml:space="preserve">Adamantine Gloves</t>
+    <t xml:space="preserve">Ring of Change</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A red ring with the power to convert metals into other metals. The greater the difference from the original, the more difficult the change. Requires physical contact. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Can be completed instantaneously by expending a Charge Point.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring of Decomposition</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A black ring with the power to destroy metal. Can be used to split apart metal neatly or violently. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The more drastic the change, the more difficult and time consuming it is.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring of Forge</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A white ring with the power to smelt metals. Can be used to heat metals, purge them of impurities, and strengthen or weaken them. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring of Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A gold ring with the power to reshape metal. The more drastic the change, the more difficult and time consuming it is. Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runehammer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A lengthy warhammer with power over metals. Using this weapon shatters metal objects and heavily damages enchanted items. If a Metallurgist ring kit is equipped, the Runehammer can transmit its effects on impact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitrolic Edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A shortsword that sweats sulfuric acid. Using this weapon causes painful acid burns. Successful attacks deal an additional box of Physical damage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Templar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abjuring Chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A metal chainlink whip engraved with warding runes. Using this weapon allows your attacks to interfere with magic, similar to a knight’s holy sword. The whip can be joined together to create a magic circle that repels magic from the outside and contains magic within.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lantern Spear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A shaft of steel tipped with enchanted silver that permanently glows with light. Using this weapon blinds creatures with strong night vision. Successful attacks against magical creatures deal an additional point of damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sacred Censure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A brass vessel suspended by a chain, made for burning incense. Can be used to create swirls of white smoke that dampen the effects of magic in an area. Monsters and other animals are repelled by the smell, making it useful for setting up camp in dangerous areas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to restrict and reinforce. Can be used to imprison enemies, to fortify doors, and to seal away magic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Purity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to purify and sanctify. Can be used to expel poisons, harm magical creatures, and bless objects with the power to ward off evil spirits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tolling Bell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A metal bell whose deep sound sends a feeling of peace through those who hear it. Weak undead in the area are immediately put to rest, while stronger undead take Physical and Mental damage. Can be used softly to put others into a stupor, but only if they’re caught unaware.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alchemist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agua Regia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dangerously potent acid that eats through metals with ease. Can be used to break locks, sabotage equipment, and create clouds of poisonous gas. When you Produce a Grenade, you can create a canister of poisonous gas instead. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunar Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystallized holy water, a substance that leeches away magic on contact. Can be used to deaden a person to magic for a short time, rendering them immune and incapable of casting spells. When you Produce a Grenade, magic in the area of effect is torn apart. You have Advantage when defending against magic in any form while this kit is equipped.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midnight Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dark oil that absorbs sound and light, muting its surroundings. When burned it produces an invisible flame that gives off heat but not light, and an odorless gas that lulls others to sleep. When you Produce a Grenade, you can create a canister of sleeping gas instead, which deals Mental damage rather than Physical.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pocket Wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A rapidly expanding cement-like substance. Can be used to create shelter, mend cracks, seal doors, or adhere objects to one another. You have Advantage when creating or repairing objects with this substance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyre Powder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A crackling dust that serves as the ideal catalyst. When you use Produce a Potion or Produce a Grenade, you produce two items instead of one. You are still limited to using one item per action in combat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winterbloom Extract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highly-concentrated extract from the Winterbloom flower. A droplet can freeze fifty gallons of water into hard ice, create a billowing cloud of fog, or plummet the temperature of anything it comes into contact with. When you Produce a Grenade, you can create a flash freeze grenade instead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enchanter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dancing Shadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant made of shadow, granting you a limited form of telekinesis. The servant exists within your shadow, but can move independently and interact with the physical world. The shadow is able to retrieve and store lightweight objects within itself, but is lacking in strength.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Familiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a servant that takes the form of a small animal, such as a crow or cat. You are able to borrow its senses, temporarily gaining a bird’s eye view or a dog’s sense of smell for example. The form of the familiar is chosen when the kit is equipped, and may be changed by expending a Charge Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Featherweave</t>
   </si>
   <si>
     <t xml:space="preserve">Alchemy, Reaction</t>
   </si>
   <si>
-    <t xml:space="preserve">A set of flexible gloves that have somehow been crafted out of finely worked adamantium. They protect the wearer’s hands from conditions as extreme as molten lava or caustic acid. You have Advantage when blocking attacks with the gloves.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ring of Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A red ring with the power to convert metals into other metals. The greater the difference from the original, the more difficult the change. Requires physical contact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ring of Form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A black ring with the power to reshape metal. The more drastic the change, the more difficult and time consuming it is. Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Runehammer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A warhammer with power over metals. Using this weapon shatters metal objects and heavily damages enchanted items.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Forge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to alter the properties of metals. Can be used to heat metals, purge them of impurities, and strengthen or weaken them.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitrolic Edge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A shortsword that sweats sulfuric acid. Using this weapon causes painful acid burns. Successful attacks deal an additional box of Physical damage. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Templar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abjuring Chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A metal chainlink whip engraved with warding runes. Using this weapon allows your attacks to interfere with magic, similar to a knight’s holy sword. The whip can be joined together to create a magic circle that repels magic from the outside and contains magic within.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lantern Spear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A shaft of steel tipped with enchanted silver that permanently glows with light. Using this weapon blinds creatures with strong night vision. Successful attacks against magical creatures deal an additional point of damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacred Censure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A brass vessel suspended by a chain, made for burning incense. Can be used to create swirls of white smoke that dampen the effects of magic in an area. Monsters and other animals are repelled by the smell, making it useful for setting up camp in dangerous areas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to restrict and reinforce. Can be used to imprison enemies, to fortify doors, and to seal away magic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talisman of Purity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wand or other object that can be used to purify and sanctify. Can be used to expel poisons, harm magical creatures, and bless objects with the power to ward off evil spirits.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tolling Bell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A metal bell whose deep sound sends a feeling of peace through those who hear it. Weak undead in the area are immediately put to rest, while stronger undead take Physical and Mental damage. Can be used softly to put others into a stupor, but only if they’re caught unaware.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alchemist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agua Regia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A dangerously potent acid that eats through metals with ease. Can be used to break locks, sabotage equipment, and create clouds of poisonous gas. When you Produce a Grenade, you can create a canister of poisonous gas instead. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lunar Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystallized holy water, a substance that leeches away magic on contact. Can be used to deaden a person to magic for a short time, rendering them immune and incapable of casting spells. When you Produce a Grenade, magic in the area of effect is torn apart. You have Advantage when defending against magic in any form while this kit is equipped.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Midnight Oil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A dark oil that absorbs sound and light, muting its surroundings. When burned it produces an invisible flame that gives off heat but not light, and an odorless gas that lulls others to sleep. When you Produce a Grenade, you can create a canister of sleeping gas instead, which deals Mental damage rather than Physical.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pocket Wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A rapidly expanding cement-like substance. Can be used to create shelter, mend cracks, seal doors, or adhere objects to one another. You have Advantage when creating or repairing objects with this substance. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pyre Powder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A crackling dust that serves as the ideal catalyst. When you use Produce a Potion or Produce a Grenade, you produce two items instead of one. You are still limited to using one item per action in combat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winterbloom Extract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Highly-concentrated extract from the Winterbloom flower. A droplet can freeze fifty gallons of water into hard ice, create a billowing cloud of fog, or plummet the temperature of anything it comes into contact with. When you Produce a Grenade, you can create a flash freeze grenade instead.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enchanter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dancing Shadow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant made of shadow, granting you a limited form of telekinesis. The servant exists within your shadow, but can move independently and interact with the physical world. The shadow is able to retrieve lightweight objects and jostle objects, but cannot fight.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Familiar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have a servant that takes the form of a small animal, such as a crow or cat. You are able to borrow its senses, temporarily gaining a bird’s eye view or a dog’s sense of smell for example. The form of the familiar is chosen when the kit is equipped, and may be changed by expending a Charge Point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Featherweave</t>
-  </si>
-  <si>
     <t xml:space="preserve">You have a servant made from enchanted cloth, capable of resisting gravity to a limited degree. You glide gently to the ground while wearing this kit. When folded into a bag, you can carry heavy objects with ease. When unrolled it becomes a flying carpet, able to carry you through the air across short distances.</t>
   </si>
   <si>
@@ -303,7 +376,7 @@
     <t xml:space="preserve">Shikigami</t>
   </si>
   <si>
-    <t xml:space="preserve">You have a servant made from enchanted paper, capable of flying, spying, and carrying messages.  Equipping this kit provides one shikigami. You can expend a Charge Point to create additional servants.</t>
+    <t xml:space="preserve">You have many servants made from enchanted paper, capable of flying, spying, and carrying messages.  Equipping this kit provides half a dozen shikigami. You can expend a Charge Point to create an additional six servants.</t>
   </si>
   <si>
     <t xml:space="preserve">Sapper</t>
@@ -585,7 +658,7 @@
     <t xml:space="preserve">Whisper Bowstring</t>
   </si>
   <si>
-    <t xml:space="preserve">A bowstring that enchants arrows to ‘eat sound’, creating small pockets of silence on impact. Using this weapon ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. </t>
+    <t xml:space="preserve">A bowstring made of siren’s hair that enchants arrows to ‘eat sound’, creating small pockets of silence on impact. Using this weapon ensures that an enemy won’t cause a commotion for a brief period of time, in addition to any Physical damage dealt. </t>
   </si>
   <si>
     <t xml:space="preserve">Soldier</t>
@@ -696,7 +769,7 @@
     <t xml:space="preserve">Shocklance</t>
   </si>
   <si>
-    <t xml:space="preserve">A spear whose tip crackles with electricity, causing intense pain on contact. Using this weapon inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when intimidating others. </t>
+    <t xml:space="preserve">A short spear whose tip crackles with electricity, causing intense pain on contact. Using this weapon inflicts a box of Mental damage on successful attacks, in addition to any Physical damage dealt. You have Advantage when intimidating others. </t>
   </si>
   <si>
     <t xml:space="preserve">Thunderclap Javelins</t>
@@ -1832,7 +1905,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1892,6 +1965,12 @@
       <name val="Fira Sans"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Fira Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -2446,8 +2525,8 @@
   </sheetPr>
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2691,10 +2770,10 @@
         <v>37</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2705,13 +2784,13 @@
         <v>36</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2722,13 +2801,13 @@
         <v>36</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2739,13 +2818,13 @@
         <v>36</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2756,13 +2835,13 @@
         <v>36</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2773,13 +2852,13 @@
         <v>36</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2787,16 +2866,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2804,16 +2883,16 @@
         <v>5</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2821,16 +2900,16 @@
         <v>5</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2838,16 +2917,16 @@
         <v>5</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2855,16 +2934,16 @@
         <v>5</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2872,166 +2951,166 @@
         <v>5</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="C26" s="14" t="s">
         <v>64</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>65</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="C27" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="C28" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="C29" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="C30" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="C31" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>78</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>83</v>
@@ -3039,10 +3118,10 @@
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>84</v>
@@ -3056,10 +3135,10 @@
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>86</v>
@@ -3073,10 +3152,10 @@
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>89</v>
@@ -3090,7 +3169,7 @@
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>91</v>
@@ -3107,7 +3186,7 @@
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>91</v>
@@ -3124,7 +3203,7 @@
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>91</v>
@@ -3141,7 +3220,7 @@
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>91</v>
@@ -3158,7 +3237,7 @@
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>91</v>
@@ -3175,7 +3254,7 @@
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>91</v>
@@ -3660,7 +3739,7 @@
         <v>166</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="E71" s="23" t="s">
         <v>167</v>
@@ -4574,7 +4653,7 @@
         <v>278</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="42" t="s">
         <v>230</v>
@@ -4591,7 +4670,7 @@
         <v>278</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" s="42" t="s">
         <v>8</v>
@@ -5013,7 +5092,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56" s="46"/>
       <c r="D56" s="46"/>
@@ -5024,7 +5103,7 @@
         <v>5</v>
       </c>
       <c r="B57" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C57" s="46"/>
       <c r="D57" s="46"/>
@@ -5035,7 +5114,7 @@
         <v>5</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="46"/>
       <c r="D58" s="46"/>
@@ -5046,7 +5125,7 @@
         <v>5</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C59" s="46"/>
       <c r="D59" s="46"/>
@@ -5057,7 +5136,7 @@
         <v>5</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C60" s="46"/>
       <c r="D60" s="46"/>
@@ -5068,7 +5147,7 @@
         <v>5</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C61" s="46"/>
       <c r="D61" s="46"/>
@@ -5126,7 +5205,7 @@
     </row>
     <row r="2" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>91</v>
@@ -5179,7 +5258,7 @@
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>323</v>
@@ -5196,7 +5275,7 @@
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>323</v>
@@ -5213,7 +5292,7 @@
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>323</v>
@@ -5230,7 +5309,7 @@
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>323</v>
@@ -5247,7 +5326,7 @@
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>323</v>
@@ -5264,7 +5343,7 @@
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>323</v>
@@ -5796,10 +5875,10 @@
     </row>
     <row r="2" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>348</v>
@@ -5813,10 +5892,10 @@
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>350</v>
@@ -5830,13 +5909,13 @@
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="C4" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>8</v>
@@ -5847,10 +5926,10 @@
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>353</v>
@@ -5864,13 +5943,13 @@
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="C6" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>8</v>
@@ -5881,10 +5960,10 @@
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>356</v>
@@ -5898,10 +5977,10 @@
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>84</v>
@@ -5915,16 +5994,16 @@
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>358</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>359</v>
@@ -5932,10 +6011,10 @@
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>89</v>
@@ -5949,10 +6028,10 @@
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>337</v>
@@ -5966,10 +6045,10 @@
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>339</v>
@@ -5983,10 +6062,10 @@
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>341</v>
@@ -6000,7 +6079,7 @@
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>91</v>
@@ -6017,7 +6096,7 @@
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>91</v>
@@ -6034,7 +6113,7 @@
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>91</v>
@@ -6051,7 +6130,7 @@
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>91</v>
@@ -6068,7 +6147,7 @@
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>91</v>
@@ -6085,7 +6164,7 @@
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>91</v>
@@ -6553,7 +6632,7 @@
         <v>166</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>167</v>
@@ -7070,10 +7149,10 @@
     </row>
     <row r="2" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>428</v>
@@ -7087,10 +7166,10 @@
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>164</v>
@@ -7104,10 +7183,10 @@
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>147</v>
@@ -7121,10 +7200,10 @@
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>166</v>
@@ -7138,10 +7217,10 @@
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>149</v>
@@ -7155,10 +7234,10 @@
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>477</v>
@@ -7172,10 +7251,10 @@
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>480</v>
@@ -7189,10 +7268,10 @@
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>482</v>
@@ -7206,10 +7285,10 @@
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>484</v>
@@ -7223,10 +7302,10 @@
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>486</v>
@@ -7240,10 +7319,10 @@
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>488</v>
@@ -7257,10 +7336,10 @@
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>491</v>
@@ -7274,7 +7353,7 @@
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>91</v>
@@ -7291,7 +7370,7 @@
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>91</v>
@@ -7308,7 +7387,7 @@
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>91</v>
@@ -7325,7 +7404,7 @@
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>91</v>
@@ -7342,7 +7421,7 @@
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>91</v>
@@ -7359,7 +7438,7 @@
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>91</v>

--- a/miracuse_kits.xlsx
+++ b/miracuse_kits.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="620">
   <si>
     <t xml:space="preserve">Class</t>
   </si>
@@ -99,28 +99,61 @@
     <t xml:space="preserve">A wand or other object that can be used to bring forth jinn influence. Can be used to summon snakes, call forth hot desert wind, and see into the past of an object. You have Advantage when using Knowledge to recall history.</t>
   </si>
   <si>
+    <t xml:space="preserve">Corsair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloody Cutlass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pirate’s sword with a nasty red hue. Using this weapon causes it to leech blood on every strike, leaving few bloodstains. Successful attacks on enemies with blood deal an additional box of damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marauder Flintlock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bewitched handgun whose bullets hammer through ships and sails. Using this weapon allows your ranged attacks to cause outsized damage to objects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sticky Fingers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of gloves covered in an odd adhesive. Allows the user to climb any surface with ease and snatch objects with a light touch. You have Advantage when stealing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Sea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to call on the spirits of the sea. Can be used to breathe underwater, commune with aquatic creatures, and change the flow of a current.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Sky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to call on the spirits of the sky. Can be used to whip up strong breezes, find your way when lost, and commune with birds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tar Rum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bottle of truly rancid alcohol. Can be used to numb pain, treat poison, and create flames. Makes for a good offering to spirits.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gunslinger</t>
   </si>
   <si>
-    <t xml:space="preserve">Armor Piercing Bullets</t>
+    <t xml:space="preserve">Piercing Bullets</t>
   </si>
   <si>
     <t xml:space="preserve">Steel-tipped bullets that punch through armor and cover.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hollow Point Bullets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bullets designed to cause great harm. Deals an additional box of Physical damage on successful attacks.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quickdraw Pistol</t>
   </si>
   <si>
     <t xml:space="preserve">Weapon, Reaction</t>
   </si>
   <si>
-    <t xml:space="preserve">A handgun specialized for near-instant withdraw. Using this weapon, you have Advantage when turn order is rolled, and your first attack counts as a sneak attack. You cannot use grenades when using this weapon to attack.</t>
+    <t xml:space="preserve">A handgun specialized for near-instant withdraw. Using this weapon, your first attack in combat counts as a sneak attack. You cannot use grenades when using this weapon to attack. You have Advantage on rolls to determine who acts first, including turn order for combat.</t>
   </si>
   <si>
     <t xml:space="preserve">Rubber Bullets</t>
@@ -133,6 +166,12 @@
   </si>
   <si>
     <t xml:space="preserve">Anti-magic bullets that can shatter spells.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trenchsteel Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attacks that use this ammunition are physically loaded, exploding into a mass of ball bearings or coils of barbed wire in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
   </si>
   <si>
     <t xml:space="preserve">Twoshot Bullets</t>
@@ -253,6 +292,84 @@
     <t xml:space="preserve">A shortsword that sweats sulfuric acid. Using this weapon causes painful acid burns. Successful attacks deal an additional box of Physical damage. </t>
   </si>
   <si>
+    <t xml:space="preserve">Spellsword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mythril Blade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A blade that conducts magic. Using this weapon allow you to use Talismans in conjunction with attacks, empowering strikes with effects related to the Talisman. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mythril Chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A length of chain that conducts magic. Using this weapon allows you to channel the power of a Talisman into the chain, conducting its energy onto anyone or anything wrapped with the chain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Impact</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A wand or other object that can be used to amplify the force of individual motions your body makes. Can be used to leap high into the air, knock an enemy back with a strike, or kick a door off its hinges. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">May cause Physical damage to you if used excessively.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman, Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to deflect harm away from your body. Can be used to parry projectiles, repel magic, or reflect spells back on their caster. You can spend a Mana Point to avoid harm from incoming attacks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to accelerate your body. Can be used to briefly move faster than normal, heal your wounds, or quicken your thoughts. May cause Physical damage to you if used excessively.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Sun</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A wand or other object that can be used to radiate heat and light from your body. Can be used to burn off restraints, blind enemies in melee range, or stave off cold. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">May cause Physical damage to you if used excessively.</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Templar</t>
   </si>
   <si>
@@ -427,9 +544,6 @@
     <t xml:space="preserve">Talisman of Abjuration</t>
   </si>
   <si>
-    <t xml:space="preserve">Talisman, Reaction</t>
-  </si>
-  <si>
     <t xml:space="preserve">A wand or other object that can be used to repel and dispel. Can be used to create barriers, destroy magic, and turn away otherworldly influences. You can expend a Mana Point to deflect an attack aimed at you.</t>
   </si>
   <si>
@@ -976,9 +1090,6 @@
     <t xml:space="preserve">You can expend a Prep Point to block an attack using your shadow. You have Advantage on rolls to detect danger.</t>
   </si>
   <si>
-    <t xml:space="preserve">Spellsword</t>
-  </si>
-  <si>
     <t xml:space="preserve">Combat Casting</t>
   </si>
   <si>
@@ -1205,12 +1316,6 @@
   </si>
   <si>
     <t xml:space="preserve">Attacks that use this ammunition have thermal properties, producing flames or frost on targets in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trenchsteel Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks that use this ammunition are physically loaded, exploding into a mass of ball bearings or coils of barbed wire in addition to any Physical damage dealt. When used with Produce a Grenade this kit inflicts Physical damage and one other effect in a wide area.</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit of Abjuration</t>
@@ -1988,14 +2093,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE8F2A1"/>
-        <bgColor rgb="FFD4EA6B"/>
+        <fgColor rgb="FFFFFFD7"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFD7"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFE8F2A1"/>
+        <bgColor rgb="FFD4EA6B"/>
       </patternFill>
     </fill>
     <fill>
@@ -2523,10 +2628,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2668,7 +2773,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>24</v>
@@ -2685,7 +2790,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>26</v>
@@ -2702,10 +2807,10 @@
         <v>27</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2716,13 +2821,13 @@
         <v>22</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2733,13 +2838,13 @@
         <v>22</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2750,13 +2855,13 @@
         <v>22</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2764,16 +2869,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2781,13 +2886,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -2798,7 +2903,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>41</v>
@@ -2815,7 +2920,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>43</v>
@@ -2832,13 +2937,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>46</v>
@@ -2849,13 +2954,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>48</v>
@@ -2872,7 +2977,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>51</v>
@@ -2889,7 +2994,7 @@
         <v>52</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>53</v>
@@ -2923,7 +3028,7 @@
         <v>56</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>57</v>
@@ -2940,7 +3045,7 @@
         <v>58</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>59</v>
@@ -2957,525 +3062,525 @@
         <v>60</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="C26" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="D26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="14" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="14" t="s">
+      <c r="E34" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" s="15" t="s">
+      <c r="E37" s="11" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B38" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>91</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>92</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="14" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" s="19" t="s">
+      <c r="E52" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="13" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" s="19" t="s">
+      <c r="C53" s="14" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C53" s="18" t="s">
+      <c r="D53" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D53" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" s="19" t="s">
+    </row>
+    <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="14" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C54" s="18" t="s">
+      <c r="D54" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D54" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="19" t="s">
+    </row>
+    <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="14" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="18" t="s">
+      <c r="D55" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="15" t="s">
         <v>130</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>132</v>
@@ -3484,7 +3589,7 @@
         <v>133</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E56" s="19" t="s">
         <v>134</v>
@@ -3492,7 +3597,7 @@
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B57" s="17" t="s">
         <v>132</v>
@@ -3501,7 +3606,7 @@
         <v>135</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="E57" s="19" t="s">
         <v>136</v>
@@ -3509,7 +3614,7 @@
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B58" s="17" t="s">
         <v>132</v>
@@ -3526,7 +3631,7 @@
     </row>
     <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>132</v>
@@ -3543,7 +3648,7 @@
     </row>
     <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>132</v>
@@ -3560,7 +3665,7 @@
     </row>
     <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B61" s="17" t="s">
         <v>132</v>
@@ -3576,212 +3681,212 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="C62" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="D62" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D62" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="23" t="s">
+    </row>
+    <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="18" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="20" t="s">
+      <c r="D63" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B63" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="23" t="s">
+      <c r="C64" s="18" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="20" t="s">
+      <c r="D64" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B64" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E64" s="23" t="s">
+      <c r="C65" s="18" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="20" t="s">
+      <c r="D65" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B65" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="23" t="s">
+      <c r="C66" s="18" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="20" t="s">
+      <c r="D66" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B66" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D66" s="22" t="s">
+      <c r="C67" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E66" s="23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C67" s="22" t="s">
+      <c r="E67" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D67" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="23" t="s">
+    </row>
+    <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="17" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B68" s="21" t="s">
+      <c r="C68" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="D68" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="D68" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="23" t="s">
+    </row>
+    <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" s="18" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="C69" s="22" t="s">
+      <c r="D69" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E69" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D69" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="23" t="s">
+    </row>
+    <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" s="18" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="C70" s="22" t="s">
+      <c r="D70" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="D70" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="23" t="s">
+    </row>
+    <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71" s="18" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B71" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="C71" s="22" t="s">
+      <c r="D71" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="D71" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E71" s="23" t="s">
+    </row>
+    <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72" s="18" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="C72" s="22" t="s">
+      <c r="D72" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="D72" s="22" t="s">
+    </row>
+    <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="C73" s="22" t="s">
+      <c r="E73" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D73" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E73" s="23" t="s">
+    </row>
+    <row r="74" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="20" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="20" t="s">
-        <v>145</v>
       </c>
       <c r="B74" s="21" t="s">
         <v>172</v>
@@ -3798,7 +3903,7 @@
     </row>
     <row r="75" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B75" s="21" t="s">
         <v>172</v>
@@ -3815,7 +3920,7 @@
     </row>
     <row r="76" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B76" s="21" t="s">
         <v>172</v>
@@ -3824,7 +3929,7 @@
         <v>177</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E76" s="23" t="s">
         <v>178</v>
@@ -3832,7 +3937,7 @@
     </row>
     <row r="77" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B77" s="21" t="s">
         <v>172</v>
@@ -3841,15 +3946,15 @@
         <v>179</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E77" s="23" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B78" s="21" t="s">
         <v>172</v>
@@ -3858,15 +3963,15 @@
         <v>181</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E78" s="23" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B79" s="21" t="s">
         <v>172</v>
@@ -3882,272 +3987,272 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="24" t="s">
+      <c r="A80" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="B80" s="25" t="s">
+      <c r="C80" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="C80" s="26" t="s">
+      <c r="D80" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="D80" s="26" t="s">
+    </row>
+    <row r="81" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D81" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E80" s="27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="24" t="s">
+      <c r="E81" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B82" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="B81" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="C81" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="D81" s="26" t="s">
+      <c r="C82" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E83" s="23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" s="23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E90" s="23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D91" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E81" s="27" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="B82" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="C82" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="D82" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="E82" s="27" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="B83" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="C83" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="D83" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="27" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="B84" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="C84" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="D84" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E84" s="27" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="B85" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="C85" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="D85" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E85" s="27" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="B86" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="C86" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="D86" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E86" s="27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="B87" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="C87" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="D87" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" s="27" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="B88" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="C88" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="D88" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" s="27" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="B89" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="C89" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="D89" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E89" s="27" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="B90" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="C90" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="D90" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E90" s="27" t="s">
+      <c r="E91" s="23" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="B91" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="C91" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="D91" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E91" s="27" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B92" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C92" s="26" t="s">
         <v>213</v>
-      </c>
-      <c r="C92" s="26" t="s">
-        <v>214</v>
       </c>
       <c r="D92" s="26" t="s">
         <v>13</v>
       </c>
       <c r="E92" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B93" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C93" s="26" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="B93" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="C93" s="26" t="s">
-        <v>216</v>
       </c>
       <c r="D93" s="26" t="s">
         <v>13</v>
       </c>
       <c r="E93" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D94" s="26" t="s">
         <v>218</v>
-      </c>
-      <c r="D94" s="26" t="s">
-        <v>8</v>
       </c>
       <c r="E94" s="27" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C95" s="26" t="s">
         <v>220</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E95" s="27" t="s">
         <v>221</v>
@@ -4155,10 +4260,10 @@
     </row>
     <row r="96" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C96" s="26" t="s">
         <v>222</v>
@@ -4172,19 +4277,223 @@
     </row>
     <row r="97" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C97" s="26" t="s">
         <v>224</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E97" s="27" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D98" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" s="27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B99" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C99" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="D99" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B100" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C100" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D100" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B101" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D101" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B102" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="D102" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E102" s="27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D103" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B104" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" s="27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C105" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="D105" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B106" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C106" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D106" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B107" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C107" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D107" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" s="27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B108" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C108" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="51.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B109" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C109" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="D109" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E109" s="27" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4207,8 +4516,8 @@
   </sheetPr>
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4242,16 +4551,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4259,16 +4568,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4276,16 +4585,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4293,16 +4602,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4310,16 +4619,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4327,16 +4636,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4344,16 +4653,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4361,16 +4670,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4378,16 +4687,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4395,16 +4704,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4412,16 +4721,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4429,16 +4738,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4446,16 +4755,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4463,16 +4772,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4480,16 +4789,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4497,16 +4806,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4514,16 +4823,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4531,16 +4840,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4548,16 +4857,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4565,16 +4874,16 @@
         <v>5</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4582,16 +4891,16 @@
         <v>5</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4599,16 +4908,16 @@
         <v>5</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4616,16 +4925,16 @@
         <v>5</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4633,16 +4942,16 @@
         <v>5</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4650,16 +4959,16 @@
         <v>5</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4667,16 +4976,16 @@
         <v>5</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D27" s="42" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4684,16 +4993,16 @@
         <v>5</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4701,16 +5010,16 @@
         <v>5</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4718,16 +5027,16 @@
         <v>5</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4735,16 +5044,16 @@
         <v>5</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4752,16 +5061,16 @@
         <v>5</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>290</v>
+        <v>62</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E32" s="47" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4769,16 +5078,16 @@
         <v>5</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>290</v>
+        <v>62</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="D33" s="46" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4786,16 +5095,16 @@
         <v>5</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>290</v>
+        <v>62</v>
       </c>
       <c r="C34" s="46" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="D34" s="46" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E34" s="47" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4803,16 +5112,16 @@
         <v>5</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>290</v>
+        <v>62</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="E35" s="47" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4820,16 +5129,16 @@
         <v>5</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>290</v>
+        <v>62</v>
       </c>
       <c r="C36" s="46" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="D36" s="46" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E36" s="47" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4837,16 +5146,16 @@
         <v>5</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>290</v>
+        <v>62</v>
       </c>
       <c r="C37" s="46" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E37" s="47" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4854,16 +5163,16 @@
         <v>5</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4871,16 +5180,16 @@
         <v>5</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4888,7 +5197,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
@@ -4899,7 +5208,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
@@ -4910,7 +5219,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
@@ -4921,7 +5230,7 @@
         <v>5</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
@@ -4932,16 +5241,16 @@
         <v>5</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4949,16 +5258,16 @@
         <v>5</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4966,16 +5275,16 @@
         <v>5</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E46" s="39" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4983,16 +5292,16 @@
         <v>5</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E47" s="39" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5000,11 +5309,11 @@
         <v>5</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C48" s="38"/>
       <c r="D48" s="38" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E48" s="39"/>
     </row>
@@ -5013,11 +5322,11 @@
         <v>5</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="38" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E49" s="39"/>
     </row>
@@ -5026,7 +5335,7 @@
         <v>5</v>
       </c>
       <c r="B50" s="45" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="C50" s="46"/>
       <c r="D50" s="46"/>
@@ -5037,7 +5346,7 @@
         <v>5</v>
       </c>
       <c r="B51" s="45" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="C51" s="46"/>
       <c r="D51" s="46"/>
@@ -5048,7 +5357,7 @@
         <v>5</v>
       </c>
       <c r="B52" s="45" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="C52" s="46"/>
       <c r="D52" s="46"/>
@@ -5059,7 +5368,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="45" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="C53" s="46"/>
       <c r="D53" s="46"/>
@@ -5070,7 +5379,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="45" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="C54" s="46"/>
       <c r="D54" s="46"/>
@@ -5081,7 +5390,7 @@
         <v>5</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="C55" s="46"/>
       <c r="D55" s="46"/>
@@ -5092,7 +5401,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C56" s="46"/>
       <c r="D56" s="46"/>
@@ -5103,7 +5412,7 @@
         <v>5</v>
       </c>
       <c r="B57" s="45" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C57" s="46"/>
       <c r="D57" s="46"/>
@@ -5114,7 +5423,7 @@
         <v>5</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C58" s="46"/>
       <c r="D58" s="46"/>
@@ -5125,7 +5434,7 @@
         <v>5</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C59" s="46"/>
       <c r="D59" s="46"/>
@@ -5136,7 +5445,7 @@
         <v>5</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C60" s="46"/>
       <c r="D60" s="46"/>
@@ -5147,7 +5456,7 @@
         <v>5</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C61" s="46"/>
       <c r="D61" s="46"/>
@@ -5205,34 +5514,34 @@
     </row>
     <row r="2" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12"/>
       <c r="B3" s="13" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5258,143 +5567,143 @@
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5679,36 +5988,36 @@
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5843,8 +6152,8 @@
   </sheetPr>
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D77" activeCellId="0" sqref="D77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5875,1226 +6184,1226 @@
     </row>
     <row r="2" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>367</v>
+        <v>45</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>368</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="D45" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="D51" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="D52" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="D63" s="26" t="s">
         <v>8</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -7149,1226 +7458,1226 @@
     </row>
     <row r="2" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>476</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>482</v>
+        <v>505</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>492</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>495</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>496</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>497</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>498</v>
+        <v>521</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>367</v>
+        <v>45</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>499</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>500</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>502</v>
+        <v>525</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>513</v>
+        <v>536</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>531</v>
+        <v>554</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>532</v>
+        <v>555</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>534</v>
+        <v>557</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>536</v>
+        <v>559</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>538</v>
+        <v>561</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>539</v>
+        <v>562</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>540</v>
+        <v>563</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>542</v>
+        <v>565</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>543</v>
+        <v>566</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>544</v>
+        <v>567</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>545</v>
+        <v>568</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>546</v>
+        <v>569</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>547</v>
+        <v>570</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>550</v>
+        <v>573</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>552</v>
+        <v>575</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>553</v>
+        <v>576</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>554</v>
+        <v>577</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>555</v>
+        <v>578</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>556</v>
+        <v>579</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>557</v>
+        <v>580</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>558</v>
+        <v>581</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>559</v>
+        <v>582</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>561</v>
+        <v>584</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>562</v>
+        <v>585</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>563</v>
+        <v>586</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>568</v>
+        <v>591</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>569</v>
+        <v>592</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>571</v>
+        <v>594</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>572</v>
+        <v>595</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>573</v>
+        <v>596</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>574</v>
+        <v>597</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>575</v>
+        <v>598</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>578</v>
+        <v>601</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>579</v>
+        <v>602</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>580</v>
+        <v>603</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>581</v>
+        <v>604</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>568</v>
+        <v>591</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>582</v>
+        <v>605</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>583</v>
+        <v>606</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>584</v>
+        <v>607</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>568</v>
+        <v>591</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>586</v>
+        <v>609</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>588</v>
+        <v>611</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>589</v>
+        <v>612</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>590</v>
+        <v>613</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>591</v>
+        <v>614</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>592</v>
+        <v>615</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>593</v>
+        <v>616</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>594</v>
+        <v>617</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>595</v>
+        <v>618</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="24" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>596</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>

--- a/miracuse_kits.xlsx
+++ b/miracuse_kits.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="624">
   <si>
     <t xml:space="preserve">Class</t>
   </si>
@@ -60,7 +60,7 @@
     <t xml:space="preserve">Alchemy</t>
   </si>
   <si>
-    <t xml:space="preserve">An otherworldly dust that conducts and magnifies magical energy. When added to fire it becomes hellfire, burning hotter and creating a noxious stench. When you use Produce a Grenade, the resulting explosion deals an additional point of damage.</t>
+    <t xml:space="preserve">An otherworldly dust that conducts and magnifies magical energy. When added to fire it becomes hellfire, burning hotter and creating a noxious stench. When you use Produce a Grenade, the resulting explosion deals an additional box of damage.</t>
   </si>
   <si>
     <t xml:space="preserve">Fey Venom</t>
@@ -75,7 +75,7 @@
     <t xml:space="preserve">Weapon</t>
   </si>
   <si>
-    <t xml:space="preserve">An metal rod that holds sway over otherworldly creatures. Wielding this weapon compels nearby magical creatures into obedience, providing Advantage on all rolls to influence them. Successful attacks against magical creatures deal one additional box of Mental damage.</t>
+    <t xml:space="preserve">A metal rod that holds sway over otherworldly creatures. Wielding this weapon compels nearby magical creatures into obedience, providing Advantage on all rolls to influence them. Successful attacks against magical creatures deal one additional box of Mental damage.</t>
   </si>
   <si>
     <t xml:space="preserve">Talisman of Demons</t>
@@ -111,7 +111,7 @@
     <t xml:space="preserve">Marauder Flintlock</t>
   </si>
   <si>
-    <t xml:space="preserve">A bewitched handgun whose bullets hammer through ships and sails. Using this weapon allows your ranged attacks to cause outsized damage to objects.</t>
+    <t xml:space="preserve">A bewitched handgun whose bullets hit like cannon balls. Using this weapon breaks through armor and obstacles, but it requires several minutes to reload. Successful attacks deal an additional box of damage.</t>
   </si>
   <si>
     <t xml:space="preserve">Sticky Fingers</t>
@@ -138,9 +138,996 @@
     <t xml:space="preserve">A bottle of truly rancid alcohol. Can be used to numb pain, treat poison, and create flames. Makes for a good offering to spirits.</t>
   </si>
   <si>
+    <t xml:space="preserve">Metallurgist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring of Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A red ring with the power to convert metals into other metals. The greater the difference from the original, the more difficult the change. Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring of Decomposition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A black ring with the power to destroy metal. Can be used to split apart metal neatly or violently. The more drastic the change, the more difficult and time consuming it is. Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring of Forge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A white ring with the power to smelt metals. Can be used to heat metals, purge them of impurities, and strengthen or weaken them. Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring of Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A gold ring with the power to reshape metal. The more drastic the change, the more difficult and time consuming it is. Requires physical contact. Can be completed instantaneously by expending a Charge Point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runehammer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A lengthy warhammer with power over metals. Using this weapon shatters metal objects and heavily damages enchanted items. If a Metallurgist ring kit is equipped, the Runehammer can transmit its effects on impact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitrolic Edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A shortsword that sweats sulfuric acid. Using this weapon causes painful acid burns. Successful attacks deal an additional box of Physical damage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spellsword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mythril Blade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A blade that conducts magic. Using this weapon allow you to use Talismans in conjunction with attacks, empowering strikes with effects related to the Talisman. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mythril Chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A length of chain that conducts magic. Using this weapon allows you to channel the power of a Talisman into the chain, conducting its energy onto anyone or anything wrapped with the chain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Impact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wand or other object that can be used to amplify the force of individual motions your body makes. Can be used to leap high into the air, knock an enemy back with a strike, or kick a door off its hinges. May cause Physical damage to you if used excessively.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman of Moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talisman, Reaction</t>
